--- a/Scotland League Two/Scotland League Two.xlsx
+++ b/Scotland League Two/Scotland League Two.xlsx
@@ -109,19 +109,19 @@
     <t>Annan Athletic</t>
   </si>
   <si>
-    <t>Bonnyrigg Rose</t>
-  </si>
-  <si>
     <t>Elgin</t>
   </si>
   <si>
     <t>Stenhousemuir</t>
   </si>
   <si>
-    <t>East Fife</t>
+    <t>Bonnyrigg Rose</t>
   </si>
   <si>
     <t>Stranraer</t>
+  </si>
+  <si>
+    <t>East Fife</t>
   </si>
   <si>
     <t>Dumbarton</t>
@@ -622,7 +622,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5169567</v>
+        <v>5169568</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -800,53 +800,53 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>42</v>
       </c>
       <c r="K4">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L4">
+        <v>3.5</v>
+      </c>
+      <c r="M4">
         <v>3.2</v>
       </c>
-      <c r="M4">
-        <v>2.7</v>
-      </c>
       <c r="N4">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O4">
         <v>3.4</v>
       </c>
       <c r="P4">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
+        <v>1.875</v>
+      </c>
+      <c r="V4">
         <v>1.925</v>
       </c>
-      <c r="V4">
-        <v>1.875</v>
-      </c>
       <c r="W4">
         <v>-1</v>
       </c>
@@ -854,16 +854,16 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5169568</v>
+        <v>5169569</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -892,13 +892,13 @@
         <v>34</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -910,52 +910,52 @@
         <v>3.2</v>
       </c>
       <c r="N5">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O5">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P5">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q5">
         <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S5">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U5">
+        <v>1.925</v>
+      </c>
+      <c r="V5">
         <v>1.875</v>
       </c>
-      <c r="V5">
-        <v>1.925</v>
-      </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA5">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5169569</v>
+        <v>5169567</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,46 +978,46 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M6">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="N6">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P6">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S6">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
         <v>1.925</v>
@@ -1026,25 +1026,25 @@
         <v>1.875</v>
       </c>
       <c r="W6">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z6">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC6">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5169571</v>
+        <v>5169572</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1067,73 +1067,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="N7">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O7">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q7">
         <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S7">
+        <v>1.95</v>
+      </c>
+      <c r="T7">
+        <v>2.5</v>
+      </c>
+      <c r="U7">
         <v>1.8</v>
       </c>
-      <c r="T7">
-        <v>3</v>
-      </c>
-      <c r="U7">
-        <v>1.975</v>
-      </c>
       <c r="V7">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC7">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5169572</v>
+        <v>5169720</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,76 +1153,76 @@
         <v>44940.5</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L8">
         <v>3.5</v>
       </c>
       <c r="M8">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N8">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O8">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P8">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S8">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y8">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5169720</v>
+        <v>5169571</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,10 +1242,10 @@
         <v>44940.5</v>
       </c>
       <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1257,61 +1257,61 @@
         <v>44</v>
       </c>
       <c r="K9">
+        <v>2.2</v>
+      </c>
+      <c r="L9">
+        <v>3.4</v>
+      </c>
+      <c r="M9">
+        <v>2.9</v>
+      </c>
+      <c r="N9">
+        <v>2.3</v>
+      </c>
+      <c r="O9">
+        <v>3.75</v>
+      </c>
+      <c r="P9">
+        <v>2.7</v>
+      </c>
+      <c r="Q9">
+        <v>-0.25</v>
+      </c>
+      <c r="R9">
         <v>2.05</v>
       </c>
-      <c r="L9">
-        <v>3.5</v>
-      </c>
-      <c r="M9">
-        <v>3.1</v>
-      </c>
-      <c r="N9">
-        <v>2.5</v>
-      </c>
-      <c r="O9">
-        <v>3.4</v>
-      </c>
-      <c r="P9">
-        <v>2.5</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>1.9</v>
-      </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>1.975</v>
+      </c>
+      <c r="V9">
+        <v>1.875</v>
+      </c>
+      <c r="W9">
+        <v>-1</v>
+      </c>
+      <c r="X9">
         <v>2.75</v>
       </c>
-      <c r="U9">
-        <v>1.825</v>
-      </c>
-      <c r="V9">
-        <v>1.975</v>
-      </c>
-      <c r="W9">
-        <v>-1</v>
-      </c>
-      <c r="X9">
-        <v>2.4</v>
-      </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1408,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6046176</v>
+        <v>6046177</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1420,73 +1420,73 @@
         <v>44947.5</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11">
+        <v>2.1</v>
+      </c>
+      <c r="L11">
+        <v>3.4</v>
+      </c>
+      <c r="M11">
+        <v>2.875</v>
+      </c>
+      <c r="N11">
+        <v>2.25</v>
+      </c>
+      <c r="O11">
+        <v>3.3</v>
+      </c>
+      <c r="P11">
+        <v>2.7</v>
+      </c>
+      <c r="Q11">
+        <v>-0.25</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
         <v>1.8</v>
-      </c>
-      <c r="L11">
-        <v>3.5</v>
-      </c>
-      <c r="M11">
-        <v>3.75</v>
-      </c>
-      <c r="N11">
-        <v>1.8</v>
-      </c>
-      <c r="O11">
-        <v>3.6</v>
-      </c>
-      <c r="P11">
-        <v>3.5</v>
-      </c>
-      <c r="Q11">
-        <v>-0.5</v>
-      </c>
-      <c r="R11">
-        <v>1.85</v>
-      </c>
-      <c r="S11">
-        <v>1.95</v>
       </c>
       <c r="T11">
         <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
+        <v>-1</v>
+      </c>
+      <c r="Y11">
+        <v>1.7</v>
+      </c>
+      <c r="Z11">
+        <v>-1</v>
+      </c>
+      <c r="AA11">
         <v>0.8</v>
       </c>
-      <c r="X11">
-        <v>-1</v>
-      </c>
-      <c r="Y11">
-        <v>-1</v>
-      </c>
-      <c r="Z11">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA11">
-        <v>-1</v>
-      </c>
       <c r="AB11">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC11">
         <v>-1</v>
@@ -1497,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6046177</v>
+        <v>6046176</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1509,73 +1509,73 @@
         <v>44947.5</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L12">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M12">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N12">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P12">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T12">
         <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1601,7 +1601,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1779,7 +1779,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1865,10 +1865,10 @@
         <v>44954.5</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1957,7 +1957,7 @@
         <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2043,7 +2043,7 @@
         <v>44961.5</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
         <v>37</v>
@@ -2132,7 +2132,7 @@
         <v>44961.5</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
         <v>38</v>
@@ -2221,7 +2221,7 @@
         <v>44961.5</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
         <v>30</v>
@@ -2313,7 +2313,7 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2399,7 +2399,7 @@
         <v>44961.5</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>36</v>
@@ -2488,10 +2488,10 @@
         <v>44968.5</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2758,7 +2758,7 @@
         <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2844,7 +2844,7 @@
         <v>44971.69791666666</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
         <v>38</v>
@@ -2921,7 +2921,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5169586</v>
+        <v>5169722</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2933,76 +2933,76 @@
         <v>44975.5</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K28">
+        <v>2.4</v>
+      </c>
+      <c r="L28">
+        <v>3.25</v>
+      </c>
+      <c r="M28">
+        <v>2.6</v>
+      </c>
+      <c r="N28">
+        <v>2.5</v>
+      </c>
+      <c r="O28">
+        <v>3.4</v>
+      </c>
+      <c r="P28">
+        <v>2.5</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>1.875</v>
+      </c>
+      <c r="S28">
+        <v>1.925</v>
+      </c>
+      <c r="T28">
+        <v>2.75</v>
+      </c>
+      <c r="U28">
         <v>1.85</v>
       </c>
-      <c r="L28">
-        <v>3.4</v>
-      </c>
-      <c r="M28">
-        <v>3.7</v>
-      </c>
-      <c r="N28">
-        <v>2.45</v>
-      </c>
-      <c r="O28">
-        <v>3.3</v>
-      </c>
-      <c r="P28">
-        <v>2.6</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>1.85</v>
-      </c>
-      <c r="S28">
+      <c r="V28">
         <v>1.95</v>
       </c>
-      <c r="T28">
-        <v>2.5</v>
-      </c>
-      <c r="U28">
-        <v>1.8</v>
-      </c>
-      <c r="V28">
-        <v>2</v>
-      </c>
       <c r="W28">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>-0</v>
+      </c>
+      <c r="AB28">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA28">
-        <v>-1</v>
-      </c>
-      <c r="AB28">
-        <v>-1</v>
-      </c>
       <c r="AC28">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5169585</v>
+        <v>5169586</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3025,73 +3025,73 @@
         <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L29">
         <v>3.4</v>
       </c>
       <c r="M29">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="N29">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O29">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R29">
+        <v>1.85</v>
+      </c>
+      <c r="S29">
         <v>1.95</v>
       </c>
-      <c r="S29">
-        <v>1.85</v>
-      </c>
       <c r="T29">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5169722</v>
+        <v>5169585</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,76 +3111,76 @@
         <v>44975.5</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L30">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N30">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="O30">
         <v>3.4</v>
       </c>
       <c r="P30">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S30">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3200,7 +3200,7 @@
         <v>44975.5</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -3292,7 +3292,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3467,10 +3467,10 @@
         <v>44982.5</v>
       </c>
       <c r="F34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" t="s">
         <v>35</v>
-      </c>
-      <c r="G34" t="s">
-        <v>34</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3556,10 +3556,10 @@
         <v>44982.5</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3826,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>44985.69791666666</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
         <v>29</v>
@@ -4090,7 +4090,7 @@
         <v>44989.5</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
         <v>36</v>
@@ -4182,7 +4182,7 @@
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4268,7 +4268,7 @@
         <v>44989.5</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
         <v>29</v>
@@ -4357,10 +4357,10 @@
         <v>44989.5</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4449,7 +4449,7 @@
         <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4538,7 +4538,7 @@
         <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>4</v>
@@ -4624,10 +4624,10 @@
         <v>44996.5</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4891,10 +4891,10 @@
         <v>45003.5</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4980,7 +4980,7 @@
         <v>45003.5</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
         <v>38</v>
@@ -5161,7 +5161,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5247,10 +5247,10 @@
         <v>45009.70833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5339,7 +5339,7 @@
         <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5428,7 +5428,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5514,7 +5514,7 @@
         <v>45010.5</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
         <v>29</v>
@@ -5870,10 +5870,10 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5959,7 +5959,7 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
         <v>38</v>
@@ -6048,7 +6048,7 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
         <v>30</v>
@@ -6140,7 +6140,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6229,7 +6229,7 @@
         <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6315,10 +6315,10 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F66" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" t="s">
         <v>33</v>
-      </c>
-      <c r="G66" t="s">
-        <v>31</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6407,7 +6407,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6582,7 +6582,7 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
         <v>29</v>
@@ -6674,7 +6674,7 @@
         <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -6760,10 +6760,10 @@
         <v>45027.65625</v>
       </c>
       <c r="F71" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" t="s">
         <v>32</v>
-      </c>
-      <c r="G71" t="s">
-        <v>33</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6837,7 +6837,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5499207</v>
+        <v>5499208</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6849,13 +6849,13 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H72">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -6864,43 +6864,43 @@
         <v>43</v>
       </c>
       <c r="K72">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L72">
         <v>3.2</v>
       </c>
       <c r="M72">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="N72">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O72">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P72">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S72">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T72">
         <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V72">
         <v>1.875</v>
       </c>
       <c r="W72">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6909,16 +6909,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6926,7 +6926,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5466497</v>
+        <v>5499207</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6938,76 +6938,76 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K73">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="L73">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M73">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="N73">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O73">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P73">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S73">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T73">
         <v>2.5</v>
       </c>
       <c r="U73">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V73">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA73">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC73">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7015,7 +7015,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5466496</v>
+        <v>5466497</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7027,76 +7027,76 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H74">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K74">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="L74">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M74">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="N74">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P74">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S74">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T74">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V74">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W74">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z74">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7104,7 +7104,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5499208</v>
+        <v>5466496</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7116,13 +7116,13 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -7131,43 +7131,43 @@
         <v>43</v>
       </c>
       <c r="K75">
+        <v>1.75</v>
+      </c>
+      <c r="L75">
+        <v>3.5</v>
+      </c>
+      <c r="M75">
+        <v>4</v>
+      </c>
+      <c r="N75">
+        <v>1.75</v>
+      </c>
+      <c r="O75">
+        <v>3.6</v>
+      </c>
+      <c r="P75">
+        <v>3.8</v>
+      </c>
+      <c r="Q75">
+        <v>-0.75</v>
+      </c>
+      <c r="R75">
+        <v>1.975</v>
+      </c>
+      <c r="S75">
+        <v>1.875</v>
+      </c>
+      <c r="T75">
         <v>2.75</v>
       </c>
-      <c r="L75">
-        <v>3.2</v>
-      </c>
-      <c r="M75">
-        <v>2.45</v>
-      </c>
-      <c r="N75">
-        <v>2.8</v>
-      </c>
-      <c r="O75">
-        <v>3.2</v>
-      </c>
-      <c r="P75">
-        <v>2.45</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>2.025</v>
-      </c>
-      <c r="S75">
-        <v>1.775</v>
-      </c>
-      <c r="T75">
-        <v>2.5</v>
-      </c>
       <c r="U75">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W75">
-        <v>1.8</v>
+        <v>0.75</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7176,16 +7176,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC75">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7205,7 +7205,7 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
         <v>38</v>
@@ -7383,10 +7383,10 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H78">
         <v>3</v>
@@ -7564,7 +7564,7 @@
         <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7653,7 +7653,7 @@
         <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7742,7 +7742,7 @@
         <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>3</v>
@@ -7828,7 +7828,7 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
         <v>36</v>
@@ -7917,7 +7917,7 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
         <v>37</v>
@@ -8009,7 +8009,7 @@
         <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8083,7 +8083,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5539544</v>
+        <v>5539545</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8095,58 +8095,58 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H86">
         <v>2</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>43</v>
       </c>
       <c r="K86">
-        <v>1.65</v>
+        <v>2.35</v>
       </c>
       <c r="L86">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M86">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="N86">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="O86">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R86">
+        <v>2.025</v>
+      </c>
+      <c r="S86">
         <v>1.775</v>
       </c>
-      <c r="S86">
-        <v>2.025</v>
-      </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
-        <v>0.8500000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8155,16 +8155,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5539545</v>
+        <v>5539544</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,58 +8184,58 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H87">
         <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>43</v>
       </c>
       <c r="K87">
-        <v>2.35</v>
+        <v>1.65</v>
       </c>
       <c r="L87">
+        <v>3.8</v>
+      </c>
+      <c r="M87">
+        <v>4.2</v>
+      </c>
+      <c r="N87">
+        <v>1.85</v>
+      </c>
+      <c r="O87">
+        <v>3.6</v>
+      </c>
+      <c r="P87">
         <v>3.4</v>
       </c>
-      <c r="M87">
-        <v>2.6</v>
-      </c>
-      <c r="N87">
-        <v>2.7</v>
-      </c>
-      <c r="O87">
-        <v>3.4</v>
-      </c>
-      <c r="P87">
-        <v>2.3</v>
-      </c>
       <c r="Q87">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
+        <v>1.775</v>
+      </c>
+      <c r="S87">
         <v>2.025</v>
       </c>
-      <c r="S87">
-        <v>1.775</v>
-      </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W87">
-        <v>1.7</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8244,16 +8244,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8451,10 +8451,10 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F90" t="s">
+        <v>33</v>
+      </c>
+      <c r="G90" t="s">
         <v>31</v>
-      </c>
-      <c r="G90" t="s">
-        <v>32</v>
       </c>
       <c r="H90">
         <v>3</v>
@@ -8540,7 +8540,7 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
         <v>30</v>
@@ -8632,7 +8632,7 @@
         <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8718,7 +8718,7 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
         <v>41</v>
@@ -8807,7 +8807,7 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
         <v>29</v>
@@ -8896,10 +8896,10 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -9074,7 +9074,7 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
         <v>36</v>
@@ -9166,7 +9166,7 @@
         <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9433,7 +9433,7 @@
         <v>41</v>
       </c>
       <c r="G101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9519,10 +9519,10 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F102" t="s">
+        <v>34</v>
+      </c>
+      <c r="G102" t="s">
         <v>35</v>
-      </c>
-      <c r="G102" t="s">
-        <v>34</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9697,10 +9697,10 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9875,10 +9875,10 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -10053,10 +10053,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10234,7 +10234,7 @@
         <v>29</v>
       </c>
       <c r="G110" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10308,7 +10308,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6848496</v>
+        <v>6848495</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,76 +10320,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K111">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L111">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M111">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N111">
+        <v>2.625</v>
+      </c>
+      <c r="O111">
+        <v>3.2</v>
+      </c>
+      <c r="P111">
+        <v>2.4</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>2</v>
+      </c>
+      <c r="S111">
         <v>1.8</v>
-      </c>
-      <c r="O111">
-        <v>3.6</v>
-      </c>
-      <c r="P111">
-        <v>3.6</v>
-      </c>
-      <c r="Q111">
-        <v>-0.5</v>
-      </c>
-      <c r="R111">
-        <v>1.825</v>
-      </c>
-      <c r="S111">
-        <v>1.975</v>
       </c>
       <c r="T111">
         <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V111">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
+        <v>1.4</v>
+      </c>
+      <c r="Z111">
+        <v>-1</v>
+      </c>
+      <c r="AA111">
         <v>0.8</v>
       </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>-1</v>
-      </c>
-      <c r="Z111">
-        <v>0.825</v>
-      </c>
-      <c r="AA111">
-        <v>-1</v>
-      </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6848495</v>
+        <v>6848496</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,76 +10409,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L112">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M112">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N112">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O112">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S112">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T112">
         <v>2.75</v>
       </c>
       <c r="U112">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V112">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA112">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10486,7 +10486,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6848497</v>
+        <v>6848500</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10498,13 +10498,13 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H113">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -10513,43 +10513,43 @@
         <v>43</v>
       </c>
       <c r="K113">
+        <v>2.3</v>
+      </c>
+      <c r="L113">
+        <v>3.4</v>
+      </c>
+      <c r="M113">
+        <v>2.625</v>
+      </c>
+      <c r="N113">
+        <v>2.5</v>
+      </c>
+      <c r="O113">
+        <v>3.2</v>
+      </c>
+      <c r="P113">
+        <v>2.5</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>1.825</v>
+      </c>
+      <c r="S113">
+        <v>1.975</v>
+      </c>
+      <c r="T113">
+        <v>2.5</v>
+      </c>
+      <c r="U113">
+        <v>2</v>
+      </c>
+      <c r="V113">
         <v>1.8</v>
       </c>
-      <c r="L113">
-        <v>3.5</v>
-      </c>
-      <c r="M113">
-        <v>3.7</v>
-      </c>
-      <c r="N113">
-        <v>1.75</v>
-      </c>
-      <c r="O113">
-        <v>3.25</v>
-      </c>
-      <c r="P113">
-        <v>4.75</v>
-      </c>
-      <c r="Q113">
-        <v>-0.75</v>
-      </c>
-      <c r="R113">
-        <v>2</v>
-      </c>
-      <c r="S113">
-        <v>1.8</v>
-      </c>
-      <c r="T113">
-        <v>2.25</v>
-      </c>
-      <c r="U113">
-        <v>1.95</v>
-      </c>
-      <c r="V113">
-        <v>1.85</v>
-      </c>
       <c r="W113">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10558,13 +10558,13 @@
         <v>-1</v>
       </c>
       <c r="Z113">
+        <v>0.825</v>
+      </c>
+      <c r="AA113">
+        <v>-1</v>
+      </c>
+      <c r="AB113">
         <v>1</v>
-      </c>
-      <c r="AA113">
-        <v>-1</v>
-      </c>
-      <c r="AB113">
-        <v>0.95</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10575,7 +10575,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6848498</v>
+        <v>6848497</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10587,76 +10587,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K114">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L114">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M114">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="N114">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="O114">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P114">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q114">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R114">
+        <v>2</v>
+      </c>
+      <c r="S114">
+        <v>1.8</v>
+      </c>
+      <c r="T114">
+        <v>2.25</v>
+      </c>
+      <c r="U114">
+        <v>1.95</v>
+      </c>
+      <c r="V114">
         <v>1.85</v>
       </c>
-      <c r="S114">
-        <v>1.95</v>
-      </c>
-      <c r="T114">
-        <v>2.5</v>
-      </c>
-      <c r="U114">
-        <v>1.975</v>
-      </c>
-      <c r="V114">
-        <v>1.825</v>
-      </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X114">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AA114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC114">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10664,7 +10664,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6848499</v>
+        <v>6848498</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10676,76 +10676,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K115">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L115">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M115">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N115">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O115">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P115">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R115">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S115">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T115">
         <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10753,7 +10753,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6848500</v>
+        <v>6848499</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10765,58 +10765,58 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F116" t="s">
+        <v>36</v>
+      </c>
+      <c r="G116" t="s">
         <v>35</v>
       </c>
-      <c r="G116" t="s">
-        <v>41</v>
-      </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
         <v>43</v>
       </c>
       <c r="K116">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L116">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M116">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N116">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O116">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P116">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S116">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W116">
-        <v>1.5</v>
+        <v>0.909</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10825,16 +10825,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10857,7 +10857,7 @@
         <v>39</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -11032,7 +11032,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
         <v>40</v>
@@ -11124,7 +11124,7 @@
         <v>41</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11210,10 +11210,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H121">
         <v>5</v>
@@ -11299,7 +11299,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
         <v>36</v>
@@ -11477,7 +11477,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
         <v>29</v>
@@ -11569,7 +11569,7 @@
         <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11658,7 +11658,7 @@
         <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11744,10 +11744,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G127" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11833,7 +11833,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
         <v>29</v>
@@ -11922,7 +11922,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
         <v>40</v>
@@ -12014,7 +12014,7 @@
         <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12103,7 +12103,7 @@
         <v>36</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H131">
         <v>3</v>
@@ -12192,7 +12192,7 @@
         <v>41</v>
       </c>
       <c r="G132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H132">
         <v>6</v>
@@ -12367,7 +12367,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
         <v>39</v>
@@ -12545,10 +12545,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G136" t="s">
         <v>34</v>
-      </c>
-      <c r="G136" t="s">
-        <v>35</v>
       </c>
       <c r="H136">
         <v>4</v>
@@ -12723,7 +12723,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G138" t="s">
         <v>40</v>
@@ -12812,10 +12812,10 @@
         <v>45223.65625</v>
       </c>
       <c r="F139" t="s">
+        <v>31</v>
+      </c>
+      <c r="G139" t="s">
         <v>32</v>
-      </c>
-      <c r="G139" t="s">
-        <v>33</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12901,10 +12901,10 @@
         <v>45234.5</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H140">
         <v>3</v>
@@ -12978,7 +12978,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6848526</v>
+        <v>6848528</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12990,76 +12990,76 @@
         <v>45234.5</v>
       </c>
       <c r="F141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K141">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="L141">
         <v>3.6</v>
       </c>
       <c r="M141">
+        <v>2.1</v>
+      </c>
+      <c r="N141">
         <v>3.4</v>
       </c>
-      <c r="N141">
-        <v>1.85</v>
-      </c>
       <c r="O141">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P141">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q141">
+        <v>0.5</v>
+      </c>
+      <c r="R141">
+        <v>1.975</v>
+      </c>
+      <c r="S141">
+        <v>1.875</v>
+      </c>
+      <c r="T141">
+        <v>2.75</v>
+      </c>
+      <c r="U141">
+        <v>1.975</v>
+      </c>
+      <c r="V141">
+        <v>1.875</v>
+      </c>
+      <c r="W141">
+        <v>-1</v>
+      </c>
+      <c r="X141">
+        <v>-1</v>
+      </c>
+      <c r="Y141">
+        <v>0.8</v>
+      </c>
+      <c r="Z141">
+        <v>-1</v>
+      </c>
+      <c r="AA141">
+        <v>0.875</v>
+      </c>
+      <c r="AB141">
+        <v>0.4875</v>
+      </c>
+      <c r="AC141">
         <v>-0.5</v>
-      </c>
-      <c r="R141">
-        <v>1.9</v>
-      </c>
-      <c r="S141">
-        <v>1.9</v>
-      </c>
-      <c r="T141">
-        <v>2.5</v>
-      </c>
-      <c r="U141">
-        <v>1.9</v>
-      </c>
-      <c r="V141">
-        <v>1.9</v>
-      </c>
-      <c r="W141">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X141">
-        <v>-1</v>
-      </c>
-      <c r="Y141">
-        <v>-1</v>
-      </c>
-      <c r="Z141">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA141">
-        <v>-1</v>
-      </c>
-      <c r="AB141">
-        <v>-1</v>
-      </c>
-      <c r="AC141">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13067,7 +13067,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6848528</v>
+        <v>6848526</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13079,76 +13079,76 @@
         <v>45234.5</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K142">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="L142">
         <v>3.6</v>
       </c>
       <c r="M142">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="N142">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O142">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P142">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q142">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S142">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA142">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>29</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13260,7 +13260,7 @@
         <v>36</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H144">
         <v>4</v>
@@ -13346,7 +13346,7 @@
         <v>45241.5</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G145" t="s">
         <v>36</v>
@@ -13423,7 +13423,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6848531</v>
+        <v>6848532</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13435,76 +13435,76 @@
         <v>45241.5</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K146">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="L146">
         <v>3.4</v>
       </c>
       <c r="M146">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N146">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="O146">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P146">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q146">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S146">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
         <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V146">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W146">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
+        <v>-1</v>
+      </c>
+      <c r="AA146">
+        <v>0.95</v>
+      </c>
+      <c r="AB146">
+        <v>-1</v>
+      </c>
+      <c r="AC146">
         <v>1</v>
-      </c>
-      <c r="AA146">
-        <v>-1</v>
-      </c>
-      <c r="AB146">
-        <v>-1</v>
-      </c>
-      <c r="AC146">
-        <v>0.925</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13512,7 +13512,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6848532</v>
+        <v>6848533</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13524,76 +13524,76 @@
         <v>45241.5</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G147" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K147">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L147">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N147">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="O147">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P147">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q147">
+        <v>-0.75</v>
+      </c>
+      <c r="R147">
+        <v>1.9</v>
+      </c>
+      <c r="S147">
+        <v>1.9</v>
+      </c>
+      <c r="T147">
+        <v>2.75</v>
+      </c>
+      <c r="U147">
+        <v>1.975</v>
+      </c>
+      <c r="V147">
+        <v>1.825</v>
+      </c>
+      <c r="W147">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X147">
+        <v>-1</v>
+      </c>
+      <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
+        <v>0.45</v>
+      </c>
+      <c r="AA147">
         <v>-0.5</v>
       </c>
-      <c r="R147">
-        <v>1.85</v>
-      </c>
-      <c r="S147">
-        <v>1.95</v>
-      </c>
-      <c r="T147">
-        <v>2.5</v>
-      </c>
-      <c r="U147">
-        <v>1.8</v>
-      </c>
-      <c r="V147">
-        <v>2</v>
-      </c>
-      <c r="W147">
-        <v>-1</v>
-      </c>
-      <c r="X147">
-        <v>2.4</v>
-      </c>
-      <c r="Y147">
-        <v>-1</v>
-      </c>
-      <c r="Z147">
-        <v>-1</v>
-      </c>
-      <c r="AA147">
-        <v>0.95</v>
-      </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC147">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13601,7 +13601,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6848533</v>
+        <v>6848534</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13613,10 +13613,10 @@
         <v>45241.5</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H148">
         <v>3</v>
@@ -13628,25 +13628,25 @@
         <v>43</v>
       </c>
       <c r="K148">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M148">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N148">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O148">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P148">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q148">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
         <v>1.9</v>
@@ -13658,13 +13658,13 @@
         <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V148">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W148">
-        <v>0.6659999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13673,13 +13673,13 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13690,7 +13690,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6848534</v>
+        <v>6848531</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13702,59 +13702,59 @@
         <v>45241.5</v>
       </c>
       <c r="F149" t="s">
+        <v>31</v>
+      </c>
+      <c r="G149" t="s">
         <v>33</v>
       </c>
-      <c r="G149" t="s">
-        <v>39</v>
-      </c>
       <c r="H149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
         <v>43</v>
       </c>
       <c r="K149">
+        <v>3.3</v>
+      </c>
+      <c r="L149">
+        <v>3.4</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149">
+        <v>2.9</v>
+      </c>
+      <c r="O149">
+        <v>3.2</v>
+      </c>
+      <c r="P149">
         <v>2.2</v>
       </c>
-      <c r="L149">
-        <v>3.3</v>
-      </c>
-      <c r="M149">
-        <v>3</v>
-      </c>
-      <c r="N149">
-        <v>2.1</v>
-      </c>
-      <c r="O149">
-        <v>3.3</v>
-      </c>
-      <c r="P149">
-        <v>3.1</v>
-      </c>
       <c r="Q149">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
+        <v>1.85</v>
+      </c>
+      <c r="T149">
+        <v>2.5</v>
+      </c>
+      <c r="U149">
+        <v>1.925</v>
+      </c>
+      <c r="V149">
+        <v>1.925</v>
+      </c>
+      <c r="W149">
         <v>1.9</v>
       </c>
-      <c r="S149">
-        <v>1.9</v>
-      </c>
-      <c r="T149">
-        <v>2.75</v>
-      </c>
-      <c r="U149">
-        <v>2</v>
-      </c>
-      <c r="V149">
-        <v>1.8</v>
-      </c>
-      <c r="W149">
-        <v>1.1</v>
-      </c>
       <c r="X149">
         <v>-1</v>
       </c>
@@ -13762,16 +13762,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13791,7 +13791,7 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
         <v>41</v>
@@ -13883,7 +13883,7 @@
         <v>36</v>
       </c>
       <c r="G151" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -14061,7 +14061,7 @@
         <v>40</v>
       </c>
       <c r="G153" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14147,7 +14147,7 @@
         <v>45248.5</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G154" t="s">
         <v>29</v>
@@ -14236,10 +14236,10 @@
         <v>45248.5</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -14325,7 +14325,7 @@
         <v>45251.69791666666</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G156" t="s">
         <v>29</v>
@@ -14414,10 +14414,10 @@
         <v>45251.69791666666</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H157">
         <v>4</v>
@@ -14506,7 +14506,7 @@
         <v>29</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14592,10 +14592,10 @@
         <v>45262.5</v>
       </c>
       <c r="F159" t="s">
+        <v>32</v>
+      </c>
+      <c r="G159" t="s">
         <v>33</v>
-      </c>
-      <c r="G159" t="s">
-        <v>31</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14684,7 +14684,7 @@
         <v>36</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14773,7 +14773,7 @@
         <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14859,7 +14859,7 @@
         <v>45269.5</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G162" t="s">
         <v>41</v>
@@ -14948,10 +14948,10 @@
         <v>45269.5</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H163">
         <v>4</v>
@@ -15126,10 +15126,10 @@
         <v>45276.5</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -15215,10 +15215,10 @@
         <v>45276.5</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G166" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15482,7 +15482,7 @@
         <v>45276.5</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
         <v>39</v>
@@ -15571,10 +15571,10 @@
         <v>45282.6875</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15663,7 +15663,7 @@
         <v>39</v>
       </c>
       <c r="G171" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H171">
         <v>3</v>
@@ -15737,7 +15737,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6848557</v>
+        <v>6848554</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15749,76 +15749,76 @@
         <v>45283.5</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G172" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J172" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K172">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="L172">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M172">
         <v>6.5</v>
       </c>
       <c r="N172">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O172">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P172">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q172">
         <v>-1.25</v>
       </c>
       <c r="R172">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S172">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U172">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V172">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W172">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC172">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15826,7 +15826,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6848554</v>
+        <v>6848556</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15838,73 +15838,73 @@
         <v>45283.5</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G173" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H173">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K173">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="L173">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M173">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N173">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O173">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P173">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="Q173">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S173">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T173">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U173">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V173">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W173">
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB173">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15915,7 +15915,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6848556</v>
+        <v>6848557</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15927,76 +15927,76 @@
         <v>45283.5</v>
       </c>
       <c r="F174" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G174" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H174">
+        <v>2</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174" t="s">
+        <v>43</v>
+      </c>
+      <c r="K174">
+        <v>1.363</v>
+      </c>
+      <c r="L174">
+        <v>4.75</v>
+      </c>
+      <c r="M174">
+        <v>6.5</v>
+      </c>
+      <c r="N174">
+        <v>1.333</v>
+      </c>
+      <c r="O174">
+        <v>4.75</v>
+      </c>
+      <c r="P174">
+        <v>8</v>
+      </c>
+      <c r="Q174">
+        <v>-1.25</v>
+      </c>
+      <c r="R174">
+        <v>1.8</v>
+      </c>
+      <c r="S174">
+        <v>2.05</v>
+      </c>
+      <c r="T174">
+        <v>2.5</v>
+      </c>
+      <c r="U174">
+        <v>1.85</v>
+      </c>
+      <c r="V174">
+        <v>2</v>
+      </c>
+      <c r="W174">
+        <v>0.333</v>
+      </c>
+      <c r="X174">
+        <v>-1</v>
+      </c>
+      <c r="Y174">
+        <v>-1</v>
+      </c>
+      <c r="Z174">
+        <v>0.8</v>
+      </c>
+      <c r="AA174">
+        <v>-1</v>
+      </c>
+      <c r="AB174">
+        <v>-1</v>
+      </c>
+      <c r="AC174">
         <v>1</v>
-      </c>
-      <c r="I174">
-        <v>2</v>
-      </c>
-      <c r="J174" t="s">
-        <v>42</v>
-      </c>
-      <c r="K174">
-        <v>1.571</v>
-      </c>
-      <c r="L174">
-        <v>3.8</v>
-      </c>
-      <c r="M174">
-        <v>5</v>
-      </c>
-      <c r="N174">
-        <v>1.909</v>
-      </c>
-      <c r="O174">
-        <v>3.5</v>
-      </c>
-      <c r="P174">
-        <v>3.4</v>
-      </c>
-      <c r="Q174">
-        <v>-0.5</v>
-      </c>
-      <c r="R174">
-        <v>1.95</v>
-      </c>
-      <c r="S174">
-        <v>1.85</v>
-      </c>
-      <c r="T174">
-        <v>2.25</v>
-      </c>
-      <c r="U174">
-        <v>1.8</v>
-      </c>
-      <c r="V174">
-        <v>2</v>
-      </c>
-      <c r="W174">
-        <v>-1</v>
-      </c>
-      <c r="X174">
-        <v>-1</v>
-      </c>
-      <c r="Y174">
-        <v>2.4</v>
-      </c>
-      <c r="Z174">
-        <v>-1</v>
-      </c>
-      <c r="AA174">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB174">
-        <v>0.8</v>
-      </c>
-      <c r="AC174">
-        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16016,7 +16016,7 @@
         <v>45290.5</v>
       </c>
       <c r="F175" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G175" t="s">
         <v>41</v>
@@ -16108,7 +16108,7 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16197,7 +16197,7 @@
         <v>29</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -16271,7 +16271,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6848563</v>
+        <v>6848565</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16283,16 +16283,16 @@
         <v>45297.5</v>
       </c>
       <c r="F178" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G178" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
         <v>43</v>
@@ -16307,35 +16307,35 @@
         <v>2.25</v>
       </c>
       <c r="N178">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="O178">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P178">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q178">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R178">
+        <v>2.05</v>
+      </c>
+      <c r="S178">
+        <v>1.75</v>
+      </c>
+      <c r="T178">
+        <v>2.25</v>
+      </c>
+      <c r="U178">
+        <v>2.025</v>
+      </c>
+      <c r="V178">
+        <v>1.775</v>
+      </c>
+      <c r="W178">
         <v>1.875</v>
       </c>
-      <c r="S178">
-        <v>1.925</v>
-      </c>
-      <c r="T178">
-        <v>2.75</v>
-      </c>
-      <c r="U178">
-        <v>1.9</v>
-      </c>
-      <c r="V178">
-        <v>1.9</v>
-      </c>
-      <c r="W178">
-        <v>1.7</v>
-      </c>
       <c r="X178">
         <v>-1</v>
       </c>
@@ -16343,13 +16343,13 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16360,7 +16360,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6848564</v>
+        <v>6848563</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16372,76 +16372,76 @@
         <v>45297.5</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I179">
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K179">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L179">
         <v>3.75</v>
       </c>
       <c r="M179">
+        <v>2.25</v>
+      </c>
+      <c r="N179">
+        <v>2.7</v>
+      </c>
+      <c r="O179">
         <v>4</v>
       </c>
-      <c r="N179">
-        <v>1.75</v>
-      </c>
-      <c r="O179">
-        <v>3.8</v>
-      </c>
       <c r="P179">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q179">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R179">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S179">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T179">
         <v>2.75</v>
       </c>
       <c r="U179">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V179">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA179">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC179">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16449,7 +16449,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6848567</v>
+        <v>6848564</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16461,76 +16461,76 @@
         <v>45297.5</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G180" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K180">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="L180">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M180">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N180">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O180">
         <v>3.8</v>
       </c>
       <c r="P180">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q180">
         <v>-0.75</v>
       </c>
       <c r="R180">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S180">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U180">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V180">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W180">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z180">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
+        <v>0.8</v>
+      </c>
+      <c r="AB180">
+        <v>0.425</v>
+      </c>
+      <c r="AC180">
         <v>-0.5</v>
-      </c>
-      <c r="AB180">
-        <v>0.875</v>
-      </c>
-      <c r="AC180">
-        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16538,7 +16538,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6848566</v>
+        <v>6848567</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16550,76 +16550,76 @@
         <v>45297.5</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181">
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K181">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L181">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M181">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N181">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="O181">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P181">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="Q181">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R181">
+        <v>1.925</v>
+      </c>
+      <c r="S181">
+        <v>1.925</v>
+      </c>
+      <c r="T181">
+        <v>2.5</v>
+      </c>
+      <c r="U181">
         <v>1.875</v>
       </c>
-      <c r="S181">
+      <c r="V181">
         <v>1.975</v>
       </c>
-      <c r="T181">
-        <v>2.75</v>
-      </c>
-      <c r="U181">
-        <v>1.925</v>
-      </c>
-      <c r="V181">
-        <v>1.925</v>
-      </c>
       <c r="W181">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA181">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC181">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16627,7 +16627,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6848565</v>
+        <v>6848566</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16639,76 +16639,76 @@
         <v>45297.5</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G182" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182">
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K182">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L182">
         <v>3.75</v>
       </c>
       <c r="M182">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="N182">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="O182">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P182">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="Q182">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R182">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S182">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T182">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U182">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V182">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W182">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z182">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB182">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16805,7 +16805,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6848568</v>
+        <v>6848569</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16817,40 +16817,40 @@
         <v>45304.5</v>
       </c>
       <c r="F184" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G184" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184">
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K184">
+        <v>1.909</v>
+      </c>
+      <c r="L184">
+        <v>3.3</v>
+      </c>
+      <c r="M184">
+        <v>3.75</v>
+      </c>
+      <c r="N184">
         <v>1.727</v>
       </c>
-      <c r="L184">
-        <v>3.5</v>
-      </c>
-      <c r="M184">
-        <v>4.333</v>
-      </c>
-      <c r="N184">
-        <v>1.909</v>
-      </c>
       <c r="O184">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P184">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q184">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R184">
         <v>1.95</v>
@@ -16859,34 +16859,34 @@
         <v>1.85</v>
       </c>
       <c r="T184">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U184">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V184">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X184">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA184">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC184">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16894,7 +16894,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6848569</v>
+        <v>6848570</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16906,46 +16906,46 @@
         <v>45304.5</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G185" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H185">
         <v>2</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
         <v>43</v>
       </c>
       <c r="K185">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L185">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M185">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="N185">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="O185">
         <v>3.4</v>
       </c>
       <c r="P185">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q185">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R185">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S185">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T185">
         <v>2.5</v>
@@ -16957,7 +16957,7 @@
         <v>1.875</v>
       </c>
       <c r="W185">
-        <v>0.7270000000000001</v>
+        <v>2</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -16966,16 +16966,16 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA185">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16983,7 +16983,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6848570</v>
+        <v>6848568</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -16998,73 +16998,73 @@
         <v>35</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K186">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="L186">
+        <v>3.5</v>
+      </c>
+      <c r="M186">
+        <v>4.333</v>
+      </c>
+      <c r="N186">
+        <v>1.909</v>
+      </c>
+      <c r="O186">
+        <v>3.5</v>
+      </c>
+      <c r="P186">
         <v>3.4</v>
       </c>
-      <c r="M186">
-        <v>2.2</v>
-      </c>
-      <c r="N186">
-        <v>3</v>
-      </c>
-      <c r="O186">
-        <v>3.4</v>
-      </c>
-      <c r="P186">
-        <v>2.1</v>
-      </c>
       <c r="Q186">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R186">
+        <v>1.95</v>
+      </c>
+      <c r="S186">
+        <v>1.85</v>
+      </c>
+      <c r="T186">
+        <v>2.75</v>
+      </c>
+      <c r="U186">
         <v>1.975</v>
       </c>
-      <c r="S186">
+      <c r="V186">
         <v>1.825</v>
       </c>
-      <c r="T186">
+      <c r="W186">
+        <v>-1</v>
+      </c>
+      <c r="X186">
         <v>2.5</v>
       </c>
-      <c r="U186">
-        <v>1.925</v>
-      </c>
-      <c r="V186">
-        <v>1.875</v>
-      </c>
-      <c r="W186">
-        <v>2</v>
-      </c>
-      <c r="X186">
-        <v>-1</v>
-      </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17087,7 +17087,7 @@
         <v>39</v>
       </c>
       <c r="G187" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -17173,7 +17173,7 @@
         <v>45304.5</v>
       </c>
       <c r="F188" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
         <v>36</v>
@@ -17262,7 +17262,7 @@
         <v>45311.5</v>
       </c>
       <c r="F189" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G189" t="s">
         <v>41</v>
@@ -17351,10 +17351,10 @@
         <v>45311.5</v>
       </c>
       <c r="F190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17440,7 +17440,7 @@
         <v>45318.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G191" t="s">
         <v>36</v>
@@ -17517,7 +17517,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6848580</v>
+        <v>6848581</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17529,40 +17529,40 @@
         <v>45318.5</v>
       </c>
       <c r="F192" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G192" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192">
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K192">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L192">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M192">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="N192">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="O192">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P192">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q192">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R192">
         <v>2</v>
@@ -17574,19 +17574,19 @@
         <v>2.5</v>
       </c>
       <c r="U192">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V192">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W192">
         <v>-1</v>
       </c>
       <c r="X192">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y192">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
         <v>-1</v>
@@ -17598,7 +17598,7 @@
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17606,7 +17606,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6848579</v>
+        <v>6848580</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17618,76 +17618,76 @@
         <v>45318.5</v>
       </c>
       <c r="F193" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G193" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193">
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K193">
+        <v>2.2</v>
+      </c>
+      <c r="L193">
+        <v>3.4</v>
+      </c>
+      <c r="M193">
+        <v>2.875</v>
+      </c>
+      <c r="N193">
+        <v>2.25</v>
+      </c>
+      <c r="O193">
+        <v>3.1</v>
+      </c>
+      <c r="P193">
         <v>3</v>
       </c>
-      <c r="L193">
-        <v>3.5</v>
-      </c>
-      <c r="M193">
-        <v>2.1</v>
-      </c>
-      <c r="N193">
-        <v>3.1</v>
-      </c>
-      <c r="O193">
-        <v>3.4</v>
-      </c>
-      <c r="P193">
-        <v>2</v>
-      </c>
       <c r="Q193">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R193">
         <v>2</v>
       </c>
       <c r="S193">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T193">
         <v>2.5</v>
       </c>
       <c r="U193">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V193">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W193">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z193">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB193">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17695,7 +17695,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6848581</v>
+        <v>6848579</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17707,76 +17707,76 @@
         <v>45318.5</v>
       </c>
       <c r="F194" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G194" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I194">
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K194">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="L194">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M194">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="N194">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="O194">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P194">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q194">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R194">
         <v>2</v>
       </c>
       <c r="S194">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T194">
         <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V194">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X194">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA194">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC194">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17799,7 +17799,7 @@
         <v>29</v>
       </c>
       <c r="G195" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -17885,7 +17885,7 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F196" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G196" t="s">
         <v>40</v>
@@ -17974,7 +17974,7 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G197" t="s">
         <v>39</v>
@@ -18152,7 +18152,7 @@
         <v>45325.5</v>
       </c>
       <c r="F199" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G199" t="s">
         <v>36</v>
@@ -18241,10 +18241,10 @@
         <v>45325.5</v>
       </c>
       <c r="F200" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18330,10 +18330,10 @@
         <v>45325.5</v>
       </c>
       <c r="F201" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18508,10 +18508,10 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F203" t="s">
+        <v>33</v>
+      </c>
+      <c r="G203" t="s">
         <v>31</v>
-      </c>
-      <c r="G203" t="s">
-        <v>32</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -18600,7 +18600,7 @@
         <v>39</v>
       </c>
       <c r="G204" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -18686,7 +18686,7 @@
         <v>45332.5</v>
       </c>
       <c r="F205" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G205" t="s">
         <v>40</v>
@@ -18775,10 +18775,10 @@
         <v>45332.5</v>
       </c>
       <c r="F206" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G206" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H206">
         <v>1</v>
@@ -19042,10 +19042,10 @@
         <v>45339.5</v>
       </c>
       <c r="F209" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G209" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K209">
         <v>2.1</v>
@@ -19057,31 +19057,31 @@
         <v>3</v>
       </c>
       <c r="N209">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O209">
         <v>3.4</v>
       </c>
       <c r="P209">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q209">
         <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S209">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T209">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U209">
+        <v>1.825</v>
+      </c>
+      <c r="V209">
         <v>2.025</v>
-      </c>
-      <c r="V209">
-        <v>1.825</v>
       </c>
       <c r="W209">
         <v>0</v>
@@ -19116,7 +19116,7 @@
         <v>45339.5</v>
       </c>
       <c r="F210" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G210" t="s">
         <v>39</v>
@@ -19131,25 +19131,25 @@
         <v>2.2</v>
       </c>
       <c r="N210">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="O210">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P210">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="Q210">
         <v>0</v>
       </c>
       <c r="R210">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S210">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T210">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U210">
         <v>2.05</v>
@@ -19178,7 +19178,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6848592</v>
+        <v>6848591</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19190,46 +19190,46 @@
         <v>45339.5</v>
       </c>
       <c r="F211" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G211" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="K211">
-        <v>2.75</v>
+        <v>4.6</v>
       </c>
       <c r="L211">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M211">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="N211">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="O211">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P211">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q211">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R211">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S211">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T211">
         <v>2.5</v>
       </c>
       <c r="U211">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V211">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W211">
         <v>0</v>
@@ -19252,7 +19252,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6848590</v>
+        <v>6848592</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19264,46 +19264,46 @@
         <v>45339.5</v>
       </c>
       <c r="F212" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G212" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K212">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="L212">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M212">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="N212">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="O212">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P212">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="Q212">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R212">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S212">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T212">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U212">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V212">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W212">
         <v>0</v>
@@ -19326,7 +19326,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6848591</v>
+        <v>6848590</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19338,46 +19338,46 @@
         <v>45339.5</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G213" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K213">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="L213">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M213">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="N213">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O213">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P213">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Q213">
         <v>0.5</v>
       </c>
       <c r="R213">
+        <v>1.825</v>
+      </c>
+      <c r="S213">
         <v>2.025</v>
-      </c>
-      <c r="S213">
-        <v>1.825</v>
       </c>
       <c r="T213">
         <v>2.5</v>
       </c>
       <c r="U213">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V213">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W213">
         <v>0</v>

--- a/Scotland League Two/Scotland League Two.xlsx
+++ b/Scotland League Two/Scotland League Two.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -109,19 +109,19 @@
     <t>Annan Athletic</t>
   </si>
   <si>
+    <t>Bonnyrigg Rose</t>
+  </si>
+  <si>
     <t>Elgin</t>
   </si>
   <si>
     <t>Stenhousemuir</t>
   </si>
   <si>
-    <t>Bonnyrigg Rose</t>
+    <t>East Fife</t>
   </si>
   <si>
     <t>Stranraer</t>
-  </si>
-  <si>
-    <t>East Fife</t>
   </si>
   <si>
     <t>Dumbarton</t>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC213"/>
+  <dimension ref="A1:AC215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,7 +622,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5169568</v>
+        <v>5169567</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -800,53 +800,53 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" t="s">
         <v>42</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M4">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="N4">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O4">
         <v>3.4</v>
       </c>
       <c r="P4">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
+        <v>1.925</v>
+      </c>
+      <c r="V4">
         <v>1.875</v>
       </c>
-      <c r="V4">
-        <v>1.925</v>
-      </c>
       <c r="W4">
         <v>-1</v>
       </c>
@@ -854,16 +854,16 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5169569</v>
+        <v>5169568</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -892,13 +892,13 @@
         <v>34</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -910,52 +910,52 @@
         <v>3.2</v>
       </c>
       <c r="N5">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P5">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q5">
         <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S5">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
+        <v>1.875</v>
+      </c>
+      <c r="V5">
         <v>1.925</v>
       </c>
-      <c r="V5">
-        <v>1.875</v>
-      </c>
       <c r="W5">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z5">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5169567</v>
+        <v>5169569</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,46 +978,46 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L6">
+        <v>3.5</v>
+      </c>
+      <c r="M6">
         <v>3.2</v>
       </c>
-      <c r="M6">
-        <v>2.7</v>
-      </c>
       <c r="N6">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="O6">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P6">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U6">
         <v>1.925</v>
@@ -1026,25 +1026,25 @@
         <v>1.875</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5169572</v>
+        <v>5169571</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1067,73 +1067,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L7">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N7">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P7">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q7">
         <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S7">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y7">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA7">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AB7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5169720</v>
+        <v>5169572</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,76 +1153,76 @@
         <v>44940.5</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>3.5</v>
       </c>
       <c r="M8">
+        <v>3.25</v>
+      </c>
+      <c r="N8">
+        <v>2.05</v>
+      </c>
+      <c r="O8">
+        <v>3.5</v>
+      </c>
+      <c r="P8">
         <v>3.1</v>
       </c>
-      <c r="N8">
+      <c r="Q8">
+        <v>-0.25</v>
+      </c>
+      <c r="R8">
+        <v>1.85</v>
+      </c>
+      <c r="S8">
+        <v>1.95</v>
+      </c>
+      <c r="T8">
         <v>2.5</v>
       </c>
-      <c r="O8">
-        <v>3.4</v>
-      </c>
-      <c r="P8">
-        <v>2.5</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>1.9</v>
-      </c>
-      <c r="S8">
-        <v>1.9</v>
-      </c>
-      <c r="T8">
-        <v>2.75</v>
-      </c>
       <c r="U8">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC8">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5169571</v>
+        <v>5169720</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,10 +1242,10 @@
         <v>44940.5</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1257,61 +1257,61 @@
         <v>44</v>
       </c>
       <c r="K9">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L9">
+        <v>3.5</v>
+      </c>
+      <c r="M9">
+        <v>3.1</v>
+      </c>
+      <c r="N9">
+        <v>2.5</v>
+      </c>
+      <c r="O9">
         <v>3.4</v>
       </c>
-      <c r="M9">
-        <v>2.9</v>
-      </c>
-      <c r="N9">
-        <v>2.3</v>
-      </c>
-      <c r="O9">
-        <v>3.75</v>
-      </c>
       <c r="P9">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
+        <v>1.825</v>
+      </c>
+      <c r="V9">
         <v>1.975</v>
       </c>
-      <c r="V9">
-        <v>1.875</v>
-      </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1408,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6046177</v>
+        <v>6046176</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1420,73 +1420,73 @@
         <v>44947.5</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L11">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N11">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O11">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P11">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T11">
         <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V11">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA11">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC11">
         <v>-1</v>
@@ -1497,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6046176</v>
+        <v>6046177</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1509,73 +1509,73 @@
         <v>44947.5</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12">
+        <v>2.1</v>
+      </c>
+      <c r="L12">
+        <v>3.4</v>
+      </c>
+      <c r="M12">
+        <v>2.875</v>
+      </c>
+      <c r="N12">
+        <v>2.25</v>
+      </c>
+      <c r="O12">
+        <v>3.3</v>
+      </c>
+      <c r="P12">
+        <v>2.7</v>
+      </c>
+      <c r="Q12">
+        <v>-0.25</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
         <v>1.8</v>
-      </c>
-      <c r="L12">
-        <v>3.5</v>
-      </c>
-      <c r="M12">
-        <v>3.75</v>
-      </c>
-      <c r="N12">
-        <v>1.8</v>
-      </c>
-      <c r="O12">
-        <v>3.6</v>
-      </c>
-      <c r="P12">
-        <v>3.5</v>
-      </c>
-      <c r="Q12">
-        <v>-0.5</v>
-      </c>
-      <c r="R12">
-        <v>1.85</v>
-      </c>
-      <c r="S12">
-        <v>1.95</v>
       </c>
       <c r="T12">
         <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
+        <v>-1</v>
+      </c>
+      <c r="Y12">
+        <v>1.7</v>
+      </c>
+      <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
         <v>0.8</v>
       </c>
-      <c r="X12">
-        <v>-1</v>
-      </c>
-      <c r="Y12">
-        <v>-1</v>
-      </c>
-      <c r="Z12">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA12">
-        <v>-1</v>
-      </c>
       <c r="AB12">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1601,7 +1601,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1779,7 +1779,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1865,10 +1865,10 @@
         <v>44954.5</v>
       </c>
       <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s">
         <v>32</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1957,7 +1957,7 @@
         <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2043,7 +2043,7 @@
         <v>44961.5</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
         <v>37</v>
@@ -2132,7 +2132,7 @@
         <v>44961.5</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
         <v>38</v>
@@ -2221,7 +2221,7 @@
         <v>44961.5</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
         <v>30</v>
@@ -2313,7 +2313,7 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2399,7 +2399,7 @@
         <v>44961.5</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>36</v>
@@ -2488,10 +2488,10 @@
         <v>44968.5</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2758,7 +2758,7 @@
         <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2844,7 +2844,7 @@
         <v>44971.69791666666</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
         <v>38</v>
@@ -2921,7 +2921,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5169722</v>
+        <v>5169586</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2933,76 +2933,76 @@
         <v>44975.5</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="L28">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M28">
+        <v>3.7</v>
+      </c>
+      <c r="N28">
+        <v>2.45</v>
+      </c>
+      <c r="O28">
+        <v>3.3</v>
+      </c>
+      <c r="P28">
         <v>2.6</v>
       </c>
-      <c r="N28">
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>1.85</v>
+      </c>
+      <c r="S28">
+        <v>1.95</v>
+      </c>
+      <c r="T28">
         <v>2.5</v>
       </c>
-      <c r="O28">
-        <v>3.4</v>
-      </c>
-      <c r="P28">
-        <v>2.5</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>1.875</v>
-      </c>
-      <c r="S28">
-        <v>1.925</v>
-      </c>
-      <c r="T28">
-        <v>2.75</v>
-      </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X28">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA28">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5169586</v>
+        <v>5169585</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3025,73 +3025,73 @@
         <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L29">
         <v>3.4</v>
       </c>
       <c r="M29">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="N29">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O29">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
+        <v>1.95</v>
+      </c>
+      <c r="S29">
         <v>1.85</v>
       </c>
-      <c r="S29">
-        <v>1.95</v>
-      </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z29">
+        <v>-1</v>
+      </c>
+      <c r="AA29">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA29">
-        <v>-1</v>
-      </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5169585</v>
+        <v>5169722</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,76 +3111,76 @@
         <v>44975.5</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M30">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="N30">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O30">
         <v>3.4</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S30">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y30">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA30">
+        <v>-0</v>
+      </c>
+      <c r="AB30">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB30">
-        <v>-1</v>
-      </c>
       <c r="AC30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3200,7 +3200,7 @@
         <v>44975.5</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -3292,7 +3292,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3366,7 +3366,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5169589</v>
+        <v>5169590</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3378,76 +3378,76 @@
         <v>44982.5</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L33">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N33">
+        <v>2.2</v>
+      </c>
+      <c r="O33">
+        <v>3.3</v>
+      </c>
+      <c r="P33">
         <v>2.9</v>
       </c>
-      <c r="O33">
-        <v>3.2</v>
-      </c>
-      <c r="P33">
-        <v>2.3</v>
-      </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T33">
         <v>2.5</v>
       </c>
       <c r="U33">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X33">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
       <c r="AA33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
         <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3455,7 +3455,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5169590</v>
+        <v>5169589</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3467,76 +3467,76 @@
         <v>44982.5</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K34">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M34">
+        <v>2.7</v>
+      </c>
+      <c r="N34">
         <v>2.9</v>
       </c>
-      <c r="N34">
-        <v>2.2</v>
-      </c>
       <c r="O34">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P34">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S34">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T34">
         <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V34">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3556,10 +3556,10 @@
         <v>44982.5</v>
       </c>
       <c r="F35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" t="s">
         <v>33</v>
-      </c>
-      <c r="G35" t="s">
-        <v>32</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3826,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>44985.69791666666</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
         <v>29</v>
@@ -4090,7 +4090,7 @@
         <v>44989.5</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
         <v>36</v>
@@ -4182,7 +4182,7 @@
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4268,7 +4268,7 @@
         <v>44989.5</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s">
         <v>29</v>
@@ -4357,10 +4357,10 @@
         <v>44989.5</v>
       </c>
       <c r="F44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" t="s">
         <v>31</v>
-      </c>
-      <c r="G44" t="s">
-        <v>33</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4449,7 +4449,7 @@
         <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4538,7 +4538,7 @@
         <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>4</v>
@@ -4624,10 +4624,10 @@
         <v>44996.5</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4891,10 +4891,10 @@
         <v>45003.5</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4980,7 +4980,7 @@
         <v>45003.5</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
         <v>38</v>
@@ -5057,7 +5057,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6204059</v>
+        <v>6401230</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5069,76 +5069,76 @@
         <v>45006.69791666666</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K52">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L52">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M52">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="N52">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="O52">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P52">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q52">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S52">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V52">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W52">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5146,7 +5146,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6401230</v>
+        <v>6204059</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5158,76 +5158,76 @@
         <v>45006.69791666666</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K53">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L53">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M53">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="N53">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="O53">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P53">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R53">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S53">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T53">
         <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA53">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5247,10 +5247,10 @@
         <v>45009.70833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5339,7 +5339,7 @@
         <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5428,7 +5428,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5514,7 +5514,7 @@
         <v>45010.5</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
         <v>29</v>
@@ -5870,10 +5870,10 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5959,7 +5959,7 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
         <v>38</v>
@@ -6048,7 +6048,7 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
         <v>30</v>
@@ -6140,7 +6140,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6229,7 +6229,7 @@
         <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6315,10 +6315,10 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6407,7 +6407,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6582,7 +6582,7 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
         <v>29</v>
@@ -6674,7 +6674,7 @@
         <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -6760,10 +6760,10 @@
         <v>45027.65625</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6837,7 +6837,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5499208</v>
+        <v>5466496</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6849,13 +6849,13 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -6864,43 +6864,43 @@
         <v>43</v>
       </c>
       <c r="K72">
+        <v>1.75</v>
+      </c>
+      <c r="L72">
+        <v>3.5</v>
+      </c>
+      <c r="M72">
+        <v>4</v>
+      </c>
+      <c r="N72">
+        <v>1.75</v>
+      </c>
+      <c r="O72">
+        <v>3.6</v>
+      </c>
+      <c r="P72">
+        <v>3.8</v>
+      </c>
+      <c r="Q72">
+        <v>-0.75</v>
+      </c>
+      <c r="R72">
+        <v>1.975</v>
+      </c>
+      <c r="S72">
+        <v>1.875</v>
+      </c>
+      <c r="T72">
         <v>2.75</v>
       </c>
-      <c r="L72">
-        <v>3.2</v>
-      </c>
-      <c r="M72">
-        <v>2.45</v>
-      </c>
-      <c r="N72">
-        <v>2.8</v>
-      </c>
-      <c r="O72">
-        <v>3.2</v>
-      </c>
-      <c r="P72">
-        <v>2.45</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>2.025</v>
-      </c>
-      <c r="S72">
-        <v>1.775</v>
-      </c>
-      <c r="T72">
-        <v>2.5</v>
-      </c>
       <c r="U72">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W72">
-        <v>1.8</v>
+        <v>0.75</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6909,16 +6909,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC72">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6938,10 +6938,10 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F73" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" t="s">
         <v>35</v>
-      </c>
-      <c r="G73" t="s">
-        <v>34</v>
       </c>
       <c r="H73">
         <v>8</v>
@@ -7027,7 +7027,7 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
         <v>36</v>
@@ -7104,7 +7104,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5466496</v>
+        <v>5499209</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7116,76 +7116,76 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H75">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K75">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="L75">
+        <v>3.4</v>
+      </c>
+      <c r="M75">
+        <v>2.3</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75">
         <v>3.5</v>
       </c>
-      <c r="M75">
-        <v>4</v>
-      </c>
-      <c r="N75">
-        <v>1.75</v>
-      </c>
-      <c r="O75">
-        <v>3.6</v>
-      </c>
       <c r="P75">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S75">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
         <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V75">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W75">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5499209</v>
+        <v>5499208</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7208,73 +7208,73 @@
         <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K76">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="L76">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M76">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="N76">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O76">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P76">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="Q76">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S76">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
+        <v>1.925</v>
+      </c>
+      <c r="V76">
         <v>1.875</v>
       </c>
-      <c r="V76">
-        <v>1.925</v>
-      </c>
       <c r="W76">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7383,10 +7383,10 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H78">
         <v>3</v>
@@ -7564,7 +7564,7 @@
         <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7653,7 +7653,7 @@
         <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7742,7 +7742,7 @@
         <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>3</v>
@@ -7828,7 +7828,7 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
         <v>36</v>
@@ -7917,7 +7917,7 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
         <v>37</v>
@@ -8009,7 +8009,7 @@
         <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8083,7 +8083,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5539545</v>
+        <v>5539544</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8095,58 +8095,58 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H86">
         <v>2</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>43</v>
       </c>
       <c r="K86">
-        <v>2.35</v>
+        <v>1.65</v>
       </c>
       <c r="L86">
+        <v>3.8</v>
+      </c>
+      <c r="M86">
+        <v>4.2</v>
+      </c>
+      <c r="N86">
+        <v>1.85</v>
+      </c>
+      <c r="O86">
+        <v>3.6</v>
+      </c>
+      <c r="P86">
         <v>3.4</v>
       </c>
-      <c r="M86">
-        <v>2.6</v>
-      </c>
-      <c r="N86">
-        <v>2.7</v>
-      </c>
-      <c r="O86">
-        <v>3.4</v>
-      </c>
-      <c r="P86">
-        <v>2.3</v>
-      </c>
       <c r="Q86">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
+        <v>1.775</v>
+      </c>
+      <c r="S86">
         <v>2.025</v>
       </c>
-      <c r="S86">
-        <v>1.775</v>
-      </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
-        <v>1.7</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8155,16 +8155,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5539544</v>
+        <v>5539545</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,58 +8184,58 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>2</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>43</v>
       </c>
       <c r="K87">
-        <v>1.65</v>
+        <v>2.35</v>
       </c>
       <c r="L87">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M87">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="N87">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P87">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R87">
+        <v>2.025</v>
+      </c>
+      <c r="S87">
         <v>1.775</v>
       </c>
-      <c r="S87">
-        <v>2.025</v>
-      </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V87">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W87">
-        <v>0.8500000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8244,16 +8244,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8451,10 +8451,10 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>3</v>
@@ -8540,7 +8540,7 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
         <v>30</v>
@@ -8632,7 +8632,7 @@
         <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8718,7 +8718,7 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
         <v>41</v>
@@ -8807,7 +8807,7 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
         <v>29</v>
@@ -8896,10 +8896,10 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -9074,7 +9074,7 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
         <v>36</v>
@@ -9166,7 +9166,7 @@
         <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9433,7 +9433,7 @@
         <v>41</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9519,10 +9519,10 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F102" t="s">
+        <v>35</v>
+      </c>
+      <c r="G102" t="s">
         <v>34</v>
-      </c>
-      <c r="G102" t="s">
-        <v>35</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9697,10 +9697,10 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9875,10 +9875,10 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -10053,10 +10053,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10234,7 +10234,7 @@
         <v>29</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10308,7 +10308,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6848495</v>
+        <v>6848496</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,76 +10320,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K111">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L111">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M111">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N111">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O111">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P111">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S111">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T111">
         <v>2.75</v>
       </c>
       <c r="U111">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V111">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA111">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6848496</v>
+        <v>6848495</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,76 +10409,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K112">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M112">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N112">
+        <v>2.625</v>
+      </c>
+      <c r="O112">
+        <v>3.2</v>
+      </c>
+      <c r="P112">
+        <v>2.4</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
         <v>1.8</v>
-      </c>
-      <c r="O112">
-        <v>3.6</v>
-      </c>
-      <c r="P112">
-        <v>3.6</v>
-      </c>
-      <c r="Q112">
-        <v>-0.5</v>
-      </c>
-      <c r="R112">
-        <v>1.825</v>
-      </c>
-      <c r="S112">
-        <v>1.975</v>
       </c>
       <c r="T112">
         <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V112">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W112">
+        <v>-1</v>
+      </c>
+      <c r="X112">
+        <v>-1</v>
+      </c>
+      <c r="Y112">
+        <v>1.4</v>
+      </c>
+      <c r="Z112">
+        <v>-1</v>
+      </c>
+      <c r="AA112">
         <v>0.8</v>
       </c>
-      <c r="X112">
-        <v>-1</v>
-      </c>
-      <c r="Y112">
-        <v>-1</v>
-      </c>
-      <c r="Z112">
-        <v>0.825</v>
-      </c>
-      <c r="AA112">
-        <v>-1</v>
-      </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10486,7 +10486,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6848500</v>
+        <v>6848497</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10498,13 +10498,13 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G113" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -10513,43 +10513,43 @@
         <v>43</v>
       </c>
       <c r="K113">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M113">
-        <v>2.625</v>
+        <v>3.7</v>
       </c>
       <c r="N113">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="O113">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P113">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R113">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S113">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U113">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V113">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W113">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10558,13 +10558,13 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA113">
         <v>-1</v>
       </c>
       <c r="AB113">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10575,7 +10575,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6848497</v>
+        <v>6848498</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10587,76 +10587,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H114">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K114">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L114">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M114">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="N114">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="O114">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P114">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q114">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R114">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S114">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V114">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W114">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB114">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10664,7 +10664,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6848498</v>
+        <v>6848499</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10676,76 +10676,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K115">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M115">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N115">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O115">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P115">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q115">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S115">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T115">
         <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X115">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AA115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10753,7 +10753,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6848499</v>
+        <v>6848500</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10765,58 +10765,58 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H116">
+        <v>2</v>
+      </c>
+      <c r="I116">
         <v>1</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
       </c>
       <c r="J116" t="s">
         <v>43</v>
       </c>
       <c r="K116">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L116">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N116">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O116">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P116">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q116">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S116">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W116">
-        <v>0.909</v>
+        <v>1.5</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10825,16 +10825,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10857,7 +10857,7 @@
         <v>39</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -11032,7 +11032,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
         <v>40</v>
@@ -11124,7 +11124,7 @@
         <v>41</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11210,10 +11210,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H121">
         <v>5</v>
@@ -11299,7 +11299,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
         <v>36</v>
@@ -11477,7 +11477,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
         <v>29</v>
@@ -11569,7 +11569,7 @@
         <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11658,7 +11658,7 @@
         <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11744,10 +11744,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F127" t="s">
+        <v>31</v>
+      </c>
+      <c r="G127" t="s">
         <v>33</v>
-      </c>
-      <c r="G127" t="s">
-        <v>32</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11833,7 +11833,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
         <v>29</v>
@@ -11922,7 +11922,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
         <v>40</v>
@@ -12014,7 +12014,7 @@
         <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12103,7 +12103,7 @@
         <v>36</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H131">
         <v>3</v>
@@ -12192,7 +12192,7 @@
         <v>41</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H132">
         <v>6</v>
@@ -12367,7 +12367,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
         <v>39</v>
@@ -12545,10 +12545,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F136" t="s">
+        <v>34</v>
+      </c>
+      <c r="G136" t="s">
         <v>35</v>
-      </c>
-      <c r="G136" t="s">
-        <v>34</v>
       </c>
       <c r="H136">
         <v>4</v>
@@ -12723,7 +12723,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
         <v>40</v>
@@ -12812,10 +12812,10 @@
         <v>45223.65625</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12901,10 +12901,10 @@
         <v>45234.5</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H140">
         <v>3</v>
@@ -12978,7 +12978,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6848528</v>
+        <v>6848526</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12990,76 +12990,76 @@
         <v>45234.5</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K141">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="L141">
         <v>3.6</v>
       </c>
       <c r="M141">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="N141">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O141">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P141">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q141">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S141">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA141">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13067,7 +13067,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6848526</v>
+        <v>6848528</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13079,76 +13079,76 @@
         <v>45234.5</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K142">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="L142">
         <v>3.6</v>
       </c>
       <c r="M142">
+        <v>2.1</v>
+      </c>
+      <c r="N142">
         <v>3.4</v>
       </c>
-      <c r="N142">
-        <v>1.85</v>
-      </c>
       <c r="O142">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P142">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q142">
+        <v>0.5</v>
+      </c>
+      <c r="R142">
+        <v>1.975</v>
+      </c>
+      <c r="S142">
+        <v>1.875</v>
+      </c>
+      <c r="T142">
+        <v>2.75</v>
+      </c>
+      <c r="U142">
+        <v>1.975</v>
+      </c>
+      <c r="V142">
+        <v>1.875</v>
+      </c>
+      <c r="W142">
+        <v>-1</v>
+      </c>
+      <c r="X142">
+        <v>-1</v>
+      </c>
+      <c r="Y142">
+        <v>0.8</v>
+      </c>
+      <c r="Z142">
+        <v>-1</v>
+      </c>
+      <c r="AA142">
+        <v>0.875</v>
+      </c>
+      <c r="AB142">
+        <v>0.4875</v>
+      </c>
+      <c r="AC142">
         <v>-0.5</v>
-      </c>
-      <c r="R142">
-        <v>1.9</v>
-      </c>
-      <c r="S142">
-        <v>1.9</v>
-      </c>
-      <c r="T142">
-        <v>2.5</v>
-      </c>
-      <c r="U142">
-        <v>1.9</v>
-      </c>
-      <c r="V142">
-        <v>1.9</v>
-      </c>
-      <c r="W142">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X142">
-        <v>-1</v>
-      </c>
-      <c r="Y142">
-        <v>-1</v>
-      </c>
-      <c r="Z142">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA142">
-        <v>-1</v>
-      </c>
-      <c r="AB142">
-        <v>-1</v>
-      </c>
-      <c r="AC142">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>29</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13260,7 +13260,7 @@
         <v>36</v>
       </c>
       <c r="G144" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H144">
         <v>4</v>
@@ -13346,7 +13346,7 @@
         <v>45241.5</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G145" t="s">
         <v>36</v>
@@ -13423,7 +13423,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6848532</v>
+        <v>6848531</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13435,76 +13435,76 @@
         <v>45241.5</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K146">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="L146">
         <v>3.4</v>
       </c>
       <c r="M146">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N146">
+        <v>2.9</v>
+      </c>
+      <c r="O146">
+        <v>3.2</v>
+      </c>
+      <c r="P146">
+        <v>2.2</v>
+      </c>
+      <c r="Q146">
+        <v>0.25</v>
+      </c>
+      <c r="R146">
+        <v>2</v>
+      </c>
+      <c r="S146">
         <v>1.85</v>
-      </c>
-      <c r="O146">
-        <v>3.4</v>
-      </c>
-      <c r="P146">
-        <v>3.8</v>
-      </c>
-      <c r="Q146">
-        <v>-0.5</v>
-      </c>
-      <c r="R146">
-        <v>1.85</v>
-      </c>
-      <c r="S146">
-        <v>1.95</v>
       </c>
       <c r="T146">
         <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V146">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X146">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA146">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13512,7 +13512,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6848533</v>
+        <v>6848532</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13524,76 +13524,76 @@
         <v>45241.5</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K147">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L147">
+        <v>3.4</v>
+      </c>
+      <c r="M147">
         <v>3.6</v>
       </c>
-      <c r="M147">
-        <v>4.2</v>
-      </c>
       <c r="N147">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="O147">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P147">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q147">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S147">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V147">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W147">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB147">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13601,7 +13601,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6848534</v>
+        <v>6848533</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13613,10 +13613,10 @@
         <v>45241.5</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H148">
         <v>3</v>
@@ -13628,25 +13628,25 @@
         <v>43</v>
       </c>
       <c r="K148">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L148">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M148">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N148">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O148">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P148">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R148">
         <v>1.9</v>
@@ -13658,13 +13658,13 @@
         <v>2.75</v>
       </c>
       <c r="U148">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V148">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W148">
-        <v>1.1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13673,13 +13673,13 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB148">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC148">
         <v>-1</v>
@@ -13690,7 +13690,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6848531</v>
+        <v>6848534</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13702,58 +13702,58 @@
         <v>45241.5</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
         <v>43</v>
       </c>
       <c r="K149">
+        <v>2.2</v>
+      </c>
+      <c r="L149">
         <v>3.3</v>
       </c>
-      <c r="L149">
-        <v>3.4</v>
-      </c>
       <c r="M149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N149">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="O149">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P149">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q149">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S149">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T149">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V149">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W149">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13762,16 +13762,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA149">
+        <v>-1</v>
+      </c>
+      <c r="AB149">
         <v>1</v>
       </c>
-      <c r="AA149">
-        <v>-1</v>
-      </c>
-      <c r="AB149">
-        <v>-1</v>
-      </c>
       <c r="AC149">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13791,7 +13791,7 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
         <v>41</v>
@@ -13883,7 +13883,7 @@
         <v>36</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -14061,7 +14061,7 @@
         <v>40</v>
       </c>
       <c r="G153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14147,7 +14147,7 @@
         <v>45248.5</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
         <v>29</v>
@@ -14236,10 +14236,10 @@
         <v>45248.5</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -14325,7 +14325,7 @@
         <v>45251.69791666666</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G156" t="s">
         <v>29</v>
@@ -14414,10 +14414,10 @@
         <v>45251.69791666666</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G157" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H157">
         <v>4</v>
@@ -14506,7 +14506,7 @@
         <v>29</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14592,10 +14592,10 @@
         <v>45262.5</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G159" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14684,7 +14684,7 @@
         <v>36</v>
       </c>
       <c r="G160" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14773,7 +14773,7 @@
         <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14859,7 +14859,7 @@
         <v>45269.5</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G162" t="s">
         <v>41</v>
@@ -14948,10 +14948,10 @@
         <v>45269.5</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H163">
         <v>4</v>
@@ -15126,10 +15126,10 @@
         <v>45276.5</v>
       </c>
       <c r="F165" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G165" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -15215,10 +15215,10 @@
         <v>45276.5</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15482,7 +15482,7 @@
         <v>45276.5</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G169" t="s">
         <v>39</v>
@@ -15571,10 +15571,10 @@
         <v>45282.6875</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15663,7 +15663,7 @@
         <v>39</v>
       </c>
       <c r="G171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H171">
         <v>3</v>
@@ -15927,10 +15927,10 @@
         <v>45283.5</v>
       </c>
       <c r="F174" t="s">
+        <v>33</v>
+      </c>
+      <c r="G174" t="s">
         <v>32</v>
-      </c>
-      <c r="G174" t="s">
-        <v>31</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16004,7 +16004,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6848561</v>
+        <v>6848562</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16016,76 +16016,76 @@
         <v>45290.5</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G175" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K175">
-        <v>3.75</v>
+        <v>2.35</v>
       </c>
       <c r="L175">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M175">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="N175">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="O175">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P175">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="Q175">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S175">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T175">
         <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V175">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W175">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB175">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16108,7 +16108,7 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16182,7 +16182,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6848562</v>
+        <v>6848561</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16194,76 +16194,76 @@
         <v>45290.5</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K177">
-        <v>2.35</v>
+        <v>3.75</v>
       </c>
       <c r="L177">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M177">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="N177">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="O177">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P177">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="Q177">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R177">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S177">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
         <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V177">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X177">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA177">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC177">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16271,7 +16271,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6848565</v>
+        <v>6848563</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16283,16 +16283,16 @@
         <v>45297.5</v>
       </c>
       <c r="F178" t="s">
+        <v>40</v>
+      </c>
+      <c r="G178" t="s">
         <v>31</v>
       </c>
-      <c r="G178" t="s">
-        <v>34</v>
-      </c>
       <c r="H178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
         <v>43</v>
@@ -16307,34 +16307,34 @@
         <v>2.25</v>
       </c>
       <c r="N178">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O178">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P178">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="Q178">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R178">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S178">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T178">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U178">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V178">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W178">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16343,13 +16343,13 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16360,7 +16360,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6848563</v>
+        <v>6848564</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16372,76 +16372,76 @@
         <v>45297.5</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G179" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I179">
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K179">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L179">
         <v>3.75</v>
       </c>
       <c r="M179">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="N179">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="O179">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P179">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q179">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R179">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S179">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T179">
         <v>2.75</v>
       </c>
       <c r="U179">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V179">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W179">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z179">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB179">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16449,7 +16449,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6848564</v>
+        <v>6848567</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16461,76 +16461,76 @@
         <v>45297.5</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H180">
+        <v>2</v>
+      </c>
+      <c r="I180">
         <v>1</v>
       </c>
-      <c r="I180">
-        <v>2</v>
-      </c>
       <c r="J180" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K180">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="L180">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M180">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N180">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O180">
         <v>3.8</v>
       </c>
       <c r="P180">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q180">
         <v>-0.75</v>
       </c>
       <c r="R180">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S180">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T180">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V180">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA180">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB180">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AC180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16538,7 +16538,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6848567</v>
+        <v>6848566</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16550,76 +16550,76 @@
         <v>45297.5</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G181" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181">
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K181">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L181">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M181">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N181">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="O181">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P181">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q181">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
+        <v>1.875</v>
+      </c>
+      <c r="S181">
+        <v>1.975</v>
+      </c>
+      <c r="T181">
+        <v>2.75</v>
+      </c>
+      <c r="U181">
         <v>1.925</v>
       </c>
-      <c r="S181">
+      <c r="V181">
         <v>1.925</v>
       </c>
-      <c r="T181">
-        <v>2.5</v>
-      </c>
-      <c r="U181">
-        <v>1.875</v>
-      </c>
-      <c r="V181">
-        <v>1.975</v>
-      </c>
       <c r="W181">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z181">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB181">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16627,7 +16627,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6848566</v>
+        <v>6848565</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16639,76 +16639,76 @@
         <v>45297.5</v>
       </c>
       <c r="F182" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182">
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K182">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L182">
         <v>3.75</v>
       </c>
       <c r="M182">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="N182">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="O182">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P182">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="Q182">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R182">
+        <v>2.05</v>
+      </c>
+      <c r="S182">
+        <v>1.75</v>
+      </c>
+      <c r="T182">
+        <v>2.25</v>
+      </c>
+      <c r="U182">
+        <v>2.025</v>
+      </c>
+      <c r="V182">
+        <v>1.775</v>
+      </c>
+      <c r="W182">
         <v>1.875</v>
       </c>
-      <c r="S182">
-        <v>1.975</v>
-      </c>
-      <c r="T182">
-        <v>2.75</v>
-      </c>
-      <c r="U182">
-        <v>1.925</v>
-      </c>
-      <c r="V182">
-        <v>1.925</v>
-      </c>
-      <c r="W182">
-        <v>-1</v>
-      </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA182">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC182">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>29</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -16906,7 +16906,7 @@
         <v>45304.5</v>
       </c>
       <c r="F185" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G185" t="s">
         <v>41</v>
@@ -16995,7 +16995,7 @@
         <v>45304.5</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G186" t="s">
         <v>40</v>
@@ -17087,7 +17087,7 @@
         <v>39</v>
       </c>
       <c r="G187" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -17173,7 +17173,7 @@
         <v>45304.5</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G188" t="s">
         <v>36</v>
@@ -17250,7 +17250,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6848575</v>
+        <v>6848576</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17262,76 +17262,76 @@
         <v>45311.5</v>
       </c>
       <c r="F189" t="s">
+        <v>33</v>
+      </c>
+      <c r="G189" t="s">
         <v>35</v>
       </c>
-      <c r="G189" t="s">
-        <v>41</v>
-      </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K189">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="L189">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M189">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="N189">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O189">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P189">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q189">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R189">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S189">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T189">
         <v>2.5</v>
       </c>
       <c r="U189">
+        <v>1.825</v>
+      </c>
+      <c r="V189">
         <v>1.975</v>
       </c>
-      <c r="V189">
-        <v>1.825</v>
-      </c>
       <c r="W189">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X189">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA189">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
       <c r="AB189">
+        <v>-1</v>
+      </c>
+      <c r="AC189">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC189">
-        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17339,7 +17339,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6848576</v>
+        <v>6848575</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17351,76 +17351,76 @@
         <v>45311.5</v>
       </c>
       <c r="F190" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K190">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="L190">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M190">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="N190">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O190">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P190">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q190">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R190">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S190">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T190">
         <v>2.5</v>
       </c>
       <c r="U190">
+        <v>1.975</v>
+      </c>
+      <c r="V190">
         <v>1.825</v>
       </c>
-      <c r="V190">
-        <v>1.975</v>
-      </c>
       <c r="W190">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA190">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC190">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17440,7 +17440,7 @@
         <v>45318.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G191" t="s">
         <v>36</v>
@@ -17618,10 +17618,10 @@
         <v>45318.5</v>
       </c>
       <c r="F193" t="s">
+        <v>35</v>
+      </c>
+      <c r="G193" t="s">
         <v>34</v>
-      </c>
-      <c r="G193" t="s">
-        <v>35</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -17710,7 +17710,7 @@
         <v>41</v>
       </c>
       <c r="G194" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H194">
         <v>2</v>
@@ -17799,7 +17799,7 @@
         <v>29</v>
       </c>
       <c r="G195" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -17885,7 +17885,7 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F196" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G196" t="s">
         <v>40</v>
@@ -17974,7 +17974,7 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F197" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G197" t="s">
         <v>39</v>
@@ -18152,7 +18152,7 @@
         <v>45325.5</v>
       </c>
       <c r="F199" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G199" t="s">
         <v>36</v>
@@ -18241,10 +18241,10 @@
         <v>45325.5</v>
       </c>
       <c r="F200" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G200" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18330,10 +18330,10 @@
         <v>45325.5</v>
       </c>
       <c r="F201" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G201" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18508,10 +18508,10 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F203" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G203" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -18600,7 +18600,7 @@
         <v>39</v>
       </c>
       <c r="G204" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -18686,7 +18686,7 @@
         <v>45332.5</v>
       </c>
       <c r="F205" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G205" t="s">
         <v>40</v>
@@ -18775,10 +18775,10 @@
         <v>45332.5</v>
       </c>
       <c r="F206" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G206" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H206">
         <v>1</v>
@@ -19030,7 +19030,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6848605</v>
+        <v>7748128</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19039,49 +19039,49 @@
         <v>28</v>
       </c>
       <c r="E209" s="2">
-        <v>45339.5</v>
+        <v>45342.69791666666</v>
       </c>
       <c r="F209" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G209" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K209">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L209">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M209">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N209">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O209">
         <v>3.4</v>
       </c>
       <c r="P209">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R209">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S209">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T209">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U209">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V209">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W209">
         <v>0</v>
@@ -19104,7 +19104,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6848593</v>
+        <v>7768375</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19113,49 +19113,49 @@
         <v>28</v>
       </c>
       <c r="E210" s="2">
-        <v>45339.5</v>
+        <v>45342.69791666666</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G210" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K210">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="L210">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M210">
+        <v>2.375</v>
+      </c>
+      <c r="N210">
+        <v>3</v>
+      </c>
+      <c r="O210">
+        <v>3.3</v>
+      </c>
+      <c r="P210">
         <v>2.2</v>
       </c>
-      <c r="N210">
-        <v>2.8</v>
-      </c>
-      <c r="O210">
-        <v>3</v>
-      </c>
-      <c r="P210">
-        <v>2.45</v>
-      </c>
       <c r="Q210">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R210">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S210">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T210">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U210">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V210">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W210">
         <v>0</v>
@@ -19178,7 +19178,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6848591</v>
+        <v>6848594</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19187,49 +19187,49 @@
         <v>28</v>
       </c>
       <c r="E211" s="2">
-        <v>45339.5</v>
+        <v>45346.5</v>
       </c>
       <c r="F211" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G211" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K211">
-        <v>4.6</v>
+        <v>1.363</v>
       </c>
       <c r="L211">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M211">
-        <v>1.571</v>
+        <v>7</v>
       </c>
       <c r="N211">
-        <v>3.75</v>
+        <v>1.333</v>
       </c>
       <c r="O211">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P211">
+        <v>8</v>
+      </c>
+      <c r="Q211">
+        <v>-1.5</v>
+      </c>
+      <c r="R211">
+        <v>2.05</v>
+      </c>
+      <c r="S211">
         <v>1.8</v>
       </c>
-      <c r="Q211">
-        <v>0.5</v>
-      </c>
-      <c r="R211">
-        <v>2.025</v>
-      </c>
-      <c r="S211">
-        <v>1.825</v>
-      </c>
       <c r="T211">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U211">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V211">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W211">
         <v>0</v>
@@ -19252,7 +19252,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6848592</v>
+        <v>6848595</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19261,49 +19261,49 @@
         <v>28</v>
       </c>
       <c r="E212" s="2">
-        <v>45339.5</v>
+        <v>45346.5</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G212" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K212">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L212">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M212">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N212">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O212">
         <v>3.3</v>
       </c>
       <c r="P212">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q212">
         <v>-0.25</v>
       </c>
       <c r="R212">
+        <v>1.775</v>
+      </c>
+      <c r="S212">
+        <v>2.1</v>
+      </c>
+      <c r="T212">
+        <v>2.5</v>
+      </c>
+      <c r="U212">
         <v>2.05</v>
       </c>
-      <c r="S212">
+      <c r="V212">
         <v>1.8</v>
-      </c>
-      <c r="T212">
-        <v>2.25</v>
-      </c>
-      <c r="U212">
-        <v>1.9</v>
-      </c>
-      <c r="V212">
-        <v>1.95</v>
       </c>
       <c r="W212">
         <v>0</v>
@@ -19326,7 +19326,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6848590</v>
+        <v>6852274</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19335,40 +19335,40 @@
         <v>28</v>
       </c>
       <c r="E213" s="2">
-        <v>45339.5</v>
+        <v>45346.5</v>
       </c>
       <c r="F213" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K213">
-        <v>3.4</v>
+        <v>1.615</v>
       </c>
       <c r="L213">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M213">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="N213">
-        <v>3.25</v>
+        <v>1.615</v>
       </c>
       <c r="O213">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P213">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="Q213">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R213">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S213">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T213">
         <v>2.5</v>
@@ -19392,6 +19392,154 @@
         <v>0</v>
       </c>
       <c r="AA213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:27">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>6852275</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45346.5</v>
+      </c>
+      <c r="F214" t="s">
+        <v>41</v>
+      </c>
+      <c r="G214" t="s">
+        <v>32</v>
+      </c>
+      <c r="K214">
+        <v>1.571</v>
+      </c>
+      <c r="L214">
+        <v>3.75</v>
+      </c>
+      <c r="M214">
+        <v>5.5</v>
+      </c>
+      <c r="N214">
+        <v>1.65</v>
+      </c>
+      <c r="O214">
+        <v>3.6</v>
+      </c>
+      <c r="P214">
+        <v>5</v>
+      </c>
+      <c r="Q214">
+        <v>-0.75</v>
+      </c>
+      <c r="R214">
+        <v>1.85</v>
+      </c>
+      <c r="S214">
+        <v>2</v>
+      </c>
+      <c r="T214">
+        <v>2.5</v>
+      </c>
+      <c r="U214">
+        <v>1.85</v>
+      </c>
+      <c r="V214">
+        <v>2</v>
+      </c>
+      <c r="W214">
+        <v>0</v>
+      </c>
+      <c r="X214">
+        <v>0</v>
+      </c>
+      <c r="Y214">
+        <v>0</v>
+      </c>
+      <c r="Z214">
+        <v>0</v>
+      </c>
+      <c r="AA214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:27">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>6886698</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45346.5</v>
+      </c>
+      <c r="F215" t="s">
+        <v>34</v>
+      </c>
+      <c r="G215" t="s">
+        <v>29</v>
+      </c>
+      <c r="K215">
+        <v>2.1</v>
+      </c>
+      <c r="L215">
+        <v>3.25</v>
+      </c>
+      <c r="M215">
+        <v>3.25</v>
+      </c>
+      <c r="N215">
+        <v>2.15</v>
+      </c>
+      <c r="O215">
+        <v>3.25</v>
+      </c>
+      <c r="P215">
+        <v>3.2</v>
+      </c>
+      <c r="Q215">
+        <v>-0.25</v>
+      </c>
+      <c r="R215">
+        <v>1.9</v>
+      </c>
+      <c r="S215">
+        <v>1.95</v>
+      </c>
+      <c r="T215">
+        <v>2.5</v>
+      </c>
+      <c r="U215">
+        <v>1.95</v>
+      </c>
+      <c r="V215">
+        <v>1.9</v>
+      </c>
+      <c r="W215">
+        <v>0</v>
+      </c>
+      <c r="X215">
+        <v>0</v>
+      </c>
+      <c r="Y215">
+        <v>0</v>
+      </c>
+      <c r="Z215">
+        <v>0</v>
+      </c>
+      <c r="AA215">
         <v>0</v>
       </c>
     </row>

--- a/Scotland League Two/Scotland League Two.xlsx
+++ b/Scotland League Two/Scotland League Two.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -124,13 +124,13 @@
     <t>Stranraer</t>
   </si>
   <si>
+    <t>Dumbarton</t>
+  </si>
+  <si>
     <t>Albion</t>
   </si>
   <si>
     <t>Stirling</t>
-  </si>
-  <si>
-    <t>Dumbarton</t>
   </si>
   <si>
     <t>Spartans</t>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC220"/>
+  <dimension ref="A1:AC219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -711,7 +711,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1586,7 +1586,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5169573</v>
+        <v>5170164</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1601,73 +1601,73 @@
         <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L13">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M13">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N13">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O13">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P13">
-        <v>2.625</v>
+        <v>5.75</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R13">
+        <v>1.95</v>
+      </c>
+      <c r="S13">
         <v>1.85</v>
-      </c>
-      <c r="S13">
-        <v>2</v>
       </c>
       <c r="T13">
         <v>2.5</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB13">
         <v>-1</v>
       </c>
       <c r="AC13">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1675,7 +1675,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5169574</v>
+        <v>5169573</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1687,76 +1687,76 @@
         <v>44954.5</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="L14">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M14">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="N14">
+        <v>2.45</v>
+      </c>
+      <c r="O14">
+        <v>3.1</v>
+      </c>
+      <c r="P14">
+        <v>2.625</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>1.85</v>
       </c>
-      <c r="O14">
-        <v>3.5</v>
-      </c>
-      <c r="P14">
-        <v>3.5</v>
-      </c>
-      <c r="Q14">
-        <v>-0.5</v>
-      </c>
-      <c r="R14">
-        <v>1.9</v>
-      </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W14">
+        <v>-1</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
+        <v>1.625</v>
+      </c>
+      <c r="Z14">
+        <v>-1</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>-1</v>
+      </c>
+      <c r="AC14">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
-      <c r="Y14">
-        <v>-1</v>
-      </c>
-      <c r="Z14">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA14">
-        <v>-1</v>
-      </c>
-      <c r="AB14">
-        <v>0.45</v>
-      </c>
-      <c r="AC14">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1764,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5169575</v>
+        <v>5169574</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1776,13 +1776,13 @@
         <v>44954.5</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1791,22 +1791,22 @@
         <v>43</v>
       </c>
       <c r="K15">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="L15">
+        <v>3.6</v>
+      </c>
+      <c r="M15">
         <v>3.5</v>
-      </c>
-      <c r="M15">
-        <v>3</v>
       </c>
       <c r="N15">
         <v>1.85</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q15">
         <v>-0.5</v>
@@ -1818,13 +1818,13 @@
         <v>1.9</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
         <v>0.8500000000000001</v>
@@ -1842,10 +1842,10 @@
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC15">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1853,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5169576</v>
+        <v>5169575</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1865,13 +1865,13 @@
         <v>44954.5</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1880,43 +1880,43 @@
         <v>43</v>
       </c>
       <c r="K16">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="L16">
+        <v>3.5</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>1.85</v>
+      </c>
+      <c r="O16">
         <v>3.6</v>
       </c>
-      <c r="M16">
-        <v>3.6</v>
-      </c>
-      <c r="N16">
-        <v>1.571</v>
-      </c>
-      <c r="O16">
-        <v>3.8</v>
-      </c>
       <c r="P16">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S16">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
-        <v>0.571</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1925,16 +1925,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA16">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
         <v>-1</v>
       </c>
       <c r="AC16">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5170164</v>
+        <v>5169576</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,7 +1957,7 @@
         <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1969,43 +1969,43 @@
         <v>43</v>
       </c>
       <c r="K17">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L17">
+        <v>3.6</v>
+      </c>
+      <c r="M17">
+        <v>3.6</v>
+      </c>
+      <c r="N17">
+        <v>1.571</v>
+      </c>
+      <c r="O17">
         <v>3.8</v>
       </c>
-      <c r="M17">
-        <v>6</v>
-      </c>
-      <c r="N17">
-        <v>1.5</v>
-      </c>
-      <c r="O17">
-        <v>3.75</v>
-      </c>
       <c r="P17">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="Q17">
         <v>-1</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T17">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V17">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W17">
-        <v>0.5</v>
+        <v>0.571</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2023,7 +2023,7 @@
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2135,7 +2135,7 @@
         <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2313,7 +2313,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2577,7 +2577,7 @@
         <v>44968.5</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
         <v>31</v>
@@ -2755,7 +2755,7 @@
         <v>44968.5</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -2847,7 +2847,7 @@
         <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2936,7 +2936,7 @@
         <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3114,7 +3114,7 @@
         <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3203,7 +3203,7 @@
         <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3289,7 +3289,7 @@
         <v>44978.69791666666</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
         <v>32</v>
@@ -3381,7 +3381,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>44982.5</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
         <v>31</v>
@@ -3734,7 +3734,7 @@
         <v>44982.5</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
         <v>32</v>
@@ -3912,7 +3912,7 @@
         <v>44985.69791666666</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
         <v>33</v>
@@ -4090,10 +4090,10 @@
         <v>44989.5</v>
       </c>
       <c r="F41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" t="s">
         <v>37</v>
-      </c>
-      <c r="G41" t="s">
-        <v>36</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4271,7 +4271,7 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4624,7 +4624,7 @@
         <v>44996.5</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
         <v>30</v>
@@ -4805,7 +4805,7 @@
         <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4980,10 +4980,10 @@
         <v>45003.5</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5069,7 +5069,7 @@
         <v>45006.69791666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
         <v>35</v>
@@ -5158,7 +5158,7 @@
         <v>45006.69791666666</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
         <v>29</v>
@@ -5336,7 +5336,7 @@
         <v>45010.5</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
         <v>30</v>
@@ -5413,7 +5413,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5334678</v>
+        <v>5355139</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5425,16 +5425,16 @@
         <v>45010.5</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
         <v>44</v>
@@ -5446,55 +5446,55 @@
         <v>3.5</v>
       </c>
       <c r="M56">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="N56">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="O56">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P56">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q56">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U56">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V56">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA56">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5502,7 +5502,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5355139</v>
+        <v>5334679</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,16 +5514,16 @@
         <v>45010.5</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
         <v>44</v>
@@ -5538,16 +5538,16 @@
         <v>2.9</v>
       </c>
       <c r="N57">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O57">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P57">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q57">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
         <v>1.85</v>
@@ -5559,31 +5559,31 @@
         <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V57">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC57">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5591,7 +5591,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5334679</v>
+        <v>5334678</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5603,16 +5603,16 @@
         <v>45010.5</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>44</v>
@@ -5624,28 +5624,28 @@
         <v>3.5</v>
       </c>
       <c r="M58">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="N58">
+        <v>1.615</v>
+      </c>
+      <c r="O58">
+        <v>3.8</v>
+      </c>
+      <c r="P58">
+        <v>4.75</v>
+      </c>
+      <c r="Q58">
+        <v>-0.75</v>
+      </c>
+      <c r="R58">
         <v>1.8</v>
       </c>
-      <c r="O58">
-        <v>3.5</v>
-      </c>
-      <c r="P58">
-        <v>3.75</v>
-      </c>
-      <c r="Q58">
-        <v>-0.5</v>
-      </c>
-      <c r="R58">
-        <v>1.85</v>
-      </c>
       <c r="S58">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U58">
         <v>2</v>
@@ -5657,7 +5657,7 @@
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Y58">
         <v>-1</v>
@@ -5666,13 +5666,13 @@
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB58">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5692,7 +5692,7 @@
         <v>45014.65625</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
         <v>29</v>
@@ -5870,7 +5870,7 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
         <v>33</v>
@@ -5962,7 +5962,7 @@
         <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6140,7 +6140,7 @@
         <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>45020.65625</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
         <v>32</v>
@@ -6303,7 +6303,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5423414</v>
+        <v>5447792</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6315,76 +6315,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K66">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L66">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M66">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="N66">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O66">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P66">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q66">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S66">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T66">
         <v>2.5</v>
       </c>
       <c r="U66">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X66">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA66">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC66">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6392,7 +6392,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5447792</v>
+        <v>5465773</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6404,46 +6404,46 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K67">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L67">
         <v>3.3</v>
       </c>
       <c r="M67">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N67">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O67">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P67">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S67">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T67">
         <v>2.5</v>
@@ -6455,25 +6455,25 @@
         <v>1.85</v>
       </c>
       <c r="W67">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6481,7 +6481,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5465773</v>
+        <v>5423414</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6493,10 +6493,10 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6508,61 +6508,61 @@
         <v>44</v>
       </c>
       <c r="K68">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L68">
+        <v>3.4</v>
+      </c>
+      <c r="M68">
+        <v>3.25</v>
+      </c>
+      <c r="N68">
+        <v>1.95</v>
+      </c>
+      <c r="O68">
+        <v>3.4</v>
+      </c>
+      <c r="P68">
         <v>3.3</v>
       </c>
-      <c r="M68">
-        <v>2.75</v>
-      </c>
-      <c r="N68">
-        <v>2.375</v>
-      </c>
-      <c r="O68">
-        <v>3.3</v>
-      </c>
-      <c r="P68">
-        <v>2.625</v>
-      </c>
       <c r="Q68">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S68">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T68">
         <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V68">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6582,7 +6582,7 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
         <v>34</v>
@@ -6674,7 +6674,7 @@
         <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -6852,7 +6852,7 @@
         <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6941,7 +6941,7 @@
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H73">
         <v>4</v>
@@ -7119,7 +7119,7 @@
         <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7294,10 +7294,10 @@
         <v>45034.65625</v>
       </c>
       <c r="F77" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" t="s">
         <v>38</v>
-      </c>
-      <c r="G77" t="s">
-        <v>37</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7383,7 +7383,7 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s">
         <v>31</v>
@@ -7650,7 +7650,7 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
         <v>33</v>
@@ -7739,7 +7739,7 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
         <v>34</v>
@@ -7917,7 +7917,7 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
         <v>29</v>
@@ -8098,7 +8098,7 @@
         <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8187,7 +8187,7 @@
         <v>32</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8362,7 +8362,7 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
         <v>35</v>
@@ -8451,10 +8451,10 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8721,7 +8721,7 @@
         <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -9430,7 +9430,7 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
         <v>39</v>
@@ -9875,7 +9875,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
         <v>29</v>
@@ -10234,7 +10234,7 @@
         <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10575,7 +10575,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6848501</v>
+        <v>6848498</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10587,76 +10587,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K114">
+        <v>2.05</v>
+      </c>
+      <c r="L114">
+        <v>3.4</v>
+      </c>
+      <c r="M114">
+        <v>3.1</v>
+      </c>
+      <c r="N114">
+        <v>3</v>
+      </c>
+      <c r="O114">
+        <v>3.4</v>
+      </c>
+      <c r="P114">
         <v>2.2</v>
       </c>
-      <c r="L114">
-        <v>3.3</v>
-      </c>
-      <c r="M114">
-        <v>2.875</v>
-      </c>
-      <c r="N114">
-        <v>1.909</v>
-      </c>
-      <c r="O114">
-        <v>3.3</v>
-      </c>
-      <c r="P114">
-        <v>3.5</v>
-      </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R114">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S114">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T114">
         <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V114">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y114">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA114">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10664,7 +10664,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6848500</v>
+        <v>6848501</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10676,76 +10676,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G115" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115">
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K115">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M115">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="N115">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O115">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P115">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S115">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T115">
         <v>2.5</v>
       </c>
       <c r="U115">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V115">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W115">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z115">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB115">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10753,7 +10753,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6848499</v>
+        <v>6848500</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10765,58 +10765,58 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H116">
+        <v>2</v>
+      </c>
+      <c r="I116">
         <v>1</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
       </c>
       <c r="J116" t="s">
         <v>43</v>
       </c>
       <c r="K116">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L116">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N116">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O116">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P116">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q116">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S116">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W116">
-        <v>0.909</v>
+        <v>1.5</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10825,16 +10825,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10842,7 +10842,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6848498</v>
+        <v>6848499</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10854,76 +10854,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G117" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K117">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M117">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N117">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O117">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P117">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q117">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R117">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S117">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V117">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X117">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AA117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11035,7 +11035,7 @@
         <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -11566,7 +11566,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
         <v>40</v>
@@ -11821,7 +11821,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6848515</v>
+        <v>6848514</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11833,10 +11833,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -11848,58 +11848,58 @@
         <v>44</v>
       </c>
       <c r="K128">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L128">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M128">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N128">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="O128">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P128">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q128">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R128">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S128">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
+        <v>1.975</v>
+      </c>
+      <c r="V128">
         <v>1.825</v>
       </c>
-      <c r="V128">
-        <v>2.025</v>
-      </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.5249999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB128">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11910,7 +11910,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6848598</v>
+        <v>6848515</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11922,73 +11922,73 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K129">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L129">
+        <v>3.4</v>
+      </c>
+      <c r="M129">
+        <v>3.2</v>
+      </c>
+      <c r="N129">
+        <v>2.05</v>
+      </c>
+      <c r="O129">
         <v>3.3</v>
       </c>
-      <c r="M129">
-        <v>3.75</v>
-      </c>
-      <c r="N129">
-        <v>1.75</v>
-      </c>
-      <c r="O129">
-        <v>3.5</v>
-      </c>
       <c r="P129">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q129">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R129">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S129">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T129">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U129">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V129">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W129">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB129">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6848514</v>
+        <v>6848598</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,73 +12011,73 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K130">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L130">
+        <v>3.3</v>
+      </c>
+      <c r="M130">
         <v>3.75</v>
       </c>
-      <c r="M130">
-        <v>5</v>
-      </c>
       <c r="N130">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="O130">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P130">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q130">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S130">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X130">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA130">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12266,7 +12266,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6848517</v>
+        <v>6848519</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12278,55 +12278,55 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
         <v>42</v>
       </c>
       <c r="K133">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M133">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N133">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="O133">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P133">
+        <v>2.5</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
         <v>1.95</v>
       </c>
-      <c r="Q133">
-        <v>0.5</v>
-      </c>
-      <c r="R133">
-        <v>1.825</v>
-      </c>
       <c r="S133">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V133">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12335,16 +12335,16 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.95</v>
+        <v>1.5</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB133">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12355,7 +12355,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6848519</v>
+        <v>6848520</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12367,37 +12367,37 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J134" t="s">
         <v>42</v>
       </c>
       <c r="K134">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L134">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M134">
+        <v>2.8</v>
+      </c>
+      <c r="N134">
         <v>2.5</v>
       </c>
-      <c r="N134">
-        <v>2.7</v>
-      </c>
       <c r="O134">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P134">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q134">
         <v>0</v>
@@ -12412,10 +12412,10 @@
         <v>2.5</v>
       </c>
       <c r="U134">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V134">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12424,7 +12424,7 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Z134">
         <v>-1</v>
@@ -12433,7 +12433,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB134">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC134">
         <v>-1</v>
@@ -12444,7 +12444,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6848520</v>
+        <v>6848517</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12456,13 +12456,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>4</v>
@@ -12471,41 +12471,41 @@
         <v>42</v>
       </c>
       <c r="K135">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="L135">
         <v>3.4</v>
       </c>
       <c r="M135">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="N135">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="O135">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P135">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R135">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S135">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
+        <v>1.85</v>
+      </c>
+      <c r="V135">
         <v>1.95</v>
       </c>
-      <c r="V135">
-        <v>1.85</v>
-      </c>
       <c r="W135">
         <v>-1</v>
       </c>
@@ -12513,16 +12513,16 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.4</v>
+        <v>0.95</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB135">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB135">
-        <v>0.95</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12548,7 +12548,7 @@
         <v>39</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -12622,7 +12622,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6848522</v>
+        <v>6848521</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12634,58 +12634,58 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
         <v>43</v>
       </c>
       <c r="K137">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L137">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M137">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N137">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="O137">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R137">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T137">
         <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W137">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12694,13 +12694,13 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB137">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -12711,7 +12711,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6848521</v>
+        <v>6848522</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12723,58 +12723,58 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
         <v>43</v>
       </c>
       <c r="K138">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L138">
+        <v>3.25</v>
+      </c>
+      <c r="M138">
+        <v>3.25</v>
+      </c>
+      <c r="N138">
+        <v>1.95</v>
+      </c>
+      <c r="O138">
         <v>3.4</v>
       </c>
-      <c r="M138">
-        <v>4</v>
-      </c>
-      <c r="N138">
-        <v>1.7</v>
-      </c>
-      <c r="O138">
-        <v>3.5</v>
-      </c>
       <c r="P138">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q138">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S138">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
         <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W138">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12783,13 +12783,13 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -13257,7 +13257,7 @@
         <v>45234.5</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G144" t="s">
         <v>30</v>
@@ -13705,7 +13705,7 @@
         <v>34</v>
       </c>
       <c r="G149" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13868,7 +13868,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6848537</v>
+        <v>6848536</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13880,76 +13880,76 @@
         <v>45248.5</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G151" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J151" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K151">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L151">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M151">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="N151">
+        <v>2.7</v>
+      </c>
+      <c r="O151">
+        <v>3.5</v>
+      </c>
+      <c r="P151">
+        <v>2.4</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <v>1.95</v>
+      </c>
+      <c r="S151">
+        <v>1.85</v>
+      </c>
+      <c r="T151">
+        <v>2.5</v>
+      </c>
+      <c r="U151">
+        <v>1.95</v>
+      </c>
+      <c r="V151">
+        <v>1.85</v>
+      </c>
+      <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
+        <v>-1</v>
+      </c>
+      <c r="Y151">
         <v>1.4</v>
       </c>
-      <c r="O151">
-        <v>4.75</v>
-      </c>
-      <c r="P151">
-        <v>7</v>
-      </c>
-      <c r="Q151">
-        <v>-1.25</v>
-      </c>
-      <c r="R151">
-        <v>1.85</v>
-      </c>
-      <c r="S151">
-        <v>1.95</v>
-      </c>
-      <c r="T151">
-        <v>2.75</v>
-      </c>
-      <c r="U151">
-        <v>1.8</v>
-      </c>
-      <c r="V151">
-        <v>2</v>
-      </c>
-      <c r="W151">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X151">
-        <v>-1</v>
-      </c>
-      <c r="Y151">
-        <v>-1</v>
-      </c>
       <c r="Z151">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC151">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13957,7 +13957,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6848536</v>
+        <v>6848537</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13969,76 +13969,76 @@
         <v>45248.5</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G152" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K152">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L152">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M152">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="N152">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="O152">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P152">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="Q152">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R152">
+        <v>1.85</v>
+      </c>
+      <c r="S152">
         <v>1.95</v>
       </c>
-      <c r="S152">
-        <v>1.85</v>
-      </c>
       <c r="T152">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V152">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA152">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AB152">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14046,7 +14046,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6848535</v>
+        <v>6848539</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14058,13 +14058,13 @@
         <v>45248.5</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
         <v>2</v>
@@ -14073,34 +14073,34 @@
         <v>42</v>
       </c>
       <c r="K153">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L153">
         <v>3.6</v>
       </c>
       <c r="M153">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N153">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O153">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P153">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q153">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S153">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T153">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U153">
         <v>1.95</v>
@@ -14115,19 +14115,19 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC153">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14224,7 +14224,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6848539</v>
+        <v>6848535</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14236,13 +14236,13 @@
         <v>45248.5</v>
       </c>
       <c r="F155" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G155" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155">
         <v>2</v>
@@ -14251,34 +14251,34 @@
         <v>42</v>
       </c>
       <c r="K155">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L155">
         <v>3.6</v>
       </c>
       <c r="M155">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N155">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O155">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P155">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q155">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R155">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S155">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T155">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U155">
         <v>1.95</v>
@@ -14293,19 +14293,19 @@
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
+        <v>1.025</v>
+      </c>
+      <c r="AB155">
+        <v>-1</v>
+      </c>
+      <c r="AC155">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB155">
-        <v>0.475</v>
-      </c>
-      <c r="AC155">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14859,7 +14859,7 @@
         <v>45269.5</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G162" t="s">
         <v>33</v>
@@ -15203,7 +15203,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6848552</v>
+        <v>6848553</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15215,10 +15215,10 @@
         <v>45276.5</v>
       </c>
       <c r="F166" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G166" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15239,16 +15239,16 @@
         <v>5</v>
       </c>
       <c r="N166">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="O166">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P166">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q166">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R166">
         <v>1.775</v>
@@ -15257,7 +15257,7 @@
         <v>2.025</v>
       </c>
       <c r="T166">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
         <v>1.85</v>
@@ -15266,7 +15266,7 @@
         <v>1.95</v>
       </c>
       <c r="W166">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15275,16 +15275,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA166">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15292,7 +15292,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6848553</v>
+        <v>6848551</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15304,73 +15304,73 @@
         <v>45276.5</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H167">
         <v>2</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J167" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K167">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M167">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="N167">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="O167">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P167">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R167">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S167">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T167">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V167">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W167">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z167">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB167">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC167">
         <v>-1</v>
@@ -15381,7 +15381,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6848551</v>
+        <v>6848550</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15393,13 +15393,13 @@
         <v>45276.5</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G168" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168">
         <v>4</v>
@@ -15408,40 +15408,40 @@
         <v>42</v>
       </c>
       <c r="K168">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="L168">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M168">
         <v>2.1</v>
       </c>
       <c r="N168">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="O168">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P168">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="Q168">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R168">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S168">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T168">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U168">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V168">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W168">
         <v>-1</v>
@@ -15450,16 +15450,16 @@
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>1.4</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z168">
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB168">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC168">
         <v>-1</v>
@@ -15470,7 +15470,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6848550</v>
+        <v>6848552</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15482,76 +15482,76 @@
         <v>45276.5</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G169" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169" t="s">
+        <v>43</v>
+      </c>
+      <c r="K169">
+        <v>1.5</v>
+      </c>
+      <c r="L169">
         <v>4</v>
       </c>
-      <c r="J169" t="s">
-        <v>42</v>
-      </c>
-      <c r="K169">
-        <v>2.7</v>
-      </c>
-      <c r="L169">
-        <v>3.75</v>
-      </c>
       <c r="M169">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="N169">
-        <v>4.2</v>
+        <v>1.45</v>
       </c>
       <c r="O169">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P169">
-        <v>1.65</v>
+        <v>6</v>
       </c>
       <c r="Q169">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R169">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S169">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T169">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U169">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V169">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA169">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB169">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15927,7 +15927,7 @@
         <v>45283.5</v>
       </c>
       <c r="F174" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G174" t="s">
         <v>41</v>
@@ -16093,7 +16093,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6848562</v>
+        <v>6848560</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16105,76 +16105,76 @@
         <v>45290.5</v>
       </c>
       <c r="F176" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K176">
-        <v>2.35</v>
+        <v>4.333</v>
       </c>
       <c r="L176">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M176">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="N176">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="O176">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P176">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R176">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S176">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T176">
         <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V176">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z176">
         <v>-0.5</v>
       </c>
       <c r="AA176">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC176">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16182,7 +16182,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6848560</v>
+        <v>6848562</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16194,76 +16194,76 @@
         <v>45290.5</v>
       </c>
       <c r="F177" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K177">
-        <v>4.333</v>
+        <v>2.35</v>
       </c>
       <c r="L177">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M177">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="N177">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="O177">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P177">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="Q177">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R177">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S177">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T177">
         <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V177">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y177">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
         <v>-0.5</v>
       </c>
       <c r="AA177">
-        <v>0.425</v>
+        <v>0.45</v>
       </c>
       <c r="AB177">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16283,7 +16283,7 @@
         <v>45297.5</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G178" t="s">
         <v>34</v>
@@ -16731,7 +16731,7 @@
         <v>40</v>
       </c>
       <c r="G183" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H183">
         <v>3</v>
@@ -16820,7 +16820,7 @@
         <v>30</v>
       </c>
       <c r="G184" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -17443,7 +17443,7 @@
         <v>32</v>
       </c>
       <c r="G191" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -17873,7 +17873,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7615754</v>
+        <v>7572918</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17885,73 +17885,73 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G196" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196" t="s">
+        <v>43</v>
+      </c>
+      <c r="K196">
+        <v>1.727</v>
+      </c>
+      <c r="L196">
+        <v>3.75</v>
+      </c>
+      <c r="M196">
+        <v>3.75</v>
+      </c>
+      <c r="N196">
         <v>3</v>
       </c>
-      <c r="J196" t="s">
-        <v>42</v>
-      </c>
-      <c r="K196">
-        <v>2.4</v>
-      </c>
-      <c r="L196">
-        <v>3.6</v>
-      </c>
-      <c r="M196">
-        <v>2.4</v>
-      </c>
-      <c r="N196">
-        <v>2.6</v>
-      </c>
       <c r="O196">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P196">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q196">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R196">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S196">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T196">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V196">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA196">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC196">
         <v>-1</v>
@@ -17962,7 +17962,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7572918</v>
+        <v>7615754</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17974,73 +17974,73 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F197" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G197" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J197" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K197">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L197">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M197">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N197">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="O197">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P197">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q197">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R197">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S197">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T197">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U197">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V197">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W197">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z197">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB197">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC197">
         <v>-1</v>
@@ -18140,7 +18140,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6848585</v>
+        <v>6848582</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18152,76 +18152,76 @@
         <v>45325.5</v>
       </c>
       <c r="F199" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G199" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H199">
         <v>1</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K199">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="L199">
         <v>3.75</v>
       </c>
       <c r="M199">
-        <v>4.333</v>
+        <v>1.666</v>
       </c>
       <c r="N199">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="O199">
         <v>3.3</v>
       </c>
       <c r="P199">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q199">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R199">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S199">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T199">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U199">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V199">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W199">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X199">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18318,7 +18318,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6848582</v>
+        <v>6848585</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18330,76 +18330,76 @@
         <v>45325.5</v>
       </c>
       <c r="F201" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G201" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H201">
         <v>1</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K201">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="L201">
         <v>3.75</v>
       </c>
       <c r="M201">
-        <v>1.666</v>
+        <v>4.333</v>
       </c>
       <c r="N201">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="O201">
         <v>3.3</v>
       </c>
       <c r="P201">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q201">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R201">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S201">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T201">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U201">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V201">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X201">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA201">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18775,7 +18775,7 @@
         <v>45332.5</v>
       </c>
       <c r="F206" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G206" t="s">
         <v>29</v>
@@ -18953,7 +18953,7 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F208" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G208" t="s">
         <v>39</v>
@@ -19401,7 +19401,7 @@
         <v>41</v>
       </c>
       <c r="G213" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19653,7 +19653,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6852274</v>
+        <v>6852275</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19662,49 +19662,49 @@
         <v>28</v>
       </c>
       <c r="E216" s="2">
-        <v>45346.45833333334</v>
+        <v>45346.5</v>
       </c>
       <c r="F216" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G216" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K216">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="L216">
         <v>3.75</v>
       </c>
       <c r="M216">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N216">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="O216">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P216">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q216">
         <v>-0.75</v>
       </c>
       <c r="R216">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S216">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T216">
         <v>2.5</v>
       </c>
       <c r="U216">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V216">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W216">
         <v>0</v>
@@ -19754,31 +19754,31 @@
         <v>3.25</v>
       </c>
       <c r="N217">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O217">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P217">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q217">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R217">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S217">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T217">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U217">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V217">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W217">
         <v>0</v>
@@ -19801,7 +19801,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6848594</v>
+        <v>6848595</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19813,31 +19813,31 @@
         <v>45346.5</v>
       </c>
       <c r="F218" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G218" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="K218">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L218">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M218">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="N218">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O218">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P218">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q218">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R218">
         <v>2.05</v>
@@ -19846,13 +19846,13 @@
         <v>1.8</v>
       </c>
       <c r="T218">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U218">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V218">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W218">
         <v>0</v>
@@ -19875,7 +19875,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6848595</v>
+        <v>6848594</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19887,46 +19887,46 @@
         <v>45346.5</v>
       </c>
       <c r="F219" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G219" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K219">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L219">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M219">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="N219">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="O219">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P219">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q219">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R219">
+        <v>2.1</v>
+      </c>
+      <c r="S219">
         <v>1.775</v>
       </c>
-      <c r="S219">
-        <v>2.1</v>
-      </c>
       <c r="T219">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U219">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V219">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W219">
         <v>0</v>
@@ -19941,80 +19941,6 @@
         <v>0</v>
       </c>
       <c r="AA219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:29">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
-      <c r="B220">
-        <v>6852275</v>
-      </c>
-      <c r="C220" t="s">
-        <v>28</v>
-      </c>
-      <c r="D220" t="s">
-        <v>28</v>
-      </c>
-      <c r="E220" s="2">
-        <v>45346.5</v>
-      </c>
-      <c r="F220" t="s">
-        <v>40</v>
-      </c>
-      <c r="G220" t="s">
-        <v>32</v>
-      </c>
-      <c r="K220">
-        <v>1.571</v>
-      </c>
-      <c r="L220">
-        <v>3.75</v>
-      </c>
-      <c r="M220">
-        <v>5.5</v>
-      </c>
-      <c r="N220">
-        <v>1.65</v>
-      </c>
-      <c r="O220">
-        <v>3.6</v>
-      </c>
-      <c r="P220">
-        <v>5</v>
-      </c>
-      <c r="Q220">
-        <v>-0.75</v>
-      </c>
-      <c r="R220">
-        <v>1.85</v>
-      </c>
-      <c r="S220">
-        <v>2</v>
-      </c>
-      <c r="T220">
-        <v>2.5</v>
-      </c>
-      <c r="U220">
-        <v>1.85</v>
-      </c>
-      <c r="V220">
-        <v>2</v>
-      </c>
-      <c r="W220">
-        <v>0</v>
-      </c>
-      <c r="X220">
-        <v>0</v>
-      </c>
-      <c r="Y220">
-        <v>0</v>
-      </c>
-      <c r="Z220">
-        <v>0</v>
-      </c>
-      <c r="AA220">
         <v>0</v>
       </c>
     </row>

--- a/Scotland League Two/Scotland League Two.xlsx
+++ b/Scotland League Two/Scotland League Two.xlsx
@@ -17517,7 +17517,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6848579</v>
+        <v>6848578</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17529,76 +17529,76 @@
         <v>45318.5</v>
       </c>
       <c r="F192" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G192" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K192">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L192">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M192">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N192">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O192">
         <v>3.4</v>
       </c>
       <c r="P192">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="Q192">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R192">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S192">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T192">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U192">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V192">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W192">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X192">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB192">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17606,7 +17606,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6848578</v>
+        <v>6848579</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17618,76 +17618,76 @@
         <v>45318.5</v>
       </c>
       <c r="F193" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G193" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K193">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L193">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M193">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N193">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O193">
         <v>3.4</v>
       </c>
       <c r="P193">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="Q193">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R193">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S193">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T193">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U193">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V193">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X193">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA193">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC193">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -18585,7 +18585,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6848589</v>
+        <v>6848588</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18597,76 +18597,76 @@
         <v>45332.5</v>
       </c>
       <c r="F204" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G204" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I204">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K204">
-        <v>1.3</v>
+        <v>1.615</v>
       </c>
       <c r="L204">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M204">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="N204">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="O204">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P204">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q204">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R204">
+        <v>1.775</v>
+      </c>
+      <c r="S204">
         <v>2.025</v>
       </c>
-      <c r="S204">
-        <v>1.825</v>
-      </c>
       <c r="T204">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U204">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V204">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W204">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA204">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC204">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18674,7 +18674,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6848588</v>
+        <v>6848586</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18686,19 +18686,19 @@
         <v>45332.5</v>
       </c>
       <c r="F205" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G205" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H205">
         <v>2</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K205">
         <v>1.615</v>
@@ -18710,52 +18710,52 @@
         <v>4.333</v>
       </c>
       <c r="N205">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="O205">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P205">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q205">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R205">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S205">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T205">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U205">
+        <v>2</v>
+      </c>
+      <c r="V205">
         <v>1.8</v>
       </c>
-      <c r="V205">
-        <v>2</v>
-      </c>
       <c r="W205">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB205">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC205">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18763,7 +18763,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6848586</v>
+        <v>6848587</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18775,76 +18775,76 @@
         <v>45332.5</v>
       </c>
       <c r="F206" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G206" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
         <v>44</v>
       </c>
       <c r="K206">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="L206">
+        <v>3.4</v>
+      </c>
+      <c r="M206">
+        <v>1.909</v>
+      </c>
+      <c r="N206">
         <v>3.75</v>
       </c>
-      <c r="M206">
-        <v>4.333</v>
-      </c>
-      <c r="N206">
-        <v>1.7</v>
-      </c>
       <c r="O206">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P206">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="Q206">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R206">
+        <v>1.825</v>
+      </c>
+      <c r="S206">
         <v>1.975</v>
       </c>
-      <c r="S206">
-        <v>1.825</v>
-      </c>
       <c r="T206">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U206">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V206">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W206">
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA206">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18852,7 +18852,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6848587</v>
+        <v>6848589</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18864,76 +18864,76 @@
         <v>45332.5</v>
       </c>
       <c r="F207" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G207" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H207">
         <v>1</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K207">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="L207">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M207">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="N207">
-        <v>3.75</v>
+        <v>1.55</v>
       </c>
       <c r="O207">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P207">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="Q207">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R207">
+        <v>2.025</v>
+      </c>
+      <c r="S207">
         <v>1.825</v>
-      </c>
-      <c r="S207">
-        <v>1.975</v>
       </c>
       <c r="T207">
         <v>2.5</v>
       </c>
       <c r="U207">
+        <v>1.975</v>
+      </c>
+      <c r="V207">
         <v>1.875</v>
       </c>
-      <c r="V207">
-        <v>1.925</v>
-      </c>
       <c r="W207">
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z207">
+        <v>-1</v>
+      </c>
+      <c r="AA207">
         <v>0.825</v>
       </c>
-      <c r="AA207">
-        <v>-1</v>
-      </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC207">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">

--- a/Scotland League Two/Scotland League Two.xlsx
+++ b/Scotland League Two/Scotland League Two.xlsx
@@ -109,25 +109,25 @@
     <t>Elgin</t>
   </si>
   <si>
-    <t>Stenhousemuir</t>
-  </si>
-  <si>
     <t>Bonnyrigg Rose</t>
   </si>
   <si>
     <t>Spartans</t>
   </si>
   <si>
-    <t>Stranraer</t>
-  </si>
-  <si>
-    <t>Clyde</t>
+    <t>Stenhousemuir</t>
   </si>
   <si>
     <t>Peterhead</t>
   </si>
   <si>
     <t>Forfar</t>
+  </si>
+  <si>
+    <t>Clyde</t>
+  </si>
+  <si>
+    <t>Stranraer</t>
   </si>
   <si>
     <t>Dumbarton</t>
@@ -613,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6848481</v>
+        <v>6848596</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -791,37 +791,37 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>40</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L4">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N4">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="O4">
         <v>3.3</v>
       </c>
       <c r="P4">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>1.95</v>
@@ -830,7 +830,7 @@
         <v>1.85</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
         <v>2</v>
@@ -848,10 +848,10 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
         <v>-1</v>
@@ -865,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6848596</v>
+        <v>6997303</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -892,61 +892,61 @@
         <v>40</v>
       </c>
       <c r="K5">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="N5">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="O5">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P5">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
+        <v>1.85</v>
+      </c>
+      <c r="S5">
         <v>1.95</v>
-      </c>
-      <c r="S5">
-        <v>1.85</v>
       </c>
       <c r="T5">
         <v>2.5</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -954,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6997303</v>
+        <v>6848481</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -972,70 +972,70 @@
         <v>35</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>40</v>
       </c>
       <c r="K6">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M6">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P6">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q6">
+        <v>-0.25</v>
+      </c>
+      <c r="R6">
+        <v>1.95</v>
+      </c>
+      <c r="S6">
+        <v>1.85</v>
+      </c>
+      <c r="T6">
+        <v>2.75</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>1.8</v>
+      </c>
+      <c r="W6">
+        <v>-1</v>
+      </c>
+      <c r="X6">
+        <v>2.3</v>
+      </c>
+      <c r="Y6">
+        <v>-1</v>
+      </c>
+      <c r="Z6">
         <v>-0.5</v>
       </c>
-      <c r="R6">
-        <v>1.85</v>
-      </c>
-      <c r="S6">
-        <v>1.95</v>
-      </c>
-      <c r="T6">
-        <v>2.5</v>
-      </c>
-      <c r="U6">
-        <v>1.825</v>
-      </c>
-      <c r="V6">
-        <v>1.975</v>
-      </c>
-      <c r="W6">
-        <v>-1</v>
-      </c>
-      <c r="X6">
-        <v>2.5</v>
-      </c>
-      <c r="Y6">
-        <v>-1</v>
-      </c>
-      <c r="Z6">
-        <v>-1</v>
-      </c>
       <c r="AA6">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6848487</v>
+        <v>6848486</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1058,58 +1058,58 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>40</v>
       </c>
       <c r="K7">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L7">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N7">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O7">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q7">
         <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
         <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V7">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y7">
         <v>-1</v>
@@ -1118,13 +1118,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA7">
-        <v>0.425</v>
+        <v>0.4</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6848483</v>
+        <v>6848485</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1147,73 +1147,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L8">
         <v>3.4</v>
       </c>
       <c r="M8">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N8">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O8">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P8">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R8">
+        <v>2.025</v>
+      </c>
+      <c r="S8">
         <v>1.775</v>
-      </c>
-      <c r="S8">
-        <v>2.025</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y8">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6848486</v>
+        <v>6848483</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,37 +1242,37 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L9">
         <v>3.4</v>
       </c>
       <c r="M9">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N9">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P9">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
         <v>2.5</v>
@@ -1287,16 +1287,16 @@
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
       <c r="AB9">
         <v>-1</v>
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6848485</v>
+        <v>6848487</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1325,43 +1325,43 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>40</v>
       </c>
       <c r="K10">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M10">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N10">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P10">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>2.5</v>
@@ -1376,16 +1376,16 @@
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AB10">
         <v>-1</v>
@@ -1414,7 +1414,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1488,7 +1488,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6848489</v>
+        <v>6848488</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1500,40 +1500,40 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K12">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L12">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M12">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N12">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="O12">
         <v>3.4</v>
       </c>
       <c r="P12">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
         <v>1.9</v>
@@ -1542,31 +1542,31 @@
         <v>1.9</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
+        <v>-1</v>
+      </c>
+      <c r="Y12">
         <v>1.1</v>
       </c>
-      <c r="X12">
-        <v>-1</v>
-      </c>
-      <c r="Y12">
-        <v>-1</v>
-      </c>
       <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA12">
-        <v>-1</v>
-      </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1577,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6848491</v>
+        <v>6848597</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1589,49 +1589,49 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="L13">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M13">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N13">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O13">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P13">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q13">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S13">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
         <v>1.95</v>
@@ -1640,25 +1640,25 @@
         <v>1.85</v>
       </c>
       <c r="W13">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA13">
-        <v>-0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="AB13">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1666,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6848488</v>
+        <v>6848490</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1678,13 +1678,13 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -1693,61 +1693,61 @@
         <v>39</v>
       </c>
       <c r="K14">
+        <v>2.3</v>
+      </c>
+      <c r="L14">
+        <v>3.4</v>
+      </c>
+      <c r="M14">
+        <v>2.6</v>
+      </c>
+      <c r="N14">
+        <v>2.1</v>
+      </c>
+      <c r="O14">
+        <v>3.5</v>
+      </c>
+      <c r="P14">
+        <v>2.8</v>
+      </c>
+      <c r="Q14">
+        <v>-0.25</v>
+      </c>
+      <c r="R14">
+        <v>2.025</v>
+      </c>
+      <c r="S14">
+        <v>1.825</v>
+      </c>
+      <c r="T14">
+        <v>2.75</v>
+      </c>
+      <c r="U14">
+        <v>1.975</v>
+      </c>
+      <c r="V14">
+        <v>1.875</v>
+      </c>
+      <c r="W14">
+        <v>-1</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
         <v>1.8</v>
       </c>
-      <c r="L14">
-        <v>3.6</v>
-      </c>
-      <c r="M14">
-        <v>3.6</v>
-      </c>
-      <c r="N14">
-        <v>2.875</v>
-      </c>
-      <c r="O14">
-        <v>3.4</v>
-      </c>
-      <c r="P14">
-        <v>2.1</v>
-      </c>
-      <c r="Q14">
-        <v>0.25</v>
-      </c>
-      <c r="R14">
-        <v>1.9</v>
-      </c>
-      <c r="S14">
-        <v>1.9</v>
-      </c>
-      <c r="T14">
-        <v>2.5</v>
-      </c>
-      <c r="U14">
-        <v>1.85</v>
-      </c>
-      <c r="V14">
-        <v>1.95</v>
-      </c>
-      <c r="W14">
-        <v>-1</v>
-      </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
-      <c r="Y14">
-        <v>1.1</v>
-      </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB14">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6848490</v>
+        <v>6848491</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1767,76 +1767,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N15">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P15">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA15">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC15">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1844,7 +1844,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6848597</v>
+        <v>6848489</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1856,19 +1856,19 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -1880,52 +1880,52 @@
         <v>2.6</v>
       </c>
       <c r="N16">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O16">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P16">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q16">
         <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S16">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U16">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X16">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA16">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC16">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2034,10 +2034,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2123,10 +2123,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
         <v>38</v>
@@ -2301,10 +2301,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2378,7 +2378,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6848501</v>
+        <v>6848497</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2390,76 +2390,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L22">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
-        <v>2.875</v>
+        <v>3.7</v>
       </c>
       <c r="N22">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O22">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P22">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q22">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R22">
         <v>2</v>
       </c>
       <c r="S22">
+        <v>1.8</v>
+      </c>
+      <c r="T22">
+        <v>2.25</v>
+      </c>
+      <c r="U22">
+        <v>1.95</v>
+      </c>
+      <c r="V22">
         <v>1.85</v>
       </c>
-      <c r="T22">
-        <v>2.5</v>
-      </c>
-      <c r="U22">
-        <v>1.925</v>
-      </c>
-      <c r="V22">
-        <v>1.925</v>
-      </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2467,7 +2467,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6848500</v>
+        <v>6848498</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2479,76 +2479,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L23">
         <v>3.4</v>
       </c>
       <c r="M23">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N23">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P23">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
         <v>2.5</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W23">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
+        <v>0.425</v>
+      </c>
+      <c r="AA23">
+        <v>-0.5</v>
+      </c>
+      <c r="AB23">
+        <v>-1</v>
+      </c>
+      <c r="AC23">
         <v>0.825</v>
-      </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>1</v>
-      </c>
-      <c r="AC23">
-        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2645,7 +2645,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6848498</v>
+        <v>6848500</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2657,76 +2657,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L25">
         <v>3.4</v>
       </c>
       <c r="M25">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N25">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="O25">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P25">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q25">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V25">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X25">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AA25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC25">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2734,7 +2734,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6848497</v>
+        <v>6848501</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2749,73 +2749,73 @@
         <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L26">
+        <v>3.3</v>
+      </c>
+      <c r="M26">
+        <v>2.875</v>
+      </c>
+      <c r="N26">
+        <v>1.909</v>
+      </c>
+      <c r="O26">
+        <v>3.3</v>
+      </c>
+      <c r="P26">
         <v>3.5</v>
       </c>
-      <c r="M26">
-        <v>3.7</v>
-      </c>
-      <c r="N26">
-        <v>1.75</v>
-      </c>
-      <c r="O26">
-        <v>3.25</v>
-      </c>
-      <c r="P26">
-        <v>4.75</v>
-      </c>
       <c r="Q26">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
         <v>2</v>
       </c>
       <c r="S26">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T26">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V26">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W26">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB26">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2835,10 +2835,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2912,7 +2912,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6848504</v>
+        <v>6848506</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2924,73 +2924,73 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" t="s">
         <v>37</v>
       </c>
-      <c r="G28" t="s">
-        <v>33</v>
-      </c>
       <c r="H28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="L28">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M28">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N28">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="O28">
         <v>3.4</v>
       </c>
       <c r="P28">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q28">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
         <v>1.85</v>
       </c>
       <c r="S28">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
         <v>1.925</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X28">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3001,7 +3001,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6848503</v>
+        <v>6848504</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3013,76 +3013,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>2</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="L29">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M29">
+        <v>2.3</v>
+      </c>
+      <c r="N29">
+        <v>3.1</v>
+      </c>
+      <c r="O29">
+        <v>3.4</v>
+      </c>
+      <c r="P29">
+        <v>2.25</v>
+      </c>
+      <c r="Q29">
+        <v>0.25</v>
+      </c>
+      <c r="R29">
+        <v>1.85</v>
+      </c>
+      <c r="S29">
+        <v>1.95</v>
+      </c>
+      <c r="T29">
+        <v>2.25</v>
+      </c>
+      <c r="U29">
+        <v>1.875</v>
+      </c>
+      <c r="V29">
+        <v>1.925</v>
+      </c>
+      <c r="W29">
+        <v>-1</v>
+      </c>
+      <c r="X29">
         <v>2.4</v>
       </c>
-      <c r="N29">
-        <v>4</v>
-      </c>
-      <c r="O29">
-        <v>3.5</v>
-      </c>
-      <c r="P29">
-        <v>1.85</v>
-      </c>
-      <c r="Q29">
-        <v>0.5</v>
-      </c>
-      <c r="R29">
-        <v>1.95</v>
-      </c>
-      <c r="S29">
-        <v>1.85</v>
-      </c>
-      <c r="T29">
-        <v>2.5</v>
-      </c>
-      <c r="U29">
-        <v>1.85</v>
-      </c>
-      <c r="V29">
-        <v>1.95</v>
-      </c>
-      <c r="W29">
-        <v>3</v>
-      </c>
-      <c r="X29">
-        <v>-1</v>
-      </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3105,7 +3105,7 @@
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3179,7 +3179,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6848506</v>
+        <v>6848503</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3191,13 +3191,13 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3206,43 +3206,43 @@
         <v>41</v>
       </c>
       <c r="K31">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="L31">
         <v>3.3</v>
       </c>
       <c r="M31">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N31">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="O31">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
+        <v>1.95</v>
+      </c>
+      <c r="S31">
         <v>1.85</v>
-      </c>
-      <c r="S31">
-        <v>2</v>
       </c>
       <c r="T31">
         <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W31">
-        <v>1.15</v>
+        <v>3</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3251,16 +3251,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3280,10 +3280,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3369,7 +3369,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -3458,7 +3458,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
         <v>30</v>
@@ -3550,7 +3550,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3636,10 +3636,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3713,7 +3713,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6848512</v>
+        <v>6848598</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3725,49 +3725,49 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
         <v>37</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K37">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N37">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="O37">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P37">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
         <v>1.8</v>
@@ -3776,25 +3776,25 @@
         <v>2</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X37">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC37">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3802,7 +3802,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6848513</v>
+        <v>6848514</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3814,73 +3814,73 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" t="s">
         <v>36</v>
       </c>
-      <c r="G38" t="s">
-        <v>30</v>
-      </c>
       <c r="H38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K38">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L38">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N38">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="O38">
         <v>3.8</v>
       </c>
       <c r="P38">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q38">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R38">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S38">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T38">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -3891,7 +3891,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6848515</v>
+        <v>6848513</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3903,73 +3903,73 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K39">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M39">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N39">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O39">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P39">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
+        <v>1.875</v>
+      </c>
+      <c r="S39">
+        <v>1.925</v>
+      </c>
+      <c r="T39">
+        <v>2.75</v>
+      </c>
+      <c r="U39">
+        <v>2</v>
+      </c>
+      <c r="V39">
         <v>1.8</v>
       </c>
-      <c r="S39">
-        <v>2.05</v>
-      </c>
-      <c r="T39">
-        <v>2.25</v>
-      </c>
-      <c r="U39">
-        <v>1.825</v>
-      </c>
-      <c r="V39">
-        <v>2.025</v>
-      </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X39">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA39">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -3980,7 +3980,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6848514</v>
+        <v>6848512</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3992,76 +3992,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
         <v>35</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>40</v>
       </c>
       <c r="K40">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L40">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N40">
-        <v>1.6</v>
+        <v>2.375</v>
       </c>
       <c r="O40">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P40">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q40">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S40">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T40">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V40">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA40">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AB40">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4069,7 +4069,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6848598</v>
+        <v>6848515</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4081,73 +4081,73 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L41">
+        <v>3.4</v>
+      </c>
+      <c r="M41">
+        <v>3.2</v>
+      </c>
+      <c r="N41">
+        <v>2.05</v>
+      </c>
+      <c r="O41">
         <v>3.3</v>
       </c>
-      <c r="M41">
-        <v>3.75</v>
-      </c>
-      <c r="N41">
-        <v>1.75</v>
-      </c>
-      <c r="O41">
-        <v>3.5</v>
-      </c>
       <c r="P41">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S41">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T41">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U41">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W41">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB41">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4170,10 +4170,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>3</v>
@@ -4259,7 +4259,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
         <v>38</v>
@@ -4348,10 +4348,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4425,7 +4425,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6848521</v>
+        <v>6848525</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4440,55 +4440,55 @@
         <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>41</v>
       </c>
       <c r="K45">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L45">
         <v>3.4</v>
       </c>
       <c r="M45">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N45">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O45">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P45">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q45">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S45">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T45">
         <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V45">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4497,16 +4497,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4529,7 +4529,7 @@
         <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <v>4</v>
@@ -4603,7 +4603,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6848525</v>
+        <v>6848521</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4615,58 +4615,58 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>41</v>
       </c>
       <c r="K47">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L47">
         <v>3.4</v>
       </c>
       <c r="M47">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N47">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="O47">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P47">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R47">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4675,16 +4675,16 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC47">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4707,7 +4707,7 @@
         <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4781,7 +4781,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6848599</v>
+        <v>6848526</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4793,13 +4793,13 @@
         <v>45234.5</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -4808,43 +4808,43 @@
         <v>41</v>
       </c>
       <c r="K49">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L49">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M49">
         <v>3.4</v>
       </c>
       <c r="N49">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O49">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P49">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q49">
         <v>-0.5</v>
       </c>
       <c r="R49">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S49">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T49">
         <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V49">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W49">
-        <v>0.833</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4853,16 +4853,16 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4870,7 +4870,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6848528</v>
+        <v>6848527</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4882,43 +4882,43 @@
         <v>45234.5</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
         <v>1</v>
       </c>
-      <c r="I50">
-        <v>2</v>
-      </c>
       <c r="J50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K50">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="L50">
+        <v>3.4</v>
+      </c>
+      <c r="M50">
         <v>3.6</v>
       </c>
-      <c r="M50">
-        <v>2.1</v>
-      </c>
       <c r="N50">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="O50">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P50">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q50">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R50">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
         <v>1.875</v>
@@ -4927,31 +4927,31 @@
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA50">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AC50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4959,7 +4959,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6848527</v>
+        <v>6848528</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4971,43 +4971,43 @@
         <v>45234.5</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K51">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="L51">
+        <v>3.6</v>
+      </c>
+      <c r="M51">
+        <v>2.1</v>
+      </c>
+      <c r="N51">
         <v>3.4</v>
       </c>
-      <c r="M51">
-        <v>3.6</v>
-      </c>
-      <c r="N51">
-        <v>1.666</v>
-      </c>
       <c r="O51">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P51">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q51">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R51">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
         <v>1.875</v>
@@ -5016,31 +5016,31 @@
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W51">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB51">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5048,7 +5048,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6848526</v>
+        <v>6848529</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5060,76 +5060,76 @@
         <v>45234.5</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K52">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="L52">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M52">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N52">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="O52">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P52">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="Q52">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V52">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5137,7 +5137,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6848529</v>
+        <v>6848599</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5149,73 +5149,73 @@
         <v>45234.5</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
         <v>31</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K53">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L53">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M53">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N53">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O53">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P53">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q53">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S53">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T53">
         <v>2.5</v>
       </c>
       <c r="U53">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V53">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA53">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -5226,7 +5226,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6848532</v>
+        <v>6848534</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5238,76 +5238,76 @@
         <v>45241.5</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54" t="s">
+        <v>41</v>
+      </c>
+      <c r="K54">
+        <v>2.2</v>
+      </c>
+      <c r="L54">
+        <v>3.3</v>
+      </c>
+      <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="N54">
+        <v>2.1</v>
+      </c>
+      <c r="O54">
+        <v>3.3</v>
+      </c>
+      <c r="P54">
+        <v>3.1</v>
+      </c>
+      <c r="Q54">
+        <v>-0.25</v>
+      </c>
+      <c r="R54">
+        <v>1.9</v>
+      </c>
+      <c r="S54">
+        <v>1.9</v>
+      </c>
+      <c r="T54">
+        <v>2.75</v>
+      </c>
+      <c r="U54">
+        <v>2</v>
+      </c>
+      <c r="V54">
+        <v>1.8</v>
+      </c>
+      <c r="W54">
+        <v>1.1</v>
+      </c>
+      <c r="X54">
+        <v>-1</v>
+      </c>
+      <c r="Y54">
+        <v>-1</v>
+      </c>
+      <c r="Z54">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA54">
+        <v>-1</v>
+      </c>
+      <c r="AB54">
         <v>1</v>
       </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="J54" t="s">
-        <v>40</v>
-      </c>
-      <c r="K54">
-        <v>1.909</v>
-      </c>
-      <c r="L54">
-        <v>3.4</v>
-      </c>
-      <c r="M54">
-        <v>3.6</v>
-      </c>
-      <c r="N54">
-        <v>1.85</v>
-      </c>
-      <c r="O54">
-        <v>3.4</v>
-      </c>
-      <c r="P54">
-        <v>3.8</v>
-      </c>
-      <c r="Q54">
-        <v>-0.5</v>
-      </c>
-      <c r="R54">
-        <v>1.85</v>
-      </c>
-      <c r="S54">
-        <v>1.95</v>
-      </c>
-      <c r="T54">
-        <v>2.5</v>
-      </c>
-      <c r="U54">
-        <v>1.8</v>
-      </c>
-      <c r="V54">
-        <v>2</v>
-      </c>
-      <c r="W54">
-        <v>-1</v>
-      </c>
-      <c r="X54">
-        <v>2.4</v>
-      </c>
-      <c r="Y54">
-        <v>-1</v>
-      </c>
-      <c r="Z54">
-        <v>-1</v>
-      </c>
-      <c r="AA54">
-        <v>0.95</v>
-      </c>
-      <c r="AB54">
-        <v>-1</v>
-      </c>
       <c r="AC54">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5327,10 +5327,10 @@
         <v>45241.5</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5404,7 +5404,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6848534</v>
+        <v>6848532</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5416,76 +5416,76 @@
         <v>45241.5</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K56">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L56">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M56">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N56">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O56">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P56">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U56">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V56">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W56">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB56">
+        <v>-1</v>
+      </c>
+      <c r="AC56">
         <v>1</v>
-      </c>
-      <c r="AC56">
-        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5508,7 +5508,7 @@
         <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5683,10 +5683,10 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -5760,7 +5760,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6848535</v>
+        <v>6848539</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5775,10 +5775,10 @@
         <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>2</v>
@@ -5787,34 +5787,34 @@
         <v>39</v>
       </c>
       <c r="K60">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L60">
         <v>3.6</v>
       </c>
       <c r="M60">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N60">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O60">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P60">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S60">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T60">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U60">
         <v>1.95</v>
@@ -5829,19 +5829,19 @@
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="Z60">
         <v>-1</v>
       </c>
       <c r="AA60">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC60">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5849,7 +5849,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6848536</v>
+        <v>6848538</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5861,55 +5861,55 @@
         <v>45248.5</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J61" t="s">
         <v>39</v>
       </c>
       <c r="K61">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L61">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M61">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N61">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O61">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P61">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T61">
         <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V61">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W61">
         <v>-1</v>
@@ -5918,16 +5918,16 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>1.4</v>
+        <v>0.95</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB61">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -6027,7 +6027,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6848539</v>
+        <v>6848536</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6039,40 +6039,40 @@
         <v>45248.5</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J63" t="s">
         <v>39</v>
       </c>
       <c r="K63">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L63">
         <v>3.6</v>
       </c>
       <c r="M63">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="N63">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O63">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P63">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R63">
         <v>1.95</v>
@@ -6081,7 +6081,7 @@
         <v>1.85</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
         <v>1.95</v>
@@ -6096,7 +6096,7 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="Z63">
         <v>-1</v>
@@ -6105,10 +6105,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB63">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AC63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6116,7 +6116,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6848538</v>
+        <v>6848535</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6128,55 +6128,55 @@
         <v>45248.5</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J64" t="s">
         <v>39</v>
       </c>
       <c r="K64">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L64">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M64">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="N64">
+        <v>2.45</v>
+      </c>
+      <c r="O64">
         <v>3.4</v>
       </c>
-      <c r="O64">
-        <v>3.8</v>
-      </c>
       <c r="P64">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="Q64">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S64">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T64">
         <v>2.5</v>
       </c>
       <c r="U64">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V64">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W64">
         <v>-1</v>
@@ -6185,19 +6185,19 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0.95</v>
+        <v>1.7</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB64">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6205,7 +6205,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7451460</v>
+        <v>7396254</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6217,58 +6217,58 @@
         <v>45251.69791666666</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
         <v>41</v>
       </c>
       <c r="K65">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L65">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
+        <v>2.8</v>
+      </c>
+      <c r="N65">
+        <v>2.9</v>
+      </c>
+      <c r="O65">
         <v>3.1</v>
       </c>
-      <c r="N65">
-        <v>2.6</v>
-      </c>
-      <c r="O65">
-        <v>3.4</v>
-      </c>
       <c r="P65">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q65">
         <v>0</v>
       </c>
       <c r="R65">
+        <v>2.05</v>
+      </c>
+      <c r="S65">
+        <v>1.75</v>
+      </c>
+      <c r="T65">
+        <v>2.25</v>
+      </c>
+      <c r="U65">
         <v>1.925</v>
       </c>
-      <c r="S65">
+      <c r="V65">
         <v>1.875</v>
       </c>
-      <c r="T65">
-        <v>2.5</v>
-      </c>
-      <c r="U65">
-        <v>2</v>
-      </c>
-      <c r="V65">
-        <v>1.8</v>
-      </c>
       <c r="W65">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6277,16 +6277,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6294,7 +6294,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7396254</v>
+        <v>7451460</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6306,58 +6306,58 @@
         <v>45251.69791666666</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
         <v>41</v>
       </c>
       <c r="K66">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L66">
+        <v>3.5</v>
+      </c>
+      <c r="M66">
+        <v>3.1</v>
+      </c>
+      <c r="N66">
+        <v>2.6</v>
+      </c>
+      <c r="O66">
         <v>3.4</v>
       </c>
-      <c r="M66">
-        <v>2.8</v>
-      </c>
-      <c r="N66">
-        <v>2.9</v>
-      </c>
-      <c r="O66">
-        <v>3.1</v>
-      </c>
       <c r="P66">
+        <v>2.55</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>1.925</v>
+      </c>
+      <c r="S66">
+        <v>1.875</v>
+      </c>
+      <c r="T66">
         <v>2.5</v>
       </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>2.05</v>
-      </c>
-      <c r="S66">
-        <v>1.75</v>
-      </c>
-      <c r="T66">
-        <v>2.25</v>
-      </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V66">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W66">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6366,16 +6366,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC66">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6383,7 +6383,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6848544</v>
+        <v>6848542</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6395,76 +6395,76 @@
         <v>45262.5</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K67">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L67">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M67">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N67">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="O67">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P67">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q67">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
+        <v>1.825</v>
+      </c>
+      <c r="S67">
+        <v>1.975</v>
+      </c>
+      <c r="T67">
+        <v>2.25</v>
+      </c>
+      <c r="U67">
+        <v>1.875</v>
+      </c>
+      <c r="V67">
         <v>1.925</v>
       </c>
-      <c r="S67">
-        <v>1.925</v>
-      </c>
-      <c r="T67">
-        <v>2.75</v>
-      </c>
-      <c r="U67">
-        <v>2.025</v>
-      </c>
-      <c r="V67">
-        <v>1.825</v>
-      </c>
       <c r="W67">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
+        <v>-0.5</v>
+      </c>
+      <c r="AA67">
+        <v>0.4875</v>
+      </c>
+      <c r="AB67">
+        <v>-0.5</v>
+      </c>
+      <c r="AC67">
         <v>0.4625</v>
-      </c>
-      <c r="AA67">
-        <v>-0.5</v>
-      </c>
-      <c r="AB67">
-        <v>-1</v>
-      </c>
-      <c r="AC67">
-        <v>0.825</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6472,7 +6472,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6848542</v>
+        <v>6848544</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6484,76 +6484,76 @@
         <v>45262.5</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K68">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M68">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N68">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="O68">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P68">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
+        <v>1.925</v>
+      </c>
+      <c r="S68">
+        <v>1.925</v>
+      </c>
+      <c r="T68">
+        <v>2.75</v>
+      </c>
+      <c r="U68">
+        <v>2.025</v>
+      </c>
+      <c r="V68">
         <v>1.825</v>
       </c>
-      <c r="S68">
-        <v>1.975</v>
-      </c>
-      <c r="T68">
-        <v>2.25</v>
-      </c>
-      <c r="U68">
-        <v>1.875</v>
-      </c>
-      <c r="V68">
-        <v>1.925</v>
-      </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X68">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
+        <v>0.4625</v>
+      </c>
+      <c r="AA68">
         <v>-0.5</v>
       </c>
-      <c r="AA68">
-        <v>0.4875</v>
-      </c>
       <c r="AB68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6573,10 +6573,10 @@
         <v>45269.5</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6739,7 +6739,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6848546</v>
+        <v>6848547</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6751,76 +6751,76 @@
         <v>45269.5</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K71">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L71">
         <v>3.75</v>
       </c>
       <c r="M71">
+        <v>2.7</v>
+      </c>
+      <c r="N71">
         <v>2.25</v>
       </c>
-      <c r="N71">
-        <v>2.5</v>
-      </c>
       <c r="O71">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P71">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S71">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T71">
         <v>2.5</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V71">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z71">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB71">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6828,7 +6828,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6848547</v>
+        <v>6848546</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6840,76 +6840,76 @@
         <v>45269.5</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K72">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L72">
         <v>3.75</v>
       </c>
       <c r="M72">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="N72">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O72">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P72">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S72">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T72">
         <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y72">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA72">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC72">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6929,10 +6929,10 @@
         <v>45269.5</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7006,7 +7006,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6848600</v>
+        <v>6848550</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7018,70 +7018,70 @@
         <v>45276.5</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
         <v>32</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K74">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L74">
         <v>3.75</v>
       </c>
       <c r="M74">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="N74">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P74">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R74">
         <v>1.975</v>
       </c>
       <c r="S74">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T74">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
         <v>1.925</v>
       </c>
       <c r="V74">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W74">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z74">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB74">
         <v>0.925</v>
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6848553</v>
+        <v>6848600</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,13 +7107,13 @@
         <v>45276.5</v>
       </c>
       <c r="F75" t="s">
+        <v>37</v>
+      </c>
+      <c r="G75" t="s">
         <v>31</v>
       </c>
-      <c r="G75" t="s">
-        <v>29</v>
-      </c>
       <c r="H75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -7122,44 +7122,44 @@
         <v>41</v>
       </c>
       <c r="K75">
+        <v>2.1</v>
+      </c>
+      <c r="L75">
+        <v>3.75</v>
+      </c>
+      <c r="M75">
+        <v>2.7</v>
+      </c>
+      <c r="N75">
+        <v>2.5</v>
+      </c>
+      <c r="O75">
+        <v>3.4</v>
+      </c>
+      <c r="P75">
+        <v>2.45</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>1.975</v>
+      </c>
+      <c r="S75">
+        <v>1.825</v>
+      </c>
+      <c r="T75">
+        <v>2.25</v>
+      </c>
+      <c r="U75">
+        <v>1.925</v>
+      </c>
+      <c r="V75">
+        <v>1.875</v>
+      </c>
+      <c r="W75">
         <v>1.5</v>
       </c>
-      <c r="L75">
-        <v>4</v>
-      </c>
-      <c r="M75">
-        <v>5</v>
-      </c>
-      <c r="N75">
-        <v>1.75</v>
-      </c>
-      <c r="O75">
-        <v>3.6</v>
-      </c>
-      <c r="P75">
-        <v>4</v>
-      </c>
-      <c r="Q75">
-        <v>-0.5</v>
-      </c>
-      <c r="R75">
-        <v>1.775</v>
-      </c>
-      <c r="S75">
-        <v>2.025</v>
-      </c>
-      <c r="T75">
-        <v>2.5</v>
-      </c>
-      <c r="U75">
-        <v>1.85</v>
-      </c>
-      <c r="V75">
-        <v>1.95</v>
-      </c>
-      <c r="W75">
-        <v>0.75</v>
-      </c>
       <c r="X75">
         <v>-1</v>
       </c>
@@ -7167,13 +7167,13 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7196,10 +7196,10 @@
         <v>45276.5</v>
       </c>
       <c r="F76" t="s">
+        <v>34</v>
+      </c>
+      <c r="G76" t="s">
         <v>36</v>
-      </c>
-      <c r="G76" t="s">
-        <v>35</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7273,7 +7273,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6848550</v>
+        <v>6848551</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7285,13 +7285,13 @@
         <v>45276.5</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77">
         <v>4</v>
@@ -7300,41 +7300,41 @@
         <v>39</v>
       </c>
       <c r="K77">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="L77">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
         <v>2.1</v>
       </c>
       <c r="N77">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="O77">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P77">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="Q77">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>1.8</v>
+      </c>
+      <c r="T77">
+        <v>2.25</v>
+      </c>
+      <c r="U77">
+        <v>1.825</v>
+      </c>
+      <c r="V77">
         <v>1.975</v>
       </c>
-      <c r="S77">
-        <v>1.875</v>
-      </c>
-      <c r="T77">
-        <v>2.5</v>
-      </c>
-      <c r="U77">
-        <v>1.925</v>
-      </c>
-      <c r="V77">
-        <v>1.925</v>
-      </c>
       <c r="W77">
         <v>-1</v>
       </c>
@@ -7342,16 +7342,16 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.6499999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB77">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -7362,7 +7362,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6848551</v>
+        <v>6848553</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7374,73 +7374,73 @@
         <v>45276.5</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
       <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>41</v>
+      </c>
+      <c r="K78">
+        <v>1.5</v>
+      </c>
+      <c r="L78">
         <v>4</v>
       </c>
-      <c r="J78" t="s">
-        <v>39</v>
-      </c>
-      <c r="K78">
-        <v>2.8</v>
-      </c>
-      <c r="L78">
-        <v>3.5</v>
-      </c>
       <c r="M78">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="N78">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="O78">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P78">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T78">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7466,7 +7466,7 @@
         <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7555,7 +7555,7 @@
         <v>38</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H80">
         <v>4</v>
@@ -7641,10 +7641,10 @@
         <v>45283.5</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7730,7 +7730,7 @@
         <v>45283.5</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
         <v>30</v>
@@ -7819,10 +7819,10 @@
         <v>45283.5</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H83">
         <v>3</v>
@@ -7896,7 +7896,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6848561</v>
+        <v>6848562</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7908,76 +7908,76 @@
         <v>45290.5</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K84">
-        <v>3.75</v>
+        <v>2.35</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M84">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="N84">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="O84">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P84">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="Q84">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S84">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T84">
         <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB84">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7985,7 +7985,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6848562</v>
+        <v>6848561</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -7997,76 +7997,76 @@
         <v>45290.5</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K85">
-        <v>2.35</v>
+        <v>3.75</v>
       </c>
       <c r="L85">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M85">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="N85">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="O85">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P85">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T85">
         <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X85">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA85">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8086,10 +8086,10 @@
         <v>45290.5</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8163,7 +8163,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6848563</v>
+        <v>6848565</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8175,16 +8175,16 @@
         <v>45297.5</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>41</v>
@@ -8199,35 +8199,35 @@
         <v>2.25</v>
       </c>
       <c r="N87">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="O87">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P87">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R87">
+        <v>2.05</v>
+      </c>
+      <c r="S87">
+        <v>1.75</v>
+      </c>
+      <c r="T87">
+        <v>2.25</v>
+      </c>
+      <c r="U87">
+        <v>2.025</v>
+      </c>
+      <c r="V87">
+        <v>1.775</v>
+      </c>
+      <c r="W87">
         <v>1.875</v>
       </c>
-      <c r="S87">
-        <v>1.925</v>
-      </c>
-      <c r="T87">
-        <v>2.75</v>
-      </c>
-      <c r="U87">
-        <v>1.9</v>
-      </c>
-      <c r="V87">
-        <v>1.9</v>
-      </c>
-      <c r="W87">
-        <v>1.7</v>
-      </c>
       <c r="X87">
         <v>-1</v>
       </c>
@@ -8235,13 +8235,13 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8252,7 +8252,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6848564</v>
+        <v>6848563</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8264,76 +8264,76 @@
         <v>45297.5</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I88">
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K88">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L88">
         <v>3.75</v>
       </c>
       <c r="M88">
+        <v>2.25</v>
+      </c>
+      <c r="N88">
+        <v>2.7</v>
+      </c>
+      <c r="O88">
         <v>4</v>
       </c>
-      <c r="N88">
-        <v>1.75</v>
-      </c>
-      <c r="O88">
-        <v>3.8</v>
-      </c>
       <c r="P88">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q88">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R88">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S88">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
         <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8341,7 +8341,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6848565</v>
+        <v>6848567</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8353,10 +8353,10 @@
         <v>45297.5</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8368,43 +8368,43 @@
         <v>41</v>
       </c>
       <c r="K89">
+        <v>1.533</v>
+      </c>
+      <c r="L89">
+        <v>3.8</v>
+      </c>
+      <c r="M89">
+        <v>5</v>
+      </c>
+      <c r="N89">
+        <v>1.65</v>
+      </c>
+      <c r="O89">
+        <v>3.8</v>
+      </c>
+      <c r="P89">
+        <v>4.333</v>
+      </c>
+      <c r="Q89">
+        <v>-0.75</v>
+      </c>
+      <c r="R89">
+        <v>1.925</v>
+      </c>
+      <c r="S89">
+        <v>1.925</v>
+      </c>
+      <c r="T89">
         <v>2.5</v>
       </c>
-      <c r="L89">
-        <v>3.75</v>
-      </c>
-      <c r="M89">
-        <v>2.25</v>
-      </c>
-      <c r="N89">
-        <v>2.875</v>
-      </c>
-      <c r="O89">
-        <v>3.1</v>
-      </c>
-      <c r="P89">
-        <v>2.375</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>2.05</v>
-      </c>
-      <c r="S89">
-        <v>1.75</v>
-      </c>
-      <c r="T89">
-        <v>2.25</v>
-      </c>
       <c r="U89">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V89">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W89">
-        <v>1.875</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8413,13 +8413,13 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB89">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8442,10 +8442,10 @@
         <v>45297.5</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8519,7 +8519,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6848567</v>
+        <v>6848564</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8531,76 +8531,76 @@
         <v>45297.5</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K91">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="L91">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N91">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O91">
         <v>3.8</v>
       </c>
       <c r="P91">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q91">
         <v>-0.75</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T91">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V91">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W91">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z91">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
+        <v>0.8</v>
+      </c>
+      <c r="AB91">
+        <v>0.425</v>
+      </c>
+      <c r="AC91">
         <v>-0.5</v>
-      </c>
-      <c r="AB91">
-        <v>0.875</v>
-      </c>
-      <c r="AC91">
-        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8620,7 +8620,7 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
         <v>38</v>
@@ -8697,7 +8697,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6848568</v>
+        <v>6848602</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8709,10 +8709,10 @@
         <v>45304.5</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8724,40 +8724,40 @@
         <v>40</v>
       </c>
       <c r="K93">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L93">
         <v>3.5</v>
       </c>
       <c r="M93">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="N93">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O93">
         <v>3.5</v>
       </c>
       <c r="P93">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q93">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
+        <v>1.8</v>
+      </c>
+      <c r="S93">
+        <v>2</v>
+      </c>
+      <c r="T93">
+        <v>2.5</v>
+      </c>
+      <c r="U93">
         <v>1.95</v>
       </c>
-      <c r="S93">
+      <c r="V93">
         <v>1.85</v>
-      </c>
-      <c r="T93">
-        <v>2.75</v>
-      </c>
-      <c r="U93">
-        <v>1.975</v>
-      </c>
-      <c r="V93">
-        <v>1.825</v>
       </c>
       <c r="W93">
         <v>-1</v>
@@ -8769,16 +8769,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA93">
+        <v>-0.5</v>
+      </c>
+      <c r="AB93">
+        <v>-1</v>
+      </c>
+      <c r="AC93">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB93">
-        <v>-1</v>
-      </c>
-      <c r="AC93">
-        <v>0.825</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8786,7 +8786,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6848571</v>
+        <v>6848569</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8798,76 +8798,76 @@
         <v>45304.5</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K94">
+        <v>1.909</v>
+      </c>
+      <c r="L94">
+        <v>3.3</v>
+      </c>
+      <c r="M94">
+        <v>3.75</v>
+      </c>
+      <c r="N94">
+        <v>1.727</v>
+      </c>
+      <c r="O94">
+        <v>3.4</v>
+      </c>
+      <c r="P94">
+        <v>4.5</v>
+      </c>
+      <c r="Q94">
+        <v>-0.75</v>
+      </c>
+      <c r="R94">
+        <v>1.95</v>
+      </c>
+      <c r="S94">
+        <v>1.85</v>
+      </c>
+      <c r="T94">
         <v>2.5</v>
       </c>
-      <c r="L94">
-        <v>3.4</v>
-      </c>
-      <c r="M94">
-        <v>2.5</v>
-      </c>
-      <c r="N94">
-        <v>2.75</v>
-      </c>
-      <c r="O94">
-        <v>3.1</v>
-      </c>
-      <c r="P94">
-        <v>2.45</v>
-      </c>
-      <c r="Q94">
-        <v>0</v>
-      </c>
-      <c r="R94">
-        <v>2.05</v>
-      </c>
-      <c r="S94">
-        <v>1.8</v>
-      </c>
-      <c r="T94">
-        <v>2</v>
-      </c>
       <c r="U94">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V94">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA94">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC94">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8875,7 +8875,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6848602</v>
+        <v>6848570</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8887,76 +8887,76 @@
         <v>45304.5</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N95">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="O95">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q95">
         <v>0.25</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X95">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8964,7 +8964,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6848570</v>
+        <v>6848571</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8976,76 +8976,76 @@
         <v>45304.5</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K96">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L96">
         <v>3.4</v>
       </c>
       <c r="M96">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N96">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O96">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P96">
+        <v>2.45</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>2.05</v>
+      </c>
+      <c r="S96">
+        <v>1.8</v>
+      </c>
+      <c r="T96">
+        <v>2</v>
+      </c>
+      <c r="U96">
+        <v>1.775</v>
+      </c>
+      <c r="V96">
         <v>2.1</v>
       </c>
-      <c r="Q96">
-        <v>0.25</v>
-      </c>
-      <c r="R96">
-        <v>1.975</v>
-      </c>
-      <c r="S96">
-        <v>1.825</v>
-      </c>
-      <c r="T96">
-        <v>2.5</v>
-      </c>
-      <c r="U96">
-        <v>1.925</v>
-      </c>
-      <c r="V96">
-        <v>1.875</v>
-      </c>
       <c r="W96">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC96">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9053,7 +9053,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6848569</v>
+        <v>6848568</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9065,40 +9065,40 @@
         <v>45304.5</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K97">
+        <v>1.727</v>
+      </c>
+      <c r="L97">
+        <v>3.5</v>
+      </c>
+      <c r="M97">
+        <v>4.333</v>
+      </c>
+      <c r="N97">
         <v>1.909</v>
       </c>
-      <c r="L97">
-        <v>3.3</v>
-      </c>
-      <c r="M97">
-        <v>3.75</v>
-      </c>
-      <c r="N97">
-        <v>1.727</v>
-      </c>
       <c r="O97">
+        <v>3.5</v>
+      </c>
+      <c r="P97">
         <v>3.4</v>
       </c>
-      <c r="P97">
-        <v>4.5</v>
-      </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
         <v>1.95</v>
@@ -9107,34 +9107,34 @@
         <v>1.85</v>
       </c>
       <c r="T97">
+        <v>2.75</v>
+      </c>
+      <c r="U97">
+        <v>1.975</v>
+      </c>
+      <c r="V97">
+        <v>1.825</v>
+      </c>
+      <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
         <v>2.5</v>
       </c>
-      <c r="U97">
-        <v>1.925</v>
-      </c>
-      <c r="V97">
-        <v>1.875</v>
-      </c>
-      <c r="W97">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB97">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9142,7 +9142,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6848575</v>
+        <v>6848576</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9154,76 +9154,76 @@
         <v>45311.5</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K98">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M98">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="N98">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O98">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P98">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R98">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S98">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T98">
         <v>2.5</v>
       </c>
       <c r="U98">
+        <v>1.825</v>
+      </c>
+      <c r="V98">
         <v>1.975</v>
       </c>
-      <c r="V98">
-        <v>1.825</v>
-      </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X98">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA98">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
       <c r="AB98">
+        <v>-1</v>
+      </c>
+      <c r="AC98">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC98">
-        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9231,7 +9231,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6848576</v>
+        <v>6848575</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9243,76 +9243,76 @@
         <v>45311.5</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
         <v>34</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K99">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="L99">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="N99">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O99">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P99">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q99">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S99">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T99">
         <v>2.5</v>
       </c>
       <c r="U99">
+        <v>1.975</v>
+      </c>
+      <c r="V99">
         <v>1.825</v>
       </c>
-      <c r="V99">
-        <v>1.975</v>
-      </c>
       <c r="W99">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA99">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC99">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9409,7 +9409,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6848580</v>
+        <v>6848578</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9421,76 +9421,76 @@
         <v>45318.5</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K101">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L101">
         <v>3.4</v>
       </c>
       <c r="M101">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N101">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O101">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P101">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q101">
         <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S101">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T101">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y101">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA101">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9498,7 +9498,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6848581</v>
+        <v>6848580</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9510,40 +9510,40 @@
         <v>45318.5</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K102">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M102">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="N102">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="O102">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q102">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R102">
         <v>2</v>
@@ -9555,19 +9555,19 @@
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V102">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z102">
         <v>-1</v>
@@ -9579,7 +9579,7 @@
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9587,7 +9587,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6848578</v>
+        <v>6848579</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9599,76 +9599,76 @@
         <v>45318.5</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K103">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M103">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N103">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O103">
         <v>3.4</v>
       </c>
       <c r="P103">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S103">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T103">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V103">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X103">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA103">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC103">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9676,7 +9676,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6848579</v>
+        <v>6848581</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9688,76 +9688,76 @@
         <v>45318.5</v>
       </c>
       <c r="F104" t="s">
+        <v>32</v>
+      </c>
+      <c r="G104" t="s">
         <v>36</v>
       </c>
-      <c r="G104" t="s">
-        <v>31</v>
-      </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K104">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="L104">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="N104">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="O104">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P104">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R104">
         <v>2</v>
       </c>
       <c r="S104">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T104">
         <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W104">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9765,7 +9765,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7572918</v>
+        <v>7615754</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9777,73 +9777,73 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K105">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L105">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N105">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="O105">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P105">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q105">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S105">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W105">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB105">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9854,7 +9854,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7615754</v>
+        <v>7572918</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9866,73 +9866,73 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106" t="s">
+        <v>41</v>
+      </c>
+      <c r="K106">
+        <v>1.727</v>
+      </c>
+      <c r="L106">
+        <v>3.75</v>
+      </c>
+      <c r="M106">
+        <v>3.75</v>
+      </c>
+      <c r="N106">
         <v>3</v>
       </c>
-      <c r="J106" t="s">
-        <v>39</v>
-      </c>
-      <c r="K106">
-        <v>2.4</v>
-      </c>
-      <c r="L106">
-        <v>3.6</v>
-      </c>
-      <c r="M106">
-        <v>2.4</v>
-      </c>
-      <c r="N106">
-        <v>2.6</v>
-      </c>
       <c r="O106">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P106">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R106">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S106">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T106">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA106">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9943,7 +9943,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6848603</v>
+        <v>6848582</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9955,49 +9955,49 @@
         <v>45325.5</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>34</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
         <v>40</v>
       </c>
       <c r="K107">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L107">
         <v>3.75</v>
       </c>
       <c r="M107">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="N107">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O107">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P107">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S107">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
         <v>2</v>
@@ -10009,16 +10009,16 @@
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA107">
-        <v>0.5125</v>
+        <v>-0</v>
       </c>
       <c r="AB107">
         <v>-1</v>
@@ -10032,7 +10032,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6848585</v>
+        <v>6848583</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10044,10 +10044,10 @@
         <v>45325.5</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10059,53 +10059,53 @@
         <v>41</v>
       </c>
       <c r="K108">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="L108">
         <v>3.75</v>
       </c>
       <c r="M108">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N108">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O108">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
         <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
+        <v>1.5</v>
+      </c>
+      <c r="X108">
+        <v>-1</v>
+      </c>
+      <c r="Y108">
+        <v>-1</v>
+      </c>
+      <c r="Z108">
         <v>1</v>
       </c>
-      <c r="X108">
-        <v>-1</v>
-      </c>
-      <c r="Y108">
-        <v>-1</v>
-      </c>
-      <c r="Z108">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AA108">
         <v>-1</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10121,7 +10121,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6848583</v>
+        <v>6848584</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10133,10 +10133,10 @@
         <v>45325.5</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10148,43 +10148,43 @@
         <v>41</v>
       </c>
       <c r="K109">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L109">
         <v>3.75</v>
       </c>
       <c r="M109">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N109">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O109">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P109">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q109">
         <v>0</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S109">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T109">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W109">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10193,7 +10193,7 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA109">
         <v>-1</v>
@@ -10202,7 +10202,7 @@
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10210,7 +10210,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6848584</v>
+        <v>6848585</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10222,10 +10222,10 @@
         <v>45325.5</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10237,43 +10237,43 @@
         <v>41</v>
       </c>
       <c r="K110">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="L110">
         <v>3.75</v>
       </c>
       <c r="M110">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="N110">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="O110">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P110">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
+        <v>1.775</v>
+      </c>
+      <c r="S110">
+        <v>2.025</v>
+      </c>
+      <c r="T110">
+        <v>2.5</v>
+      </c>
+      <c r="U110">
+        <v>1.825</v>
+      </c>
+      <c r="V110">
         <v>1.975</v>
       </c>
-      <c r="S110">
-        <v>1.825</v>
-      </c>
-      <c r="T110">
-        <v>2.25</v>
-      </c>
-      <c r="U110">
-        <v>1.975</v>
-      </c>
-      <c r="V110">
-        <v>1.825</v>
-      </c>
       <c r="W110">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10282,16 +10282,16 @@
         <v>-1</v>
       </c>
       <c r="Z110">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA110">
+        <v>-1</v>
+      </c>
+      <c r="AB110">
+        <v>-1</v>
+      </c>
+      <c r="AC110">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA110">
-        <v>-1</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
-      <c r="AC110">
-        <v>0.825</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10299,7 +10299,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6848582</v>
+        <v>6848603</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10311,49 +10311,49 @@
         <v>45325.5</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
         <v>40</v>
       </c>
       <c r="K111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L111">
         <v>3.75</v>
       </c>
       <c r="M111">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="N111">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="O111">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P111">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S111">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T111">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
         <v>2</v>
@@ -10365,16 +10365,16 @@
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA111">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
       <c r="AB111">
         <v>-1</v>
@@ -10400,7 +10400,7 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
         <v>30</v>
@@ -10477,7 +10477,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6848586</v>
+        <v>6848589</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10489,64 +10489,64 @@
         <v>45332.5</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K113">
-        <v>1.615</v>
+        <v>1.3</v>
       </c>
       <c r="L113">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M113">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="N113">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P113">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q113">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R113">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S113">
         <v>1.825</v>
       </c>
       <c r="T113">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V113">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z113">
         <v>-1</v>
@@ -10555,7 +10555,7 @@
         <v>0.825</v>
       </c>
       <c r="AB113">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10566,7 +10566,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6848589</v>
+        <v>6848588</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10578,76 +10578,76 @@
         <v>45332.5</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K114">
-        <v>1.3</v>
+        <v>1.615</v>
       </c>
       <c r="L114">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M114">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="N114">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="O114">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P114">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R114">
+        <v>1.775</v>
+      </c>
+      <c r="S114">
         <v>2.025</v>
       </c>
-      <c r="S114">
-        <v>1.825</v>
-      </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V114">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA114">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10655,7 +10655,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6848587</v>
+        <v>6848586</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10667,76 +10667,76 @@
         <v>45332.5</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
         <v>40</v>
       </c>
       <c r="K115">
-        <v>3.4</v>
+        <v>1.615</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M115">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="N115">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="O115">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P115">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="Q115">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R115">
+        <v>1.975</v>
+      </c>
+      <c r="S115">
         <v>1.825</v>
       </c>
-      <c r="S115">
-        <v>1.975</v>
-      </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
+        <v>-1</v>
+      </c>
+      <c r="AA115">
         <v>0.825</v>
       </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10744,7 +10744,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6848588</v>
+        <v>6848587</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10756,76 +10756,76 @@
         <v>45332.5</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K116">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="L116">
+        <v>3.4</v>
+      </c>
+      <c r="M116">
+        <v>1.909</v>
+      </c>
+      <c r="N116">
         <v>3.75</v>
       </c>
-      <c r="M116">
-        <v>4.333</v>
-      </c>
-      <c r="N116">
-        <v>2.375</v>
-      </c>
       <c r="O116">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P116">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R116">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S116">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V116">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W116">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10848,7 +10848,7 @@
         <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6848592</v>
+        <v>6848590</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10934,76 +10934,76 @@
         <v>45339.5</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K118">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L118">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M118">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="N118">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="O118">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P118">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S118">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U118">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V118">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X118">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA118">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11011,7 +11011,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6848593</v>
+        <v>6848591</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11023,73 +11023,73 @@
         <v>45339.5</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G119" t="s">
         <v>33</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119">
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K119">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="L119">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M119">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="N119">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="O119">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R119">
+        <v>1.95</v>
+      </c>
+      <c r="S119">
+        <v>1.85</v>
+      </c>
+      <c r="T119">
+        <v>2.25</v>
+      </c>
+      <c r="U119">
+        <v>1.825</v>
+      </c>
+      <c r="V119">
         <v>1.975</v>
       </c>
-      <c r="S119">
-        <v>1.875</v>
-      </c>
-      <c r="T119">
-        <v>2</v>
-      </c>
-      <c r="U119">
-        <v>1.8</v>
-      </c>
-      <c r="V119">
-        <v>2.05</v>
-      </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y119">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA119">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11100,7 +11100,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6848591</v>
+        <v>6848592</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11112,73 +11112,73 @@
         <v>45339.5</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J120" t="s">
         <v>40</v>
       </c>
       <c r="K120">
-        <v>4.6</v>
+        <v>2.75</v>
       </c>
       <c r="L120">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M120">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="N120">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P120">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="Q120">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S120">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T120">
         <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB120">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11189,7 +11189,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6848605</v>
+        <v>6848593</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11201,13 +11201,13 @@
         <v>45339.5</v>
       </c>
       <c r="F121" t="s">
+        <v>37</v>
+      </c>
+      <c r="G121" t="s">
         <v>32</v>
       </c>
-      <c r="G121" t="s">
-        <v>29</v>
-      </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121">
         <v>2</v>
@@ -11216,40 +11216,40 @@
         <v>39</v>
       </c>
       <c r="K121">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="L121">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M121">
+        <v>2.2</v>
+      </c>
+      <c r="N121">
+        <v>2.7</v>
+      </c>
+      <c r="O121">
         <v>3</v>
       </c>
-      <c r="N121">
-        <v>2</v>
-      </c>
-      <c r="O121">
-        <v>3.4</v>
-      </c>
       <c r="P121">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R121">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S121">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T121">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U121">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V121">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W121">
         <v>-1</v>
@@ -11258,19 +11258,19 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB121">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC121">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11278,7 +11278,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6848590</v>
+        <v>6848605</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11290,76 +11290,76 @@
         <v>45339.5</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K122">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L122">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M122">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N122">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O122">
         <v>3.4</v>
       </c>
       <c r="P122">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q122">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S122">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V122">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W122">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z122">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC122">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11367,7 +11367,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7768375</v>
+        <v>7748128</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11379,76 +11379,76 @@
         <v>45342.69791666666</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H123">
         <v>0</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K123">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L123">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N123">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="O123">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P123">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S123">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T123">
         <v>2.5</v>
       </c>
       <c r="U123">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V123">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y123">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11456,7 +11456,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7748128</v>
+        <v>7768375</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11471,73 +11471,73 @@
         <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H124">
         <v>0</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K124">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L124">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M124">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N124">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="O124">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P124">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q124">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S124">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T124">
         <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V124">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11560,7 +11560,7 @@
         <v>38</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11634,7 +11634,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6852275</v>
+        <v>6848594</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11646,76 +11646,76 @@
         <v>45346.5</v>
       </c>
       <c r="F126" t="s">
+        <v>33</v>
+      </c>
+      <c r="G126" t="s">
         <v>36</v>
-      </c>
-      <c r="G126" t="s">
-        <v>30</v>
       </c>
       <c r="H126">
         <v>1</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J126" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K126">
+        <v>1.363</v>
+      </c>
+      <c r="L126">
+        <v>4.5</v>
+      </c>
+      <c r="M126">
+        <v>7</v>
+      </c>
+      <c r="N126">
         <v>1.571</v>
       </c>
-      <c r="L126">
-        <v>3.75</v>
-      </c>
-      <c r="M126">
-        <v>5.5</v>
-      </c>
-      <c r="N126">
-        <v>1.65</v>
-      </c>
       <c r="O126">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P126">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q126">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R126">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S126">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T126">
         <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V126">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC126">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11735,10 +11735,10 @@
         <v>45346.5</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11827,7 +11827,7 @@
         <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11901,7 +11901,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6848594</v>
+        <v>6852275</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11913,76 +11913,76 @@
         <v>45346.5</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
       <c r="I129">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K129">
-        <v>1.363</v>
+        <v>1.571</v>
       </c>
       <c r="L129">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M129">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="N129">
-        <v>1.571</v>
+        <v>1.65</v>
       </c>
       <c r="O129">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P129">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q129">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R129">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S129">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T129">
         <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y129">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB129">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12002,10 +12002,10 @@
         <v>45353.5</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K130">
         <v>2.75</v>
@@ -12076,7 +12076,7 @@
         <v>45353.5</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
         <v>30</v>
@@ -12153,7 +12153,7 @@
         <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K132">
         <v>2.1</v>
@@ -12224,10 +12224,10 @@
         <v>45353.5</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K133">
         <v>2.5</v>
@@ -12298,7 +12298,7 @@
         <v>45353.5</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
         <v>29</v>

--- a/Scotland League Two/Scotland League Two.xlsx
+++ b/Scotland League Two/Scotland League Two.xlsx
@@ -103,6 +103,9 @@
     <t>Scotland League Two</t>
   </si>
   <si>
+    <t>Stenhousemuir</t>
+  </si>
+  <si>
     <t>East Fife</t>
   </si>
   <si>
@@ -113,9 +116,6 @@
   </si>
   <si>
     <t>Spartans</t>
-  </si>
-  <si>
-    <t>Stenhousemuir</t>
   </si>
   <si>
     <t>Peterhead</t>
@@ -133,10 +133,10 @@
     <t>Stranraer</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
     <t>H</t>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6848479</v>
+        <v>6848481</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -613,43 +613,43 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>39</v>
       </c>
       <c r="K2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>3.6</v>
       </c>
       <c r="M2">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N2">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O2">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P2">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q2">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S2">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T2">
         <v>2.75</v>
@@ -664,22 +664,22 @@
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y2">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA2">
+        <v>0.425</v>
+      </c>
+      <c r="AB2">
+        <v>-1</v>
+      </c>
+      <c r="AC2">
         <v>0.8</v>
-      </c>
-      <c r="AB2">
-        <v>0.5</v>
-      </c>
-      <c r="AC2">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6848596</v>
+        <v>6848479</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,46 +702,46 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>40</v>
       </c>
       <c r="K3">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M3">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="N3">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O3">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
         <v>2</v>
@@ -753,22 +753,22 @@
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC3">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6848480</v>
+        <v>6848596</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -803,34 +803,34 @@
         <v>39</v>
       </c>
       <c r="K4">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L4">
         <v>3.4</v>
       </c>
       <c r="M4">
+        <v>2.4</v>
+      </c>
+      <c r="N4">
+        <v>2.55</v>
+      </c>
+      <c r="O4">
+        <v>3.3</v>
+      </c>
+      <c r="P4">
+        <v>2.45</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1.95</v>
+      </c>
+      <c r="S4">
+        <v>1.85</v>
+      </c>
+      <c r="T4">
         <v>2.5</v>
-      </c>
-      <c r="N4">
-        <v>2.45</v>
-      </c>
-      <c r="O4">
-        <v>3.4</v>
-      </c>
-      <c r="P4">
-        <v>2.4</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>1.925</v>
-      </c>
-      <c r="S4">
-        <v>1.875</v>
-      </c>
-      <c r="T4">
-        <v>2.75</v>
       </c>
       <c r="U4">
         <v>2</v>
@@ -842,16 +842,16 @@
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y4">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
         <v>-1</v>
@@ -865,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6997303</v>
+        <v>6848480</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -880,10 +880,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -892,61 +892,61 @@
         <v>40</v>
       </c>
       <c r="K5">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N5">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P5">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -954,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6848481</v>
+        <v>6997303</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -969,73 +969,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L6">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N6">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O6">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P6">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
+        <v>1.85</v>
+      </c>
+      <c r="S6">
         <v>1.95</v>
       </c>
-      <c r="S6">
-        <v>1.85</v>
-      </c>
       <c r="T6">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1058,7 +1058,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7">
         <v>2.25</v>
@@ -1147,7 +1147,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8">
         <v>2.1</v>
@@ -1236,7 +1236,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9">
         <v>1.8</v>
@@ -1325,7 +1325,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K10">
         <v>1.909</v>
@@ -1414,7 +1414,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1423,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11">
         <v>2.7</v>
@@ -1500,10 +1500,10 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
         <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1577,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6848489</v>
+        <v>6848490</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1589,19 +1589,19 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13">
         <v>2.3</v>
@@ -1616,49 +1616,49 @@
         <v>2.1</v>
       </c>
       <c r="O13">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P13">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q13">
         <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W13">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z13">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1666,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6848490</v>
+        <v>6848489</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1678,19 +1678,19 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K14">
         <v>2.3</v>
@@ -1705,49 +1705,49 @@
         <v>2.1</v>
       </c>
       <c r="O14">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P14">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q14">
         <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
+        <v>1.9</v>
+      </c>
+      <c r="T14">
+        <v>2.25</v>
+      </c>
+      <c r="U14">
         <v>1.825</v>
       </c>
-      <c r="T14">
-        <v>2.75</v>
-      </c>
-      <c r="U14">
+      <c r="V14">
         <v>1.975</v>
       </c>
-      <c r="V14">
-        <v>1.875</v>
-      </c>
       <c r="W14">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA14">
+        <v>-1</v>
+      </c>
+      <c r="AB14">
         <v>0.825</v>
       </c>
-      <c r="AB14">
-        <v>-1</v>
-      </c>
       <c r="AC14">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6848488</v>
+        <v>6848597</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1767,76 +1767,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>39</v>
       </c>
       <c r="K15">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N15">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q15">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T15">
         <v>2.5</v>
       </c>
       <c r="U15">
+        <v>1.95</v>
+      </c>
+      <c r="V15">
         <v>1.85</v>
       </c>
-      <c r="V15">
-        <v>1.95</v>
-      </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y15">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB15">
+        <v>-1</v>
+      </c>
+      <c r="AC15">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1844,7 +1844,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6848597</v>
+        <v>6848488</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1856,76 +1856,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>40</v>
       </c>
       <c r="K16">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L16">
+        <v>3.6</v>
+      </c>
+      <c r="M16">
+        <v>3.6</v>
+      </c>
+      <c r="N16">
+        <v>2.875</v>
+      </c>
+      <c r="O16">
         <v>3.4</v>
       </c>
-      <c r="M16">
-        <v>2.6</v>
-      </c>
-      <c r="N16">
-        <v>2.05</v>
-      </c>
-      <c r="O16">
-        <v>3.5</v>
-      </c>
       <c r="P16">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S16">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
+        <v>1.85</v>
+      </c>
+      <c r="V16">
         <v>1.95</v>
       </c>
-      <c r="V16">
-        <v>1.85</v>
-      </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC16">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2037,7 +2037,7 @@
         <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2046,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K18">
         <v>2.25</v>
@@ -2126,7 +2126,7 @@
         <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19">
         <v>2.5</v>
@@ -2212,10 +2212,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K20">
         <v>2.2</v>
@@ -2301,7 +2301,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
         <v>36</v>
@@ -2313,7 +2313,7 @@
         <v>4</v>
       </c>
       <c r="J21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K21">
         <v>2.3</v>
@@ -2390,10 +2390,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K22">
         <v>2.2</v>
@@ -2571,7 +2571,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K25">
         <v>2.05</v>
@@ -2746,10 +2746,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>5</v>
@@ -2838,7 +2838,7 @@
         <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2847,7 +2847,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>2.875</v>
@@ -2927,7 +2927,7 @@
         <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3013,7 +3013,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
         <v>38</v>
@@ -3102,7 +3102,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
         <v>37</v>
@@ -3191,7 +3191,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -3280,10 +3280,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3292,7 +3292,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K32">
         <v>1.95</v>
@@ -3372,7 +3372,7 @@
         <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3470,7 +3470,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -3547,10 +3547,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K35">
         <v>2.15</v>
@@ -3648,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -3713,7 +3713,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6848513</v>
+        <v>6848514</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3725,73 +3725,73 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H37">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K37">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L37">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M37">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N37">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="O37">
         <v>3.8</v>
       </c>
       <c r="P37">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q37">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R37">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S37">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T37">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U37">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W37">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB37">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3802,7 +3802,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6848514</v>
+        <v>6848513</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3814,73 +3814,73 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K38">
+        <v>1.8</v>
+      </c>
+      <c r="L38">
+        <v>3.6</v>
+      </c>
+      <c r="M38">
+        <v>4.333</v>
+      </c>
+      <c r="N38">
         <v>1.666</v>
-      </c>
-      <c r="L38">
-        <v>3.75</v>
-      </c>
-      <c r="M38">
-        <v>5</v>
-      </c>
-      <c r="N38">
-        <v>1.6</v>
       </c>
       <c r="O38">
         <v>3.8</v>
       </c>
       <c r="P38">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q38">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R38">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S38">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X38">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA38">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -3903,7 +3903,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
         <v>35</v>
@@ -3915,7 +3915,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K39">
         <v>2.375</v>
@@ -3992,10 +3992,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4004,7 +4004,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K40">
         <v>2.2</v>
@@ -4158,7 +4158,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6848520</v>
+        <v>6848519</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4170,37 +4170,37 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
         <v>3</v>
       </c>
-      <c r="I42">
-        <v>4</v>
-      </c>
       <c r="J42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K42">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L42">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M42">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N42">
+        <v>2.7</v>
+      </c>
+      <c r="O42">
+        <v>3.25</v>
+      </c>
+      <c r="P42">
         <v>2.5</v>
-      </c>
-      <c r="O42">
-        <v>3.5</v>
-      </c>
-      <c r="P42">
-        <v>2.4</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -4215,10 +4215,10 @@
         <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V42">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4227,7 +4227,7 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Z42">
         <v>-1</v>
@@ -4236,7 +4236,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB42">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4247,7 +4247,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6848519</v>
+        <v>6848520</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4259,37 +4259,37 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K43">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L43">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M43">
+        <v>2.8</v>
+      </c>
+      <c r="N43">
         <v>2.5</v>
       </c>
-      <c r="N43">
-        <v>2.7</v>
-      </c>
       <c r="O43">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P43">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -4304,10 +4304,10 @@
         <v>2.5</v>
       </c>
       <c r="U43">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W43">
         <v>-1</v>
@@ -4316,7 +4316,7 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Z43">
         <v>-1</v>
@@ -4325,7 +4325,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB43">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4360,7 +4360,7 @@
         <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K44">
         <v>4</v>
@@ -4437,7 +4437,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
         <v>37</v>
@@ -4526,7 +4526,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
         <v>38</v>
@@ -4615,7 +4615,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
         <v>36</v>
@@ -4704,10 +4704,10 @@
         <v>45223.65625</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4716,7 +4716,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K48">
         <v>4</v>
@@ -4796,7 +4796,7 @@
         <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4885,7 +4885,7 @@
         <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -4974,7 +4974,7 @@
         <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -4983,7 +4983,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K51">
         <v>2.8</v>
@@ -5063,7 +5063,7 @@
         <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5072,7 +5072,7 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K52">
         <v>2.55</v>
@@ -5152,7 +5152,7 @@
         <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>4</v>
@@ -5238,7 +5238,7 @@
         <v>45241.5</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
         <v>36</v>
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K54">
         <v>3.25</v>
@@ -5327,10 +5327,10 @@
         <v>45241.5</v>
       </c>
       <c r="F55" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" t="s">
         <v>31</v>
-      </c>
-      <c r="G55" t="s">
-        <v>30</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5416,10 +5416,10 @@
         <v>45241.5</v>
       </c>
       <c r="F56" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" t="s">
         <v>33</v>
-      </c>
-      <c r="G56" t="s">
-        <v>32</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K58">
         <v>1.909</v>
@@ -5683,7 +5683,7 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
         <v>34</v>
@@ -5772,7 +5772,7 @@
         <v>45248.5</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
         <v>34</v>
@@ -5784,7 +5784,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K60">
         <v>2.3</v>
@@ -5864,7 +5864,7 @@
         <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K61">
         <v>2.5</v>
@@ -5950,7 +5950,7 @@
         <v>45248.5</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
         <v>35</v>
@@ -5962,7 +5962,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K62">
         <v>2.05</v>
@@ -6042,7 +6042,7 @@
         <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6051,7 +6051,7 @@
         <v>4</v>
       </c>
       <c r="J63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K63">
         <v>2.4</v>
@@ -6131,7 +6131,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6205,7 +6205,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7451460</v>
+        <v>7396254</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6217,58 +6217,58 @@
         <v>45251.69791666666</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
         <v>41</v>
       </c>
       <c r="K65">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L65">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
+        <v>2.8</v>
+      </c>
+      <c r="N65">
+        <v>2.9</v>
+      </c>
+      <c r="O65">
         <v>3.1</v>
       </c>
-      <c r="N65">
-        <v>2.6</v>
-      </c>
-      <c r="O65">
-        <v>3.4</v>
-      </c>
       <c r="P65">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q65">
         <v>0</v>
       </c>
       <c r="R65">
+        <v>2.05</v>
+      </c>
+      <c r="S65">
+        <v>1.75</v>
+      </c>
+      <c r="T65">
+        <v>2.25</v>
+      </c>
+      <c r="U65">
         <v>1.925</v>
       </c>
-      <c r="S65">
+      <c r="V65">
         <v>1.875</v>
       </c>
-      <c r="T65">
-        <v>2.5</v>
-      </c>
-      <c r="U65">
-        <v>2</v>
-      </c>
-      <c r="V65">
-        <v>1.8</v>
-      </c>
       <c r="W65">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6277,16 +6277,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6294,7 +6294,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7396254</v>
+        <v>7451460</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6309,55 +6309,55 @@
         <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
         <v>41</v>
       </c>
       <c r="K66">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L66">
+        <v>3.5</v>
+      </c>
+      <c r="M66">
+        <v>3.1</v>
+      </c>
+      <c r="N66">
+        <v>2.6</v>
+      </c>
+      <c r="O66">
         <v>3.4</v>
       </c>
-      <c r="M66">
-        <v>2.8</v>
-      </c>
-      <c r="N66">
-        <v>2.9</v>
-      </c>
-      <c r="O66">
-        <v>3.1</v>
-      </c>
       <c r="P66">
+        <v>2.55</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>1.925</v>
+      </c>
+      <c r="S66">
+        <v>1.875</v>
+      </c>
+      <c r="T66">
         <v>2.5</v>
       </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>2.05</v>
-      </c>
-      <c r="S66">
-        <v>1.75</v>
-      </c>
-      <c r="T66">
-        <v>2.25</v>
-      </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V66">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W66">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6366,16 +6366,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC66">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6383,7 +6383,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6848542</v>
+        <v>6848544</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6395,76 +6395,76 @@
         <v>45262.5</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K67">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L67">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M67">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N67">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="O67">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P67">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R67">
+        <v>1.925</v>
+      </c>
+      <c r="S67">
+        <v>1.925</v>
+      </c>
+      <c r="T67">
+        <v>2.75</v>
+      </c>
+      <c r="U67">
+        <v>2.025</v>
+      </c>
+      <c r="V67">
         <v>1.825</v>
       </c>
-      <c r="S67">
-        <v>1.975</v>
-      </c>
-      <c r="T67">
-        <v>2.25</v>
-      </c>
-      <c r="U67">
-        <v>1.875</v>
-      </c>
-      <c r="V67">
-        <v>1.925</v>
-      </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X67">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
+        <v>0.4625</v>
+      </c>
+      <c r="AA67">
         <v>-0.5</v>
       </c>
-      <c r="AA67">
-        <v>0.4875</v>
-      </c>
       <c r="AB67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6472,7 +6472,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6848544</v>
+        <v>6848542</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6484,76 +6484,76 @@
         <v>45262.5</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K68">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L68">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N68">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="O68">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P68">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
+        <v>1.825</v>
+      </c>
+      <c r="S68">
+        <v>1.975</v>
+      </c>
+      <c r="T68">
+        <v>2.25</v>
+      </c>
+      <c r="U68">
+        <v>1.875</v>
+      </c>
+      <c r="V68">
         <v>1.925</v>
       </c>
-      <c r="S68">
-        <v>1.925</v>
-      </c>
-      <c r="T68">
-        <v>2.75</v>
-      </c>
-      <c r="U68">
-        <v>2.025</v>
-      </c>
-      <c r="V68">
-        <v>1.825</v>
-      </c>
       <c r="W68">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
+        <v>-0.5</v>
+      </c>
+      <c r="AA68">
+        <v>0.4875</v>
+      </c>
+      <c r="AB68">
+        <v>-0.5</v>
+      </c>
+      <c r="AC68">
         <v>0.4625</v>
-      </c>
-      <c r="AA68">
-        <v>-0.5</v>
-      </c>
-      <c r="AB68">
-        <v>-1</v>
-      </c>
-      <c r="AC68">
-        <v>0.825</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6573,7 +6573,7 @@
         <v>45269.5</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
         <v>35</v>
@@ -6662,10 +6662,10 @@
         <v>45269.5</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H70">
         <v>4</v>
@@ -6754,7 +6754,7 @@
         <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6763,7 +6763,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K71">
         <v>2.1</v>
@@ -6852,7 +6852,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K72">
         <v>2.5</v>
@@ -6929,7 +6929,7 @@
         <v>45269.5</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
         <v>34</v>
@@ -6941,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K73">
         <v>2.25</v>
@@ -7021,7 +7021,7 @@
         <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7119,7 +7119,7 @@
         <v>4</v>
       </c>
       <c r="J75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K75">
         <v>2.8</v>
@@ -7196,10 +7196,10 @@
         <v>45276.5</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7208,7 +7208,7 @@
         <v>4</v>
       </c>
       <c r="J76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K76">
         <v>2.7</v>
@@ -7374,10 +7374,10 @@
         <v>45276.5</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7463,10 +7463,10 @@
         <v>45282.6875</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7475,7 +7475,7 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K79">
         <v>1.909</v>
@@ -7540,7 +7540,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6848556</v>
+        <v>6848557</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7552,76 +7552,76 @@
         <v>45283.5</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H80">
+        <v>2</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80" t="s">
+        <v>41</v>
+      </c>
+      <c r="K80">
+        <v>1.363</v>
+      </c>
+      <c r="L80">
+        <v>4.75</v>
+      </c>
+      <c r="M80">
+        <v>6.5</v>
+      </c>
+      <c r="N80">
+        <v>1.333</v>
+      </c>
+      <c r="O80">
+        <v>4.75</v>
+      </c>
+      <c r="P80">
+        <v>8</v>
+      </c>
+      <c r="Q80">
+        <v>-1.25</v>
+      </c>
+      <c r="R80">
+        <v>1.8</v>
+      </c>
+      <c r="S80">
+        <v>2.05</v>
+      </c>
+      <c r="T80">
+        <v>2.5</v>
+      </c>
+      <c r="U80">
+        <v>1.85</v>
+      </c>
+      <c r="V80">
+        <v>2</v>
+      </c>
+      <c r="W80">
+        <v>0.333</v>
+      </c>
+      <c r="X80">
+        <v>-1</v>
+      </c>
+      <c r="Y80">
+        <v>-1</v>
+      </c>
+      <c r="Z80">
+        <v>0.8</v>
+      </c>
+      <c r="AA80">
+        <v>-1</v>
+      </c>
+      <c r="AB80">
+        <v>-1</v>
+      </c>
+      <c r="AC80">
         <v>1</v>
-      </c>
-      <c r="I80">
-        <v>2</v>
-      </c>
-      <c r="J80" t="s">
-        <v>39</v>
-      </c>
-      <c r="K80">
-        <v>1.571</v>
-      </c>
-      <c r="L80">
-        <v>3.8</v>
-      </c>
-      <c r="M80">
-        <v>5</v>
-      </c>
-      <c r="N80">
-        <v>1.909</v>
-      </c>
-      <c r="O80">
-        <v>3.5</v>
-      </c>
-      <c r="P80">
-        <v>3.4</v>
-      </c>
-      <c r="Q80">
-        <v>-0.5</v>
-      </c>
-      <c r="R80">
-        <v>1.95</v>
-      </c>
-      <c r="S80">
-        <v>1.85</v>
-      </c>
-      <c r="T80">
-        <v>2.25</v>
-      </c>
-      <c r="U80">
-        <v>1.8</v>
-      </c>
-      <c r="V80">
-        <v>2</v>
-      </c>
-      <c r="W80">
-        <v>-1</v>
-      </c>
-      <c r="X80">
-        <v>-1</v>
-      </c>
-      <c r="Y80">
-        <v>2.4</v>
-      </c>
-      <c r="Z80">
-        <v>-1</v>
-      </c>
-      <c r="AA80">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB80">
-        <v>0.8</v>
-      </c>
-      <c r="AC80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7653,7 +7653,7 @@
         <v>4</v>
       </c>
       <c r="J81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K81">
         <v>1.4</v>
@@ -7718,7 +7718,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6848558</v>
+        <v>6848556</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7730,73 +7730,73 @@
         <v>45283.5</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K82">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L82">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M82">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N82">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O82">
         <v>3.5</v>
       </c>
       <c r="P82">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q82">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R82">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S82">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U82">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V82">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W82">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z82">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB82">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -7807,7 +7807,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6848557</v>
+        <v>6848558</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7822,10 +7822,10 @@
         <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -7834,31 +7834,31 @@
         <v>41</v>
       </c>
       <c r="K83">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L83">
+        <v>3.5</v>
+      </c>
+      <c r="M83">
+        <v>4.333</v>
+      </c>
+      <c r="N83">
+        <v>1.7</v>
+      </c>
+      <c r="O83">
+        <v>3.5</v>
+      </c>
+      <c r="P83">
         <v>4.75</v>
       </c>
-      <c r="M83">
-        <v>6.5</v>
-      </c>
-      <c r="N83">
-        <v>1.333</v>
-      </c>
-      <c r="O83">
-        <v>4.75</v>
-      </c>
-      <c r="P83">
-        <v>8</v>
-      </c>
       <c r="Q83">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R83">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S83">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T83">
         <v>2.5</v>
@@ -7867,10 +7867,10 @@
         <v>1.85</v>
       </c>
       <c r="V83">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
-        <v>0.333</v>
+        <v>0.7</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7879,16 +7879,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC83">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7908,7 +7908,7 @@
         <v>45290.5</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
         <v>34</v>
@@ -8000,7 +8000,7 @@
         <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8009,7 +8009,7 @@
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K85">
         <v>4.333</v>
@@ -8089,7 +8089,7 @@
         <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K86">
         <v>2.35</v>
@@ -8175,7 +8175,7 @@
         <v>45297.5</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
         <v>35</v>
@@ -8252,7 +8252,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6848564</v>
+        <v>6848563</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8264,76 +8264,76 @@
         <v>45297.5</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I88">
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K88">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L88">
         <v>3.75</v>
       </c>
       <c r="M88">
+        <v>2.25</v>
+      </c>
+      <c r="N88">
+        <v>2.7</v>
+      </c>
+      <c r="O88">
         <v>4</v>
       </c>
-      <c r="N88">
-        <v>1.75</v>
-      </c>
-      <c r="O88">
-        <v>3.8</v>
-      </c>
       <c r="P88">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q88">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R88">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S88">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
         <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8341,7 +8341,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6848565</v>
+        <v>6848564</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8353,76 +8353,76 @@
         <v>45297.5</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K89">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L89">
         <v>3.75</v>
       </c>
       <c r="M89">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="N89">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="O89">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P89">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R89">
         <v>2.05</v>
       </c>
       <c r="S89">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T89">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V89">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z89">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB89">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8430,7 +8430,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6848566</v>
+        <v>6848565</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8442,76 +8442,76 @@
         <v>45297.5</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K90">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L90">
         <v>3.75</v>
       </c>
       <c r="M90">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="N90">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="O90">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P90">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R90">
+        <v>2.05</v>
+      </c>
+      <c r="S90">
+        <v>1.75</v>
+      </c>
+      <c r="T90">
+        <v>2.25</v>
+      </c>
+      <c r="U90">
+        <v>2.025</v>
+      </c>
+      <c r="V90">
+        <v>1.775</v>
+      </c>
+      <c r="W90">
         <v>1.875</v>
       </c>
-      <c r="S90">
-        <v>1.975</v>
-      </c>
-      <c r="T90">
-        <v>2.75</v>
-      </c>
-      <c r="U90">
-        <v>1.925</v>
-      </c>
-      <c r="V90">
-        <v>1.925</v>
-      </c>
-      <c r="W90">
-        <v>-1</v>
-      </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA90">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC90">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8519,7 +8519,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6848563</v>
+        <v>6848566</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8531,37 +8531,37 @@
         <v>45297.5</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K91">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L91">
         <v>3.75</v>
       </c>
       <c r="M91">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="N91">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O91">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P91">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q91">
         <v>0.25</v>
@@ -8570,37 +8570,37 @@
         <v>1.875</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V91">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W91">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z91">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB91">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8709,7 +8709,7 @@
         <v>45304.5</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
         <v>36</v>
@@ -8721,7 +8721,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K93">
         <v>2.75</v>
@@ -8798,7 +8798,7 @@
         <v>45304.5</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G94" t="s">
         <v>37</v>
@@ -8810,7 +8810,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K94">
         <v>1.727</v>
@@ -8887,10 +8887,10 @@
         <v>45304.5</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -8899,7 +8899,7 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K95">
         <v>2.5</v>
@@ -8979,7 +8979,7 @@
         <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9154,7 +9154,7 @@
         <v>45311.5</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
         <v>34</v>
@@ -9166,7 +9166,7 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K98">
         <v>2.7</v>
@@ -9243,7 +9243,7 @@
         <v>45311.5</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
         <v>38</v>
@@ -9332,7 +9332,7 @@
         <v>45318.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
         <v>36</v>
@@ -9344,7 +9344,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K100">
         <v>3.25</v>
@@ -9424,7 +9424,7 @@
         <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9433,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K101">
         <v>2.5</v>
@@ -9513,7 +9513,7 @@
         <v>38</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9522,7 +9522,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K102">
         <v>2.2</v>
@@ -9602,7 +9602,7 @@
         <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9688,7 +9688,7 @@
         <v>45318.5</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
         <v>37</v>
@@ -9700,7 +9700,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K104">
         <v>1.444</v>
@@ -9777,7 +9777,7 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
         <v>37</v>
@@ -9866,10 +9866,10 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K106">
         <v>2.4</v>
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K107">
         <v>4</v>
@@ -10044,10 +10044,10 @@
         <v>45325.5</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10133,7 +10133,7 @@
         <v>45325.5</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G109" t="s">
         <v>36</v>
@@ -10225,7 +10225,7 @@
         <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10311,7 +10311,7 @@
         <v>45325.5</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
         <v>38</v>
@@ -10323,7 +10323,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K111">
         <v>2</v>
@@ -10400,10 +10400,10 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10477,7 +10477,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6848589</v>
+        <v>6848588</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10489,76 +10489,76 @@
         <v>45332.5</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K113">
-        <v>1.3</v>
+        <v>1.615</v>
       </c>
       <c r="L113">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M113">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="N113">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="O113">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P113">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R113">
+        <v>1.775</v>
+      </c>
+      <c r="S113">
         <v>2.025</v>
       </c>
-      <c r="S113">
-        <v>1.825</v>
-      </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U113">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V113">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA113">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10578,10 +10578,10 @@
         <v>45332.5</v>
       </c>
       <c r="F114" t="s">
+        <v>30</v>
+      </c>
+      <c r="G114" t="s">
         <v>29</v>
-      </c>
-      <c r="G114" t="s">
-        <v>33</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10590,7 +10590,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K114">
         <v>3.4</v>
@@ -10655,7 +10655,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6848588</v>
+        <v>6848589</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10667,76 +10667,76 @@
         <v>45332.5</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K115">
-        <v>1.615</v>
+        <v>1.3</v>
       </c>
       <c r="L115">
+        <v>5</v>
+      </c>
+      <c r="M115">
+        <v>7</v>
+      </c>
+      <c r="N115">
+        <v>1.55</v>
+      </c>
+      <c r="O115">
+        <v>3.8</v>
+      </c>
+      <c r="P115">
+        <v>4.75</v>
+      </c>
+      <c r="Q115">
+        <v>-1</v>
+      </c>
+      <c r="R115">
+        <v>2.025</v>
+      </c>
+      <c r="S115">
+        <v>1.825</v>
+      </c>
+      <c r="T115">
+        <v>2.5</v>
+      </c>
+      <c r="U115">
+        <v>1.975</v>
+      </c>
+      <c r="V115">
+        <v>1.875</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
+        <v>-1</v>
+      </c>
+      <c r="Y115">
         <v>3.75</v>
       </c>
-      <c r="M115">
-        <v>4.333</v>
-      </c>
-      <c r="N115">
-        <v>2.375</v>
-      </c>
-      <c r="O115">
-        <v>3.25</v>
-      </c>
-      <c r="P115">
-        <v>2.7</v>
-      </c>
-      <c r="Q115">
-        <v>0</v>
-      </c>
-      <c r="R115">
-        <v>1.775</v>
-      </c>
-      <c r="S115">
-        <v>2.025</v>
-      </c>
-      <c r="T115">
-        <v>2.25</v>
-      </c>
-      <c r="U115">
-        <v>1.8</v>
-      </c>
-      <c r="V115">
-        <v>2</v>
-      </c>
-      <c r="W115">
-        <v>1.375</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
-      <c r="Y115">
-        <v>-1</v>
-      </c>
       <c r="Z115">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB115">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC115">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10768,7 +10768,7 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K116">
         <v>1.615</v>
@@ -10848,7 +10848,7 @@
         <v>36</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10857,7 +10857,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K117">
         <v>2.1</v>
@@ -11023,10 +11023,10 @@
         <v>45339.5</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -11035,7 +11035,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K119">
         <v>4.6</v>
@@ -11124,7 +11124,7 @@
         <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K120">
         <v>2.75</v>
@@ -11204,7 +11204,7 @@
         <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11213,7 +11213,7 @@
         <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K121">
         <v>2.9</v>
@@ -11290,11 +11290,11 @@
         <v>45339.5</v>
       </c>
       <c r="F122" t="s">
+        <v>31</v>
+      </c>
+      <c r="G122" t="s">
         <v>30</v>
       </c>
-      <c r="G122" t="s">
-        <v>29</v>
-      </c>
       <c r="H122">
         <v>0</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K122">
         <v>2.1</v>
@@ -11391,7 +11391,7 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K123">
         <v>2.75</v>
@@ -11471,7 +11471,7 @@
         <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11480,7 +11480,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K124">
         <v>1.8</v>
@@ -11646,7 +11646,7 @@
         <v>45346.5</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G126" t="s">
         <v>37</v>
@@ -11658,7 +11658,7 @@
         <v>6</v>
       </c>
       <c r="J126" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K126">
         <v>1.363</v>
@@ -11735,7 +11735,7 @@
         <v>45346.5</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
         <v>35</v>
@@ -11747,7 +11747,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K127">
         <v>2.1</v>
@@ -11827,7 +11827,7 @@
         <v>34</v>
       </c>
       <c r="G128" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11836,7 +11836,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K128">
         <v>1.571</v>
@@ -11913,10 +11913,10 @@
         <v>45346.5</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -12005,7 +12005,7 @@
         <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12180,10 +12180,10 @@
         <v>45353.5</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12192,7 +12192,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K132">
         <v>2.75</v>
@@ -12257,7 +12257,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6920924</v>
+        <v>6920923</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12269,76 +12269,76 @@
         <v>45353.5</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
         <v>39</v>
       </c>
       <c r="K133">
+        <v>2.5</v>
+      </c>
+      <c r="L133">
+        <v>3.2</v>
+      </c>
+      <c r="M133">
+        <v>2.625</v>
+      </c>
+      <c r="N133">
+        <v>2.45</v>
+      </c>
+      <c r="O133">
+        <v>3.25</v>
+      </c>
+      <c r="P133">
+        <v>2.7</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
         <v>1.8</v>
       </c>
-      <c r="L133">
-        <v>3.5</v>
-      </c>
-      <c r="M133">
-        <v>4</v>
-      </c>
-      <c r="N133">
-        <v>2</v>
-      </c>
-      <c r="O133">
-        <v>3.2</v>
-      </c>
-      <c r="P133">
-        <v>3.5</v>
-      </c>
-      <c r="Q133">
-        <v>-0.25</v>
-      </c>
-      <c r="R133">
-        <v>1.775</v>
-      </c>
       <c r="S133">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T133">
         <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y133">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA133">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12346,7 +12346,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6920923</v>
+        <v>6920924</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12358,76 +12358,76 @@
         <v>45353.5</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J134" t="s">
         <v>40</v>
       </c>
       <c r="K134">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L134">
+        <v>3.5</v>
+      </c>
+      <c r="M134">
+        <v>4</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+      <c r="O134">
         <v>3.2</v>
       </c>
-      <c r="M134">
-        <v>2.625</v>
-      </c>
-      <c r="N134">
-        <v>2.45</v>
-      </c>
-      <c r="O134">
-        <v>3.25</v>
-      </c>
       <c r="P134">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S134">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T134">
         <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V134">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC134">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12536,10 +12536,10 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -12548,7 +12548,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K136">
         <v>2.7</v>
@@ -12613,7 +12613,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6958739</v>
+        <v>6958740</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12625,13 +12625,13 @@
         <v>45360.5</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -12640,43 +12640,43 @@
         <v>41</v>
       </c>
       <c r="K137">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L137">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="M137">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N137">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="O137">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P137">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
         <v>1.975</v>
       </c>
       <c r="S137">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W137">
-        <v>1.25</v>
+        <v>0.95</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12691,10 +12691,10 @@
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC137">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12702,7 +12702,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6937090</v>
+        <v>6958739</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12714,34 +12714,34 @@
         <v>45360.5</v>
       </c>
       <c r="F138" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
         <v>41</v>
       </c>
       <c r="K138">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L138">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M138">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N138">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O138">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P138">
         <v>2.8</v>
@@ -12750,22 +12750,22 @@
         <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T138">
         <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W138">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12774,16 +12774,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12791,7 +12791,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6958740</v>
+        <v>6937090</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12803,58 +12803,58 @@
         <v>45360.5</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
         <v>41</v>
       </c>
       <c r="K139">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="L139">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="M139">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N139">
+        <v>2.3</v>
+      </c>
+      <c r="O139">
+        <v>3.2</v>
+      </c>
+      <c r="P139">
+        <v>2.8</v>
+      </c>
+      <c r="Q139">
+        <v>-0.25</v>
+      </c>
+      <c r="R139">
+        <v>2.05</v>
+      </c>
+      <c r="S139">
+        <v>1.75</v>
+      </c>
+      <c r="T139">
+        <v>2.5</v>
+      </c>
+      <c r="U139">
+        <v>1.85</v>
+      </c>
+      <c r="V139">
         <v>1.95</v>
       </c>
-      <c r="O139">
-        <v>3.4</v>
-      </c>
-      <c r="P139">
-        <v>3.6</v>
-      </c>
-      <c r="Q139">
-        <v>-0.5</v>
-      </c>
-      <c r="R139">
-        <v>1.975</v>
-      </c>
-      <c r="S139">
-        <v>1.825</v>
-      </c>
-      <c r="T139">
-        <v>2.25</v>
-      </c>
-      <c r="U139">
-        <v>1.825</v>
-      </c>
-      <c r="V139">
-        <v>1.975</v>
-      </c>
       <c r="W139">
-        <v>0.95</v>
+        <v>1.3</v>
       </c>
       <c r="X139">
         <v>-1</v>
@@ -12863,16 +12863,16 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC139">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12981,11 +12981,11 @@
         <v>45360.5</v>
       </c>
       <c r="F141" t="s">
+        <v>29</v>
+      </c>
+      <c r="G141" t="s">
         <v>33</v>
       </c>
-      <c r="G141" t="s">
-        <v>32</v>
-      </c>
       <c r="H141">
         <v>0</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K141">
         <v>1.833</v>
@@ -13073,7 +13073,7 @@
         <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13082,7 +13082,7 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K142">
         <v>2.2</v>
@@ -13159,7 +13159,7 @@
         <v>45367.5</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G143" t="s">
         <v>37</v>
@@ -13171,7 +13171,7 @@
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K143">
         <v>2.4</v>
@@ -13251,7 +13251,7 @@
         <v>38</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13260,7 +13260,7 @@
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K144">
         <v>2</v>
@@ -13337,7 +13337,7 @@
         <v>45367.5</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
         <v>36</v>
@@ -13349,7 +13349,7 @@
         <v>6</v>
       </c>
       <c r="J145" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K145">
         <v>2.1</v>
@@ -13429,7 +13429,7 @@
         <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13438,7 +13438,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K146">
         <v>3.4</v>
@@ -13515,7 +13515,7 @@
         <v>45374.5</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G147" t="s">
         <v>34</v>
@@ -13527,7 +13527,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K147">
         <v>2.1</v>
@@ -13607,7 +13607,7 @@
         <v>36</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -13696,7 +13696,7 @@
         <v>37</v>
       </c>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13705,7 +13705,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K149">
         <v>2.5</v>
@@ -13782,7 +13782,7 @@
         <v>45374.5</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
         <v>35</v>
@@ -13794,7 +13794,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K150">
         <v>2.6</v>
@@ -13871,7 +13871,7 @@
         <v>45374.5</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
         <v>38</v>
@@ -14034,10 +14034,10 @@
         <v>45381.5</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K153">
         <v>1.909</v>
@@ -14061,19 +14061,19 @@
         <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S153">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T153">
         <v>2.5</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V153">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W153">
         <v>0</v>
@@ -14111,7 +14111,7 @@
         <v>36</v>
       </c>
       <c r="G154" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K154">
         <v>2.8</v>
@@ -14123,22 +14123,22 @@
         <v>2.1</v>
       </c>
       <c r="N154">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="O154">
         <v>3.5</v>
       </c>
       <c r="P154">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="Q154">
         <v>0</v>
       </c>
       <c r="R154">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S154">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T154">
         <v>2.75</v>
@@ -14185,7 +14185,7 @@
         <v>38</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K155">
         <v>2.3</v>
@@ -14197,22 +14197,22 @@
         <v>2.5</v>
       </c>
       <c r="N155">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O155">
         <v>3.6</v>
       </c>
       <c r="P155">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q155">
         <v>-0.25</v>
       </c>
       <c r="R155">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S155">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T155">
         <v>2.5</v>
@@ -14256,7 +14256,7 @@
         <v>45381.5</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G156" t="s">
         <v>35</v>
@@ -14283,19 +14283,19 @@
         <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S156">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T156">
         <v>2.25</v>
       </c>
       <c r="U156">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V156">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W156">
         <v>0</v>

--- a/Scotland League Two/Scotland League Two.xlsx
+++ b/Scotland League Two/Scotland League Two.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -103,9 +103,6 @@
     <t>Scotland League Two</t>
   </si>
   <si>
-    <t>Stenhousemuir</t>
-  </si>
-  <si>
     <t>East Fife</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>Spartans</t>
+  </si>
+  <si>
+    <t>Stenhousemuir</t>
   </si>
   <si>
     <t>Peterhead</t>
@@ -133,10 +133,10 @@
     <t>Stranraer</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
     <t>H</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC156"/>
+  <dimension ref="A1:AC151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6848481</v>
+        <v>6848479</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -613,43 +613,43 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>39</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L2">
         <v>3.6</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N2">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="O2">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P2">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R2">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T2">
         <v>2.75</v>
@@ -664,22 +664,22 @@
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z2">
+        <v>-1</v>
+      </c>
+      <c r="AA2">
+        <v>0.8</v>
+      </c>
+      <c r="AB2">
+        <v>0.5</v>
+      </c>
+      <c r="AC2">
         <v>-0.5</v>
-      </c>
-      <c r="AA2">
-        <v>0.425</v>
-      </c>
-      <c r="AB2">
-        <v>-1</v>
-      </c>
-      <c r="AC2">
-        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6848479</v>
+        <v>6848596</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,46 +702,46 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>40</v>
       </c>
       <c r="K3">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L3">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="N3">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P3">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
         <v>2</v>
@@ -753,22 +753,22 @@
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y3">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA3">
+        <v>-0</v>
+      </c>
+      <c r="AB3">
+        <v>-1</v>
+      </c>
+      <c r="AC3">
         <v>0.8</v>
-      </c>
-      <c r="AB3">
-        <v>0.5</v>
-      </c>
-      <c r="AC3">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6848596</v>
+        <v>6848480</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -803,34 +803,34 @@
         <v>39</v>
       </c>
       <c r="K4">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L4">
         <v>3.4</v>
       </c>
       <c r="M4">
+        <v>2.5</v>
+      </c>
+      <c r="N4">
+        <v>2.45</v>
+      </c>
+      <c r="O4">
+        <v>3.4</v>
+      </c>
+      <c r="P4">
         <v>2.4</v>
-      </c>
-      <c r="N4">
-        <v>2.55</v>
-      </c>
-      <c r="O4">
-        <v>3.3</v>
-      </c>
-      <c r="P4">
-        <v>2.45</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
         <v>2</v>
@@ -842,16 +842,16 @@
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB4">
         <v>-1</v>
@@ -865,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6848480</v>
+        <v>6997303</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -880,10 +880,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -892,61 +892,61 @@
         <v>40</v>
       </c>
       <c r="K5">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
+        <v>2.2</v>
+      </c>
+      <c r="N5">
+        <v>1.833</v>
+      </c>
+      <c r="O5">
+        <v>3.5</v>
+      </c>
+      <c r="P5">
+        <v>3.75</v>
+      </c>
+      <c r="Q5">
+        <v>-0.5</v>
+      </c>
+      <c r="R5">
+        <v>1.85</v>
+      </c>
+      <c r="S5">
+        <v>1.95</v>
+      </c>
+      <c r="T5">
         <v>2.5</v>
       </c>
-      <c r="N5">
-        <v>2.45</v>
-      </c>
-      <c r="O5">
-        <v>3.4</v>
-      </c>
-      <c r="P5">
-        <v>2.4</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>1.925</v>
-      </c>
-      <c r="S5">
-        <v>1.875</v>
-      </c>
-      <c r="T5">
-        <v>2.75</v>
-      </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y5">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -954,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6997303</v>
+        <v>6848481</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -969,73 +969,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M6">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P6">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q6">
+        <v>-0.25</v>
+      </c>
+      <c r="R6">
+        <v>1.95</v>
+      </c>
+      <c r="S6">
+        <v>1.85</v>
+      </c>
+      <c r="T6">
+        <v>2.75</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>1.8</v>
+      </c>
+      <c r="W6">
+        <v>-1</v>
+      </c>
+      <c r="X6">
+        <v>2.3</v>
+      </c>
+      <c r="Y6">
+        <v>-1</v>
+      </c>
+      <c r="Z6">
         <v>-0.5</v>
       </c>
-      <c r="R6">
-        <v>1.85</v>
-      </c>
-      <c r="S6">
-        <v>1.95</v>
-      </c>
-      <c r="T6">
-        <v>2.5</v>
-      </c>
-      <c r="U6">
-        <v>1.825</v>
-      </c>
-      <c r="V6">
-        <v>1.975</v>
-      </c>
-      <c r="W6">
-        <v>-1</v>
-      </c>
-      <c r="X6">
-        <v>2.5</v>
-      </c>
-      <c r="Y6">
-        <v>-1</v>
-      </c>
-      <c r="Z6">
-        <v>-1</v>
-      </c>
       <c r="AA6">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1058,7 +1058,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7">
         <v>2.25</v>
@@ -1147,7 +1147,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8">
         <v>2.1</v>
@@ -1236,7 +1236,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K9">
         <v>1.8</v>
@@ -1325,7 +1325,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K10">
         <v>1.909</v>
@@ -1414,7 +1414,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1423,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11">
         <v>2.7</v>
@@ -1500,10 +1500,10 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1577,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6848490</v>
+        <v>6848489</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1589,19 +1589,19 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K13">
         <v>2.3</v>
@@ -1616,49 +1616,49 @@
         <v>2.1</v>
       </c>
       <c r="O13">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P13">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q13">
         <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S13">
+        <v>1.9</v>
+      </c>
+      <c r="T13">
+        <v>2.25</v>
+      </c>
+      <c r="U13">
         <v>1.825</v>
       </c>
-      <c r="T13">
-        <v>2.75</v>
-      </c>
-      <c r="U13">
+      <c r="V13">
         <v>1.975</v>
       </c>
-      <c r="V13">
-        <v>1.875</v>
-      </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA13">
+        <v>-1</v>
+      </c>
+      <c r="AB13">
         <v>0.825</v>
       </c>
-      <c r="AB13">
-        <v>-1</v>
-      </c>
       <c r="AC13">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1666,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6848489</v>
+        <v>6848490</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1678,19 +1678,19 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K14">
         <v>2.3</v>
@@ -1705,49 +1705,49 @@
         <v>2.1</v>
       </c>
       <c r="O14">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P14">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q14">
         <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T14">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W14">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z14">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB14">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6848597</v>
+        <v>6848488</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1767,76 +1767,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
         <v>39</v>
       </c>
       <c r="K15">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L15">
+        <v>3.6</v>
+      </c>
+      <c r="M15">
+        <v>3.6</v>
+      </c>
+      <c r="N15">
+        <v>2.875</v>
+      </c>
+      <c r="O15">
         <v>3.4</v>
       </c>
-      <c r="M15">
-        <v>2.6</v>
-      </c>
-      <c r="N15">
-        <v>2.05</v>
-      </c>
-      <c r="O15">
-        <v>3.5</v>
-      </c>
       <c r="P15">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T15">
         <v>2.5</v>
       </c>
       <c r="U15">
+        <v>1.85</v>
+      </c>
+      <c r="V15">
         <v>1.95</v>
       </c>
-      <c r="V15">
-        <v>1.85</v>
-      </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1844,7 +1844,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6848488</v>
+        <v>6848597</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1856,76 +1856,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>40</v>
       </c>
       <c r="K16">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M16">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N16">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S16">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
+        <v>1.95</v>
+      </c>
+      <c r="V16">
         <v>1.85</v>
       </c>
-      <c r="V16">
-        <v>1.95</v>
-      </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y16">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA16">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB16">
+        <v>-1</v>
+      </c>
+      <c r="AC16">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC16">
-        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2037,7 +2037,7 @@
         <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2046,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K18">
         <v>2.25</v>
@@ -2126,7 +2126,7 @@
         <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19">
         <v>2.5</v>
@@ -2212,10 +2212,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K20">
         <v>2.2</v>
@@ -2301,7 +2301,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
         <v>36</v>
@@ -2313,7 +2313,7 @@
         <v>4</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K21">
         <v>2.3</v>
@@ -2390,10 +2390,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
         <v>33</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K22">
         <v>2.2</v>
@@ -2571,7 +2571,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K25">
         <v>2.05</v>
@@ -2746,10 +2746,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s">
         <v>31</v>
-      </c>
-      <c r="G26" t="s">
-        <v>32</v>
       </c>
       <c r="H26">
         <v>5</v>
@@ -2838,7 +2838,7 @@
         <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2847,7 +2847,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27">
         <v>2.875</v>
@@ -2927,7 +2927,7 @@
         <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3013,7 +3013,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
         <v>38</v>
@@ -3102,7 +3102,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
         <v>37</v>
@@ -3191,7 +3191,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -3280,10 +3280,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3292,7 +3292,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K32">
         <v>1.95</v>
@@ -3372,7 +3372,7 @@
         <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3470,7 +3470,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -3547,10 +3547,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K35">
         <v>2.15</v>
@@ -3648,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -3713,7 +3713,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6848514</v>
+        <v>6848513</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3725,73 +3725,73 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K37">
+        <v>1.8</v>
+      </c>
+      <c r="L37">
+        <v>3.6</v>
+      </c>
+      <c r="M37">
+        <v>4.333</v>
+      </c>
+      <c r="N37">
         <v>1.666</v>
-      </c>
-      <c r="L37">
-        <v>3.75</v>
-      </c>
-      <c r="M37">
-        <v>5</v>
-      </c>
-      <c r="N37">
-        <v>1.6</v>
       </c>
       <c r="O37">
         <v>3.8</v>
       </c>
       <c r="P37">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q37">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R37">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S37">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X37">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA37">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3802,7 +3802,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6848513</v>
+        <v>6848514</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3814,73 +3814,73 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K38">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L38">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N38">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="O38">
         <v>3.8</v>
       </c>
       <c r="P38">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q38">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R38">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S38">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T38">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -3903,7 +3903,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>35</v>
@@ -3915,7 +3915,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K39">
         <v>2.375</v>
@@ -3992,10 +3992,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4004,7 +4004,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K40">
         <v>2.2</v>
@@ -4158,7 +4158,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6848519</v>
+        <v>6848520</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4170,37 +4170,37 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K42">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L42">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
+        <v>2.8</v>
+      </c>
+      <c r="N42">
         <v>2.5</v>
       </c>
-      <c r="N42">
-        <v>2.7</v>
-      </c>
       <c r="O42">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P42">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -4215,10 +4215,10 @@
         <v>2.5</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4227,7 +4227,7 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Z42">
         <v>-1</v>
@@ -4236,7 +4236,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB42">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4247,7 +4247,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6848520</v>
+        <v>6848519</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4259,37 +4259,37 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
         <v>3</v>
       </c>
-      <c r="I43">
-        <v>4</v>
-      </c>
       <c r="J43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K43">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L43">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M43">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N43">
+        <v>2.7</v>
+      </c>
+      <c r="O43">
+        <v>3.25</v>
+      </c>
+      <c r="P43">
         <v>2.5</v>
-      </c>
-      <c r="O43">
-        <v>3.5</v>
-      </c>
-      <c r="P43">
-        <v>2.4</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -4304,10 +4304,10 @@
         <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V43">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W43">
         <v>-1</v>
@@ -4316,7 +4316,7 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Z43">
         <v>-1</v>
@@ -4325,7 +4325,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB43">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4360,7 +4360,7 @@
         <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K44">
         <v>4</v>
@@ -4437,7 +4437,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
         <v>37</v>
@@ -4526,7 +4526,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
         <v>38</v>
@@ -4615,7 +4615,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>36</v>
@@ -4704,10 +4704,10 @@
         <v>45223.65625</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4716,7 +4716,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K48">
         <v>4</v>
@@ -4796,7 +4796,7 @@
         <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4885,7 +4885,7 @@
         <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -4974,7 +4974,7 @@
         <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -4983,7 +4983,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K51">
         <v>2.8</v>
@@ -5063,7 +5063,7 @@
         <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5072,7 +5072,7 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K52">
         <v>2.55</v>
@@ -5152,7 +5152,7 @@
         <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H53">
         <v>4</v>
@@ -5238,7 +5238,7 @@
         <v>45241.5</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
         <v>36</v>
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K54">
         <v>3.25</v>
@@ -5327,10 +5327,10 @@
         <v>45241.5</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5416,10 +5416,10 @@
         <v>45241.5</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K58">
         <v>1.909</v>
@@ -5683,7 +5683,7 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s">
         <v>34</v>
@@ -5772,7 +5772,7 @@
         <v>45248.5</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
         <v>34</v>
@@ -5784,7 +5784,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K60">
         <v>2.3</v>
@@ -5864,7 +5864,7 @@
         <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K61">
         <v>2.5</v>
@@ -5950,7 +5950,7 @@
         <v>45248.5</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
         <v>35</v>
@@ -5962,7 +5962,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K62">
         <v>2.05</v>
@@ -6042,7 +6042,7 @@
         <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6051,7 +6051,7 @@
         <v>4</v>
       </c>
       <c r="J63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K63">
         <v>2.4</v>
@@ -6131,7 +6131,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6205,7 +6205,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7396254</v>
+        <v>7451460</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6217,58 +6217,58 @@
         <v>45251.69791666666</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
         <v>41</v>
       </c>
       <c r="K65">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L65">
+        <v>3.5</v>
+      </c>
+      <c r="M65">
+        <v>3.1</v>
+      </c>
+      <c r="N65">
+        <v>2.6</v>
+      </c>
+      <c r="O65">
         <v>3.4</v>
       </c>
-      <c r="M65">
-        <v>2.8</v>
-      </c>
-      <c r="N65">
-        <v>2.9</v>
-      </c>
-      <c r="O65">
-        <v>3.1</v>
-      </c>
       <c r="P65">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q65">
         <v>0</v>
       </c>
       <c r="R65">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S65">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V65">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W65">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6277,16 +6277,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC65">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6294,7 +6294,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7451460</v>
+        <v>7396254</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6309,55 +6309,55 @@
         <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
         <v>41</v>
       </c>
       <c r="K66">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L66">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
+        <v>2.8</v>
+      </c>
+      <c r="N66">
+        <v>2.9</v>
+      </c>
+      <c r="O66">
         <v>3.1</v>
       </c>
-      <c r="N66">
-        <v>2.6</v>
-      </c>
-      <c r="O66">
-        <v>3.4</v>
-      </c>
       <c r="P66">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q66">
         <v>0</v>
       </c>
       <c r="R66">
+        <v>2.05</v>
+      </c>
+      <c r="S66">
+        <v>1.75</v>
+      </c>
+      <c r="T66">
+        <v>2.25</v>
+      </c>
+      <c r="U66">
         <v>1.925</v>
       </c>
-      <c r="S66">
+      <c r="V66">
         <v>1.875</v>
       </c>
-      <c r="T66">
-        <v>2.5</v>
-      </c>
-      <c r="U66">
-        <v>2</v>
-      </c>
-      <c r="V66">
-        <v>1.8</v>
-      </c>
       <c r="W66">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6366,16 +6366,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6383,7 +6383,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6848544</v>
+        <v>6848542</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6395,76 +6395,76 @@
         <v>45262.5</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K67">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L67">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M67">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N67">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="O67">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P67">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q67">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
+        <v>1.825</v>
+      </c>
+      <c r="S67">
+        <v>1.975</v>
+      </c>
+      <c r="T67">
+        <v>2.25</v>
+      </c>
+      <c r="U67">
+        <v>1.875</v>
+      </c>
+      <c r="V67">
         <v>1.925</v>
       </c>
-      <c r="S67">
-        <v>1.925</v>
-      </c>
-      <c r="T67">
-        <v>2.75</v>
-      </c>
-      <c r="U67">
-        <v>2.025</v>
-      </c>
-      <c r="V67">
-        <v>1.825</v>
-      </c>
       <c r="W67">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
+        <v>-0.5</v>
+      </c>
+      <c r="AA67">
+        <v>0.4875</v>
+      </c>
+      <c r="AB67">
+        <v>-0.5</v>
+      </c>
+      <c r="AC67">
         <v>0.4625</v>
-      </c>
-      <c r="AA67">
-        <v>-0.5</v>
-      </c>
-      <c r="AB67">
-        <v>-1</v>
-      </c>
-      <c r="AC67">
-        <v>0.825</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6472,7 +6472,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6848542</v>
+        <v>6848544</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6484,76 +6484,76 @@
         <v>45262.5</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K68">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M68">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N68">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="O68">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P68">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
+        <v>1.925</v>
+      </c>
+      <c r="S68">
+        <v>1.925</v>
+      </c>
+      <c r="T68">
+        <v>2.75</v>
+      </c>
+      <c r="U68">
+        <v>2.025</v>
+      </c>
+      <c r="V68">
         <v>1.825</v>
       </c>
-      <c r="S68">
-        <v>1.975</v>
-      </c>
-      <c r="T68">
-        <v>2.25</v>
-      </c>
-      <c r="U68">
-        <v>1.875</v>
-      </c>
-      <c r="V68">
-        <v>1.925</v>
-      </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X68">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
+        <v>0.4625</v>
+      </c>
+      <c r="AA68">
         <v>-0.5</v>
       </c>
-      <c r="AA68">
-        <v>0.4875</v>
-      </c>
       <c r="AB68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6573,7 +6573,7 @@
         <v>45269.5</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
         <v>35</v>
@@ -6662,10 +6662,10 @@
         <v>45269.5</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H70">
         <v>4</v>
@@ -6754,7 +6754,7 @@
         <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6763,7 +6763,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K71">
         <v>2.1</v>
@@ -6852,7 +6852,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K72">
         <v>2.5</v>
@@ -6929,7 +6929,7 @@
         <v>45269.5</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
         <v>34</v>
@@ -6941,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K73">
         <v>2.25</v>
@@ -7021,7 +7021,7 @@
         <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7119,7 +7119,7 @@
         <v>4</v>
       </c>
       <c r="J75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K75">
         <v>2.8</v>
@@ -7196,10 +7196,10 @@
         <v>45276.5</v>
       </c>
       <c r="F76" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" t="s">
         <v>32</v>
-      </c>
-      <c r="G76" t="s">
-        <v>33</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7208,7 +7208,7 @@
         <v>4</v>
       </c>
       <c r="J76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K76">
         <v>2.7</v>
@@ -7374,10 +7374,10 @@
         <v>45276.5</v>
       </c>
       <c r="F78" t="s">
+        <v>33</v>
+      </c>
+      <c r="G78" t="s">
         <v>29</v>
-      </c>
-      <c r="G78" t="s">
-        <v>30</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7463,10 +7463,10 @@
         <v>45282.6875</v>
       </c>
       <c r="F79" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" t="s">
         <v>30</v>
-      </c>
-      <c r="G79" t="s">
-        <v>31</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7475,7 +7475,7 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K79">
         <v>1.909</v>
@@ -7540,7 +7540,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6848557</v>
+        <v>6848556</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7552,76 +7552,76 @@
         <v>45283.5</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K80">
-        <v>1.363</v>
+        <v>1.571</v>
       </c>
       <c r="L80">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M80">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N80">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="O80">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P80">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="Q80">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
+        <v>1.95</v>
+      </c>
+      <c r="S80">
+        <v>1.85</v>
+      </c>
+      <c r="T80">
+        <v>2.25</v>
+      </c>
+      <c r="U80">
         <v>1.8</v>
       </c>
-      <c r="S80">
-        <v>2.05</v>
-      </c>
-      <c r="T80">
-        <v>2.5</v>
-      </c>
-      <c r="U80">
-        <v>1.85</v>
-      </c>
       <c r="V80">
         <v>2</v>
       </c>
       <c r="W80">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z80">
+        <v>-1</v>
+      </c>
+      <c r="AA80">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB80">
         <v>0.8</v>
       </c>
-      <c r="AA80">
-        <v>-1</v>
-      </c>
-      <c r="AB80">
-        <v>-1</v>
-      </c>
       <c r="AC80">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7653,7 +7653,7 @@
         <v>4</v>
       </c>
       <c r="J81" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K81">
         <v>1.4</v>
@@ -7718,7 +7718,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6848556</v>
+        <v>6848558</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7730,73 +7730,73 @@
         <v>45283.5</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K82">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L82">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M82">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N82">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O82">
         <v>3.5</v>
       </c>
       <c r="P82">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q82">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R82">
+        <v>1.9</v>
+      </c>
+      <c r="S82">
+        <v>1.9</v>
+      </c>
+      <c r="T82">
+        <v>2.5</v>
+      </c>
+      <c r="U82">
+        <v>1.85</v>
+      </c>
+      <c r="V82">
         <v>1.95</v>
       </c>
-      <c r="S82">
-        <v>1.85</v>
-      </c>
-      <c r="T82">
-        <v>2.25</v>
-      </c>
-      <c r="U82">
-        <v>1.8</v>
-      </c>
-      <c r="V82">
-        <v>2</v>
-      </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA82">
+        <v>-1</v>
+      </c>
+      <c r="AB82">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB82">
-        <v>0.8</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -7807,7 +7807,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6848558</v>
+        <v>6848557</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7822,10 +7822,10 @@
         <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -7834,31 +7834,31 @@
         <v>41</v>
       </c>
       <c r="K83">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L83">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M83">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N83">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="O83">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P83">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="Q83">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T83">
         <v>2.5</v>
@@ -7867,10 +7867,10 @@
         <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W83">
-        <v>0.7</v>
+        <v>0.333</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7879,16 +7879,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7908,7 +7908,7 @@
         <v>45290.5</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
         <v>34</v>
@@ -8000,7 +8000,7 @@
         <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8009,7 +8009,7 @@
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K85">
         <v>4.333</v>
@@ -8089,7 +8089,7 @@
         <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K86">
         <v>2.35</v>
@@ -8175,7 +8175,7 @@
         <v>45297.5</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
         <v>35</v>
@@ -8267,7 +8267,7 @@
         <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H88">
         <v>3</v>
@@ -8356,7 +8356,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8365,7 +8365,7 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K89">
         <v>1.666</v>
@@ -8442,7 +8442,7 @@
         <v>45297.5</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
         <v>38</v>
@@ -8534,7 +8534,7 @@
         <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K91">
         <v>2.1</v>
@@ -8697,7 +8697,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6848602</v>
+        <v>6848568</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8709,10 +8709,10 @@
         <v>45304.5</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8721,43 +8721,43 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K93">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L93">
         <v>3.5</v>
       </c>
       <c r="M93">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="N93">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O93">
         <v>3.5</v>
       </c>
       <c r="P93">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V93">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W93">
         <v>-1</v>
@@ -8769,16 +8769,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8786,7 +8786,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6848568</v>
+        <v>6848571</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8798,76 +8798,76 @@
         <v>45304.5</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
         <v>39</v>
       </c>
       <c r="K94">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L94">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M94">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N94">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="O94">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P94">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q94">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R94">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S94">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U94">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V94">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z94">
         <v>-1</v>
       </c>
       <c r="AA94">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC94">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8875,7 +8875,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6848571</v>
+        <v>6848569</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8887,76 +8887,76 @@
         <v>45304.5</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K95">
+        <v>1.909</v>
+      </c>
+      <c r="L95">
+        <v>3.3</v>
+      </c>
+      <c r="M95">
+        <v>3.75</v>
+      </c>
+      <c r="N95">
+        <v>1.727</v>
+      </c>
+      <c r="O95">
+        <v>3.4</v>
+      </c>
+      <c r="P95">
+        <v>4.5</v>
+      </c>
+      <c r="Q95">
+        <v>-0.75</v>
+      </c>
+      <c r="R95">
+        <v>1.95</v>
+      </c>
+      <c r="S95">
+        <v>1.85</v>
+      </c>
+      <c r="T95">
         <v>2.5</v>
       </c>
-      <c r="L95">
-        <v>3.4</v>
-      </c>
-      <c r="M95">
-        <v>2.5</v>
-      </c>
-      <c r="N95">
-        <v>2.75</v>
-      </c>
-      <c r="O95">
-        <v>3.1</v>
-      </c>
-      <c r="P95">
-        <v>2.45</v>
-      </c>
-      <c r="Q95">
-        <v>0</v>
-      </c>
-      <c r="R95">
-        <v>2.05</v>
-      </c>
-      <c r="S95">
-        <v>1.8</v>
-      </c>
-      <c r="T95">
-        <v>2</v>
-      </c>
       <c r="U95">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA95">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB95">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC95">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8964,7 +8964,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6848569</v>
+        <v>6848570</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8976,46 +8976,46 @@
         <v>45304.5</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
         <v>41</v>
       </c>
       <c r="K96">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L96">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="N96">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="O96">
         <v>3.4</v>
       </c>
       <c r="P96">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S96">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T96">
         <v>2.5</v>
@@ -9027,7 +9027,7 @@
         <v>1.875</v>
       </c>
       <c r="W96">
-        <v>0.7270000000000001</v>
+        <v>2</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9036,16 +9036,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9053,7 +9053,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6848570</v>
+        <v>6848602</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9065,76 +9065,76 @@
         <v>45304.5</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K97">
+        <v>2.75</v>
+      </c>
+      <c r="L97">
+        <v>3.5</v>
+      </c>
+      <c r="M97">
+        <v>2.25</v>
+      </c>
+      <c r="N97">
         <v>2.875</v>
       </c>
-      <c r="L97">
-        <v>3.4</v>
-      </c>
-      <c r="M97">
+      <c r="O97">
+        <v>3.5</v>
+      </c>
+      <c r="P97">
         <v>2.2</v>
-      </c>
-      <c r="N97">
-        <v>3</v>
-      </c>
-      <c r="O97">
-        <v>3.4</v>
-      </c>
-      <c r="P97">
-        <v>2.1</v>
       </c>
       <c r="Q97">
         <v>0.25</v>
       </c>
       <c r="R97">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S97">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T97">
         <v>2.5</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V97">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W97">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9154,7 +9154,7 @@
         <v>45311.5</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
         <v>34</v>
@@ -9166,7 +9166,7 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K98">
         <v>2.7</v>
@@ -9243,7 +9243,7 @@
         <v>45311.5</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
         <v>38</v>
@@ -9332,7 +9332,7 @@
         <v>45318.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
         <v>36</v>
@@ -9344,7 +9344,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K100">
         <v>3.25</v>
@@ -9424,7 +9424,7 @@
         <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9433,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K101">
         <v>2.5</v>
@@ -9513,7 +9513,7 @@
         <v>38</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9522,7 +9522,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K102">
         <v>2.2</v>
@@ -9602,7 +9602,7 @@
         <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9688,7 +9688,7 @@
         <v>45318.5</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
         <v>37</v>
@@ -9700,7 +9700,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K104">
         <v>1.444</v>
@@ -9777,7 +9777,7 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
         <v>37</v>
@@ -9866,10 +9866,10 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K106">
         <v>2.4</v>
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K107">
         <v>4</v>
@@ -10044,10 +10044,10 @@
         <v>45325.5</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10133,7 +10133,7 @@
         <v>45325.5</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
         <v>36</v>
@@ -10225,7 +10225,7 @@
         <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10311,7 +10311,7 @@
         <v>45325.5</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
         <v>38</v>
@@ -10323,7 +10323,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K111">
         <v>2</v>
@@ -10400,10 +10400,10 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F112" t="s">
+        <v>30</v>
+      </c>
+      <c r="G112" t="s">
         <v>31</v>
-      </c>
-      <c r="G112" t="s">
-        <v>32</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10477,7 +10477,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6848588</v>
+        <v>6848589</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10489,76 +10489,76 @@
         <v>45332.5</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K113">
-        <v>1.615</v>
+        <v>1.3</v>
       </c>
       <c r="L113">
+        <v>5</v>
+      </c>
+      <c r="M113">
+        <v>7</v>
+      </c>
+      <c r="N113">
+        <v>1.55</v>
+      </c>
+      <c r="O113">
+        <v>3.8</v>
+      </c>
+      <c r="P113">
+        <v>4.75</v>
+      </c>
+      <c r="Q113">
+        <v>-1</v>
+      </c>
+      <c r="R113">
+        <v>2.025</v>
+      </c>
+      <c r="S113">
+        <v>1.825</v>
+      </c>
+      <c r="T113">
+        <v>2.5</v>
+      </c>
+      <c r="U113">
+        <v>1.975</v>
+      </c>
+      <c r="V113">
+        <v>1.875</v>
+      </c>
+      <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
+        <v>-1</v>
+      </c>
+      <c r="Y113">
         <v>3.75</v>
       </c>
-      <c r="M113">
-        <v>4.333</v>
-      </c>
-      <c r="N113">
-        <v>2.375</v>
-      </c>
-      <c r="O113">
-        <v>3.25</v>
-      </c>
-      <c r="P113">
-        <v>2.7</v>
-      </c>
-      <c r="Q113">
-        <v>0</v>
-      </c>
-      <c r="R113">
-        <v>1.775</v>
-      </c>
-      <c r="S113">
-        <v>2.025</v>
-      </c>
-      <c r="T113">
-        <v>2.25</v>
-      </c>
-      <c r="U113">
-        <v>1.8</v>
-      </c>
-      <c r="V113">
-        <v>2</v>
-      </c>
-      <c r="W113">
-        <v>1.375</v>
-      </c>
-      <c r="X113">
-        <v>-1</v>
-      </c>
-      <c r="Y113">
-        <v>-1</v>
-      </c>
       <c r="Z113">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB113">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC113">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10578,10 +10578,10 @@
         <v>45332.5</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10590,7 +10590,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K114">
         <v>3.4</v>
@@ -10655,7 +10655,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6848589</v>
+        <v>6848588</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10667,76 +10667,76 @@
         <v>45332.5</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K115">
-        <v>1.3</v>
+        <v>1.615</v>
       </c>
       <c r="L115">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M115">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="N115">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="O115">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P115">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R115">
+        <v>1.775</v>
+      </c>
+      <c r="S115">
         <v>2.025</v>
       </c>
-      <c r="S115">
-        <v>1.825</v>
-      </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA115">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10768,7 +10768,7 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K116">
         <v>1.615</v>
@@ -10848,7 +10848,7 @@
         <v>36</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10857,7 +10857,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K117">
         <v>2.1</v>
@@ -10922,7 +10922,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6848590</v>
+        <v>6848591</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10934,76 +10934,76 @@
         <v>45339.5</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H118">
         <v>2</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K118">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="L118">
+        <v>4.2</v>
+      </c>
+      <c r="M118">
+        <v>1.571</v>
+      </c>
+      <c r="N118">
         <v>3.6</v>
       </c>
-      <c r="M118">
-        <v>1.909</v>
-      </c>
-      <c r="N118">
-        <v>3.1</v>
-      </c>
       <c r="O118">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R118">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S118">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
         <v>1.975</v>
       </c>
       <c r="W118">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11011,7 +11011,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6848591</v>
+        <v>6848590</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11023,76 +11023,76 @@
         <v>45339.5</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K119">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="L119">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M119">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="N119">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O119">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P119">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="Q119">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S119">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T119">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V119">
         <v>1.975</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X119">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K120">
         <v>2.75</v>
@@ -11204,7 +11204,7 @@
         <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11213,7 +11213,7 @@
         <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K121">
         <v>2.9</v>
@@ -11290,10 +11290,10 @@
         <v>45339.5</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K122">
         <v>2.1</v>
@@ -11391,7 +11391,7 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K123">
         <v>2.75</v>
@@ -11471,7 +11471,7 @@
         <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11480,7 +11480,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K124">
         <v>1.8</v>
@@ -11646,7 +11646,7 @@
         <v>45346.5</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G126" t="s">
         <v>37</v>
@@ -11658,7 +11658,7 @@
         <v>6</v>
       </c>
       <c r="J126" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K126">
         <v>1.363</v>
@@ -11735,7 +11735,7 @@
         <v>45346.5</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G127" t="s">
         <v>35</v>
@@ -11747,7 +11747,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K127">
         <v>2.1</v>
@@ -11827,7 +11827,7 @@
         <v>34</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11836,7 +11836,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K128">
         <v>1.571</v>
@@ -11913,10 +11913,10 @@
         <v>45346.5</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -12005,7 +12005,7 @@
         <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12180,10 +12180,10 @@
         <v>45353.5</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12192,7 +12192,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K132">
         <v>2.75</v>
@@ -12257,7 +12257,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6920923</v>
+        <v>6920924</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12269,76 +12269,76 @@
         <v>45353.5</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
         <v>39</v>
       </c>
       <c r="K133">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L133">
+        <v>3.5</v>
+      </c>
+      <c r="M133">
+        <v>4</v>
+      </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
+      <c r="O133">
         <v>3.2</v>
       </c>
-      <c r="M133">
-        <v>2.625</v>
-      </c>
-      <c r="N133">
-        <v>2.45</v>
-      </c>
-      <c r="O133">
-        <v>3.25</v>
-      </c>
       <c r="P133">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S133">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T133">
         <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC133">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12346,7 +12346,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6920924</v>
+        <v>6920923</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12358,76 +12358,76 @@
         <v>45353.5</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
         <v>40</v>
       </c>
       <c r="K134">
+        <v>2.5</v>
+      </c>
+      <c r="L134">
+        <v>3.2</v>
+      </c>
+      <c r="M134">
+        <v>2.625</v>
+      </c>
+      <c r="N134">
+        <v>2.45</v>
+      </c>
+      <c r="O134">
+        <v>3.25</v>
+      </c>
+      <c r="P134">
+        <v>2.7</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
         <v>1.8</v>
       </c>
-      <c r="L134">
-        <v>3.5</v>
-      </c>
-      <c r="M134">
-        <v>4</v>
-      </c>
-      <c r="N134">
-        <v>2</v>
-      </c>
-      <c r="O134">
-        <v>3.2</v>
-      </c>
-      <c r="P134">
-        <v>3.5</v>
-      </c>
-      <c r="Q134">
-        <v>-0.25</v>
-      </c>
-      <c r="R134">
-        <v>1.775</v>
-      </c>
       <c r="S134">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T134">
         <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V134">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y134">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA134">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12536,10 +12536,10 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -12548,7 +12548,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K136">
         <v>2.7</v>
@@ -12714,10 +12714,10 @@
         <v>45360.5</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12803,7 +12803,7 @@
         <v>45360.5</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G139" t="s">
         <v>36</v>
@@ -12981,10 +12981,10 @@
         <v>45360.5</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -12993,7 +12993,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K141">
         <v>1.833</v>
@@ -13073,7 +13073,7 @@
         <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13082,7 +13082,7 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K142">
         <v>2.2</v>
@@ -13159,7 +13159,7 @@
         <v>45367.5</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
         <v>37</v>
@@ -13171,7 +13171,7 @@
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K143">
         <v>2.4</v>
@@ -13251,7 +13251,7 @@
         <v>38</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13260,7 +13260,7 @@
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K144">
         <v>2</v>
@@ -13337,7 +13337,7 @@
         <v>45367.5</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G145" t="s">
         <v>36</v>
@@ -13349,7 +13349,7 @@
         <v>6</v>
       </c>
       <c r="J145" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K145">
         <v>2.1</v>
@@ -13429,7 +13429,7 @@
         <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13438,7 +13438,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K146">
         <v>3.4</v>
@@ -13515,7 +13515,7 @@
         <v>45374.5</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
         <v>34</v>
@@ -13527,7 +13527,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K147">
         <v>2.1</v>
@@ -13607,7 +13607,7 @@
         <v>36</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -13696,7 +13696,7 @@
         <v>37</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13705,7 +13705,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K149">
         <v>2.5</v>
@@ -13782,7 +13782,7 @@
         <v>45374.5</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
         <v>35</v>
@@ -13794,7 +13794,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K150">
         <v>2.6</v>
@@ -13871,7 +13871,7 @@
         <v>45374.5</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
         <v>38</v>
@@ -13941,376 +13941,6 @@
       </c>
       <c r="AC151">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:29">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152">
-        <v>7060949</v>
-      </c>
-      <c r="C152" t="s">
-        <v>28</v>
-      </c>
-      <c r="D152" t="s">
-        <v>28</v>
-      </c>
-      <c r="E152" s="2">
-        <v>45381.5</v>
-      </c>
-      <c r="F152" t="s">
-        <v>34</v>
-      </c>
-      <c r="G152" t="s">
-        <v>37</v>
-      </c>
-      <c r="K152">
-        <v>1.571</v>
-      </c>
-      <c r="L152">
-        <v>3.75</v>
-      </c>
-      <c r="M152">
-        <v>4.75</v>
-      </c>
-      <c r="N152">
-        <v>1.95</v>
-      </c>
-      <c r="O152">
-        <v>3.5</v>
-      </c>
-      <c r="P152">
-        <v>3.4</v>
-      </c>
-      <c r="Q152">
-        <v>-0.5</v>
-      </c>
-      <c r="R152">
-        <v>2</v>
-      </c>
-      <c r="S152">
-        <v>1.85</v>
-      </c>
-      <c r="T152">
-        <v>2.75</v>
-      </c>
-      <c r="U152">
-        <v>1.975</v>
-      </c>
-      <c r="V152">
-        <v>1.875</v>
-      </c>
-      <c r="W152">
-        <v>0</v>
-      </c>
-      <c r="X152">
-        <v>0</v>
-      </c>
-      <c r="Y152">
-        <v>0</v>
-      </c>
-      <c r="Z152">
-        <v>0</v>
-      </c>
-      <c r="AA152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:29">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153">
-        <v>7060952</v>
-      </c>
-      <c r="C153" t="s">
-        <v>28</v>
-      </c>
-      <c r="D153" t="s">
-        <v>28</v>
-      </c>
-      <c r="E153" s="2">
-        <v>45381.5</v>
-      </c>
-      <c r="F153" t="s">
-        <v>30</v>
-      </c>
-      <c r="G153" t="s">
-        <v>32</v>
-      </c>
-      <c r="K153">
-        <v>1.909</v>
-      </c>
-      <c r="L153">
-        <v>3.5</v>
-      </c>
-      <c r="M153">
-        <v>3.25</v>
-      </c>
-      <c r="N153">
-        <v>1.833</v>
-      </c>
-      <c r="O153">
-        <v>3.5</v>
-      </c>
-      <c r="P153">
-        <v>3.75</v>
-      </c>
-      <c r="Q153">
-        <v>-0.5</v>
-      </c>
-      <c r="R153">
-        <v>1.925</v>
-      </c>
-      <c r="S153">
-        <v>1.925</v>
-      </c>
-      <c r="T153">
-        <v>2.5</v>
-      </c>
-      <c r="U153">
-        <v>2</v>
-      </c>
-      <c r="V153">
-        <v>1.85</v>
-      </c>
-      <c r="W153">
-        <v>0</v>
-      </c>
-      <c r="X153">
-        <v>0</v>
-      </c>
-      <c r="Y153">
-        <v>0</v>
-      </c>
-      <c r="Z153">
-        <v>0</v>
-      </c>
-      <c r="AA153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:29">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154">
-        <v>7060492</v>
-      </c>
-      <c r="C154" t="s">
-        <v>28</v>
-      </c>
-      <c r="D154" t="s">
-        <v>28</v>
-      </c>
-      <c r="E154" s="2">
-        <v>45381.5</v>
-      </c>
-      <c r="F154" t="s">
-        <v>36</v>
-      </c>
-      <c r="G154" t="s">
-        <v>29</v>
-      </c>
-      <c r="K154">
-        <v>2.8</v>
-      </c>
-      <c r="L154">
-        <v>3.5</v>
-      </c>
-      <c r="M154">
-        <v>2.1</v>
-      </c>
-      <c r="N154">
-        <v>2.45</v>
-      </c>
-      <c r="O154">
-        <v>3.5</v>
-      </c>
-      <c r="P154">
-        <v>2.45</v>
-      </c>
-      <c r="Q154">
-        <v>0</v>
-      </c>
-      <c r="R154">
-        <v>1.925</v>
-      </c>
-      <c r="S154">
-        <v>1.925</v>
-      </c>
-      <c r="T154">
-        <v>2.75</v>
-      </c>
-      <c r="U154">
-        <v>1.975</v>
-      </c>
-      <c r="V154">
-        <v>1.875</v>
-      </c>
-      <c r="W154">
-        <v>0</v>
-      </c>
-      <c r="X154">
-        <v>0</v>
-      </c>
-      <c r="Y154">
-        <v>0</v>
-      </c>
-      <c r="Z154">
-        <v>0</v>
-      </c>
-      <c r="AA154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:29">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155">
-        <v>7024062</v>
-      </c>
-      <c r="C155" t="s">
-        <v>28</v>
-      </c>
-      <c r="D155" t="s">
-        <v>28</v>
-      </c>
-      <c r="E155" s="2">
-        <v>45381.5</v>
-      </c>
-      <c r="F155" t="s">
-        <v>38</v>
-      </c>
-      <c r="G155" t="s">
-        <v>31</v>
-      </c>
-      <c r="K155">
-        <v>2.3</v>
-      </c>
-      <c r="L155">
-        <v>3.6</v>
-      </c>
-      <c r="M155">
-        <v>2.5</v>
-      </c>
-      <c r="N155">
-        <v>2.1</v>
-      </c>
-      <c r="O155">
-        <v>3.6</v>
-      </c>
-      <c r="P155">
-        <v>2.9</v>
-      </c>
-      <c r="Q155">
-        <v>-0.25</v>
-      </c>
-      <c r="R155">
-        <v>1.925</v>
-      </c>
-      <c r="S155">
-        <v>1.925</v>
-      </c>
-      <c r="T155">
-        <v>2.5</v>
-      </c>
-      <c r="U155">
-        <v>2.05</v>
-      </c>
-      <c r="V155">
-        <v>1.8</v>
-      </c>
-      <c r="W155">
-        <v>0</v>
-      </c>
-      <c r="X155">
-        <v>0</v>
-      </c>
-      <c r="Y155">
-        <v>0</v>
-      </c>
-      <c r="Z155">
-        <v>0</v>
-      </c>
-      <c r="AA155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:29">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156">
-        <v>7024063</v>
-      </c>
-      <c r="C156" t="s">
-        <v>28</v>
-      </c>
-      <c r="D156" t="s">
-        <v>28</v>
-      </c>
-      <c r="E156" s="2">
-        <v>45381.5</v>
-      </c>
-      <c r="F156" t="s">
-        <v>33</v>
-      </c>
-      <c r="G156" t="s">
-        <v>35</v>
-      </c>
-      <c r="K156">
-        <v>1.909</v>
-      </c>
-      <c r="L156">
-        <v>3.6</v>
-      </c>
-      <c r="M156">
-        <v>3.2</v>
-      </c>
-      <c r="N156">
-        <v>2.05</v>
-      </c>
-      <c r="O156">
-        <v>3.5</v>
-      </c>
-      <c r="P156">
-        <v>3.1</v>
-      </c>
-      <c r="Q156">
-        <v>-0.25</v>
-      </c>
-      <c r="R156">
-        <v>1.875</v>
-      </c>
-      <c r="S156">
-        <v>1.975</v>
-      </c>
-      <c r="T156">
-        <v>2.25</v>
-      </c>
-      <c r="U156">
-        <v>1.875</v>
-      </c>
-      <c r="V156">
-        <v>1.975</v>
-      </c>
-      <c r="W156">
-        <v>0</v>
-      </c>
-      <c r="X156">
-        <v>0</v>
-      </c>
-      <c r="Y156">
-        <v>0</v>
-      </c>
-      <c r="Z156">
-        <v>0</v>
-      </c>
-      <c r="AA156">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Scotland League Two/Scotland League Two.xlsx
+++ b/Scotland League Two/Scotland League Two.xlsx
@@ -7896,7 +7896,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6848560</v>
+        <v>6848562</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7908,76 +7908,76 @@
         <v>45290.5</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K84">
-        <v>4.333</v>
+        <v>2.35</v>
       </c>
       <c r="L84">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M84">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="N84">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="O84">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P84">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="Q84">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S84">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T84">
         <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y84">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
         <v>-0.5</v>
       </c>
       <c r="AA84">
-        <v>0.425</v>
+        <v>0.45</v>
       </c>
       <c r="AB84">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7985,7 +7985,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6848562</v>
+        <v>6848560</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -7997,76 +7997,76 @@
         <v>45290.5</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K85">
-        <v>2.35</v>
+        <v>4.333</v>
       </c>
       <c r="L85">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M85">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="N85">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="O85">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P85">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T85">
         <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z85">
         <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -10121,7 +10121,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6848585</v>
+        <v>6848583</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10133,10 +10133,10 @@
         <v>45325.5</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10148,53 +10148,53 @@
         <v>41</v>
       </c>
       <c r="K109">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="L109">
         <v>3.75</v>
       </c>
       <c r="M109">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N109">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O109">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P109">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T109">
         <v>2.5</v>
       </c>
       <c r="U109">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
+        <v>1.5</v>
+      </c>
+      <c r="X109">
+        <v>-1</v>
+      </c>
+      <c r="Y109">
+        <v>-1</v>
+      </c>
+      <c r="Z109">
         <v>1</v>
       </c>
-      <c r="X109">
-        <v>-1</v>
-      </c>
-      <c r="Y109">
-        <v>-1</v>
-      </c>
-      <c r="Z109">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AA109">
         <v>-1</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10210,7 +10210,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6848583</v>
+        <v>6848585</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10222,10 +10222,10 @@
         <v>45325.5</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10237,43 +10237,43 @@
         <v>41</v>
       </c>
       <c r="K110">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="L110">
         <v>3.75</v>
       </c>
       <c r="M110">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="N110">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O110">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P110">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S110">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T110">
         <v>2.5</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V110">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W110">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10282,7 +10282,7 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA110">
         <v>-1</v>
@@ -10291,7 +10291,7 @@
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10477,7 +10477,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6848587</v>
+        <v>6848588</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10489,76 +10489,76 @@
         <v>45332.5</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K113">
-        <v>3.4</v>
+        <v>1.615</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M113">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="N113">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="O113">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P113">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>1.775</v>
+      </c>
+      <c r="S113">
+        <v>2.025</v>
+      </c>
+      <c r="T113">
+        <v>2.25</v>
+      </c>
+      <c r="U113">
+        <v>1.8</v>
+      </c>
+      <c r="V113">
+        <v>2</v>
+      </c>
+      <c r="W113">
+        <v>1.375</v>
+      </c>
+      <c r="X113">
+        <v>-1</v>
+      </c>
+      <c r="Y113">
+        <v>-1</v>
+      </c>
+      <c r="Z113">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA113">
+        <v>-1</v>
+      </c>
+      <c r="AB113">
+        <v>-0.5</v>
+      </c>
+      <c r="AC113">
         <v>0.5</v>
-      </c>
-      <c r="R113">
-        <v>1.825</v>
-      </c>
-      <c r="S113">
-        <v>1.975</v>
-      </c>
-      <c r="T113">
-        <v>2.5</v>
-      </c>
-      <c r="U113">
-        <v>1.875</v>
-      </c>
-      <c r="V113">
-        <v>1.925</v>
-      </c>
-      <c r="W113">
-        <v>-1</v>
-      </c>
-      <c r="X113">
-        <v>2.2</v>
-      </c>
-      <c r="Y113">
-        <v>-1</v>
-      </c>
-      <c r="Z113">
-        <v>0.825</v>
-      </c>
-      <c r="AA113">
-        <v>-1</v>
-      </c>
-      <c r="AB113">
-        <v>-1</v>
-      </c>
-      <c r="AC113">
-        <v>0.925</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10566,7 +10566,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6848588</v>
+        <v>6848589</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10578,76 +10578,76 @@
         <v>45332.5</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K114">
-        <v>1.615</v>
+        <v>1.3</v>
       </c>
       <c r="L114">
+        <v>5</v>
+      </c>
+      <c r="M114">
+        <v>7</v>
+      </c>
+      <c r="N114">
+        <v>1.55</v>
+      </c>
+      <c r="O114">
+        <v>3.8</v>
+      </c>
+      <c r="P114">
+        <v>4.75</v>
+      </c>
+      <c r="Q114">
+        <v>-1</v>
+      </c>
+      <c r="R114">
+        <v>2.025</v>
+      </c>
+      <c r="S114">
+        <v>1.825</v>
+      </c>
+      <c r="T114">
+        <v>2.5</v>
+      </c>
+      <c r="U114">
+        <v>1.975</v>
+      </c>
+      <c r="V114">
+        <v>1.875</v>
+      </c>
+      <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
         <v>3.75</v>
       </c>
-      <c r="M114">
-        <v>4.333</v>
-      </c>
-      <c r="N114">
-        <v>2.375</v>
-      </c>
-      <c r="O114">
-        <v>3.25</v>
-      </c>
-      <c r="P114">
-        <v>2.7</v>
-      </c>
-      <c r="Q114">
-        <v>0</v>
-      </c>
-      <c r="R114">
-        <v>1.775</v>
-      </c>
-      <c r="S114">
-        <v>2.025</v>
-      </c>
-      <c r="T114">
-        <v>2.25</v>
-      </c>
-      <c r="U114">
-        <v>1.8</v>
-      </c>
-      <c r="V114">
-        <v>2</v>
-      </c>
-      <c r="W114">
-        <v>1.375</v>
-      </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
       <c r="Z114">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB114">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC114">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10655,7 +10655,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6848589</v>
+        <v>6848587</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10667,76 +10667,76 @@
         <v>45332.5</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K115">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="L115">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M115">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="N115">
-        <v>1.55</v>
+        <v>3.75</v>
       </c>
       <c r="O115">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P115">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R115">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S115">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T115">
         <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y115">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA115">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -12079,7 +12079,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6920922</v>
+        <v>6920924</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12091,76 +12091,76 @@
         <v>45353.5</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K131">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L131">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M131">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N131">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O131">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P131">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q131">
         <v>-0.25</v>
       </c>
       <c r="R131">
+        <v>1.775</v>
+      </c>
+      <c r="S131">
+        <v>2.025</v>
+      </c>
+      <c r="T131">
+        <v>2.25</v>
+      </c>
+      <c r="U131">
         <v>1.85</v>
       </c>
-      <c r="S131">
-        <v>2</v>
-      </c>
-      <c r="T131">
+      <c r="V131">
+        <v>1.95</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
         <v>2.5</v>
       </c>
-      <c r="U131">
-        <v>2</v>
-      </c>
-      <c r="V131">
-        <v>1.85</v>
-      </c>
-      <c r="W131">
-        <v>1.05</v>
-      </c>
-      <c r="X131">
-        <v>-1</v>
-      </c>
-      <c r="Y131">
-        <v>-1</v>
-      </c>
       <c r="Z131">
+        <v>-1</v>
+      </c>
+      <c r="AA131">
+        <v>1.025</v>
+      </c>
+      <c r="AB131">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA131">
-        <v>-1</v>
-      </c>
-      <c r="AB131">
-        <v>-1</v>
-      </c>
       <c r="AC131">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12168,7 +12168,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6920924</v>
+        <v>6920922</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12180,76 +12180,76 @@
         <v>45353.5</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H132">
         <v>1</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K132">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L132">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M132">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N132">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O132">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P132">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q132">
         <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S132">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T132">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
+        <v>2</v>
+      </c>
+      <c r="V132">
         <v>1.85</v>
       </c>
-      <c r="V132">
-        <v>1.95</v>
-      </c>
       <c r="W132">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA132">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
+        <v>-1</v>
+      </c>
+      <c r="AC132">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC132">
-        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -14037,7 +14037,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7060949</v>
+        <v>7060952</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14049,76 +14049,76 @@
         <v>45381.5</v>
       </c>
       <c r="F153" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
         <v>41</v>
       </c>
       <c r="K153">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L153">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="N153">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O153">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P153">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q153">
+        <v>-0.25</v>
+      </c>
+      <c r="R153">
+        <v>1.8</v>
+      </c>
+      <c r="S153">
+        <v>2</v>
+      </c>
+      <c r="T153">
+        <v>2.25</v>
+      </c>
+      <c r="U153">
+        <v>1.85</v>
+      </c>
+      <c r="V153">
+        <v>1.95</v>
+      </c>
+      <c r="W153">
+        <v>1.05</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>-1</v>
+      </c>
+      <c r="Z153">
+        <v>0.8</v>
+      </c>
+      <c r="AA153">
+        <v>-1</v>
+      </c>
+      <c r="AB153">
         <v>-0.5</v>
       </c>
-      <c r="R153">
-        <v>1.975</v>
-      </c>
-      <c r="S153">
-        <v>1.825</v>
-      </c>
-      <c r="T153">
-        <v>2.5</v>
-      </c>
-      <c r="U153">
-        <v>2</v>
-      </c>
-      <c r="V153">
-        <v>1.8</v>
-      </c>
-      <c r="W153">
-        <v>1</v>
-      </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>-1</v>
-      </c>
-      <c r="Z153">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA153">
-        <v>-1</v>
-      </c>
-      <c r="AB153">
-        <v>1</v>
-      </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14126,7 +14126,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7060492</v>
+        <v>7060949</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14138,76 +14138,76 @@
         <v>45381.5</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G154" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K154">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="L154">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M154">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="N154">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O154">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P154">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q154">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S154">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T154">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U154">
+        <v>2</v>
+      </c>
+      <c r="V154">
         <v>1.8</v>
       </c>
-      <c r="V154">
-        <v>2</v>
-      </c>
       <c r="W154">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X154">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA154">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC154">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14215,7 +14215,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7024062</v>
+        <v>7060492</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14227,61 +14227,61 @@
         <v>45381.5</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
         <v>39</v>
       </c>
       <c r="K155">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="L155">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M155">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N155">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O155">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P155">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q155">
         <v>-0.25</v>
       </c>
       <c r="R155">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S155">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T155">
         <v>2.25</v>
       </c>
       <c r="U155">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V155">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W155">
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Y155">
         <v>-1</v>
@@ -14290,13 +14290,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA155">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
       <c r="AB155">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14304,7 +14304,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7060952</v>
+        <v>7024062</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14316,76 +14316,76 @@
         <v>45381.5</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G156" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K156">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L156">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M156">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="N156">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O156">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P156">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q156">
         <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S156">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T156">
         <v>2.25</v>
       </c>
       <c r="U156">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V156">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W156">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB156">
         <v>-0.5</v>
       </c>
       <c r="AC156">
-        <v>0.475</v>
+        <v>0.5125</v>
       </c>
     </row>
   </sheetData>

--- a/Scotland League Two/Scotland League Two.xlsx
+++ b/Scotland League Two/Scotland League Two.xlsx
@@ -7896,7 +7896,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6848562</v>
+        <v>6848560</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7908,76 +7908,76 @@
         <v>45290.5</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K84">
-        <v>2.35</v>
+        <v>4.333</v>
       </c>
       <c r="L84">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M84">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="N84">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="O84">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P84">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R84">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T84">
         <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z84">
         <v>-0.5</v>
       </c>
       <c r="AA84">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7985,7 +7985,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6848560</v>
+        <v>6848562</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -7997,76 +7997,76 @@
         <v>45290.5</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K85">
-        <v>4.333</v>
+        <v>2.35</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M85">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="N85">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="O85">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P85">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="Q85">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T85">
         <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y85">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
         <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>0.425</v>
+        <v>0.45</v>
       </c>
       <c r="AB85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -10121,7 +10121,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6848583</v>
+        <v>6848585</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10133,10 +10133,10 @@
         <v>45325.5</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10148,43 +10148,43 @@
         <v>41</v>
       </c>
       <c r="K109">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="L109">
         <v>3.75</v>
       </c>
       <c r="M109">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="N109">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O109">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P109">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S109">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T109">
         <v>2.5</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W109">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10193,7 +10193,7 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA109">
         <v>-1</v>
@@ -10202,7 +10202,7 @@
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10210,7 +10210,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6848585</v>
+        <v>6848583</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10222,10 +10222,10 @@
         <v>45325.5</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10237,53 +10237,53 @@
         <v>41</v>
       </c>
       <c r="K110">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="L110">
         <v>3.75</v>
       </c>
       <c r="M110">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N110">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O110">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P110">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R110">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
         <v>2.5</v>
       </c>
       <c r="U110">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
+        <v>1.5</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
+        <v>-1</v>
+      </c>
+      <c r="Z110">
         <v>1</v>
       </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
-      <c r="Y110">
-        <v>-1</v>
-      </c>
-      <c r="Z110">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AA110">
         <v>-1</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10477,7 +10477,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6848588</v>
+        <v>6848587</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10489,76 +10489,76 @@
         <v>45332.5</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K113">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="L113">
+        <v>3.4</v>
+      </c>
+      <c r="M113">
+        <v>1.909</v>
+      </c>
+      <c r="N113">
         <v>3.75</v>
       </c>
-      <c r="M113">
-        <v>4.333</v>
-      </c>
-      <c r="N113">
-        <v>2.375</v>
-      </c>
       <c r="O113">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P113">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R113">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S113">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T113">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V113">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W113">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA113">
         <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10566,7 +10566,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6848589</v>
+        <v>6848588</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10578,76 +10578,76 @@
         <v>45332.5</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K114">
-        <v>1.3</v>
+        <v>1.615</v>
       </c>
       <c r="L114">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M114">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="N114">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="O114">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P114">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R114">
+        <v>1.775</v>
+      </c>
+      <c r="S114">
         <v>2.025</v>
       </c>
-      <c r="S114">
-        <v>1.825</v>
-      </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V114">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA114">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10655,7 +10655,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6848587</v>
+        <v>6848589</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10667,76 +10667,76 @@
         <v>45332.5</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K115">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M115">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="N115">
-        <v>3.75</v>
+        <v>1.55</v>
       </c>
       <c r="O115">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P115">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="Q115">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R115">
+        <v>2.025</v>
+      </c>
+      <c r="S115">
         <v>1.825</v>
-      </c>
-      <c r="S115">
-        <v>1.975</v>
       </c>
       <c r="T115">
         <v>2.5</v>
       </c>
       <c r="U115">
+        <v>1.975</v>
+      </c>
+      <c r="V115">
         <v>1.875</v>
       </c>
-      <c r="V115">
-        <v>1.925</v>
-      </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z115">
+        <v>-1</v>
+      </c>
+      <c r="AA115">
         <v>0.825</v>
       </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -12079,7 +12079,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6920924</v>
+        <v>6920922</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12091,76 +12091,76 @@
         <v>45353.5</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K131">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L131">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M131">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N131">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O131">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P131">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q131">
         <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T131">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
+        <v>2</v>
+      </c>
+      <c r="V131">
         <v>1.85</v>
       </c>
-      <c r="V131">
-        <v>1.95</v>
-      </c>
       <c r="W131">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA131">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
+        <v>-1</v>
+      </c>
+      <c r="AC131">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC131">
-        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12168,7 +12168,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6920922</v>
+        <v>6920924</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12180,76 +12180,76 @@
         <v>45353.5</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>1</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K132">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L132">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M132">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N132">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O132">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P132">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q132">
         <v>-0.25</v>
       </c>
       <c r="R132">
+        <v>1.775</v>
+      </c>
+      <c r="S132">
+        <v>2.025</v>
+      </c>
+      <c r="T132">
+        <v>2.25</v>
+      </c>
+      <c r="U132">
         <v>1.85</v>
       </c>
-      <c r="S132">
-        <v>2</v>
-      </c>
-      <c r="T132">
+      <c r="V132">
+        <v>1.95</v>
+      </c>
+      <c r="W132">
+        <v>-1</v>
+      </c>
+      <c r="X132">
+        <v>-1</v>
+      </c>
+      <c r="Y132">
         <v>2.5</v>
       </c>
-      <c r="U132">
-        <v>2</v>
-      </c>
-      <c r="V132">
-        <v>1.85</v>
-      </c>
-      <c r="W132">
-        <v>1.05</v>
-      </c>
-      <c r="X132">
-        <v>-1</v>
-      </c>
-      <c r="Y132">
-        <v>-1</v>
-      </c>
       <c r="Z132">
+        <v>-1</v>
+      </c>
+      <c r="AA132">
+        <v>1.025</v>
+      </c>
+      <c r="AB132">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA132">
-        <v>-1</v>
-      </c>
-      <c r="AB132">
-        <v>-1</v>
-      </c>
       <c r="AC132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -14037,7 +14037,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7060952</v>
+        <v>7060949</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14049,58 +14049,58 @@
         <v>45381.5</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
         <v>41</v>
       </c>
       <c r="K153">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L153">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M153">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="N153">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O153">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P153">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
+        <v>1.975</v>
+      </c>
+      <c r="S153">
+        <v>1.825</v>
+      </c>
+      <c r="T153">
+        <v>2.5</v>
+      </c>
+      <c r="U153">
+        <v>2</v>
+      </c>
+      <c r="V153">
         <v>1.8</v>
       </c>
-      <c r="S153">
-        <v>2</v>
-      </c>
-      <c r="T153">
-        <v>2.25</v>
-      </c>
-      <c r="U153">
-        <v>1.85</v>
-      </c>
-      <c r="V153">
-        <v>1.95</v>
-      </c>
       <c r="W153">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14109,16 +14109,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC153">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14126,7 +14126,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7060949</v>
+        <v>7060492</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14138,76 +14138,76 @@
         <v>45381.5</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H154">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154" t="s">
+        <v>39</v>
+      </c>
+      <c r="K154">
+        <v>2.8</v>
+      </c>
+      <c r="L154">
+        <v>3.5</v>
+      </c>
+      <c r="M154">
+        <v>2.1</v>
+      </c>
+      <c r="N154">
+        <v>2.25</v>
+      </c>
+      <c r="O154">
+        <v>3.3</v>
+      </c>
+      <c r="P154">
+        <v>2.875</v>
+      </c>
+      <c r="Q154">
+        <v>-0.25</v>
+      </c>
+      <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
+        <v>1.85</v>
+      </c>
+      <c r="T154">
+        <v>2.25</v>
+      </c>
+      <c r="U154">
+        <v>1.8</v>
+      </c>
+      <c r="V154">
+        <v>2</v>
+      </c>
+      <c r="W154">
+        <v>-1</v>
+      </c>
+      <c r="X154">
+        <v>2.3</v>
+      </c>
+      <c r="Y154">
+        <v>-1</v>
+      </c>
+      <c r="Z154">
+        <v>-0.5</v>
+      </c>
+      <c r="AA154">
+        <v>0.425</v>
+      </c>
+      <c r="AB154">
+        <v>-1</v>
+      </c>
+      <c r="AC154">
         <v>1</v>
-      </c>
-      <c r="J154" t="s">
-        <v>41</v>
-      </c>
-      <c r="K154">
-        <v>1.571</v>
-      </c>
-      <c r="L154">
-        <v>3.75</v>
-      </c>
-      <c r="M154">
-        <v>4.75</v>
-      </c>
-      <c r="N154">
-        <v>2</v>
-      </c>
-      <c r="O154">
-        <v>3.4</v>
-      </c>
-      <c r="P154">
-        <v>3.4</v>
-      </c>
-      <c r="Q154">
-        <v>-0.5</v>
-      </c>
-      <c r="R154">
-        <v>1.975</v>
-      </c>
-      <c r="S154">
-        <v>1.825</v>
-      </c>
-      <c r="T154">
-        <v>2.5</v>
-      </c>
-      <c r="U154">
-        <v>2</v>
-      </c>
-      <c r="V154">
-        <v>1.8</v>
-      </c>
-      <c r="W154">
-        <v>1</v>
-      </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
-      <c r="Y154">
-        <v>-1</v>
-      </c>
-      <c r="Z154">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA154">
-        <v>-1</v>
-      </c>
-      <c r="AB154">
-        <v>1</v>
-      </c>
-      <c r="AC154">
-        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14215,7 +14215,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7060492</v>
+        <v>7024062</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14227,61 +14227,61 @@
         <v>45381.5</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
         <v>39</v>
       </c>
       <c r="K155">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="L155">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M155">
+        <v>2.5</v>
+      </c>
+      <c r="N155">
         <v>2.1</v>
       </c>
-      <c r="N155">
-        <v>2.25</v>
-      </c>
       <c r="O155">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P155">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q155">
         <v>-0.25</v>
       </c>
       <c r="R155">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S155">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T155">
         <v>2.25</v>
       </c>
       <c r="U155">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V155">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W155">
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="Y155">
         <v>-1</v>
@@ -14290,13 +14290,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA155">
-        <v>0.425</v>
+        <v>0.45</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC155">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14304,7 +14304,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7024062</v>
+        <v>7060952</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14316,76 +14316,76 @@
         <v>45381.5</v>
       </c>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K156">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L156">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M156">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="N156">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O156">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P156">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="Q156">
         <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S156">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T156">
         <v>2.25</v>
       </c>
       <c r="U156">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V156">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X156">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA156">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
         <v>-0.5</v>
       </c>
       <c r="AC156">
-        <v>0.5125</v>
+        <v>0.475</v>
       </c>
     </row>
   </sheetData>

--- a/Scotland League Two/Scotland League Two.xlsx
+++ b/Scotland League Two/Scotland League Two.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -121,16 +121,16 @@
     <t>Stranraer</t>
   </si>
   <si>
+    <t>Peterhead</t>
+  </si>
+  <si>
     <t>Dumbarton</t>
   </si>
   <si>
-    <t>Peterhead</t>
+    <t>Forfar</t>
   </si>
   <si>
     <t>Clyde</t>
-  </si>
-  <si>
-    <t>Forfar</t>
   </si>
   <si>
     <t>A</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC161"/>
+  <dimension ref="A1:AC156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -969,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6848484</v>
+        <v>6848486</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1147,73 +1147,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>40</v>
       </c>
       <c r="K8">
+        <v>2.25</v>
+      </c>
+      <c r="L8">
+        <v>3.4</v>
+      </c>
+      <c r="M8">
+        <v>2.8</v>
+      </c>
+      <c r="N8">
+        <v>2.25</v>
+      </c>
+      <c r="O8">
+        <v>3.4</v>
+      </c>
+      <c r="P8">
+        <v>2.8</v>
+      </c>
+      <c r="Q8">
+        <v>-0.25</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
         <v>1.8</v>
-      </c>
-      <c r="L8">
-        <v>3.5</v>
-      </c>
-      <c r="M8">
-        <v>4</v>
-      </c>
-      <c r="N8">
-        <v>2.375</v>
-      </c>
-      <c r="O8">
-        <v>3.3</v>
-      </c>
-      <c r="P8">
-        <v>2.75</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>1.775</v>
-      </c>
-      <c r="S8">
-        <v>2.1</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V8">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA8">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6848486</v>
+        <v>6848484</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1236,73 +1236,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>40</v>
       </c>
       <c r="K9">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N9">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P9">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T9">
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6848483</v>
+        <v>6848485</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1325,73 +1325,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L10">
         <v>3.4</v>
       </c>
       <c r="M10">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N10">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O10">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R10">
+        <v>2.025</v>
+      </c>
+      <c r="S10">
         <v>1.775</v>
-      </c>
-      <c r="S10">
-        <v>2.025</v>
       </c>
       <c r="T10">
         <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y10">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1399,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6848485</v>
+        <v>6848483</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1414,73 +1414,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L11">
         <v>3.4</v>
       </c>
       <c r="M11">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N11">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P11">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R11">
+        <v>1.775</v>
+      </c>
+      <c r="S11">
         <v>2.025</v>
-      </c>
-      <c r="S11">
-        <v>1.775</v>
       </c>
       <c r="T11">
         <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1678,10 +1678,10 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1856,10 +1856,10 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6848494</v>
+        <v>6848495</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1945,55 +1945,55 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
         <v>36</v>
       </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" t="s">
         <v>39</v>
       </c>
       <c r="K17">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L17">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M17">
+        <v>2.7</v>
+      </c>
+      <c r="N17">
+        <v>2.625</v>
+      </c>
+      <c r="O17">
+        <v>3.2</v>
+      </c>
+      <c r="P17">
         <v>2.4</v>
-      </c>
-      <c r="N17">
-        <v>2.25</v>
-      </c>
-      <c r="O17">
-        <v>3.4</v>
-      </c>
-      <c r="P17">
-        <v>2.625</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T17">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2002,19 +2002,19 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.625</v>
+        <v>1.4</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2022,7 +2022,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6848496</v>
+        <v>6848494</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2034,76 +2034,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K18">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L18">
         <v>3.4</v>
       </c>
       <c r="M18">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N18">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O18">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P18">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q18">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z18">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2111,7 +2111,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6848495</v>
+        <v>6848493</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2123,55 +2123,55 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>39</v>
       </c>
       <c r="K19">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L19">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M19">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N19">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="O19">
         <v>3.2</v>
       </c>
       <c r="P19">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S19">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2180,16 +2180,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2200,7 +2200,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6848493</v>
+        <v>6848496</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2212,76 +2212,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
         <v>38</v>
-      </c>
-      <c r="G20" t="s">
-        <v>32</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L20">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
+        <v>2.9</v>
+      </c>
+      <c r="N20">
+        <v>1.8</v>
+      </c>
+      <c r="O20">
+        <v>3.6</v>
+      </c>
+      <c r="P20">
+        <v>3.6</v>
+      </c>
+      <c r="Q20">
+        <v>-0.5</v>
+      </c>
+      <c r="R20">
+        <v>1.825</v>
+      </c>
+      <c r="S20">
+        <v>1.975</v>
+      </c>
+      <c r="T20">
         <v>2.75</v>
       </c>
-      <c r="N20">
-        <v>2.2</v>
-      </c>
-      <c r="O20">
-        <v>3.2</v>
-      </c>
-      <c r="P20">
-        <v>3</v>
-      </c>
-      <c r="Q20">
-        <v>-0.25</v>
-      </c>
-      <c r="R20">
+      <c r="U20">
         <v>1.975</v>
       </c>
-      <c r="S20">
+      <c r="V20">
         <v>1.825</v>
       </c>
-      <c r="T20">
-        <v>2.25</v>
-      </c>
-      <c r="U20">
-        <v>1.9</v>
-      </c>
-      <c r="V20">
-        <v>1.9</v>
-      </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA20">
+        <v>-1</v>
+      </c>
+      <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>0.825</v>
-      </c>
-      <c r="AB20">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC20">
-        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2479,7 +2479,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
         <v>29</v>
@@ -2568,10 +2568,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" t="s">
         <v>37</v>
-      </c>
-      <c r="G24" t="s">
-        <v>38</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6848501</v>
+        <v>6848500</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2657,76 +2657,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L25">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M25">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="N25">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O25">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P25">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V25">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA25">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC25">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2734,7 +2734,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6848500</v>
+        <v>6848501</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2746,76 +2746,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L26">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M26">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="N26">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O26">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P26">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S26">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V26">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W26">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z26">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2838,7 +2838,7 @@
         <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2927,7 +2927,7 @@
         <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3013,7 +3013,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
@@ -3102,7 +3102,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
         <v>32</v>
@@ -3283,7 +3283,7 @@
         <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" t="s">
         <v>35</v>
-      </c>
-      <c r="G33" t="s">
-        <v>36</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
         <v>30</v>
@@ -3725,7 +3725,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
         <v>34</v>
@@ -3906,7 +3906,7 @@
         <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -3992,7 +3992,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
@@ -4084,7 +4084,7 @@
         <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4170,10 +4170,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4348,10 +4348,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4440,7 +4440,7 @@
         <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4529,7 +4529,7 @@
         <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4793,7 +4793,7 @@
         <v>45234.5</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
         <v>29</v>
@@ -4882,7 +4882,7 @@
         <v>45234.5</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
         <v>32</v>
@@ -4971,7 +4971,7 @@
         <v>45234.5</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
         <v>31</v>
@@ -5060,7 +5060,7 @@
         <v>45234.5</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
         <v>33</v>
@@ -5327,10 +5327,10 @@
         <v>45241.5</v>
       </c>
       <c r="F55" t="s">
+        <v>37</v>
+      </c>
+      <c r="G55" t="s">
         <v>38</v>
-      </c>
-      <c r="G55" t="s">
-        <v>37</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5419,7 +5419,7 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5594,7 +5594,7 @@
         <v>45241.5</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
         <v>34</v>
@@ -5686,7 +5686,7 @@
         <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -5760,7 +5760,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6848539</v>
+        <v>6848538</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5772,55 +5772,55 @@
         <v>45248.5</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
         <v>39</v>
       </c>
       <c r="K60">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L60">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M60">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N60">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="O60">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P60">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R60">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S60">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T60">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V60">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W60">
         <v>-1</v>
@@ -5829,19 +5829,19 @@
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="Z60">
         <v>-1</v>
       </c>
       <c r="AA60">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB60">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AC60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5849,7 +5849,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6848535</v>
+        <v>6848539</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5861,13 +5861,13 @@
         <v>45248.5</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
         <v>2</v>
@@ -5876,34 +5876,34 @@
         <v>39</v>
       </c>
       <c r="K61">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L61">
         <v>3.6</v>
       </c>
       <c r="M61">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N61">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O61">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P61">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
         <v>1.95</v>
@@ -5918,19 +5918,19 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC61">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5938,7 +5938,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6848536</v>
+        <v>6848535</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5950,46 +5950,46 @@
         <v>45248.5</v>
       </c>
       <c r="F62" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" t="s">
         <v>37</v>
-      </c>
-      <c r="G62" t="s">
-        <v>29</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
         <v>39</v>
       </c>
       <c r="K62">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L62">
         <v>3.6</v>
       </c>
       <c r="M62">
+        <v>3.3</v>
+      </c>
+      <c r="N62">
+        <v>2.45</v>
+      </c>
+      <c r="O62">
+        <v>3.4</v>
+      </c>
+      <c r="P62">
         <v>2.7</v>
-      </c>
-      <c r="N62">
-        <v>2.7</v>
-      </c>
-      <c r="O62">
-        <v>3.5</v>
-      </c>
-      <c r="P62">
-        <v>2.4</v>
       </c>
       <c r="Q62">
         <v>0</v>
       </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S62">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T62">
         <v>2.5</v>
@@ -6007,19 +6007,19 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
+        <v>1.025</v>
+      </c>
+      <c r="AB62">
+        <v>-1</v>
+      </c>
+      <c r="AC62">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB62">
-        <v>0.95</v>
-      </c>
-      <c r="AC62">
-        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6027,7 +6027,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6848537</v>
+        <v>6848536</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6039,76 +6039,76 @@
         <v>45248.5</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
+        <v>4</v>
+      </c>
+      <c r="J63" t="s">
+        <v>39</v>
+      </c>
+      <c r="K63">
+        <v>2.4</v>
+      </c>
+      <c r="L63">
+        <v>3.6</v>
+      </c>
+      <c r="M63">
+        <v>2.7</v>
+      </c>
+      <c r="N63">
+        <v>2.7</v>
+      </c>
+      <c r="O63">
+        <v>3.5</v>
+      </c>
+      <c r="P63">
+        <v>2.4</v>
+      </c>
+      <c r="Q63">
         <v>0</v>
       </c>
-      <c r="J63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K63">
-        <v>1.5</v>
-      </c>
-      <c r="L63">
-        <v>4.333</v>
-      </c>
-      <c r="M63">
-        <v>6</v>
-      </c>
-      <c r="N63">
+      <c r="R63">
+        <v>1.95</v>
+      </c>
+      <c r="S63">
+        <v>1.85</v>
+      </c>
+      <c r="T63">
+        <v>2.5</v>
+      </c>
+      <c r="U63">
+        <v>1.95</v>
+      </c>
+      <c r="V63">
+        <v>1.85</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
+        <v>-1</v>
+      </c>
+      <c r="Y63">
         <v>1.4</v>
       </c>
-      <c r="O63">
-        <v>4.75</v>
-      </c>
-      <c r="P63">
-        <v>7</v>
-      </c>
-      <c r="Q63">
-        <v>-1.25</v>
-      </c>
-      <c r="R63">
-        <v>1.85</v>
-      </c>
-      <c r="S63">
-        <v>1.95</v>
-      </c>
-      <c r="T63">
-        <v>2.75</v>
-      </c>
-      <c r="U63">
-        <v>1.8</v>
-      </c>
-      <c r="V63">
-        <v>2</v>
-      </c>
-      <c r="W63">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
-      <c r="Y63">
-        <v>-1</v>
-      </c>
       <c r="Z63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC63">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6116,7 +6116,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6848538</v>
+        <v>6848537</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6128,76 +6128,76 @@
         <v>45248.5</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
         <v>0</v>
       </c>
-      <c r="I64">
-        <v>3</v>
-      </c>
       <c r="J64" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K64">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L64">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M64">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N64">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="O64">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P64">
+        <v>7</v>
+      </c>
+      <c r="Q64">
+        <v>-1.25</v>
+      </c>
+      <c r="R64">
+        <v>1.85</v>
+      </c>
+      <c r="S64">
         <v>1.95</v>
       </c>
-      <c r="Q64">
-        <v>0.5</v>
-      </c>
-      <c r="R64">
-        <v>1.875</v>
-      </c>
-      <c r="S64">
-        <v>1.975</v>
-      </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U64">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V64">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA64">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AB64">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6220,7 +6220,7 @@
         <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6395,7 +6395,7 @@
         <v>45262.5</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
         <v>34</v>
@@ -6576,7 +6576,7 @@
         <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6662,7 +6662,7 @@
         <v>45269.5</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
         <v>31</v>
@@ -6840,7 +6840,7 @@
         <v>45269.5</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
         <v>34</v>
@@ -6932,7 +6932,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6848551</v>
+        <v>6848550</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,13 +7107,13 @@
         <v>45276.5</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>4</v>
@@ -7122,40 +7122,40 @@
         <v>39</v>
       </c>
       <c r="K75">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M75">
         <v>2.1</v>
       </c>
       <c r="N75">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="O75">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P75">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S75">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7164,16 +7164,16 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.4</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB75">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7184,7 +7184,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6848552</v>
+        <v>6848551</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7196,76 +7196,76 @@
         <v>45276.5</v>
       </c>
       <c r="F76" t="s">
+        <v>37</v>
+      </c>
+      <c r="G76" t="s">
         <v>36</v>
       </c>
-      <c r="G76" t="s">
-        <v>37</v>
-      </c>
       <c r="H76">
         <v>2</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J76" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K76">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M76">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="N76">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="O76">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P76">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="Q76">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S76">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB76">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7273,7 +7273,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6848553</v>
+        <v>6848552</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7285,10 +7285,10 @@
         <v>45276.5</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7309,16 +7309,16 @@
         <v>5</v>
       </c>
       <c r="N77">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P77">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R77">
         <v>1.775</v>
@@ -7327,7 +7327,7 @@
         <v>2.025</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
         <v>1.85</v>
@@ -7336,7 +7336,7 @@
         <v>1.95</v>
       </c>
       <c r="W77">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7345,16 +7345,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB77">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7362,7 +7362,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6848550</v>
+        <v>6848553</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7374,73 +7374,73 @@
         <v>45276.5</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>41</v>
+      </c>
+      <c r="K78">
+        <v>1.5</v>
+      </c>
+      <c r="L78">
         <v>4</v>
       </c>
-      <c r="J78" t="s">
-        <v>39</v>
-      </c>
-      <c r="K78">
-        <v>2.7</v>
-      </c>
-      <c r="L78">
-        <v>3.75</v>
-      </c>
       <c r="M78">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="N78">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="O78">
+        <v>3.6</v>
+      </c>
+      <c r="P78">
         <v>4</v>
       </c>
-      <c r="P78">
-        <v>1.65</v>
-      </c>
       <c r="Q78">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S78">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T78">
         <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA78">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7730,10 +7730,10 @@
         <v>45283.5</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H82">
         <v>4</v>
@@ -7819,10 +7819,10 @@
         <v>45283.5</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7908,7 +7908,7 @@
         <v>45290.5</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
         <v>31</v>
@@ -7997,7 +7997,7 @@
         <v>45290.5</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
         <v>29</v>
@@ -8089,7 +8089,7 @@
         <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8178,7 +8178,7 @@
         <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8264,7 +8264,7 @@
         <v>45297.5</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
         <v>33</v>
@@ -8442,7 +8442,7 @@
         <v>45297.5</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
         <v>29</v>
@@ -8531,7 +8531,7 @@
         <v>45297.5</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
         <v>32</v>
@@ -8620,10 +8620,10 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F92" t="s">
+        <v>35</v>
+      </c>
+      <c r="G92" t="s">
         <v>36</v>
-      </c>
-      <c r="G92" t="s">
-        <v>35</v>
       </c>
       <c r="H92">
         <v>3</v>
@@ -8697,7 +8697,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6848569</v>
+        <v>6848602</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8709,76 +8709,76 @@
         <v>45304.5</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K93">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L93">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M93">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N93">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O93">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P93">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V93">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.475</v>
+        <v>0.4</v>
       </c>
       <c r="AA93">
         <v>-0.5</v>
       </c>
       <c r="AB93">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8786,7 +8786,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6848602</v>
+        <v>6848571</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8798,76 +8798,76 @@
         <v>45304.5</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K94">
+        <v>2.5</v>
+      </c>
+      <c r="L94">
+        <v>3.4</v>
+      </c>
+      <c r="M94">
+        <v>2.5</v>
+      </c>
+      <c r="N94">
         <v>2.75</v>
       </c>
-      <c r="L94">
-        <v>3.5</v>
-      </c>
-      <c r="M94">
-        <v>2.25</v>
-      </c>
-      <c r="N94">
-        <v>2.875</v>
-      </c>
       <c r="O94">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P94">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R94">
+        <v>2.05</v>
+      </c>
+      <c r="S94">
         <v>1.8</v>
       </c>
-      <c r="S94">
-        <v>2</v>
-      </c>
       <c r="T94">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U94">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V94">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z94">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC94">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8875,7 +8875,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6848571</v>
+        <v>6848569</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8887,76 +8887,76 @@
         <v>45304.5</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K95">
+        <v>1.909</v>
+      </c>
+      <c r="L95">
+        <v>3.3</v>
+      </c>
+      <c r="M95">
+        <v>3.75</v>
+      </c>
+      <c r="N95">
+        <v>1.727</v>
+      </c>
+      <c r="O95">
+        <v>3.4</v>
+      </c>
+      <c r="P95">
+        <v>4.5</v>
+      </c>
+      <c r="Q95">
+        <v>-0.75</v>
+      </c>
+      <c r="R95">
+        <v>1.95</v>
+      </c>
+      <c r="S95">
+        <v>1.85</v>
+      </c>
+      <c r="T95">
         <v>2.5</v>
       </c>
-      <c r="L95">
-        <v>3.4</v>
-      </c>
-      <c r="M95">
-        <v>2.5</v>
-      </c>
-      <c r="N95">
-        <v>2.75</v>
-      </c>
-      <c r="O95">
-        <v>3.1</v>
-      </c>
-      <c r="P95">
-        <v>2.45</v>
-      </c>
-      <c r="Q95">
-        <v>0</v>
-      </c>
-      <c r="R95">
-        <v>2.05</v>
-      </c>
-      <c r="S95">
-        <v>1.8</v>
-      </c>
-      <c r="T95">
-        <v>2</v>
-      </c>
       <c r="U95">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA95">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB95">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC95">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8979,7 +8979,7 @@
         <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9068,7 +9068,7 @@
         <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9157,7 +9157,7 @@
         <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9335,7 +9335,7 @@
         <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>45318.5</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
         <v>32</v>
@@ -9498,7 +9498,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6848580</v>
+        <v>6848579</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9510,76 +9510,76 @@
         <v>45318.5</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K102">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L102">
+        <v>3.5</v>
+      </c>
+      <c r="M102">
+        <v>2.1</v>
+      </c>
+      <c r="N102">
+        <v>3.1</v>
+      </c>
+      <c r="O102">
         <v>3.4</v>
       </c>
-      <c r="M102">
-        <v>2.875</v>
-      </c>
-      <c r="N102">
-        <v>2.25</v>
-      </c>
-      <c r="O102">
-        <v>3.1</v>
-      </c>
       <c r="P102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
         <v>2</v>
       </c>
       <c r="S102">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA102">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC102">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9602,7 +9602,7 @@
         <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9676,7 +9676,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6848579</v>
+        <v>6848580</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9688,76 +9688,76 @@
         <v>45318.5</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K104">
+        <v>2.2</v>
+      </c>
+      <c r="L104">
+        <v>3.4</v>
+      </c>
+      <c r="M104">
+        <v>2.875</v>
+      </c>
+      <c r="N104">
+        <v>2.25</v>
+      </c>
+      <c r="O104">
+        <v>3.1</v>
+      </c>
+      <c r="P104">
         <v>3</v>
       </c>
-      <c r="L104">
-        <v>3.5</v>
-      </c>
-      <c r="M104">
-        <v>2.1</v>
-      </c>
-      <c r="N104">
-        <v>3.1</v>
-      </c>
-      <c r="O104">
-        <v>3.4</v>
-      </c>
-      <c r="P104">
-        <v>2</v>
-      </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
         <v>2</v>
       </c>
       <c r="S104">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T104">
         <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V104">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9869,7 +9869,7 @@
         <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9955,10 +9955,10 @@
         <v>45325.5</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10047,7 +10047,7 @@
         <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10222,7 +10222,7 @@
         <v>45325.5</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G110" t="s">
         <v>33</v>
@@ -10581,7 +10581,7 @@
         <v>34</v>
       </c>
       <c r="G114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -10756,10 +10756,10 @@
         <v>45332.5</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10845,7 +10845,7 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G117" t="s">
         <v>33</v>
@@ -11112,10 +11112,10 @@
         <v>45339.5</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11290,10 +11290,10 @@
         <v>45339.5</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11379,7 +11379,7 @@
         <v>45342.69791666666</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
         <v>32</v>
@@ -11468,10 +11468,10 @@
         <v>45342.69791666666</v>
       </c>
       <c r="F124" t="s">
+        <v>38</v>
+      </c>
+      <c r="G124" t="s">
         <v>37</v>
-      </c>
-      <c r="G124" t="s">
-        <v>38</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11557,7 +11557,7 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
         <v>34</v>
@@ -11649,7 +11649,7 @@
         <v>29</v>
       </c>
       <c r="G126" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11735,7 +11735,7 @@
         <v>45346.5</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
         <v>30</v>
@@ -11916,7 +11916,7 @@
         <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12091,7 +12091,7 @@
         <v>45353.5</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G131" t="s">
         <v>30</v>
@@ -12168,7 +12168,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6920920</v>
+        <v>6920923</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12180,76 +12180,76 @@
         <v>45353.5</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K132">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L132">
+        <v>3.2</v>
+      </c>
+      <c r="M132">
+        <v>2.625</v>
+      </c>
+      <c r="N132">
+        <v>2.45</v>
+      </c>
+      <c r="O132">
         <v>3.25</v>
       </c>
-      <c r="M132">
-        <v>2.375</v>
-      </c>
-      <c r="N132">
-        <v>3</v>
-      </c>
-      <c r="O132">
-        <v>3.3</v>
-      </c>
       <c r="P132">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S132">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T132">
         <v>2.25</v>
       </c>
       <c r="U132">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y132">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA132">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12257,7 +12257,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6920923</v>
+        <v>6920922</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12269,76 +12269,76 @@
         <v>45353.5</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K133">
+        <v>2.1</v>
+      </c>
+      <c r="L133">
+        <v>3.25</v>
+      </c>
+      <c r="M133">
+        <v>3.25</v>
+      </c>
+      <c r="N133">
+        <v>2.05</v>
+      </c>
+      <c r="O133">
+        <v>3.3</v>
+      </c>
+      <c r="P133">
+        <v>3.3</v>
+      </c>
+      <c r="Q133">
+        <v>-0.25</v>
+      </c>
+      <c r="R133">
+        <v>1.85</v>
+      </c>
+      <c r="S133">
+        <v>2</v>
+      </c>
+      <c r="T133">
         <v>2.5</v>
       </c>
-      <c r="L133">
-        <v>3.2</v>
-      </c>
-      <c r="M133">
-        <v>2.625</v>
-      </c>
-      <c r="N133">
-        <v>2.45</v>
-      </c>
-      <c r="O133">
-        <v>3.25</v>
-      </c>
-      <c r="P133">
-        <v>2.7</v>
-      </c>
-      <c r="Q133">
-        <v>0</v>
-      </c>
-      <c r="R133">
-        <v>1.8</v>
-      </c>
-      <c r="S133">
-        <v>2</v>
-      </c>
-      <c r="T133">
-        <v>2.25</v>
-      </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X133">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA133">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12346,7 +12346,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6920922</v>
+        <v>6920920</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12358,76 +12358,76 @@
         <v>45353.5</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
         <v>1</v>
       </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
       <c r="J134" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K134">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L134">
         <v>3.25</v>
       </c>
       <c r="M134">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="N134">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O134">
         <v>3.3</v>
       </c>
       <c r="P134">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R134">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S134">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V134">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W134">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12539,7 +12539,7 @@
         <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H136">
         <v>5</v>
@@ -12702,7 +12702,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6937090</v>
+        <v>6937673</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12714,58 +12714,58 @@
         <v>45360.5</v>
       </c>
       <c r="F138" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
         <v>41</v>
       </c>
       <c r="K138">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L138">
+        <v>3.5</v>
+      </c>
+      <c r="M138">
+        <v>3</v>
+      </c>
+      <c r="N138">
+        <v>2.25</v>
+      </c>
+      <c r="O138">
         <v>3.4</v>
       </c>
-      <c r="M138">
-        <v>2.3</v>
-      </c>
-      <c r="N138">
-        <v>2.3</v>
-      </c>
-      <c r="O138">
-        <v>3.2</v>
-      </c>
       <c r="P138">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q138">
         <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S138">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T138">
         <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W138">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12774,13 +12774,13 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -12791,7 +12791,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6937674</v>
+        <v>6937090</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12803,76 +12803,76 @@
         <v>45360.5</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K139">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="L139">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M139">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N139">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O139">
         <v>3.2</v>
       </c>
       <c r="P139">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q139">
         <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S139">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T139">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U139">
         <v>1.85</v>
       </c>
       <c r="V139">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X139">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA139">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC139">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12880,7 +12880,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6958740</v>
+        <v>6937674</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12892,76 +12892,76 @@
         <v>45360.5</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K140">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="L140">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="M140">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N140">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="O140">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P140">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q140">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S140">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T140">
         <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V140">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12969,7 +12969,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6937673</v>
+        <v>6958740</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12981,58 +12981,58 @@
         <v>45360.5</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>41</v>
       </c>
       <c r="K141">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L141">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="M141">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N141">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="O141">
         <v>3.4</v>
       </c>
       <c r="P141">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S141">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V141">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W141">
-        <v>1.25</v>
+        <v>0.95</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13041,16 +13041,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13070,7 +13070,7 @@
         <v>45367.5</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
         <v>31</v>
@@ -13162,7 +13162,7 @@
         <v>33</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13251,7 +13251,7 @@
         <v>32</v>
       </c>
       <c r="G144" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13426,7 +13426,7 @@
         <v>45367.5</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
         <v>29</v>
@@ -13518,7 +13518,7 @@
         <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -13604,7 +13604,7 @@
         <v>45374.5</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G148" t="s">
         <v>32</v>
@@ -13693,7 +13693,7 @@
         <v>45374.5</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
         <v>33</v>
@@ -13874,7 +13874,7 @@
         <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -13963,7 +13963,7 @@
         <v>33</v>
       </c>
       <c r="G152" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14227,7 +14227,7 @@
         <v>45381.5</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G155" t="s">
         <v>31</v>
@@ -14316,10 +14316,10 @@
         <v>45381.5</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G156" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H156">
         <v>4</v>
@@ -14386,376 +14386,6 @@
       </c>
       <c r="AC156">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:29">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157">
-        <v>7075092</v>
-      </c>
-      <c r="C157" t="s">
-        <v>28</v>
-      </c>
-      <c r="D157" t="s">
-        <v>28</v>
-      </c>
-      <c r="E157" s="2">
-        <v>45388.45833333334</v>
-      </c>
-      <c r="F157" t="s">
-        <v>31</v>
-      </c>
-      <c r="G157" t="s">
-        <v>29</v>
-      </c>
-      <c r="K157">
-        <v>1.65</v>
-      </c>
-      <c r="L157">
-        <v>3.6</v>
-      </c>
-      <c r="M157">
-        <v>4.8</v>
-      </c>
-      <c r="N157">
-        <v>1.8</v>
-      </c>
-      <c r="O157">
-        <v>3.5</v>
-      </c>
-      <c r="P157">
-        <v>4</v>
-      </c>
-      <c r="Q157">
-        <v>-0.5</v>
-      </c>
-      <c r="R157">
-        <v>1.825</v>
-      </c>
-      <c r="S157">
-        <v>2.025</v>
-      </c>
-      <c r="T157">
-        <v>2.5</v>
-      </c>
-      <c r="U157">
-        <v>1.975</v>
-      </c>
-      <c r="V157">
-        <v>1.875</v>
-      </c>
-      <c r="W157">
-        <v>0</v>
-      </c>
-      <c r="X157">
-        <v>0</v>
-      </c>
-      <c r="Y157">
-        <v>0</v>
-      </c>
-      <c r="Z157">
-        <v>0</v>
-      </c>
-      <c r="AA157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:29">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158">
-        <v>7075091</v>
-      </c>
-      <c r="C158" t="s">
-        <v>28</v>
-      </c>
-      <c r="D158" t="s">
-        <v>28</v>
-      </c>
-      <c r="E158" s="2">
-        <v>45388.45833333334</v>
-      </c>
-      <c r="F158" t="s">
-        <v>38</v>
-      </c>
-      <c r="G158" t="s">
-        <v>35</v>
-      </c>
-      <c r="K158">
-        <v>2.875</v>
-      </c>
-      <c r="L158">
-        <v>3.3</v>
-      </c>
-      <c r="M158">
-        <v>2.25</v>
-      </c>
-      <c r="N158">
-        <v>2.5</v>
-      </c>
-      <c r="O158">
-        <v>3.3</v>
-      </c>
-      <c r="P158">
-        <v>2.6</v>
-      </c>
-      <c r="Q158">
-        <v>0</v>
-      </c>
-      <c r="R158">
-        <v>1.875</v>
-      </c>
-      <c r="S158">
-        <v>1.975</v>
-      </c>
-      <c r="T158">
-        <v>2.5</v>
-      </c>
-      <c r="U158">
-        <v>1.9</v>
-      </c>
-      <c r="V158">
-        <v>1.95</v>
-      </c>
-      <c r="W158">
-        <v>0</v>
-      </c>
-      <c r="X158">
-        <v>0</v>
-      </c>
-      <c r="Y158">
-        <v>0</v>
-      </c>
-      <c r="Z158">
-        <v>0</v>
-      </c>
-      <c r="AA158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:29">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159">
-        <v>7060953</v>
-      </c>
-      <c r="C159" t="s">
-        <v>28</v>
-      </c>
-      <c r="D159" t="s">
-        <v>28</v>
-      </c>
-      <c r="E159" s="2">
-        <v>45388.45833333334</v>
-      </c>
-      <c r="F159" t="s">
-        <v>32</v>
-      </c>
-      <c r="G159" t="s">
-        <v>36</v>
-      </c>
-      <c r="K159">
-        <v>3.5</v>
-      </c>
-      <c r="L159">
-        <v>3.4</v>
-      </c>
-      <c r="M159">
-        <v>1.95</v>
-      </c>
-      <c r="N159">
-        <v>2.8</v>
-      </c>
-      <c r="O159">
-        <v>3.3</v>
-      </c>
-      <c r="P159">
-        <v>2.25</v>
-      </c>
-      <c r="Q159">
-        <v>0.25</v>
-      </c>
-      <c r="R159">
-        <v>1.825</v>
-      </c>
-      <c r="S159">
-        <v>2.025</v>
-      </c>
-      <c r="T159">
-        <v>2.5</v>
-      </c>
-      <c r="U159">
-        <v>1.975</v>
-      </c>
-      <c r="V159">
-        <v>1.875</v>
-      </c>
-      <c r="W159">
-        <v>0</v>
-      </c>
-      <c r="X159">
-        <v>0</v>
-      </c>
-      <c r="Y159">
-        <v>0</v>
-      </c>
-      <c r="Z159">
-        <v>0</v>
-      </c>
-      <c r="AA159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:29">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160">
-        <v>7060950</v>
-      </c>
-      <c r="C160" t="s">
-        <v>28</v>
-      </c>
-      <c r="D160" t="s">
-        <v>28</v>
-      </c>
-      <c r="E160" s="2">
-        <v>45388.45833333334</v>
-      </c>
-      <c r="F160" t="s">
-        <v>30</v>
-      </c>
-      <c r="G160" t="s">
-        <v>33</v>
-      </c>
-      <c r="K160">
-        <v>3.6</v>
-      </c>
-      <c r="L160">
-        <v>3.5</v>
-      </c>
-      <c r="M160">
-        <v>1.869</v>
-      </c>
-      <c r="N160">
-        <v>2.875</v>
-      </c>
-      <c r="O160">
-        <v>3.3</v>
-      </c>
-      <c r="P160">
-        <v>2.25</v>
-      </c>
-      <c r="Q160">
-        <v>0.25</v>
-      </c>
-      <c r="R160">
-        <v>1.85</v>
-      </c>
-      <c r="S160">
-        <v>2</v>
-      </c>
-      <c r="T160">
-        <v>2.25</v>
-      </c>
-      <c r="U160">
-        <v>1.875</v>
-      </c>
-      <c r="V160">
-        <v>1.975</v>
-      </c>
-      <c r="W160">
-        <v>0</v>
-      </c>
-      <c r="X160">
-        <v>0</v>
-      </c>
-      <c r="Y160">
-        <v>0</v>
-      </c>
-      <c r="Z160">
-        <v>0</v>
-      </c>
-      <c r="AA160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:27">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161">
-        <v>7075090</v>
-      </c>
-      <c r="C161" t="s">
-        <v>28</v>
-      </c>
-      <c r="D161" t="s">
-        <v>28</v>
-      </c>
-      <c r="E161" s="2">
-        <v>45388.45833333334</v>
-      </c>
-      <c r="F161" t="s">
-        <v>37</v>
-      </c>
-      <c r="G161" t="s">
-        <v>34</v>
-      </c>
-      <c r="K161">
-        <v>2.2</v>
-      </c>
-      <c r="L161">
-        <v>3.4</v>
-      </c>
-      <c r="M161">
-        <v>2.875</v>
-      </c>
-      <c r="N161">
-        <v>2.1</v>
-      </c>
-      <c r="O161">
-        <v>3.4</v>
-      </c>
-      <c r="P161">
-        <v>3.1</v>
-      </c>
-      <c r="Q161">
-        <v>-0.25</v>
-      </c>
-      <c r="R161">
-        <v>1.875</v>
-      </c>
-      <c r="S161">
-        <v>1.975</v>
-      </c>
-      <c r="T161">
-        <v>2.75</v>
-      </c>
-      <c r="U161">
-        <v>2.025</v>
-      </c>
-      <c r="V161">
-        <v>1.825</v>
-      </c>
-      <c r="W161">
-        <v>0</v>
-      </c>
-      <c r="X161">
-        <v>0</v>
-      </c>
-      <c r="Y161">
-        <v>0</v>
-      </c>
-      <c r="Z161">
-        <v>0</v>
-      </c>
-      <c r="AA161">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Scotland League Two/Scotland League Two.xlsx
+++ b/Scotland League Two/Scotland League Two.xlsx
@@ -121,13 +121,13 @@
     <t>Peterhead</t>
   </si>
   <si>
-    <t>Stranraer</t>
-  </si>
-  <si>
     <t>Clyde</t>
   </si>
   <si>
     <t>Dumbarton</t>
+  </si>
+  <si>
+    <t>Stranraer</t>
   </si>
   <si>
     <t>Forfar</t>
@@ -613,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6848487</v>
+        <v>6848483</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1147,73 +1147,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="L8">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="N8">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O8">
         <v>3.3</v>
       </c>
       <c r="P8">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S8">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V8">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6848483</v>
+        <v>6848484</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1236,25 +1236,25 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N9">
         <v>2.375</v>
@@ -1263,7 +1263,7 @@
         <v>3.3</v>
       </c>
       <c r="P9">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1272,37 +1272,37 @@
         <v>1.775</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T9">
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y9">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6848484</v>
+        <v>6848487</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1325,7 +1325,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1337,40 +1337,40 @@
         <v>39</v>
       </c>
       <c r="K10">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="N10">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O10">
         <v>3.3</v>
       </c>
       <c r="P10">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V10">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1382,16 +1382,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1500,7 +1500,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
@@ -1589,7 +1589,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
         <v>38</v>
@@ -1681,7 +1681,7 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -2123,10 +2123,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
         <v>35</v>
-      </c>
-      <c r="G19" t="s">
-        <v>36</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2215,7 +2215,7 @@
         <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2479,7 +2479,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
         <v>34</v>
@@ -2568,7 +2568,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
         <v>30</v>
@@ -2657,7 +2657,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
         <v>38</v>
@@ -2838,7 +2838,7 @@
         <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H27">
         <v>5</v>
@@ -2927,7 +2927,7 @@
         <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3194,7 +3194,7 @@
         <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3280,7 +3280,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
         <v>38</v>
@@ -3458,7 +3458,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
         <v>34</v>
@@ -3636,7 +3636,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>31</v>
@@ -3725,10 +3725,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" t="s">
         <v>37</v>
-      </c>
-      <c r="G37" t="s">
-        <v>35</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -3906,7 +3906,7 @@
         <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4170,7 +4170,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
         <v>32</v>
@@ -4348,10 +4348,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" t="s">
         <v>36</v>
-      </c>
-      <c r="G44" t="s">
-        <v>37</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4440,7 +4440,7 @@
         <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4529,7 +4529,7 @@
         <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <v>4</v>
@@ -4618,7 +4618,7 @@
         <v>29</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -4793,7 +4793,7 @@
         <v>45234.5</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
         <v>29</v>
@@ -5060,7 +5060,7 @@
         <v>45234.5</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
         <v>31</v>
@@ -5149,7 +5149,7 @@
         <v>45234.5</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
         <v>32</v>
@@ -5241,7 +5241,7 @@
         <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5419,7 +5419,7 @@
         <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5597,7 +5597,7 @@
         <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5950,7 +5950,7 @@
         <v>45248.5</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -6039,7 +6039,7 @@
         <v>45248.5</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
         <v>30</v>
@@ -6128,7 +6128,7 @@
         <v>45248.5</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
         <v>31</v>
@@ -6487,7 +6487,7 @@
         <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6573,7 +6573,7 @@
         <v>45269.5</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
         <v>33</v>
@@ -6929,10 +6929,10 @@
         <v>45269.5</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7110,7 +7110,7 @@
         <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7199,7 +7199,7 @@
         <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7374,7 +7374,7 @@
         <v>45276.5</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
         <v>29</v>
@@ -7555,7 +7555,7 @@
         <v>32</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -7819,10 +7819,10 @@
         <v>45283.5</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H83">
         <v>4</v>
@@ -8086,7 +8086,7 @@
         <v>45290.5</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
         <v>33</v>
@@ -8175,7 +8175,7 @@
         <v>45297.5</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
         <v>30</v>
@@ -8267,7 +8267,7 @@
         <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8531,7 +8531,7 @@
         <v>45297.5</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G91" t="s">
         <v>29</v>
@@ -8623,7 +8623,7 @@
         <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H92">
         <v>3</v>
@@ -8697,7 +8697,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6848602</v>
+        <v>6848568</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8709,10 +8709,10 @@
         <v>45304.5</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8724,40 +8724,40 @@
         <v>39</v>
       </c>
       <c r="K93">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L93">
         <v>3.5</v>
       </c>
       <c r="M93">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="N93">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O93">
         <v>3.5</v>
       </c>
       <c r="P93">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V93">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W93">
         <v>-1</v>
@@ -8769,16 +8769,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8786,7 +8786,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6848568</v>
+        <v>6848602</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8798,7 +8798,7 @@
         <v>45304.5</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G94" t="s">
         <v>36</v>
@@ -8813,40 +8813,40 @@
         <v>39</v>
       </c>
       <c r="K94">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L94">
         <v>3.5</v>
       </c>
       <c r="M94">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="N94">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O94">
         <v>3.5</v>
       </c>
       <c r="P94">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q94">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
+        <v>1.8</v>
+      </c>
+      <c r="S94">
+        <v>2</v>
+      </c>
+      <c r="T94">
+        <v>2.5</v>
+      </c>
+      <c r="U94">
         <v>1.95</v>
       </c>
-      <c r="S94">
+      <c r="V94">
         <v>1.85</v>
-      </c>
-      <c r="T94">
-        <v>2.75</v>
-      </c>
-      <c r="U94">
-        <v>1.975</v>
-      </c>
-      <c r="V94">
-        <v>1.825</v>
       </c>
       <c r="W94">
         <v>-1</v>
@@ -8858,16 +8858,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA94">
+        <v>-0.5</v>
+      </c>
+      <c r="AB94">
+        <v>-1</v>
+      </c>
+      <c r="AC94">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB94">
-        <v>-1</v>
-      </c>
-      <c r="AC94">
-        <v>0.825</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8976,7 +8976,7 @@
         <v>45304.5</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
         <v>34</v>
@@ -9246,7 +9246,7 @@
         <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9335,7 +9335,7 @@
         <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9602,7 +9602,7 @@
         <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9688,7 +9688,7 @@
         <v>45318.5</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
         <v>30</v>
@@ -9780,7 +9780,7 @@
         <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9958,7 +9958,7 @@
         <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10047,7 +10047,7 @@
         <v>29</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>45325.5</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
         <v>34</v>
@@ -10489,7 +10489,7 @@
         <v>45332.5</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
         <v>38</v>
@@ -10578,10 +10578,10 @@
         <v>45332.5</v>
       </c>
       <c r="F114" t="s">
+        <v>37</v>
+      </c>
+      <c r="G114" t="s">
         <v>35</v>
-      </c>
-      <c r="G114" t="s">
-        <v>36</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -10845,7 +10845,7 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G117" t="s">
         <v>32</v>
@@ -11112,7 +11112,7 @@
         <v>45339.5</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
         <v>32</v>
@@ -11290,10 +11290,10 @@
         <v>45339.5</v>
       </c>
       <c r="F122" t="s">
+        <v>35</v>
+      </c>
+      <c r="G122" t="s">
         <v>36</v>
-      </c>
-      <c r="G122" t="s">
-        <v>37</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11468,7 +11468,7 @@
         <v>45342.69791666666</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
         <v>38</v>
@@ -11557,10 +11557,10 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F125" t="s">
+        <v>36</v>
+      </c>
+      <c r="G125" t="s">
         <v>37</v>
-      </c>
-      <c r="G125" t="s">
-        <v>35</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11827,7 +11827,7 @@
         <v>33</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -12180,7 +12180,7 @@
         <v>45353.5</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
         <v>34</v>
@@ -12269,7 +12269,7 @@
         <v>45353.5</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -12358,7 +12358,7 @@
         <v>45353.5</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G134" t="s">
         <v>38</v>
@@ -12447,10 +12447,10 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H135">
         <v>5</v>
@@ -12628,7 +12628,7 @@
         <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>3</v>
@@ -12895,7 +12895,7 @@
         <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -12984,7 +12984,7 @@
         <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13073,7 +13073,7 @@
         <v>32</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13162,7 +13162,7 @@
         <v>29</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13426,7 +13426,7 @@
         <v>45367.5</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
         <v>31</v>
@@ -13693,7 +13693,7 @@
         <v>45374.5</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G149" t="s">
         <v>29</v>
@@ -13782,7 +13782,7 @@
         <v>45374.5</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
         <v>32</v>
@@ -13874,7 +13874,7 @@
         <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -13960,7 +13960,7 @@
         <v>45381.5</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G152" t="s">
         <v>29</v>
@@ -14138,7 +14138,7 @@
         <v>45381.5</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G154" t="s">
         <v>33</v>
@@ -14230,7 +14230,7 @@
         <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H155">
         <v>4</v>
@@ -14393,7 +14393,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7060950</v>
+        <v>7060953</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14405,10 +14405,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14420,58 +14420,58 @@
         <v>39</v>
       </c>
       <c r="K157">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L157">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M157">
-        <v>1.869</v>
+        <v>1.95</v>
       </c>
       <c r="N157">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="O157">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P157">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q157">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R157">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S157">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T157">
         <v>2.25</v>
       </c>
       <c r="U157">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V157">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA157">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB157">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14482,7 +14482,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7060953</v>
+        <v>7060950</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14494,10 +14494,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14509,58 +14509,58 @@
         <v>39</v>
       </c>
       <c r="K158">
+        <v>3.6</v>
+      </c>
+      <c r="L158">
         <v>3.5</v>
       </c>
-      <c r="L158">
-        <v>3.4</v>
-      </c>
       <c r="M158">
-        <v>1.95</v>
+        <v>1.869</v>
       </c>
       <c r="N158">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="O158">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P158">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q158">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R158">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S158">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T158">
         <v>2.25</v>
       </c>
       <c r="U158">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V158">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AA158">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB158">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14583,10 +14583,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14675,7 +14675,7 @@
         <v>38</v>
       </c>
       <c r="G160" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H160">
         <v>0</v>

--- a/Scotland League Two/Scotland League Two.xlsx
+++ b/Scotland League Two/Scotland League Two.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>Spartans</t>
   </si>
   <si>
-    <t>Stenhousemuir</t>
+    <t>Bonnyrigg Rose</t>
   </si>
   <si>
-    <t>Bonnyrigg Rose</t>
+    <t>Stenhousemuir</t>
   </si>
   <si>
     <t>East Fife</t>
@@ -127,10 +127,10 @@
     <t>Forfar</t>
   </si>
   <si>
-    <t>Stranraer</t>
+    <t>Peterhead</t>
   </si>
   <si>
-    <t>Peterhead</t>
+    <t>Stranraer</t>
   </si>
   <si>
     <t>D</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC171"/>
+  <dimension ref="A1:AC166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6848481</v>
+        <v>6848596</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,37 +702,37 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>39</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L3">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N3">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="O3">
         <v>3.3</v>
       </c>
       <c r="P3">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>1.95</v>
@@ -741,7 +741,7 @@
         <v>1.85</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
         <v>2</v>
@@ -759,10 +759,10 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
         <v>-1</v>
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6848596</v>
+        <v>6848481</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -791,37 +791,37 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>39</v>
       </c>
       <c r="K4">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M4">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="O4">
         <v>3.3</v>
       </c>
       <c r="P4">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
         <v>1.95</v>
@@ -830,7 +830,7 @@
         <v>1.85</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
         <v>2</v>
@@ -848,10 +848,10 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
       <c r="AB4">
         <v>-1</v>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -969,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6848487</v>
+        <v>6848486</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1325,58 +1325,58 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>39</v>
       </c>
       <c r="K10">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L10">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N10">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O10">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q10">
         <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T10">
         <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V10">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y10">
         <v>-1</v>
@@ -1385,13 +1385,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>0.425</v>
+        <v>0.4</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1399,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6848486</v>
+        <v>6848487</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1414,58 +1414,58 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>39</v>
       </c>
       <c r="K11">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L11">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M11">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N11">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O11">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P11">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q11">
         <v>-0.25</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
         <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V11">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y11">
         <v>-1</v>
@@ -1474,13 +1474,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1488,7 +1488,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6848488</v>
+        <v>6848489</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1500,40 +1500,40 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L12">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M12">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N12">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="O12">
         <v>3.4</v>
       </c>
       <c r="P12">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q12">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
         <v>1.9</v>
@@ -1542,31 +1542,31 @@
         <v>1.9</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA12">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1589,10 +1589,10 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1770,7 +1770,7 @@
         <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6848489</v>
+        <v>6848488</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1856,40 +1856,40 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L16">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N16">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="O16">
         <v>3.4</v>
       </c>
       <c r="P16">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
         <v>1.9</v>
@@ -1898,31 +1898,31 @@
         <v>1.9</v>
       </c>
       <c r="T16">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
+        <v>-1</v>
+      </c>
+      <c r="Y16">
         <v>1.1</v>
       </c>
-      <c r="X16">
-        <v>-1</v>
-      </c>
-      <c r="Y16">
-        <v>-1</v>
-      </c>
       <c r="Z16">
+        <v>-1</v>
+      </c>
+      <c r="AA16">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
       <c r="AB16">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1945,7 +1945,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>35</v>
@@ -2037,7 +2037,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2212,7 +2212,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
@@ -2301,7 +2301,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
         <v>34</v>
@@ -2393,7 +2393,7 @@
         <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2479,10 +2479,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
         <v>37</v>
-      </c>
-      <c r="G23" t="s">
-        <v>38</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2746,7 +2746,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
@@ -3102,10 +3102,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3191,10 +3191,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H31">
         <v>5</v>
@@ -3268,7 +3268,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6848510</v>
+        <v>6848508</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3280,34 +3280,34 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L32">
         <v>3.5</v>
       </c>
       <c r="M32">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N32">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O32">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P32">
         <v>3.2</v>
@@ -3322,34 +3322,34 @@
         <v>1.875</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V32">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC32">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3357,7 +3357,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6848508</v>
+        <v>6848507</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3369,43 +3369,43 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K33">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L33">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
         <v>3.4</v>
       </c>
       <c r="N33">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O33">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P33">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S33">
         <v>1.875</v>
@@ -3414,31 +3414,31 @@
         <v>2.5</v>
       </c>
       <c r="U33">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V33">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W33">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB33">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3446,7 +3446,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6848507</v>
+        <v>6848510</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3458,55 +3458,55 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
         <v>40</v>
       </c>
       <c r="K34">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M34">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N34">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="O34">
+        <v>3.25</v>
+      </c>
+      <c r="P34">
         <v>3.2</v>
       </c>
-      <c r="P34">
-        <v>2.625</v>
-      </c>
       <c r="Q34">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S34">
         <v>1.875</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U34">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V34">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W34">
         <v>-1</v>
@@ -3515,7 +3515,7 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>1.625</v>
+        <v>2.2</v>
       </c>
       <c r="Z34">
         <v>-1</v>
@@ -3524,10 +3524,10 @@
         <v>0.875</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC34">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3639,7 +3639,7 @@
         <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3814,7 +3814,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
         <v>34</v>
@@ -3906,7 +3906,7 @@
         <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -3995,7 +3995,7 @@
         <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -4081,7 +4081,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
         <v>33</v>
@@ -4262,7 +4262,7 @@
         <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4348,7 +4348,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
         <v>29</v>
@@ -4526,7 +4526,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
         <v>34</v>
@@ -4618,7 +4618,7 @@
         <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>4</v>
@@ -4707,7 +4707,7 @@
         <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4793,7 +4793,7 @@
         <v>45234.5</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
         <v>32</v>
@@ -4882,7 +4882,7 @@
         <v>45234.5</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
         <v>33</v>
@@ -4974,7 +4974,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H51">
         <v>4</v>
@@ -5063,7 +5063,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5238,7 +5238,7 @@
         <v>45241.5</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
         <v>29</v>
@@ -5315,7 +5315,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6848533</v>
+        <v>6848530</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5327,76 +5327,76 @@
         <v>45241.5</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K55">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="L55">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M55">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="N55">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="O55">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P55">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q55">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S55">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W55">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z55">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB55">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5404,7 +5404,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6848532</v>
+        <v>6848531</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5416,76 +5416,76 @@
         <v>45241.5</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K56">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="L56">
         <v>3.4</v>
       </c>
       <c r="M56">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N56">
+        <v>2.9</v>
+      </c>
+      <c r="O56">
+        <v>3.2</v>
+      </c>
+      <c r="P56">
+        <v>2.2</v>
+      </c>
+      <c r="Q56">
+        <v>0.25</v>
+      </c>
+      <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
         <v>1.85</v>
-      </c>
-      <c r="O56">
-        <v>3.4</v>
-      </c>
-      <c r="P56">
-        <v>3.8</v>
-      </c>
-      <c r="Q56">
-        <v>-0.5</v>
-      </c>
-      <c r="R56">
-        <v>1.85</v>
-      </c>
-      <c r="S56">
-        <v>1.95</v>
       </c>
       <c r="T56">
         <v>2.5</v>
       </c>
       <c r="U56">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V56">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X56">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA56">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5493,7 +5493,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6848530</v>
+        <v>6848532</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5505,76 +5505,76 @@
         <v>45241.5</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K57">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="L57">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M57">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="N57">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="O57">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P57">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q57">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V57">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y57">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5582,7 +5582,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6848531</v>
+        <v>6848533</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5594,58 +5594,58 @@
         <v>45241.5</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
         <v>41</v>
       </c>
       <c r="K58">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M58">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N58">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="O58">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P58">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q58">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S58">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V58">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W58">
-        <v>1.9</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5654,16 +5654,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC58">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5683,10 +5683,10 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -5760,7 +5760,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6848539</v>
+        <v>6848538</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5772,55 +5772,55 @@
         <v>45248.5</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G60" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
         <v>40</v>
       </c>
       <c r="K60">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L60">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M60">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N60">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="O60">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P60">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R60">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S60">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T60">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V60">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W60">
         <v>-1</v>
@@ -5829,19 +5829,19 @@
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="Z60">
         <v>-1</v>
       </c>
       <c r="AA60">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB60">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AC60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5849,7 +5849,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6848538</v>
+        <v>6848539</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5861,55 +5861,55 @@
         <v>45248.5</v>
       </c>
       <c r="F61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" t="s">
         <v>37</v>
       </c>
-      <c r="G61" t="s">
-        <v>30</v>
-      </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
         <v>40</v>
       </c>
       <c r="K61">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L61">
+        <v>3.6</v>
+      </c>
+      <c r="M61">
+        <v>2.875</v>
+      </c>
+      <c r="N61">
+        <v>2.15</v>
+      </c>
+      <c r="O61">
         <v>3.75</v>
       </c>
-      <c r="M61">
-        <v>2.5</v>
-      </c>
-      <c r="N61">
-        <v>3.4</v>
-      </c>
-      <c r="O61">
-        <v>3.8</v>
-      </c>
       <c r="P61">
+        <v>3</v>
+      </c>
+      <c r="Q61">
+        <v>-0.25</v>
+      </c>
+      <c r="R61">
         <v>1.95</v>
       </c>
-      <c r="Q61">
-        <v>0.5</v>
-      </c>
-      <c r="R61">
-        <v>1.875</v>
-      </c>
       <c r="S61">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V61">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W61">
         <v>-1</v>
@@ -5918,19 +5918,19 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB61">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6128,7 +6128,7 @@
         <v>45248.5</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
         <v>36</v>
@@ -6306,7 +6306,7 @@
         <v>45251.69791666666</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
         <v>32</v>
@@ -6395,10 +6395,10 @@
         <v>45262.5</v>
       </c>
       <c r="F67" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" t="s">
         <v>30</v>
-      </c>
-      <c r="G67" t="s">
-        <v>31</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6487,7 +6487,7 @@
         <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6662,10 +6662,10 @@
         <v>45269.5</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6843,7 +6843,7 @@
         <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6932,7 +6932,7 @@
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7018,7 +7018,7 @@
         <v>45276.5</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
         <v>32</v>
@@ -7285,7 +7285,7 @@
         <v>45276.5</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
         <v>34</v>
@@ -7374,10 +7374,10 @@
         <v>45276.5</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H78">
         <v>3</v>
@@ -7466,7 +7466,7 @@
         <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7641,7 +7641,7 @@
         <v>45283.5</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
         <v>36</v>
@@ -7718,7 +7718,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6848558</v>
+        <v>6848557</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7730,13 +7730,13 @@
         <v>45283.5</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -7745,31 +7745,31 @@
         <v>41</v>
       </c>
       <c r="K82">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L82">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M82">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N82">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="O82">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P82">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="Q82">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R82">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S82">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T82">
         <v>2.5</v>
@@ -7778,10 +7778,10 @@
         <v>1.85</v>
       </c>
       <c r="V82">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W82">
-        <v>0.7</v>
+        <v>0.333</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7790,16 +7790,16 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7807,7 +7807,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6848557</v>
+        <v>6848558</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7819,13 +7819,13 @@
         <v>45283.5</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -7834,31 +7834,31 @@
         <v>41</v>
       </c>
       <c r="K83">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L83">
+        <v>3.5</v>
+      </c>
+      <c r="M83">
+        <v>4.333</v>
+      </c>
+      <c r="N83">
+        <v>1.7</v>
+      </c>
+      <c r="O83">
+        <v>3.5</v>
+      </c>
+      <c r="P83">
         <v>4.75</v>
       </c>
-      <c r="M83">
-        <v>6.5</v>
-      </c>
-      <c r="N83">
-        <v>1.333</v>
-      </c>
-      <c r="O83">
-        <v>4.75</v>
-      </c>
-      <c r="P83">
-        <v>8</v>
-      </c>
       <c r="Q83">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R83">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S83">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T83">
         <v>2.5</v>
@@ -7867,10 +7867,10 @@
         <v>1.85</v>
       </c>
       <c r="V83">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
-        <v>0.333</v>
+        <v>0.7</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7879,16 +7879,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC83">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7911,7 +7911,7 @@
         <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8089,7 +8089,7 @@
         <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8163,7 +8163,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6848565</v>
+        <v>6848564</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8175,76 +8175,76 @@
         <v>45297.5</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K87">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L87">
         <v>3.75</v>
       </c>
       <c r="M87">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="N87">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="O87">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P87">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
         <v>2.05</v>
       </c>
       <c r="S87">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V87">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z87">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB87">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8252,7 +8252,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6848564</v>
+        <v>6848565</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8264,76 +8264,76 @@
         <v>45297.5</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
         <v>1</v>
       </c>
-      <c r="I88">
-        <v>2</v>
-      </c>
       <c r="J88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K88">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L88">
         <v>3.75</v>
       </c>
       <c r="M88">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N88">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="O88">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P88">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q88">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R88">
         <v>2.05</v>
       </c>
       <c r="S88">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U88">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
       <c r="AC88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8341,7 +8341,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6848563</v>
+        <v>6848566</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8353,37 +8353,37 @@
         <v>45297.5</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K89">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L89">
         <v>3.75</v>
       </c>
       <c r="M89">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="N89">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O89">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P89">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q89">
         <v>0.25</v>
@@ -8392,37 +8392,37 @@
         <v>1.875</v>
       </c>
       <c r="S89">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T89">
         <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z89">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB89">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8442,7 +8442,7 @@
         <v>45297.5</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
         <v>36</v>
@@ -8519,7 +8519,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6848566</v>
+        <v>6848563</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8531,37 +8531,37 @@
         <v>45297.5</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K91">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L91">
         <v>3.75</v>
       </c>
       <c r="M91">
+        <v>2.25</v>
+      </c>
+      <c r="N91">
         <v>2.7</v>
       </c>
-      <c r="N91">
-        <v>2.75</v>
-      </c>
       <c r="O91">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P91">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q91">
         <v>0.25</v>
@@ -8570,37 +8570,37 @@
         <v>1.875</v>
       </c>
       <c r="S91">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA91">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8620,7 +8620,7 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G92" t="s">
         <v>35</v>
@@ -8709,7 +8709,7 @@
         <v>45304.5</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
         <v>35</v>
@@ -8801,7 +8801,7 @@
         <v>29</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -8887,10 +8887,10 @@
         <v>45304.5</v>
       </c>
       <c r="F95" t="s">
+        <v>38</v>
+      </c>
+      <c r="G95" t="s">
         <v>37</v>
-      </c>
-      <c r="G95" t="s">
-        <v>38</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9154,10 +9154,10 @@
         <v>45311.5</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9246,7 +9246,7 @@
         <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9510,7 +9510,7 @@
         <v>45318.5</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G102" t="s">
         <v>32</v>
@@ -9602,7 +9602,7 @@
         <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -9688,10 +9688,10 @@
         <v>45318.5</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -10133,10 +10133,10 @@
         <v>45325.5</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10311,7 +10311,7 @@
         <v>45325.5</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
         <v>35</v>
@@ -10400,7 +10400,7 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
         <v>33</v>
@@ -10578,7 +10578,7 @@
         <v>45332.5</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
         <v>34</v>
@@ -10670,7 +10670,7 @@
         <v>32</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10937,7 +10937,7 @@
         <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H118">
         <v>3</v>
@@ -11026,7 +11026,7 @@
         <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -11201,7 +11201,7 @@
         <v>45339.5</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G121" t="s">
         <v>29</v>
@@ -11290,7 +11290,7 @@
         <v>45339.5</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
         <v>32</v>
@@ -11379,10 +11379,10 @@
         <v>45342.69791666666</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -11560,7 +11560,7 @@
         <v>35</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11735,7 +11735,7 @@
         <v>45346.5</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G127" t="s">
         <v>33</v>
@@ -11827,7 +11827,7 @@
         <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -11913,7 +11913,7 @@
         <v>45346.5</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
         <v>34</v>
@@ -11990,7 +11990,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6920924</v>
+        <v>6920922</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12002,76 +12002,76 @@
         <v>45353.5</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H130">
         <v>1</v>
       </c>
       <c r="I130">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K130">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L130">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M130">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N130">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O130">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P130">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q130">
         <v>-0.25</v>
       </c>
       <c r="R130">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S130">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T130">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
+        <v>2</v>
+      </c>
+      <c r="V130">
         <v>1.85</v>
       </c>
-      <c r="V130">
-        <v>1.95</v>
-      </c>
       <c r="W130">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA130">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
+        <v>-1</v>
+      </c>
+      <c r="AC130">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC130">
-        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12079,7 +12079,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6920923</v>
+        <v>6920921</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12091,76 +12091,76 @@
         <v>45353.5</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K131">
+        <v>1.833</v>
+      </c>
+      <c r="L131">
+        <v>3.6</v>
+      </c>
+      <c r="M131">
+        <v>3.75</v>
+      </c>
+      <c r="N131">
+        <v>1.95</v>
+      </c>
+      <c r="O131">
+        <v>3.5</v>
+      </c>
+      <c r="P131">
+        <v>3.5</v>
+      </c>
+      <c r="Q131">
+        <v>-0.5</v>
+      </c>
+      <c r="R131">
+        <v>2</v>
+      </c>
+      <c r="S131">
+        <v>1.85</v>
+      </c>
+      <c r="T131">
         <v>2.5</v>
       </c>
-      <c r="L131">
-        <v>3.2</v>
-      </c>
-      <c r="M131">
-        <v>2.625</v>
-      </c>
-      <c r="N131">
-        <v>2.45</v>
-      </c>
-      <c r="O131">
-        <v>3.25</v>
-      </c>
-      <c r="P131">
-        <v>2.7</v>
-      </c>
-      <c r="Q131">
-        <v>0</v>
-      </c>
-      <c r="R131">
-        <v>1.8</v>
-      </c>
-      <c r="S131">
-        <v>2</v>
-      </c>
-      <c r="T131">
-        <v>2.25</v>
-      </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X131">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA131">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12168,7 +12168,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6920922</v>
+        <v>6920920</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12180,76 +12180,76 @@
         <v>45353.5</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
         <v>1</v>
       </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
       <c r="J132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K132">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L132">
         <v>3.25</v>
       </c>
       <c r="M132">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="N132">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O132">
         <v>3.3</v>
       </c>
       <c r="P132">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S132">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12257,7 +12257,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6920921</v>
+        <v>6920923</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12269,76 +12269,76 @@
         <v>45353.5</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K133">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M133">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="N133">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O133">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P133">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S133">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB133">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12346,7 +12346,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6920920</v>
+        <v>6920924</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12358,55 +12358,55 @@
         <v>45353.5</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J134" t="s">
         <v>40</v>
       </c>
       <c r="K134">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L134">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M134">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O134">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P134">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q134">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S134">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T134">
         <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V134">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12415,19 +12415,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>1.15</v>
+        <v>2.5</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC134">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12447,7 +12447,7 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G135" t="s">
         <v>29</v>
@@ -12536,7 +12536,7 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G136" t="s">
         <v>35</v>
@@ -12714,7 +12714,7 @@
         <v>45360.5</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
         <v>29</v>
@@ -12806,7 +12806,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12880,7 +12880,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6958740</v>
+        <v>6937090</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12892,58 +12892,58 @@
         <v>45360.5</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
         <v>41</v>
       </c>
       <c r="K140">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="L140">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="M140">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N140">
+        <v>2.3</v>
+      </c>
+      <c r="O140">
+        <v>3.2</v>
+      </c>
+      <c r="P140">
+        <v>2.8</v>
+      </c>
+      <c r="Q140">
+        <v>-0.25</v>
+      </c>
+      <c r="R140">
+        <v>2.05</v>
+      </c>
+      <c r="S140">
+        <v>1.75</v>
+      </c>
+      <c r="T140">
+        <v>2.5</v>
+      </c>
+      <c r="U140">
+        <v>1.85</v>
+      </c>
+      <c r="V140">
         <v>1.95</v>
       </c>
-      <c r="O140">
-        <v>3.4</v>
-      </c>
-      <c r="P140">
-        <v>3.6</v>
-      </c>
-      <c r="Q140">
-        <v>-0.5</v>
-      </c>
-      <c r="R140">
-        <v>1.975</v>
-      </c>
-      <c r="S140">
-        <v>1.825</v>
-      </c>
-      <c r="T140">
-        <v>2.25</v>
-      </c>
-      <c r="U140">
-        <v>1.825</v>
-      </c>
-      <c r="V140">
-        <v>1.975</v>
-      </c>
       <c r="W140">
-        <v>0.95</v>
+        <v>1.3</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12952,16 +12952,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC140">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12969,7 +12969,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6937090</v>
+        <v>6958740</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12981,58 +12981,58 @@
         <v>45360.5</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>41</v>
       </c>
       <c r="K141">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="L141">
+        <v>4.1</v>
+      </c>
+      <c r="M141">
+        <v>4.75</v>
+      </c>
+      <c r="N141">
+        <v>1.95</v>
+      </c>
+      <c r="O141">
         <v>3.4</v>
       </c>
-      <c r="M141">
-        <v>2.3</v>
-      </c>
-      <c r="N141">
-        <v>2.3</v>
-      </c>
-      <c r="O141">
-        <v>3.2</v>
-      </c>
       <c r="P141">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S141">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V141">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W141">
-        <v>1.3</v>
+        <v>0.95</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13041,16 +13041,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13058,7 +13058,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6973853</v>
+        <v>6958741</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13070,76 +13070,76 @@
         <v>45367.5</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K142">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M142">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="N142">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="O142">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P142">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q142">
+        <v>0.25</v>
+      </c>
+      <c r="R142">
+        <v>1.775</v>
+      </c>
+      <c r="S142">
+        <v>2.025</v>
+      </c>
+      <c r="T142">
+        <v>2.25</v>
+      </c>
+      <c r="U142">
+        <v>1.95</v>
+      </c>
+      <c r="V142">
+        <v>1.85</v>
+      </c>
+      <c r="W142">
+        <v>-1</v>
+      </c>
+      <c r="X142">
+        <v>1.875</v>
+      </c>
+      <c r="Y142">
+        <v>-1</v>
+      </c>
+      <c r="Z142">
+        <v>0.3875</v>
+      </c>
+      <c r="AA142">
         <v>-0.5</v>
       </c>
-      <c r="R142">
-        <v>2.025</v>
-      </c>
-      <c r="S142">
-        <v>1.775</v>
-      </c>
-      <c r="T142">
-        <v>2.5</v>
-      </c>
-      <c r="U142">
-        <v>2</v>
-      </c>
-      <c r="V142">
-        <v>1.8</v>
-      </c>
-      <c r="W142">
-        <v>-1</v>
-      </c>
-      <c r="X142">
-        <v>-1</v>
-      </c>
-      <c r="Y142">
-        <v>2.5</v>
-      </c>
-      <c r="Z142">
-        <v>-1</v>
-      </c>
-      <c r="AA142">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB142">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13147,7 +13147,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6973852</v>
+        <v>6958742</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13159,76 +13159,76 @@
         <v>45367.5</v>
       </c>
       <c r="F143" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J143" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K143">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L143">
+        <v>3.4</v>
+      </c>
+      <c r="M143">
+        <v>3.1</v>
+      </c>
+      <c r="N143">
+        <v>2.1</v>
+      </c>
+      <c r="O143">
+        <v>3.3</v>
+      </c>
+      <c r="P143">
         <v>3.25</v>
-      </c>
-      <c r="M143">
-        <v>3</v>
-      </c>
-      <c r="N143">
-        <v>2.3</v>
-      </c>
-      <c r="O143">
-        <v>3.1</v>
-      </c>
-      <c r="P143">
-        <v>3</v>
       </c>
       <c r="Q143">
         <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S143">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T143">
+        <v>2.5</v>
+      </c>
+      <c r="U143">
+        <v>2</v>
+      </c>
+      <c r="V143">
+        <v>1.8</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
+        <v>-1</v>
+      </c>
+      <c r="Y143">
         <v>2.25</v>
       </c>
-      <c r="U143">
-        <v>1.875</v>
-      </c>
-      <c r="V143">
-        <v>1.925</v>
-      </c>
-      <c r="W143">
-        <v>-1</v>
-      </c>
-      <c r="X143">
-        <v>2.1</v>
-      </c>
-      <c r="Y143">
-        <v>-1</v>
-      </c>
       <c r="Z143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
       <c r="AB143">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC143">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13236,7 +13236,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6958742</v>
+        <v>6973853</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13248,46 +13248,46 @@
         <v>45367.5</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
         <v>40</v>
       </c>
       <c r="K144">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L144">
         <v>3.4</v>
       </c>
       <c r="M144">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N144">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O144">
         <v>3.3</v>
       </c>
       <c r="P144">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T144">
         <v>2.5</v>
@@ -13305,13 +13305,13 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB144">
         <v>1</v>
@@ -13325,7 +13325,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6958741</v>
+        <v>6973852</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13337,10 +13337,10 @@
         <v>45367.5</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13352,61 +13352,61 @@
         <v>39</v>
       </c>
       <c r="K145">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="L145">
+        <v>3.25</v>
+      </c>
+      <c r="M145">
+        <v>3</v>
+      </c>
+      <c r="N145">
+        <v>2.3</v>
+      </c>
+      <c r="O145">
         <v>3.1</v>
       </c>
-      <c r="M145">
-        <v>2.1</v>
-      </c>
-      <c r="N145">
-        <v>3.2</v>
-      </c>
-      <c r="O145">
-        <v>2.875</v>
-      </c>
       <c r="P145">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Q145">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
+        <v>2.025</v>
+      </c>
+      <c r="S145">
         <v>1.775</v>
-      </c>
-      <c r="S145">
-        <v>2.025</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
+        <v>-0.5</v>
+      </c>
+      <c r="AA145">
         <v>0.3875</v>
-      </c>
-      <c r="AA145">
-        <v>-0.5</v>
       </c>
       <c r="AB145">
         <v>-0.5</v>
       </c>
       <c r="AC145">
-        <v>0.425</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13426,7 +13426,7 @@
         <v>45367.5</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G146" t="s">
         <v>34</v>
@@ -13693,10 +13693,10 @@
         <v>45374.5</v>
       </c>
       <c r="F149" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13785,7 +13785,7 @@
         <v>35</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13874,7 +13874,7 @@
         <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -14037,7 +14037,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7024063</v>
+        <v>7024062</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14049,76 +14049,76 @@
         <v>45381.5</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G153" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H153">
         <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K153">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L153">
         <v>3.6</v>
       </c>
       <c r="M153">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N153">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O153">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P153">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q153">
         <v>-0.25</v>
       </c>
       <c r="R153">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S153">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T153">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U153">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V153">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W153">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC153">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14126,7 +14126,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7024062</v>
+        <v>7024063</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14138,76 +14138,76 @@
         <v>45381.5</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>1</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K154">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L154">
         <v>3.6</v>
       </c>
       <c r="M154">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N154">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O154">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P154">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q154">
         <v>-0.25</v>
       </c>
       <c r="R154">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S154">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T154">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U154">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V154">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X154">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA154">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14230,7 +14230,7 @@
         <v>35</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -14316,7 +14316,7 @@
         <v>45381.5</v>
       </c>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G156" t="s">
         <v>34</v>
@@ -14405,7 +14405,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G157" t="s">
         <v>32</v>
@@ -14586,7 +14586,7 @@
         <v>34</v>
       </c>
       <c r="G159" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14672,10 +14672,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H160">
         <v>2</v>
@@ -14853,7 +14853,7 @@
         <v>29</v>
       </c>
       <c r="G162" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -14939,7 +14939,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G163" t="s">
         <v>33</v>
@@ -15028,7 +15028,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G164" t="s">
         <v>36</v>
@@ -15120,7 +15120,7 @@
         <v>32</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15276,376 +15276,6 @@
       </c>
       <c r="AC166">
         <v>0.8</v>
-      </c>
-    </row>
-    <row r="167" spans="1:29">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167">
-        <v>8093712</v>
-      </c>
-      <c r="C167" t="s">
-        <v>28</v>
-      </c>
-      <c r="D167" t="s">
-        <v>28</v>
-      </c>
-      <c r="E167" s="2">
-        <v>45402.45833333334</v>
-      </c>
-      <c r="F167" t="s">
-        <v>37</v>
-      </c>
-      <c r="G167" t="s">
-        <v>35</v>
-      </c>
-      <c r="K167">
-        <v>2.25</v>
-      </c>
-      <c r="L167">
-        <v>3.5</v>
-      </c>
-      <c r="M167">
-        <v>2.75</v>
-      </c>
-      <c r="N167">
-        <v>3</v>
-      </c>
-      <c r="O167">
-        <v>3.6</v>
-      </c>
-      <c r="P167">
-        <v>2.1</v>
-      </c>
-      <c r="Q167">
-        <v>0.25</v>
-      </c>
-      <c r="R167">
-        <v>2</v>
-      </c>
-      <c r="S167">
-        <v>1.85</v>
-      </c>
-      <c r="T167">
-        <v>2.75</v>
-      </c>
-      <c r="U167">
-        <v>2.025</v>
-      </c>
-      <c r="V167">
-        <v>1.825</v>
-      </c>
-      <c r="W167">
-        <v>0</v>
-      </c>
-      <c r="X167">
-        <v>0</v>
-      </c>
-      <c r="Y167">
-        <v>0</v>
-      </c>
-      <c r="Z167">
-        <v>0</v>
-      </c>
-      <c r="AA167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:29">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168">
-        <v>7157733</v>
-      </c>
-      <c r="C168" t="s">
-        <v>28</v>
-      </c>
-      <c r="D168" t="s">
-        <v>28</v>
-      </c>
-      <c r="E168" s="2">
-        <v>45402.45833333334</v>
-      </c>
-      <c r="F168" t="s">
-        <v>33</v>
-      </c>
-      <c r="G168" t="s">
-        <v>38</v>
-      </c>
-      <c r="K168">
-        <v>2.4</v>
-      </c>
-      <c r="L168">
-        <v>3.4</v>
-      </c>
-      <c r="M168">
-        <v>2.625</v>
-      </c>
-      <c r="N168">
-        <v>3</v>
-      </c>
-      <c r="O168">
-        <v>3.5</v>
-      </c>
-      <c r="P168">
-        <v>2.1</v>
-      </c>
-      <c r="Q168">
-        <v>0.25</v>
-      </c>
-      <c r="R168">
-        <v>1.975</v>
-      </c>
-      <c r="S168">
-        <v>1.875</v>
-      </c>
-      <c r="T168">
-        <v>2.5</v>
-      </c>
-      <c r="U168">
-        <v>1.95</v>
-      </c>
-      <c r="V168">
-        <v>1.9</v>
-      </c>
-      <c r="W168">
-        <v>0</v>
-      </c>
-      <c r="X168">
-        <v>0</v>
-      </c>
-      <c r="Y168">
-        <v>0</v>
-      </c>
-      <c r="Z168">
-        <v>0</v>
-      </c>
-      <c r="AA168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:29">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169">
-        <v>7128588</v>
-      </c>
-      <c r="C169" t="s">
-        <v>28</v>
-      </c>
-      <c r="D169" t="s">
-        <v>28</v>
-      </c>
-      <c r="E169" s="2">
-        <v>45402.45833333334</v>
-      </c>
-      <c r="F169" t="s">
-        <v>36</v>
-      </c>
-      <c r="G169" t="s">
-        <v>32</v>
-      </c>
-      <c r="K169">
-        <v>2.2</v>
-      </c>
-      <c r="L169">
-        <v>3.4</v>
-      </c>
-      <c r="M169">
-        <v>2.9</v>
-      </c>
-      <c r="N169">
-        <v>2.3</v>
-      </c>
-      <c r="O169">
-        <v>3.4</v>
-      </c>
-      <c r="P169">
-        <v>2.8</v>
-      </c>
-      <c r="Q169">
-        <v>-0.25</v>
-      </c>
-      <c r="R169">
-        <v>2.025</v>
-      </c>
-      <c r="S169">
-        <v>1.825</v>
-      </c>
-      <c r="T169">
-        <v>2.25</v>
-      </c>
-      <c r="U169">
-        <v>1.825</v>
-      </c>
-      <c r="V169">
-        <v>2.025</v>
-      </c>
-      <c r="W169">
-        <v>0</v>
-      </c>
-      <c r="X169">
-        <v>0</v>
-      </c>
-      <c r="Y169">
-        <v>0</v>
-      </c>
-      <c r="Z169">
-        <v>0</v>
-      </c>
-      <c r="AA169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:29">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170">
-        <v>7128582</v>
-      </c>
-      <c r="C170" t="s">
-        <v>28</v>
-      </c>
-      <c r="D170" t="s">
-        <v>28</v>
-      </c>
-      <c r="E170" s="2">
-        <v>45402.45833333334</v>
-      </c>
-      <c r="F170" t="s">
-        <v>31</v>
-      </c>
-      <c r="G170" t="s">
-        <v>29</v>
-      </c>
-      <c r="K170">
-        <v>2.75</v>
-      </c>
-      <c r="L170">
-        <v>3.4</v>
-      </c>
-      <c r="M170">
-        <v>2.3</v>
-      </c>
-      <c r="N170">
-        <v>2.15</v>
-      </c>
-      <c r="O170">
-        <v>3.5</v>
-      </c>
-      <c r="P170">
-        <v>2.9</v>
-      </c>
-      <c r="Q170">
-        <v>-0.25</v>
-      </c>
-      <c r="R170">
-        <v>1.975</v>
-      </c>
-      <c r="S170">
-        <v>1.875</v>
-      </c>
-      <c r="T170">
-        <v>2.5</v>
-      </c>
-      <c r="U170">
-        <v>1.925</v>
-      </c>
-      <c r="V170">
-        <v>1.925</v>
-      </c>
-      <c r="W170">
-        <v>0</v>
-      </c>
-      <c r="X170">
-        <v>0</v>
-      </c>
-      <c r="Y170">
-        <v>0</v>
-      </c>
-      <c r="Z170">
-        <v>0</v>
-      </c>
-      <c r="AA170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:29">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="B171">
-        <v>7128583</v>
-      </c>
-      <c r="C171" t="s">
-        <v>28</v>
-      </c>
-      <c r="D171" t="s">
-        <v>28</v>
-      </c>
-      <c r="E171" s="2">
-        <v>45402.45833333334</v>
-      </c>
-      <c r="F171" t="s">
-        <v>34</v>
-      </c>
-      <c r="G171" t="s">
-        <v>30</v>
-      </c>
-      <c r="K171">
-        <v>2.1</v>
-      </c>
-      <c r="L171">
-        <v>3.5</v>
-      </c>
-      <c r="M171">
-        <v>3</v>
-      </c>
-      <c r="N171">
-        <v>2.3</v>
-      </c>
-      <c r="O171">
-        <v>3.5</v>
-      </c>
-      <c r="P171">
-        <v>2.75</v>
-      </c>
-      <c r="Q171">
-        <v>-0.25</v>
-      </c>
-      <c r="R171">
-        <v>2.05</v>
-      </c>
-      <c r="S171">
-        <v>1.8</v>
-      </c>
-      <c r="T171">
-        <v>2.5</v>
-      </c>
-      <c r="U171">
-        <v>2.025</v>
-      </c>
-      <c r="V171">
-        <v>1.825</v>
-      </c>
-      <c r="W171">
-        <v>0</v>
-      </c>
-      <c r="X171">
-        <v>0</v>
-      </c>
-      <c r="Y171">
-        <v>0</v>
-      </c>
-      <c r="Z171">
-        <v>0</v>
-      </c>
-      <c r="AA171">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Scotland League Two/Scotland League Two.xlsx
+++ b/Scotland League Two/Scotland League Two.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -97,21 +97,6 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7157735</t>
-  </si>
-  <si>
-    <t>7157736</t>
-  </si>
-  <si>
-    <t>7157737</t>
-  </si>
-  <si>
-    <t>7190450</t>
-  </si>
-  <si>
-    <t>7157734</t>
-  </si>
-  <si>
     <t>Scotland League Two</t>
   </si>
   <si>
@@ -136,13 +121,13 @@
     <t>Peterhead</t>
   </si>
   <si>
-    <t>Dumbarton</t>
+    <t>Forfar</t>
   </si>
   <si>
     <t>Clyde</t>
   </si>
   <si>
-    <t>Forfar</t>
+    <t>Dumbarton</t>
   </si>
   <si>
     <t>D</t>
@@ -513,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB176"/>
+  <dimension ref="A1:AB171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,16 +595,16 @@
         <v>6997303</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -628,7 +613,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J2">
         <v>2.7</v>
@@ -696,16 +681,16 @@
         <v>6848479</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
         <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -714,7 +699,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J3">
         <v>1.8</v>
@@ -782,16 +767,16 @@
         <v>6848480</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -800,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J4">
         <v>2.4</v>
@@ -868,16 +853,16 @@
         <v>6848481</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -886,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -954,16 +939,16 @@
         <v>6848596</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
         <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -972,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J6">
         <v>2.5</v>
@@ -1040,16 +1025,16 @@
         <v>6848487</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1058,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J7">
         <v>2.7</v>
@@ -1126,16 +1111,16 @@
         <v>6848486</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1144,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J8">
         <v>2.25</v>
@@ -1209,85 +1194,85 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6848484</v>
+        <v>6848485</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J9">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="K9">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L9">
+        <v>3.1</v>
+      </c>
+      <c r="M9">
+        <v>1.533</v>
+      </c>
+      <c r="N9">
         <v>4</v>
       </c>
-      <c r="M9">
-        <v>2.375</v>
-      </c>
-      <c r="N9">
-        <v>3.3</v>
-      </c>
       <c r="O9">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q9">
+        <v>2.025</v>
+      </c>
+      <c r="R9">
         <v>1.775</v>
-      </c>
-      <c r="R9">
-        <v>2.1</v>
       </c>
       <c r="S9">
         <v>2.5</v>
       </c>
       <c r="T9">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U9">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
         <v>-1</v>
       </c>
       <c r="W9">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1298,16 +1283,16 @@
         <v>6848483</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1316,7 +1301,7 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J10">
         <v>1.909</v>
@@ -1381,85 +1366,85 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6848485</v>
+        <v>6848484</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J11">
+        <v>1.8</v>
+      </c>
+      <c r="K11">
+        <v>3.5</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>2.375</v>
+      </c>
+      <c r="N11">
+        <v>3.3</v>
+      </c>
+      <c r="O11">
+        <v>2.75</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.775</v>
+      </c>
+      <c r="R11">
         <v>2.1</v>
-      </c>
-      <c r="K11">
-        <v>3.4</v>
-      </c>
-      <c r="L11">
-        <v>3.1</v>
-      </c>
-      <c r="M11">
-        <v>1.533</v>
-      </c>
-      <c r="N11">
-        <v>4</v>
-      </c>
-      <c r="O11">
-        <v>4.75</v>
-      </c>
-      <c r="P11">
-        <v>-1</v>
-      </c>
-      <c r="Q11">
-        <v>2.025</v>
-      </c>
-      <c r="R11">
-        <v>1.775</v>
       </c>
       <c r="S11">
         <v>2.5</v>
       </c>
       <c r="T11">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U11">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V11">
         <v>-1</v>
       </c>
       <c r="W11">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1470,16 +1455,16 @@
         <v>6848597</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1488,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J12">
         <v>2.3</v>
@@ -1556,16 +1541,16 @@
         <v>6848488</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1574,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J13">
         <v>1.8</v>
@@ -1639,28 +1624,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6848489</v>
+        <v>6848490</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J14">
         <v>2.3</v>
@@ -1675,49 +1660,49 @@
         <v>2.1</v>
       </c>
       <c r="N14">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O14">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P14">
         <v>-0.25</v>
       </c>
       <c r="Q14">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S14">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T14">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U14">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y14">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA14">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1728,16 +1713,16 @@
         <v>6848491</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1746,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J15">
         <v>1.7</v>
@@ -1811,28 +1796,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6848490</v>
+        <v>6848489</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J16">
         <v>2.3</v>
@@ -1847,49 +1832,49 @@
         <v>2.1</v>
       </c>
       <c r="N16">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O16">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P16">
         <v>-0.25</v>
       </c>
       <c r="Q16">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="R16">
+        <v>1.9</v>
+      </c>
+      <c r="S16">
+        <v>2.25</v>
+      </c>
+      <c r="T16">
         <v>1.825</v>
       </c>
-      <c r="S16">
-        <v>2.75</v>
-      </c>
-      <c r="T16">
+      <c r="U16">
         <v>1.975</v>
       </c>
-      <c r="U16">
-        <v>1.875</v>
-      </c>
       <c r="V16">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z16">
+        <v>-1</v>
+      </c>
+      <c r="AA16">
         <v>0.825</v>
       </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
       <c r="AB16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -1900,16 +1885,16 @@
         <v>6848493</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1918,7 +1903,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J17">
         <v>2.25</v>
@@ -1986,16 +1971,16 @@
         <v>6848494</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2004,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J18">
         <v>2.5</v>
@@ -2072,16 +2057,16 @@
         <v>6848495</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2090,7 +2075,7 @@
         <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J19">
         <v>2.3</v>
@@ -2158,16 +2143,16 @@
         <v>6848496</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2176,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J20">
         <v>2.1</v>
@@ -2244,16 +2229,16 @@
         <v>6848492</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2262,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J21">
         <v>2.2</v>
@@ -2327,85 +2312,85 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6848501</v>
+        <v>6848498</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J22">
+        <v>2.05</v>
+      </c>
+      <c r="K22">
+        <v>3.4</v>
+      </c>
+      <c r="L22">
+        <v>3.1</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>3.4</v>
+      </c>
+      <c r="O22">
         <v>2.2</v>
       </c>
-      <c r="K22">
-        <v>3.3</v>
-      </c>
-      <c r="L22">
-        <v>2.875</v>
-      </c>
-      <c r="M22">
-        <v>1.909</v>
-      </c>
-      <c r="N22">
-        <v>3.3</v>
-      </c>
-      <c r="O22">
-        <v>3.5</v>
-      </c>
       <c r="P22">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S22">
         <v>2.5</v>
       </c>
       <c r="T22">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U22">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V22">
         <v>-1</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X22">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z22">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2413,85 +2398,85 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6848497</v>
+        <v>6848501</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J23">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="K23">
+        <v>3.3</v>
+      </c>
+      <c r="L23">
+        <v>2.875</v>
+      </c>
+      <c r="M23">
+        <v>1.909</v>
+      </c>
+      <c r="N23">
+        <v>3.3</v>
+      </c>
+      <c r="O23">
         <v>3.5</v>
       </c>
-      <c r="L23">
-        <v>3.7</v>
-      </c>
-      <c r="M23">
-        <v>1.75</v>
-      </c>
-      <c r="N23">
-        <v>3.25</v>
-      </c>
-      <c r="O23">
-        <v>4.75</v>
-      </c>
       <c r="P23">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q23">
         <v>2</v>
       </c>
       <c r="R23">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T23">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U23">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V23">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2499,85 +2484,85 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6848498</v>
+        <v>6848497</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J24">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="K24">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L24">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="N24">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O24">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="P24">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q24">
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <v>1.8</v>
+      </c>
+      <c r="S24">
+        <v>2.25</v>
+      </c>
+      <c r="T24">
+        <v>1.95</v>
+      </c>
+      <c r="U24">
         <v>1.85</v>
       </c>
-      <c r="R24">
-        <v>1.95</v>
-      </c>
-      <c r="S24">
-        <v>2.5</v>
-      </c>
-      <c r="T24">
-        <v>1.975</v>
-      </c>
-      <c r="U24">
-        <v>1.825</v>
-      </c>
       <c r="V24">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W24">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2588,16 +2573,16 @@
         <v>6848499</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2606,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J25">
         <v>1.8</v>
@@ -2674,16 +2659,16 @@
         <v>6848500</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2692,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J26">
         <v>2.3</v>
@@ -2760,16 +2745,16 @@
         <v>6848502</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2778,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J27">
         <v>2.15</v>
@@ -2846,25 +2831,25 @@
         <v>6848503</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
         <v>40</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>45</v>
       </c>
       <c r="J28">
         <v>2.7</v>
@@ -2932,16 +2917,16 @@
         <v>6848504</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2950,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J29">
         <v>2.875</v>
@@ -3015,67 +3000,67 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6848506</v>
+        <v>6848505</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J30">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="K30">
         <v>3.3</v>
       </c>
       <c r="L30">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M30">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N30">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="P30">
         <v>-0.25</v>
       </c>
       <c r="Q30">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S30">
         <v>2.5</v>
       </c>
       <c r="T30">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U30">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.15</v>
+        <v>1.375</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3084,13 +3069,13 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB30">
         <v>-1</v>
@@ -3101,67 +3086,67 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6848505</v>
+        <v>6848506</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J31">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="K31">
         <v>3.3</v>
       </c>
       <c r="L31">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M31">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N31">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O31">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P31">
         <v>-0.25</v>
       </c>
       <c r="Q31">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="R31">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S31">
         <v>2.5</v>
       </c>
       <c r="T31">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U31">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>1.375</v>
+        <v>1.15</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3170,13 +3155,13 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB31">
         <v>-1</v>
@@ -3190,16 +3175,16 @@
         <v>6848507</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3208,7 +3193,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J32">
         <v>2.15</v>
@@ -3276,16 +3261,16 @@
         <v>6848508</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3294,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J33">
         <v>2.1</v>
@@ -3362,16 +3347,16 @@
         <v>6848509</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3380,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -3448,16 +3433,16 @@
         <v>6848510</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3466,7 +3451,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -3534,16 +3519,16 @@
         <v>6848511</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3552,7 +3537,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J36">
         <v>1.95</v>
@@ -3620,16 +3605,16 @@
         <v>6848512</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3638,7 +3623,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J37">
         <v>2.375</v>
@@ -3703,82 +3688,82 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6848513</v>
+        <v>6848514</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J38">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="K38">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L38">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M38">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="N38">
         <v>3.8</v>
       </c>
       <c r="O38">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="P38">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q38">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="R38">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S38">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U38">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V38">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA38">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB38">
         <v>-1</v>
@@ -3789,82 +3774,82 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6848515</v>
+        <v>6848513</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J39">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="K39">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L39">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M39">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="N39">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P39">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q39">
+        <v>1.875</v>
+      </c>
+      <c r="R39">
+        <v>1.925</v>
+      </c>
+      <c r="S39">
+        <v>2.75</v>
+      </c>
+      <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39">
         <v>1.8</v>
       </c>
-      <c r="R39">
-        <v>2.05</v>
-      </c>
-      <c r="S39">
-        <v>2.25</v>
-      </c>
-      <c r="T39">
-        <v>1.825</v>
-      </c>
-      <c r="U39">
-        <v>2.025</v>
-      </c>
       <c r="V39">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W39">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="Z39">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB39">
         <v>-1</v>
@@ -3875,19 +3860,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6848514</v>
+        <v>6848515</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3896,61 +3881,61 @@
         <v>2</v>
       </c>
       <c r="I40" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J40">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="K40">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L40">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M40">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="N40">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="O40">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P40">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q40">
+        <v>1.8</v>
+      </c>
+      <c r="R40">
+        <v>2.05</v>
+      </c>
+      <c r="S40">
+        <v>2.25</v>
+      </c>
+      <c r="T40">
+        <v>1.825</v>
+      </c>
+      <c r="U40">
         <v>2.025</v>
       </c>
-      <c r="R40">
-        <v>1.775</v>
-      </c>
-      <c r="S40">
-        <v>2.5</v>
-      </c>
-      <c r="T40">
-        <v>1.975</v>
-      </c>
-      <c r="U40">
-        <v>1.825</v>
-      </c>
       <c r="V40">
         <v>-1</v>
       </c>
       <c r="W40">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z40">
-        <v>0.7749999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA40">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB40">
         <v>-1</v>
@@ -3964,16 +3949,16 @@
         <v>6848598</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -3982,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J41">
         <v>2</v>
@@ -4050,16 +4035,16 @@
         <v>6848519</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4068,7 +4053,7 @@
         <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J42">
         <v>2.75</v>
@@ -4136,16 +4121,16 @@
         <v>6848520</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4154,7 +4139,7 @@
         <v>4</v>
       </c>
       <c r="I43" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J43">
         <v>2.2</v>
@@ -4222,16 +4207,16 @@
         <v>6848517</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4240,7 +4225,7 @@
         <v>4</v>
       </c>
       <c r="I44" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J44">
         <v>4</v>
@@ -4308,16 +4293,16 @@
         <v>6848521</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -4326,7 +4311,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J45">
         <v>1.8</v>
@@ -4394,16 +4379,16 @@
         <v>6848522</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -4412,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J46">
         <v>2.1</v>
@@ -4480,25 +4465,25 @@
         <v>6848525</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F47" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
         <v>40</v>
-      </c>
-      <c r="G47">
-        <v>2</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47" t="s">
-        <v>45</v>
       </c>
       <c r="J47">
         <v>2.6</v>
@@ -4566,16 +4551,16 @@
         <v>7352180</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45223.65625</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4584,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -4652,16 +4637,16 @@
         <v>6848599</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45234.5</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -4670,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J49">
         <v>1.8</v>
@@ -4735,52 +4720,52 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6848527</v>
+        <v>6848528</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45234.5</v>
       </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J50">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="K50">
+        <v>3.6</v>
+      </c>
+      <c r="L50">
+        <v>2.1</v>
+      </c>
+      <c r="M50">
         <v>3.4</v>
       </c>
-      <c r="L50">
-        <v>3.6</v>
-      </c>
-      <c r="M50">
-        <v>1.666</v>
-      </c>
       <c r="N50">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O50">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="P50">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q50">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R50">
         <v>1.875</v>
@@ -4789,31 +4774,31 @@
         <v>2.75</v>
       </c>
       <c r="T50">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U50">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V50">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y50">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA50">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -4821,52 +4806,52 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6848528</v>
+        <v>6848527</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45234.5</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
         <v>1</v>
       </c>
-      <c r="H51">
-        <v>2</v>
-      </c>
       <c r="I51" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J51">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="K51">
+        <v>3.4</v>
+      </c>
+      <c r="L51">
         <v>3.6</v>
       </c>
-      <c r="L51">
-        <v>2.1</v>
-      </c>
       <c r="M51">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="N51">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O51">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="P51">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q51">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R51">
         <v>1.875</v>
@@ -4875,31 +4860,31 @@
         <v>2.75</v>
       </c>
       <c r="T51">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V51">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -4910,16 +4895,16 @@
         <v>6848526</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45234.5</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4928,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J52">
         <v>1.85</v>
@@ -4996,16 +4981,16 @@
         <v>6848529</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45234.5</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5014,7 +4999,7 @@
         <v>3</v>
       </c>
       <c r="I53" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J53">
         <v>2.55</v>
@@ -5082,16 +5067,16 @@
         <v>6848531</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45241.5</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5100,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J54">
         <v>3.3</v>
@@ -5168,16 +5153,16 @@
         <v>6848532</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45241.5</v>
       </c>
       <c r="E55" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5186,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J55">
         <v>1.909</v>
@@ -5254,16 +5239,16 @@
         <v>6848530</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45241.5</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5272,7 +5257,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J56">
         <v>3.25</v>
@@ -5340,16 +5325,16 @@
         <v>6848533</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45241.5</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5358,7 +5343,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J57">
         <v>1.727</v>
@@ -5426,16 +5411,16 @@
         <v>6848534</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45241.5</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5444,7 +5429,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J58">
         <v>2.2</v>
@@ -5512,16 +5497,16 @@
         <v>7394170</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45244.69791666666</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5530,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J59">
         <v>2.3</v>
@@ -5598,16 +5583,16 @@
         <v>6848538</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45248.5</v>
       </c>
       <c r="E60" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5616,7 +5601,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J60">
         <v>2.5</v>
@@ -5681,85 +5666,85 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6848537</v>
+        <v>6848536</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45248.5</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I61" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J61">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="K61">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="L61">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="M61">
+        <v>2.7</v>
+      </c>
+      <c r="N61">
+        <v>3.5</v>
+      </c>
+      <c r="O61">
+        <v>2.4</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>1.95</v>
+      </c>
+      <c r="R61">
+        <v>1.85</v>
+      </c>
+      <c r="S61">
+        <v>2.5</v>
+      </c>
+      <c r="T61">
+        <v>1.95</v>
+      </c>
+      <c r="U61">
+        <v>1.85</v>
+      </c>
+      <c r="V61">
+        <v>-1</v>
+      </c>
+      <c r="W61">
+        <v>-1</v>
+      </c>
+      <c r="X61">
         <v>1.4</v>
       </c>
-      <c r="N61">
-        <v>4.75</v>
-      </c>
-      <c r="O61">
-        <v>7</v>
-      </c>
-      <c r="P61">
-        <v>-1.25</v>
-      </c>
-      <c r="Q61">
-        <v>1.85</v>
-      </c>
-      <c r="R61">
-        <v>1.95</v>
-      </c>
-      <c r="S61">
-        <v>2.75</v>
-      </c>
-      <c r="T61">
-        <v>1.8</v>
-      </c>
-      <c r="U61">
-        <v>2</v>
-      </c>
-      <c r="V61">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="W61">
-        <v>-1</v>
-      </c>
-      <c r="X61">
-        <v>-1</v>
-      </c>
       <c r="Y61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB61">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:28">
@@ -5767,55 +5752,55 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6848536</v>
+        <v>6848535</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45248.5</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J62">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="K62">
         <v>3.6</v>
       </c>
       <c r="L62">
+        <v>3.3</v>
+      </c>
+      <c r="M62">
+        <v>2.45</v>
+      </c>
+      <c r="N62">
+        <v>3.4</v>
+      </c>
+      <c r="O62">
         <v>2.7</v>
       </c>
-      <c r="M62">
-        <v>2.7</v>
-      </c>
-      <c r="N62">
-        <v>3.5</v>
-      </c>
-      <c r="O62">
-        <v>2.4</v>
-      </c>
       <c r="P62">
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="R62">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S62">
         <v>2.5</v>
@@ -5833,19 +5818,19 @@
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
+        <v>1.025</v>
+      </c>
+      <c r="AA62">
+        <v>-1</v>
+      </c>
+      <c r="AB62">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA62">
-        <v>0.95</v>
-      </c>
-      <c r="AB62">
-        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:28">
@@ -5853,58 +5838,58 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6848535</v>
+        <v>6848539</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45248.5</v>
       </c>
       <c r="E63" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J63">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="K63">
         <v>3.6</v>
       </c>
       <c r="L63">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M63">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N63">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O63">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q63">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="R63">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S63">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T63">
         <v>1.95</v>
@@ -5919,19 +5904,19 @@
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB63">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -5939,85 +5924,85 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6848539</v>
+        <v>6848537</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45248.5</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G64">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J64">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="K64">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="L64">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="M64">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="N64">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="O64">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P64">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q64">
+        <v>1.85</v>
+      </c>
+      <c r="R64">
         <v>1.95</v>
-      </c>
-      <c r="R64">
-        <v>1.85</v>
       </c>
       <c r="S64">
         <v>2.75</v>
       </c>
       <c r="T64">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U64">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V64">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z64">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AA64">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6028,16 +6013,16 @@
         <v>7396254</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45251.69791666666</v>
       </c>
       <c r="E65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" t="s">
         <v>35</v>
-      </c>
-      <c r="F65" t="s">
-        <v>42</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6046,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J65">
         <v>2.4</v>
@@ -6114,16 +6099,16 @@
         <v>7451460</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45251.69791666666</v>
       </c>
       <c r="E66" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G66">
         <v>4</v>
@@ -6132,7 +6117,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J66">
         <v>2.2</v>
@@ -6200,16 +6185,16 @@
         <v>6848542</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45262.5</v>
       </c>
       <c r="E67" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6218,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J67">
         <v>2.25</v>
@@ -6286,16 +6271,16 @@
         <v>6848544</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45262.5</v>
       </c>
       <c r="E68" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6304,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J68">
         <v>1.8</v>
@@ -6372,16 +6357,16 @@
         <v>6848545</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45269.5</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6390,7 +6375,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J69">
         <v>2.25</v>
@@ -6458,25 +6443,25 @@
         <v>6848546</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45269.5</v>
       </c>
       <c r="E70" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F70" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70" t="s">
         <v>38</v>
-      </c>
-      <c r="G70">
-        <v>2</v>
-      </c>
-      <c r="H70">
-        <v>2</v>
-      </c>
-      <c r="I70" t="s">
-        <v>43</v>
       </c>
       <c r="J70">
         <v>2.5</v>
@@ -6544,16 +6529,16 @@
         <v>6848547</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45269.5</v>
       </c>
       <c r="E71" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6562,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J71">
         <v>2.1</v>
@@ -6630,16 +6615,16 @@
         <v>6848548</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45269.5</v>
       </c>
       <c r="E72" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G72">
         <v>4</v>
@@ -6648,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J72">
         <v>2.1</v>
@@ -6716,16 +6701,16 @@
         <v>6848549</v>
       </c>
       <c r="C73" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45269.5</v>
       </c>
       <c r="E73" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6734,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J73">
         <v>1.8</v>
@@ -6802,16 +6787,16 @@
         <v>6848553</v>
       </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45276.5</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6820,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J74">
         <v>1.5</v>
@@ -6888,16 +6873,16 @@
         <v>6848552</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45276.5</v>
       </c>
       <c r="E75" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -6906,7 +6891,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J75">
         <v>1.5</v>
@@ -6974,16 +6959,16 @@
         <v>6848600</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45276.5</v>
       </c>
       <c r="E76" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -6992,7 +6977,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J76">
         <v>2.1</v>
@@ -7060,16 +7045,16 @@
         <v>6848551</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45276.5</v>
       </c>
       <c r="E77" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7078,7 +7063,7 @@
         <v>4</v>
       </c>
       <c r="I77" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J77">
         <v>2.8</v>
@@ -7146,16 +7131,16 @@
         <v>6848550</v>
       </c>
       <c r="C78" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45276.5</v>
       </c>
       <c r="E78" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7164,7 +7149,7 @@
         <v>4</v>
       </c>
       <c r="I78" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J78">
         <v>2.7</v>
@@ -7232,16 +7217,16 @@
         <v>6848555</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45282.6875</v>
       </c>
       <c r="E79" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7250,7 +7235,7 @@
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J79">
         <v>1.909</v>
@@ -7318,16 +7303,16 @@
         <v>6848558</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45283.5</v>
       </c>
       <c r="E80" t="s">
+        <v>28</v>
+      </c>
+      <c r="F80" t="s">
         <v>33</v>
-      </c>
-      <c r="F80" t="s">
-        <v>38</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7336,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J80">
         <v>1.727</v>
@@ -7401,85 +7386,85 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6848557</v>
+        <v>6848554</v>
       </c>
       <c r="C81" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45283.5</v>
       </c>
       <c r="E81" t="s">
+        <v>37</v>
+      </c>
+      <c r="F81" t="s">
         <v>36</v>
       </c>
-      <c r="F81" t="s">
-        <v>35</v>
-      </c>
       <c r="G81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I81" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J81">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="K81">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="L81">
         <v>6.5</v>
       </c>
       <c r="M81">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="N81">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="O81">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P81">
         <v>-1.25</v>
       </c>
       <c r="Q81">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R81">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S81">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T81">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U81">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB81">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -7490,16 +7475,16 @@
         <v>6848556</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45283.5</v>
       </c>
       <c r="E82" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7508,7 +7493,7 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J82">
         <v>1.571</v>
@@ -7573,85 +7558,85 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6848554</v>
+        <v>6848557</v>
       </c>
       <c r="C83" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45283.5</v>
       </c>
       <c r="E83" t="s">
+        <v>31</v>
+      </c>
+      <c r="F83" t="s">
+        <v>30</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83" t="s">
         <v>40</v>
       </c>
-      <c r="F83" t="s">
-        <v>41</v>
-      </c>
-      <c r="G83">
-        <v>4</v>
-      </c>
-      <c r="H83">
-        <v>4</v>
-      </c>
-      <c r="I83" t="s">
-        <v>43</v>
-      </c>
       <c r="J83">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="K83">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="L83">
         <v>6.5</v>
       </c>
       <c r="M83">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="N83">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="O83">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P83">
         <v>-1.25</v>
       </c>
       <c r="Q83">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R83">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S83">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T83">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V83">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W83">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z83">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7662,16 +7647,16 @@
         <v>6848561</v>
       </c>
       <c r="C84" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45290.5</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7680,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J84">
         <v>3.75</v>
@@ -7748,16 +7733,16 @@
         <v>6848560</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45290.5</v>
       </c>
       <c r="E85" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7766,7 +7751,7 @@
         <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J85">
         <v>4.333</v>
@@ -7834,16 +7819,16 @@
         <v>6848562</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45290.5</v>
       </c>
       <c r="E86" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7852,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J86">
         <v>2.35</v>
@@ -7920,16 +7905,16 @@
         <v>6848563</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45297.5</v>
       </c>
       <c r="E87" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G87">
         <v>3</v>
@@ -7938,7 +7923,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J87">
         <v>2.5</v>
@@ -8003,85 +7988,85 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6848565</v>
+        <v>6848566</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45297.5</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J88">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="K88">
         <v>3.75</v>
       </c>
       <c r="L88">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="M88">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N88">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O88">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q88">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="R88">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S88">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T88">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U88">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V88">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y88">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA88">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8089,85 +8074,85 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6848566</v>
+        <v>6848565</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45297.5</v>
       </c>
       <c r="E89" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F89" t="s">
         <v>33</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J89">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="K89">
         <v>3.75</v>
       </c>
       <c r="L89">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="M89">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N89">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O89">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="P89">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q89">
+        <v>2.05</v>
+      </c>
+      <c r="R89">
+        <v>1.75</v>
+      </c>
+      <c r="S89">
+        <v>2.25</v>
+      </c>
+      <c r="T89">
+        <v>2.025</v>
+      </c>
+      <c r="U89">
+        <v>1.775</v>
+      </c>
+      <c r="V89">
         <v>1.875</v>
       </c>
-      <c r="R89">
-        <v>1.975</v>
-      </c>
-      <c r="S89">
-        <v>2.75</v>
-      </c>
-      <c r="T89">
-        <v>1.925</v>
-      </c>
-      <c r="U89">
-        <v>1.925</v>
-      </c>
-      <c r="V89">
-        <v>-1</v>
-      </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB89">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8178,16 +8163,16 @@
         <v>6848564</v>
       </c>
       <c r="C90" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45297.5</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8196,7 +8181,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J90">
         <v>1.666</v>
@@ -8264,16 +8249,16 @@
         <v>6848567</v>
       </c>
       <c r="C91" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45297.5</v>
       </c>
       <c r="E91" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8282,7 +8267,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J91">
         <v>1.533</v>
@@ -8350,16 +8335,16 @@
         <v>7564815</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45300.69791666666</v>
       </c>
       <c r="E92" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G92">
         <v>3</v>
@@ -8368,7 +8353,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J92">
         <v>2.3</v>
@@ -8436,16 +8421,16 @@
         <v>6848568</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45304.5</v>
       </c>
       <c r="E93" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8454,7 +8439,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J93">
         <v>1.727</v>
@@ -8522,16 +8507,16 @@
         <v>6848569</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45304.5</v>
       </c>
       <c r="E94" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8540,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J94">
         <v>1.909</v>
@@ -8608,16 +8593,16 @@
         <v>6848570</v>
       </c>
       <c r="C95" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45304.5</v>
       </c>
       <c r="E95" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8626,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J95">
         <v>2.875</v>
@@ -8694,16 +8679,16 @@
         <v>6848602</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45304.5</v>
       </c>
       <c r="E96" t="s">
+        <v>32</v>
+      </c>
+      <c r="F96" t="s">
         <v>37</v>
-      </c>
-      <c r="F96" t="s">
-        <v>40</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8712,7 +8697,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J96">
         <v>2.75</v>
@@ -8780,16 +8765,16 @@
         <v>6848571</v>
       </c>
       <c r="C97" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45304.5</v>
       </c>
       <c r="E97" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8798,7 +8783,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J97">
         <v>2.5</v>
@@ -8863,85 +8848,85 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6848575</v>
+        <v>6848576</v>
       </c>
       <c r="C98" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45311.5</v>
       </c>
       <c r="E98" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J98">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="K98">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="L98">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="M98">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="N98">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="O98">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="P98">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q98">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R98">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S98">
         <v>2.5</v>
       </c>
       <c r="T98">
+        <v>1.825</v>
+      </c>
+      <c r="U98">
         <v>1.975</v>
       </c>
-      <c r="U98">
-        <v>1.825</v>
-      </c>
       <c r="V98">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W98">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA98">
+        <v>-1</v>
+      </c>
+      <c r="AB98">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB98">
-        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -8949,85 +8934,85 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6848576</v>
+        <v>6848575</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45311.5</v>
       </c>
       <c r="E99" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F99" t="s">
+        <v>34</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99" t="s">
         <v>38</v>
       </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99" t="s">
-        <v>45</v>
-      </c>
       <c r="J99">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="K99">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="L99">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="M99">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="N99">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="O99">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="P99">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R99">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S99">
         <v>2.5</v>
       </c>
       <c r="T99">
+        <v>1.975</v>
+      </c>
+      <c r="U99">
         <v>1.825</v>
       </c>
-      <c r="U99">
-        <v>1.975</v>
-      </c>
       <c r="V99">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z99">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB99">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9038,16 +9023,16 @@
         <v>6848577</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45318.45833333334</v>
       </c>
       <c r="E100" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9056,7 +9041,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J100">
         <v>3.25</v>
@@ -9121,49 +9106,49 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6848580</v>
+        <v>6848581</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45318.5</v>
       </c>
       <c r="E101" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J101">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="K101">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L101">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="M101">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="N101">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O101">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P101">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -9175,19 +9160,19 @@
         <v>2.5</v>
       </c>
       <c r="T101">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U101">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
         <v>-1</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X101">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
@@ -9199,7 +9184,7 @@
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -9207,85 +9192,85 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6848578</v>
+        <v>6848579</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45318.5</v>
       </c>
       <c r="E102" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J102">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K102">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L102">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="M102">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="N102">
         <v>3.4</v>
       </c>
       <c r="O102">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="P102">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q102">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R102">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S102">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T102">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V102">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="W102">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Z102">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB102">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9293,85 +9278,85 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6848579</v>
+        <v>6848578</v>
       </c>
       <c r="C103" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45318.5</v>
       </c>
       <c r="E103" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J103">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K103">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L103">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="M103">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="N103">
         <v>3.4</v>
       </c>
       <c r="O103">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="P103">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q103">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S103">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T103">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9379,10 +9364,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6848581</v>
+        <v>6848580</v>
       </c>
       <c r="C104" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45318.5</v>
@@ -9391,37 +9376,37 @@
         <v>33</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J104">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="K104">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L104">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="M104">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="N104">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O104">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P104">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q104">
         <v>2</v>
@@ -9433,19 +9418,19 @@
         <v>2.5</v>
       </c>
       <c r="T104">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U104">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V104">
         <v>-1</v>
       </c>
       <c r="W104">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y104">
         <v>-1</v>
@@ -9457,7 +9442,7 @@
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9468,16 +9453,16 @@
         <v>7615754</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45321.69791666666</v>
       </c>
       <c r="E105" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9486,7 +9471,7 @@
         <v>3</v>
       </c>
       <c r="I105" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J105">
         <v>2.4</v>
@@ -9554,16 +9539,16 @@
         <v>7572918</v>
       </c>
       <c r="C106" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45321.69791666666</v>
       </c>
       <c r="E106" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9572,7 +9557,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J106">
         <v>1.727</v>
@@ -9640,16 +9625,16 @@
         <v>6848583</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45325.5</v>
       </c>
       <c r="E107" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9658,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J107">
         <v>2.25</v>
@@ -9726,16 +9711,16 @@
         <v>6848582</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45325.5</v>
       </c>
       <c r="E108" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9744,7 +9729,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J108">
         <v>4</v>
@@ -9812,16 +9797,16 @@
         <v>6848585</v>
       </c>
       <c r="C109" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45325.5</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9830,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J109">
         <v>1.615</v>
@@ -9898,25 +9883,25 @@
         <v>6848603</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45325.5</v>
       </c>
       <c r="E110" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F110" t="s">
+        <v>33</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110" t="s">
         <v>38</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110" t="s">
-        <v>43</v>
       </c>
       <c r="J110">
         <v>2</v>
@@ -9984,16 +9969,16 @@
         <v>6848584</v>
       </c>
       <c r="C111" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45325.5</v>
       </c>
       <c r="E111" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10002,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J111">
         <v>2.7</v>
@@ -10070,16 +10055,16 @@
         <v>7615753</v>
       </c>
       <c r="C112" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45328.69791666666</v>
       </c>
       <c r="E112" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10088,7 +10073,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J112">
         <v>1.4</v>
@@ -10156,16 +10141,16 @@
         <v>6848589</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45332.5</v>
       </c>
       <c r="E113" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10174,7 +10159,7 @@
         <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J113">
         <v>1.3</v>
@@ -10242,16 +10227,16 @@
         <v>6848588</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45332.5</v>
       </c>
       <c r="E114" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10260,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J114">
         <v>1.615</v>
@@ -10325,85 +10310,85 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6848586</v>
+        <v>6848587</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45332.5</v>
       </c>
       <c r="E115" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J115">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="K115">
+        <v>3.4</v>
+      </c>
+      <c r="L115">
+        <v>1.909</v>
+      </c>
+      <c r="M115">
         <v>3.75</v>
       </c>
-      <c r="L115">
-        <v>4.333</v>
-      </c>
-      <c r="M115">
-        <v>1.7</v>
-      </c>
       <c r="N115">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O115">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="P115">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q115">
+        <v>1.825</v>
+      </c>
+      <c r="R115">
         <v>1.975</v>
       </c>
-      <c r="R115">
-        <v>1.825</v>
-      </c>
       <c r="S115">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U115">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V115">
         <v>-1</v>
       </c>
       <c r="W115">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z115">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10411,85 +10396,85 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6848587</v>
+        <v>6848586</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45332.5</v>
       </c>
       <c r="E116" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G116">
+        <v>2</v>
+      </c>
+      <c r="H116">
+        <v>2</v>
+      </c>
+      <c r="I116" t="s">
+        <v>38</v>
+      </c>
+      <c r="J116">
+        <v>1.615</v>
+      </c>
+      <c r="K116">
+        <v>3.75</v>
+      </c>
+      <c r="L116">
+        <v>4.333</v>
+      </c>
+      <c r="M116">
+        <v>1.7</v>
+      </c>
+      <c r="N116">
+        <v>3.6</v>
+      </c>
+      <c r="O116">
+        <v>4</v>
+      </c>
+      <c r="P116">
+        <v>-0.75</v>
+      </c>
+      <c r="Q116">
+        <v>1.975</v>
+      </c>
+      <c r="R116">
+        <v>1.825</v>
+      </c>
+      <c r="S116">
+        <v>2.75</v>
+      </c>
+      <c r="T116">
+        <v>2</v>
+      </c>
+      <c r="U116">
+        <v>1.8</v>
+      </c>
+      <c r="V116">
+        <v>-1</v>
+      </c>
+      <c r="W116">
+        <v>2.6</v>
+      </c>
+      <c r="X116">
+        <v>-1</v>
+      </c>
+      <c r="Y116">
+        <v>-1</v>
+      </c>
+      <c r="Z116">
+        <v>0.825</v>
+      </c>
+      <c r="AA116">
         <v>1</v>
       </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
-      <c r="I116" t="s">
-        <v>43</v>
-      </c>
-      <c r="J116">
-        <v>3.4</v>
-      </c>
-      <c r="K116">
-        <v>3.4</v>
-      </c>
-      <c r="L116">
-        <v>1.909</v>
-      </c>
-      <c r="M116">
-        <v>3.75</v>
-      </c>
-      <c r="N116">
-        <v>3.2</v>
-      </c>
-      <c r="O116">
-        <v>1.95</v>
-      </c>
-      <c r="P116">
-        <v>0.5</v>
-      </c>
-      <c r="Q116">
-        <v>1.825</v>
-      </c>
-      <c r="R116">
-        <v>1.975</v>
-      </c>
-      <c r="S116">
-        <v>2.5</v>
-      </c>
-      <c r="T116">
-        <v>1.875</v>
-      </c>
-      <c r="U116">
-        <v>1.925</v>
-      </c>
-      <c r="V116">
-        <v>-1</v>
-      </c>
-      <c r="W116">
-        <v>2.2</v>
-      </c>
-      <c r="X116">
-        <v>-1</v>
-      </c>
-      <c r="Y116">
-        <v>0.825</v>
-      </c>
-      <c r="Z116">
-        <v>-1</v>
-      </c>
-      <c r="AA116">
-        <v>-1</v>
-      </c>
       <c r="AB116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10500,16 +10485,16 @@
         <v>7565354</v>
       </c>
       <c r="C117" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45335.69791666666</v>
       </c>
       <c r="E117" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10518,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J117">
         <v>2.1</v>
@@ -10583,85 +10568,85 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6848590</v>
+        <v>6848592</v>
       </c>
       <c r="C118" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45339.5</v>
       </c>
       <c r="E118" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J118">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="K118">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L118">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="M118">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N118">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O118">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="P118">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q118">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="R118">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S118">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T118">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V118">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10669,85 +10654,85 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6848592</v>
+        <v>6848590</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45339.5</v>
       </c>
       <c r="E119" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J119">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="K119">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L119">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="M119">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N119">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O119">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="P119">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q119">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="R119">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S119">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T119">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U119">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V119">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="W119">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z119">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -10755,85 +10740,85 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6848591</v>
+        <v>6848605</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45339.5</v>
       </c>
       <c r="E120" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J120">
-        <v>4.6</v>
+        <v>2.1</v>
       </c>
       <c r="K120">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L120">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="M120">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N120">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O120">
-        <v>1.833</v>
+        <v>3.3</v>
       </c>
       <c r="P120">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q120">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="R120">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S120">
         <v>2.25</v>
       </c>
       <c r="T120">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U120">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V120">
         <v>-1</v>
       </c>
       <c r="W120">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA120">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -10841,85 +10826,85 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6848605</v>
+        <v>6848591</v>
       </c>
       <c r="C121" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45339.5</v>
       </c>
       <c r="E121" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H121">
         <v>2</v>
       </c>
       <c r="I121" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J121">
-        <v>2.1</v>
+        <v>4.6</v>
       </c>
       <c r="K121">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L121">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="M121">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N121">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O121">
-        <v>3.3</v>
+        <v>1.833</v>
       </c>
       <c r="P121">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q121">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="R121">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S121">
         <v>2.25</v>
       </c>
       <c r="T121">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U121">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V121">
         <v>-1</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X121">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z121">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB121">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:28">
@@ -10930,16 +10915,16 @@
         <v>6848593</v>
       </c>
       <c r="C122" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45339.5</v>
       </c>
       <c r="E122" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10948,7 +10933,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J122">
         <v>2.9</v>
@@ -11016,16 +11001,16 @@
         <v>7748128</v>
       </c>
       <c r="C123" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45342.69791666666</v>
       </c>
       <c r="E123" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11034,7 +11019,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J123">
         <v>1.8</v>
@@ -11102,16 +11087,16 @@
         <v>7768375</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45342.69791666666</v>
       </c>
       <c r="E124" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11120,7 +11105,7 @@
         <v>2</v>
       </c>
       <c r="I124" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J124">
         <v>2.75</v>
@@ -11188,16 +11173,16 @@
         <v>6852274</v>
       </c>
       <c r="C125" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E125" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -11206,7 +11191,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J125">
         <v>1.615</v>
@@ -11274,16 +11259,16 @@
         <v>6852275</v>
       </c>
       <c r="C126" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45346.5</v>
       </c>
       <c r="E126" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11292,7 +11277,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J126">
         <v>1.571</v>
@@ -11360,16 +11345,16 @@
         <v>6886698</v>
       </c>
       <c r="C127" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45346.5</v>
       </c>
       <c r="E127" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11378,7 +11363,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J127">
         <v>2.1</v>
@@ -11446,16 +11431,16 @@
         <v>6848594</v>
       </c>
       <c r="C128" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45346.5</v>
       </c>
       <c r="E128" t="s">
+        <v>31</v>
+      </c>
+      <c r="F128" t="s">
         <v>36</v>
-      </c>
-      <c r="F128" t="s">
-        <v>41</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11464,7 +11449,7 @@
         <v>6</v>
       </c>
       <c r="I128" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J128">
         <v>1.363</v>
@@ -11532,16 +11517,16 @@
         <v>6848595</v>
       </c>
       <c r="C129" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45346.5</v>
       </c>
       <c r="E129" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11550,7 +11535,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J129">
         <v>2</v>
@@ -11618,16 +11603,16 @@
         <v>6920920</v>
       </c>
       <c r="C130" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45353.5</v>
       </c>
       <c r="E130" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11636,7 +11621,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J130">
         <v>2.75</v>
@@ -11704,16 +11689,16 @@
         <v>6920921</v>
       </c>
       <c r="C131" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45353.5</v>
       </c>
       <c r="E131" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11722,7 +11707,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J131">
         <v>1.833</v>
@@ -11790,16 +11775,16 @@
         <v>6920922</v>
       </c>
       <c r="C132" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45353.5</v>
       </c>
       <c r="E132" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -11808,7 +11793,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J132">
         <v>2.1</v>
@@ -11876,25 +11861,25 @@
         <v>6920923</v>
       </c>
       <c r="C133" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45353.5</v>
       </c>
       <c r="E133" t="s">
+        <v>33</v>
+      </c>
+      <c r="F133" t="s">
+        <v>35</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133" t="s">
         <v>38</v>
-      </c>
-      <c r="F133" t="s">
-        <v>42</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-      <c r="I133" t="s">
-        <v>43</v>
       </c>
       <c r="J133">
         <v>2.5</v>
@@ -11962,16 +11947,16 @@
         <v>6920924</v>
       </c>
       <c r="C134" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45353.5</v>
       </c>
       <c r="E134" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11980,7 +11965,7 @@
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J134">
         <v>1.8</v>
@@ -12048,16 +12033,16 @@
         <v>7697801</v>
       </c>
       <c r="C135" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45356.69791666666</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12066,7 +12051,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J135">
         <v>2.7</v>
@@ -12134,16 +12119,16 @@
         <v>7128584</v>
       </c>
       <c r="C136" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45356.69791666666</v>
       </c>
       <c r="E136" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G136">
         <v>5</v>
@@ -12152,7 +12137,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -12220,16 +12205,16 @@
         <v>6958739</v>
       </c>
       <c r="C137" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45360.5</v>
       </c>
       <c r="E137" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12238,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J137">
         <v>2.1</v>
@@ -12306,16 +12291,16 @@
         <v>6958740</v>
       </c>
       <c r="C138" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45360.5</v>
       </c>
       <c r="E138" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12324,7 +12309,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J138">
         <v>1.571</v>
@@ -12392,16 +12377,16 @@
         <v>6937674</v>
       </c>
       <c r="C139" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45360.5</v>
       </c>
       <c r="E139" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12410,7 +12395,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J139">
         <v>1.833</v>
@@ -12478,16 +12463,16 @@
         <v>6937090</v>
       </c>
       <c r="C140" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45360.5</v>
       </c>
       <c r="E140" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -12496,7 +12481,7 @@
         <v>2</v>
       </c>
       <c r="I140" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J140">
         <v>2.8</v>
@@ -12564,16 +12549,16 @@
         <v>6937673</v>
       </c>
       <c r="C141" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45360.5</v>
       </c>
       <c r="E141" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F141" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -12582,7 +12567,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12650,16 +12635,16 @@
         <v>6958742</v>
       </c>
       <c r="C142" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45367.5</v>
       </c>
       <c r="E142" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12668,7 +12653,7 @@
         <v>6</v>
       </c>
       <c r="I142" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J142">
         <v>2.1</v>
@@ -12736,16 +12721,16 @@
         <v>6973851</v>
       </c>
       <c r="C143" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45367.5</v>
       </c>
       <c r="E143" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12754,7 +12739,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J143">
         <v>2.4</v>
@@ -12822,16 +12807,16 @@
         <v>6973852</v>
       </c>
       <c r="C144" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45367.5</v>
       </c>
       <c r="E144" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12840,7 +12825,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J144">
         <v>2.2</v>
@@ -12908,16 +12893,16 @@
         <v>6973853</v>
       </c>
       <c r="C145" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45367.5</v>
       </c>
       <c r="E145" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12926,7 +12911,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -12994,16 +12979,16 @@
         <v>6958741</v>
       </c>
       <c r="C146" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45367.5</v>
       </c>
       <c r="E146" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13012,7 +12997,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J146">
         <v>3.4</v>
@@ -13080,16 +13065,16 @@
         <v>6994265</v>
       </c>
       <c r="C147" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45374.5</v>
       </c>
       <c r="E147" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -13098,7 +13083,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J147">
         <v>1.8</v>
@@ -13166,16 +13151,16 @@
         <v>6994264</v>
       </c>
       <c r="C148" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45374.5</v>
       </c>
       <c r="E148" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13184,7 +13169,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J148">
         <v>2.5</v>
@@ -13252,16 +13237,16 @@
         <v>6994266</v>
       </c>
       <c r="C149" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>45374.5</v>
       </c>
       <c r="E149" t="s">
+        <v>30</v>
+      </c>
+      <c r="F149" t="s">
         <v>35</v>
-      </c>
-      <c r="F149" t="s">
-        <v>42</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -13270,7 +13255,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J149">
         <v>2.6</v>
@@ -13338,25 +13323,25 @@
         <v>6979200</v>
       </c>
       <c r="C150" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2">
         <v>45374.5</v>
       </c>
       <c r="E150" t="s">
+        <v>37</v>
+      </c>
+      <c r="F150" t="s">
+        <v>32</v>
+      </c>
+      <c r="G150">
+        <v>2</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150" t="s">
         <v>40</v>
-      </c>
-      <c r="F150" t="s">
-        <v>37</v>
-      </c>
-      <c r="G150">
-        <v>2</v>
-      </c>
-      <c r="H150">
-        <v>0</v>
-      </c>
-      <c r="I150" t="s">
-        <v>45</v>
       </c>
       <c r="J150">
         <v>1.666</v>
@@ -13424,16 +13409,16 @@
         <v>6973854</v>
       </c>
       <c r="C151" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2">
         <v>45374.5</v>
       </c>
       <c r="E151" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13442,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J151">
         <v>2.1</v>
@@ -13507,85 +13492,85 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7060949</v>
+        <v>7060952</v>
       </c>
       <c r="C152" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2">
         <v>45381.5</v>
       </c>
       <c r="E152" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G152">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J152">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="K152">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L152">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M152">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N152">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O152">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P152">
+        <v>-0.25</v>
+      </c>
+      <c r="Q152">
+        <v>1.8</v>
+      </c>
+      <c r="R152">
+        <v>2</v>
+      </c>
+      <c r="S152">
+        <v>2.25</v>
+      </c>
+      <c r="T152">
+        <v>1.85</v>
+      </c>
+      <c r="U152">
+        <v>1.95</v>
+      </c>
+      <c r="V152">
+        <v>1.05</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>-1</v>
+      </c>
+      <c r="Y152">
+        <v>0.8</v>
+      </c>
+      <c r="Z152">
+        <v>-1</v>
+      </c>
+      <c r="AA152">
         <v>-0.5</v>
       </c>
-      <c r="Q152">
-        <v>1.975</v>
-      </c>
-      <c r="R152">
-        <v>1.825</v>
-      </c>
-      <c r="S152">
-        <v>2.5</v>
-      </c>
-      <c r="T152">
-        <v>2</v>
-      </c>
-      <c r="U152">
-        <v>1.8</v>
-      </c>
-      <c r="V152">
-        <v>1</v>
-      </c>
-      <c r="W152">
-        <v>-1</v>
-      </c>
-      <c r="X152">
-        <v>-1</v>
-      </c>
-      <c r="Y152">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="Z152">
-        <v>-1</v>
-      </c>
-      <c r="AA152">
-        <v>1</v>
-      </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="153" spans="1:28">
@@ -13593,10 +13578,10 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7060952</v>
+        <v>7060949</v>
       </c>
       <c r="C153" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2">
         <v>45381.5</v>
@@ -13605,55 +13590,55 @@
         <v>34</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J153">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="K153">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L153">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M153">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="N153">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O153">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P153">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q153">
+        <v>1.975</v>
+      </c>
+      <c r="R153">
+        <v>1.825</v>
+      </c>
+      <c r="S153">
+        <v>2.5</v>
+      </c>
+      <c r="T153">
+        <v>2</v>
+      </c>
+      <c r="U153">
         <v>1.8</v>
       </c>
-      <c r="R153">
-        <v>2</v>
-      </c>
-      <c r="S153">
-        <v>2.25</v>
-      </c>
-      <c r="T153">
-        <v>1.85</v>
-      </c>
-      <c r="U153">
-        <v>1.95</v>
-      </c>
       <c r="V153">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="W153">
         <v>-1</v>
@@ -13662,16 +13647,16 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB153">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -13682,16 +13667,16 @@
         <v>7060492</v>
       </c>
       <c r="C154" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2">
         <v>45381.5</v>
       </c>
       <c r="E154" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -13700,7 +13685,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J154">
         <v>2.8</v>
@@ -13768,16 +13753,16 @@
         <v>7024062</v>
       </c>
       <c r="C155" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2">
         <v>45381.5</v>
       </c>
       <c r="E155" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13786,7 +13771,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J155">
         <v>2.3</v>
@@ -13854,16 +13839,16 @@
         <v>7024063</v>
       </c>
       <c r="C156" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2">
         <v>45381.5</v>
       </c>
       <c r="E156" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13872,7 +13857,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J156">
         <v>1.909</v>
@@ -13940,16 +13925,16 @@
         <v>7060950</v>
       </c>
       <c r="C157" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E157" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G157">
         <v>2</v>
@@ -13958,7 +13943,7 @@
         <v>2</v>
       </c>
       <c r="I157" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J157">
         <v>3.6</v>
@@ -14026,16 +14011,16 @@
         <v>7060953</v>
       </c>
       <c r="C158" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E158" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -14044,7 +14029,7 @@
         <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J158">
         <v>3.5</v>
@@ -14109,85 +14094,85 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7075090</v>
+        <v>7075091</v>
       </c>
       <c r="C159" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E159" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J159">
+        <v>2.875</v>
+      </c>
+      <c r="K159">
+        <v>3.3</v>
+      </c>
+      <c r="L159">
+        <v>2.25</v>
+      </c>
+      <c r="M159">
+        <v>3</v>
+      </c>
+      <c r="N159">
+        <v>3.25</v>
+      </c>
+      <c r="O159">
         <v>2.2</v>
       </c>
-      <c r="K159">
-        <v>3.4</v>
-      </c>
-      <c r="L159">
-        <v>2.875</v>
-      </c>
-      <c r="M159">
-        <v>1.85</v>
-      </c>
-      <c r="N159">
-        <v>3.4</v>
-      </c>
-      <c r="O159">
-        <v>4</v>
-      </c>
       <c r="P159">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q159">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R159">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S159">
         <v>2.5</v>
       </c>
       <c r="T159">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U159">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V159">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y159">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="160" spans="1:28">
@@ -14195,85 +14180,85 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7075091</v>
+        <v>7075090</v>
       </c>
       <c r="C160" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E160" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F160" t="s">
+        <v>33</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160" t="s">
         <v>40</v>
       </c>
-      <c r="G160">
-        <v>0</v>
-      </c>
-      <c r="H160">
-        <v>2</v>
-      </c>
-      <c r="I160" t="s">
-        <v>44</v>
-      </c>
       <c r="J160">
+        <v>2.2</v>
+      </c>
+      <c r="K160">
+        <v>3.4</v>
+      </c>
+      <c r="L160">
         <v>2.875</v>
       </c>
-      <c r="K160">
-        <v>3.3</v>
-      </c>
-      <c r="L160">
-        <v>2.25</v>
-      </c>
       <c r="M160">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="N160">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O160">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="P160">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q160">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R160">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S160">
         <v>2.5</v>
       </c>
       <c r="T160">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U160">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V160">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z160">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="161" spans="1:28">
@@ -14284,16 +14269,16 @@
         <v>7075092</v>
       </c>
       <c r="C161" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E161" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -14302,7 +14287,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J161">
         <v>1.65</v>
@@ -14370,16 +14355,16 @@
         <v>7092310</v>
       </c>
       <c r="C162" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F162" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14388,7 +14373,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J162">
         <v>1.571</v>
@@ -14456,25 +14441,25 @@
         <v>7092311</v>
       </c>
       <c r="C163" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E163" t="s">
+        <v>28</v>
+      </c>
+      <c r="F163" t="s">
         <v>33</v>
       </c>
-      <c r="F163" t="s">
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163" t="s">
         <v>38</v>
-      </c>
-      <c r="G163">
-        <v>0</v>
-      </c>
-      <c r="H163">
-        <v>0</v>
-      </c>
-      <c r="I163" t="s">
-        <v>43</v>
       </c>
       <c r="J163">
         <v>1.833</v>
@@ -14542,16 +14527,16 @@
         <v>7092319</v>
       </c>
       <c r="C164" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E164" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F164" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14560,7 +14545,7 @@
         <v>4</v>
       </c>
       <c r="I164" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J164">
         <v>1.909</v>
@@ -14628,16 +14613,16 @@
         <v>7092320</v>
       </c>
       <c r="C165" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E165" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F165" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14646,7 +14631,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J165">
         <v>1.909</v>
@@ -14714,16 +14699,16 @@
         <v>7092321</v>
       </c>
       <c r="C166" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D166" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E166" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -14732,7 +14717,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J166">
         <v>1.444</v>
@@ -14800,25 +14785,25 @@
         <v>8093712</v>
       </c>
       <c r="C167" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D167" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E167" t="s">
+        <v>33</v>
+      </c>
+      <c r="F167" t="s">
+        <v>37</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167" t="s">
         <v>38</v>
-      </c>
-      <c r="F167" t="s">
-        <v>40</v>
-      </c>
-      <c r="G167">
-        <v>0</v>
-      </c>
-      <c r="H167">
-        <v>0</v>
-      </c>
-      <c r="I167" t="s">
-        <v>43</v>
       </c>
       <c r="J167">
         <v>2.25</v>
@@ -14886,16 +14871,16 @@
         <v>7157733</v>
       </c>
       <c r="C168" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D168" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E168" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -14904,7 +14889,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J168">
         <v>2.4</v>
@@ -14972,16 +14957,16 @@
         <v>7128588</v>
       </c>
       <c r="C169" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D169" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E169" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -14990,7 +14975,7 @@
         <v>1</v>
       </c>
       <c r="I169" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J169">
         <v>2.2</v>
@@ -15058,16 +15043,16 @@
         <v>7128583</v>
       </c>
       <c r="C170" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D170" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E170" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15076,7 +15061,7 @@
         <v>2</v>
       </c>
       <c r="I170" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J170">
         <v>2.1</v>
@@ -15144,16 +15129,16 @@
         <v>7128582</v>
       </c>
       <c r="C171" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D171" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E171" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F171" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15162,7 +15147,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J171">
         <v>2.75</v>
@@ -15220,331 +15205,6 @@
       </c>
       <c r="AB171">
         <v>0.8</v>
-      </c>
-    </row>
-    <row r="172" spans="1:28">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="B172" t="s">
-        <v>27</v>
-      </c>
-      <c r="C172" t="s">
-        <v>32</v>
-      </c>
-      <c r="D172" s="2">
-        <v>45409.45833333334</v>
-      </c>
-      <c r="E172" t="s">
-        <v>42</v>
-      </c>
-      <c r="F172" t="s">
-        <v>38</v>
-      </c>
-      <c r="J172">
-        <v>2.75</v>
-      </c>
-      <c r="K172">
-        <v>3.25</v>
-      </c>
-      <c r="L172">
-        <v>2.375</v>
-      </c>
-      <c r="M172">
-        <v>2.7</v>
-      </c>
-      <c r="N172">
-        <v>3.4</v>
-      </c>
-      <c r="O172">
-        <v>2.3</v>
-      </c>
-      <c r="P172">
-        <v>0</v>
-      </c>
-      <c r="Q172">
-        <v>2.1</v>
-      </c>
-      <c r="R172">
-        <v>1.775</v>
-      </c>
-      <c r="S172">
-        <v>2.25</v>
-      </c>
-      <c r="T172">
-        <v>2.025</v>
-      </c>
-      <c r="U172">
-        <v>1.825</v>
-      </c>
-      <c r="V172">
-        <v>0</v>
-      </c>
-      <c r="W172">
-        <v>0</v>
-      </c>
-      <c r="X172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:28">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173" t="s">
-        <v>28</v>
-      </c>
-      <c r="C173" t="s">
-        <v>32</v>
-      </c>
-      <c r="D173" s="2">
-        <v>45409.45833333334</v>
-      </c>
-      <c r="E173" t="s">
-        <v>36</v>
-      </c>
-      <c r="F173" t="s">
-        <v>37</v>
-      </c>
-      <c r="J173">
-        <v>2.5</v>
-      </c>
-      <c r="K173">
-        <v>3.4</v>
-      </c>
-      <c r="L173">
-        <v>2.5</v>
-      </c>
-      <c r="M173">
-        <v>2.45</v>
-      </c>
-      <c r="N173">
-        <v>3.3</v>
-      </c>
-      <c r="O173">
-        <v>2.625</v>
-      </c>
-      <c r="P173">
-        <v>0</v>
-      </c>
-      <c r="Q173">
-        <v>1.825</v>
-      </c>
-      <c r="R173">
-        <v>2.025</v>
-      </c>
-      <c r="S173">
-        <v>2.5</v>
-      </c>
-      <c r="T173">
-        <v>2</v>
-      </c>
-      <c r="U173">
-        <v>1.85</v>
-      </c>
-      <c r="V173">
-        <v>0</v>
-      </c>
-      <c r="W173">
-        <v>0</v>
-      </c>
-      <c r="X173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:28">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174" t="s">
-        <v>29</v>
-      </c>
-      <c r="C174" t="s">
-        <v>32</v>
-      </c>
-      <c r="D174" s="2">
-        <v>45409.45833333334</v>
-      </c>
-      <c r="E174" t="s">
-        <v>33</v>
-      </c>
-      <c r="F174" t="s">
-        <v>39</v>
-      </c>
-      <c r="J174">
-        <v>2.375</v>
-      </c>
-      <c r="K174">
-        <v>3.25</v>
-      </c>
-      <c r="L174">
-        <v>2.75</v>
-      </c>
-      <c r="M174">
-        <v>2.3</v>
-      </c>
-      <c r="N174">
-        <v>3.1</v>
-      </c>
-      <c r="O174">
-        <v>3</v>
-      </c>
-      <c r="P174">
-        <v>-0.25</v>
-      </c>
-      <c r="Q174">
-        <v>2.05</v>
-      </c>
-      <c r="R174">
-        <v>1.8</v>
-      </c>
-      <c r="S174">
-        <v>2.25</v>
-      </c>
-      <c r="T174">
-        <v>2.1</v>
-      </c>
-      <c r="U174">
-        <v>1.775</v>
-      </c>
-      <c r="V174">
-        <v>0</v>
-      </c>
-      <c r="W174">
-        <v>0</v>
-      </c>
-      <c r="X174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:28">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175" t="s">
-        <v>30</v>
-      </c>
-      <c r="C175" t="s">
-        <v>32</v>
-      </c>
-      <c r="D175" s="2">
-        <v>45409.45833333334</v>
-      </c>
-      <c r="E175" t="s">
-        <v>40</v>
-      </c>
-      <c r="F175" t="s">
-        <v>35</v>
-      </c>
-      <c r="J175">
-        <v>1.571</v>
-      </c>
-      <c r="K175">
-        <v>4</v>
-      </c>
-      <c r="L175">
-        <v>4.75</v>
-      </c>
-      <c r="M175">
-        <v>1.571</v>
-      </c>
-      <c r="N175">
-        <v>4</v>
-      </c>
-      <c r="O175">
-        <v>4.75</v>
-      </c>
-      <c r="P175">
-        <v>-1</v>
-      </c>
-      <c r="Q175">
-        <v>2</v>
-      </c>
-      <c r="R175">
-        <v>1.85</v>
-      </c>
-      <c r="S175">
-        <v>2.75</v>
-      </c>
-      <c r="T175">
-        <v>2.025</v>
-      </c>
-      <c r="U175">
-        <v>1.825</v>
-      </c>
-      <c r="V175">
-        <v>0</v>
-      </c>
-      <c r="W175">
-        <v>0</v>
-      </c>
-      <c r="X175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:28">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176" t="s">
-        <v>31</v>
-      </c>
-      <c r="C176" t="s">
-        <v>32</v>
-      </c>
-      <c r="D176" s="2">
-        <v>45409.45833333334</v>
-      </c>
-      <c r="E176" t="s">
-        <v>41</v>
-      </c>
-      <c r="F176" t="s">
-        <v>34</v>
-      </c>
-      <c r="J176">
-        <v>1.8</v>
-      </c>
-      <c r="K176">
-        <v>3.6</v>
-      </c>
-      <c r="L176">
-        <v>3.8</v>
-      </c>
-      <c r="M176">
-        <v>1.85</v>
-      </c>
-      <c r="N176">
-        <v>3.4</v>
-      </c>
-      <c r="O176">
-        <v>3.6</v>
-      </c>
-      <c r="P176">
-        <v>-0.5</v>
-      </c>
-      <c r="Q176">
-        <v>1.95</v>
-      </c>
-      <c r="R176">
-        <v>1.9</v>
-      </c>
-      <c r="S176">
-        <v>2.5</v>
-      </c>
-      <c r="T176">
-        <v>1.9</v>
-      </c>
-      <c r="U176">
-        <v>1.95</v>
-      </c>
-      <c r="V176">
-        <v>0</v>
-      </c>
-      <c r="W176">
-        <v>0</v>
-      </c>
-      <c r="X176">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Scotland League Two/Scotland League Two.xlsx
+++ b/Scotland League Two/Scotland League Two.xlsx
@@ -1882,7 +1882,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6848496</v>
+        <v>6848495</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -1891,76 +1891,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J17">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="K17">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L17">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="M17">
+        <v>2.625</v>
+      </c>
+      <c r="N17">
+        <v>3.2</v>
+      </c>
+      <c r="O17">
+        <v>2.4</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
         <v>1.8</v>
-      </c>
-      <c r="N17">
-        <v>3.6</v>
-      </c>
-      <c r="O17">
-        <v>3.6</v>
-      </c>
-      <c r="P17">
-        <v>-0.5</v>
-      </c>
-      <c r="Q17">
-        <v>1.825</v>
-      </c>
-      <c r="R17">
-        <v>1.975</v>
       </c>
       <c r="S17">
         <v>2.75</v>
       </c>
       <c r="T17">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U17">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V17">
+        <v>-1</v>
+      </c>
+      <c r="W17">
+        <v>-1</v>
+      </c>
+      <c r="X17">
+        <v>1.4</v>
+      </c>
+      <c r="Y17">
+        <v>-1</v>
+      </c>
+      <c r="Z17">
         <v>0.8</v>
       </c>
-      <c r="W17">
-        <v>-1</v>
-      </c>
-      <c r="X17">
-        <v>-1</v>
-      </c>
-      <c r="Y17">
-        <v>0.825</v>
-      </c>
-      <c r="Z17">
-        <v>-1</v>
-      </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB17">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -2054,7 +2054,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6848495</v>
+        <v>6848496</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -2063,76 +2063,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J19">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="K19">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L19">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="M19">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="N19">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O19">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R19">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S19">
         <v>2.75</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U19">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V19">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z19">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2828,7 +2828,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6848502</v>
+        <v>6848505</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -2837,58 +2837,58 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G28">
         <v>2</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="s">
         <v>40</v>
       </c>
       <c r="J28">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="K28">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M28">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="N28">
         <v>3.5</v>
       </c>
       <c r="O28">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P28">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q28">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R28">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S28">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T28">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="W28">
         <v>-1</v>
@@ -2897,16 +2897,16 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB28">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2914,7 +2914,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6848503</v>
+        <v>6848502</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -2923,10 +2923,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2938,61 +2938,61 @@
         <v>40</v>
       </c>
       <c r="J29">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="K29">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L29">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N29">
         <v>3.5</v>
       </c>
       <c r="O29">
+        <v>4</v>
+      </c>
+      <c r="P29">
+        <v>-0.5</v>
+      </c>
+      <c r="Q29">
         <v>1.85</v>
       </c>
-      <c r="P29">
+      <c r="R29">
+        <v>1.95</v>
+      </c>
+      <c r="S29">
+        <v>2.25</v>
+      </c>
+      <c r="T29">
+        <v>1.8</v>
+      </c>
+      <c r="U29">
+        <v>2</v>
+      </c>
+      <c r="V29">
+        <v>0.909</v>
+      </c>
+      <c r="W29">
+        <v>-1</v>
+      </c>
+      <c r="X29">
+        <v>-1</v>
+      </c>
+      <c r="Y29">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z29">
+        <v>-1</v>
+      </c>
+      <c r="AA29">
+        <v>-0.5</v>
+      </c>
+      <c r="AB29">
         <v>0.5</v>
-      </c>
-      <c r="Q29">
-        <v>1.95</v>
-      </c>
-      <c r="R29">
-        <v>1.85</v>
-      </c>
-      <c r="S29">
-        <v>2.5</v>
-      </c>
-      <c r="T29">
-        <v>1.85</v>
-      </c>
-      <c r="U29">
-        <v>1.95</v>
-      </c>
-      <c r="V29">
-        <v>3</v>
-      </c>
-      <c r="W29">
-        <v>-1</v>
-      </c>
-      <c r="X29">
-        <v>-1</v>
-      </c>
-      <c r="Y29">
-        <v>0.95</v>
-      </c>
-      <c r="Z29">
-        <v>-1</v>
-      </c>
-      <c r="AA29">
-        <v>-1</v>
-      </c>
-      <c r="AB29">
-        <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3000,7 +3000,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6848504</v>
+        <v>6848503</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -3009,76 +3009,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J30">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="K30">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L30">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="M30">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N30">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O30">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="P30">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q30">
+        <v>1.95</v>
+      </c>
+      <c r="R30">
         <v>1.85</v>
       </c>
-      <c r="R30">
+      <c r="S30">
+        <v>2.5</v>
+      </c>
+      <c r="T30">
+        <v>1.85</v>
+      </c>
+      <c r="U30">
         <v>1.95</v>
       </c>
-      <c r="S30">
-        <v>2.25</v>
-      </c>
-      <c r="T30">
-        <v>1.875</v>
-      </c>
-      <c r="U30">
-        <v>1.925</v>
-      </c>
       <c r="V30">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="W30">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="Z30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3086,7 +3086,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6848505</v>
+        <v>6848504</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
@@ -3095,73 +3095,73 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G31">
         <v>2</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J31">
+        <v>2.875</v>
+      </c>
+      <c r="K31">
+        <v>3.25</v>
+      </c>
+      <c r="L31">
+        <v>2.3</v>
+      </c>
+      <c r="M31">
+        <v>3.1</v>
+      </c>
+      <c r="N31">
+        <v>3.4</v>
+      </c>
+      <c r="O31">
         <v>2.25</v>
       </c>
-      <c r="K31">
-        <v>3.3</v>
-      </c>
-      <c r="L31">
-        <v>2.9</v>
-      </c>
-      <c r="M31">
-        <v>2.375</v>
-      </c>
-      <c r="N31">
-        <v>3.5</v>
-      </c>
-      <c r="O31">
-        <v>2.8</v>
-      </c>
       <c r="P31">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q31">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="R31">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S31">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T31">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U31">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA31">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB31">
         <v>-1</v>
@@ -3774,7 +3774,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6848514</v>
+        <v>6848513</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -3783,73 +3783,73 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J39">
+        <v>1.8</v>
+      </c>
+      <c r="K39">
+        <v>3.6</v>
+      </c>
+      <c r="L39">
+        <v>4.333</v>
+      </c>
+      <c r="M39">
         <v>1.666</v>
-      </c>
-      <c r="K39">
-        <v>3.75</v>
-      </c>
-      <c r="L39">
-        <v>5</v>
-      </c>
-      <c r="M39">
-        <v>1.6</v>
       </c>
       <c r="N39">
         <v>3.8</v>
       </c>
       <c r="O39">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P39">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q39">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="R39">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T39">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U39">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V39">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W39">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z39">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB39">
         <v>-1</v>
@@ -3860,7 +3860,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6848513</v>
+        <v>6848512</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -3869,76 +3869,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J40">
+        <v>2.375</v>
+      </c>
+      <c r="K40">
+        <v>3.2</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <v>2.375</v>
+      </c>
+      <c r="N40">
+        <v>3.1</v>
+      </c>
+      <c r="O40">
+        <v>3.2</v>
+      </c>
+      <c r="P40">
+        <v>-0.25</v>
+      </c>
+      <c r="Q40">
+        <v>2</v>
+      </c>
+      <c r="R40">
         <v>1.8</v>
       </c>
-      <c r="K40">
-        <v>3.6</v>
-      </c>
-      <c r="L40">
-        <v>4.333</v>
-      </c>
-      <c r="M40">
-        <v>1.666</v>
-      </c>
-      <c r="N40">
-        <v>3.8</v>
-      </c>
-      <c r="O40">
-        <v>4.75</v>
-      </c>
-      <c r="P40">
-        <v>-0.75</v>
-      </c>
-      <c r="Q40">
-        <v>1.875</v>
-      </c>
-      <c r="R40">
-        <v>1.925</v>
-      </c>
       <c r="S40">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U40">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA40">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -3946,7 +3946,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6848512</v>
+        <v>6848514</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -3955,76 +3955,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="s">
         <v>38</v>
       </c>
       <c r="J41">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="K41">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M41">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="N41">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="O41">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P41">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q41">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S41">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T41">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V41">
         <v>-1</v>
       </c>
       <c r="W41">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA41">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB41">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -6784,7 +6784,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6848550</v>
+        <v>6848552</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
@@ -6793,76 +6793,76 @@
         <v>45276.5</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>40</v>
+      </c>
+      <c r="J74">
+        <v>1.5</v>
+      </c>
+      <c r="K74">
         <v>4</v>
       </c>
-      <c r="I74" t="s">
-        <v>39</v>
-      </c>
-      <c r="J74">
-        <v>2.7</v>
-      </c>
-      <c r="K74">
-        <v>3.75</v>
-      </c>
       <c r="L74">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="M74">
-        <v>4.2</v>
+        <v>1.45</v>
       </c>
       <c r="N74">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O74">
-        <v>1.65</v>
+        <v>6</v>
       </c>
       <c r="P74">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q74">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R74">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S74">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T74">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V74">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z74">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -6870,7 +6870,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6848552</v>
+        <v>6848553</v>
       </c>
       <c r="C75" t="s">
         <v>27</v>
@@ -6879,10 +6879,10 @@
         <v>45276.5</v>
       </c>
       <c r="E75" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -6903,16 +6903,16 @@
         <v>5</v>
       </c>
       <c r="M75">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="N75">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O75">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q75">
         <v>1.775</v>
@@ -6921,7 +6921,7 @@
         <v>2.025</v>
       </c>
       <c r="S75">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T75">
         <v>1.85</v>
@@ -6930,7 +6930,7 @@
         <v>1.95</v>
       </c>
       <c r="V75">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -6939,16 +6939,16 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z75">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -6956,7 +6956,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6848553</v>
+        <v>6848600</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -6965,13 +6965,13 @@
         <v>45276.5</v>
       </c>
       <c r="E76" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -6980,44 +6980,44 @@
         <v>40</v>
       </c>
       <c r="J76">
+        <v>2.1</v>
+      </c>
+      <c r="K76">
+        <v>3.75</v>
+      </c>
+      <c r="L76">
+        <v>2.7</v>
+      </c>
+      <c r="M76">
+        <v>2.5</v>
+      </c>
+      <c r="N76">
+        <v>3.4</v>
+      </c>
+      <c r="O76">
+        <v>2.45</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>1.975</v>
+      </c>
+      <c r="R76">
+        <v>1.825</v>
+      </c>
+      <c r="S76">
+        <v>2.25</v>
+      </c>
+      <c r="T76">
+        <v>1.925</v>
+      </c>
+      <c r="U76">
+        <v>1.875</v>
+      </c>
+      <c r="V76">
         <v>1.5</v>
       </c>
-      <c r="K76">
-        <v>4</v>
-      </c>
-      <c r="L76">
-        <v>5</v>
-      </c>
-      <c r="M76">
-        <v>1.75</v>
-      </c>
-      <c r="N76">
-        <v>3.6</v>
-      </c>
-      <c r="O76">
-        <v>4</v>
-      </c>
-      <c r="P76">
-        <v>-0.5</v>
-      </c>
-      <c r="Q76">
-        <v>1.775</v>
-      </c>
-      <c r="R76">
-        <v>2.025</v>
-      </c>
-      <c r="S76">
-        <v>2.5</v>
-      </c>
-      <c r="T76">
-        <v>1.85</v>
-      </c>
-      <c r="U76">
-        <v>1.95</v>
-      </c>
-      <c r="V76">
-        <v>0.75</v>
-      </c>
       <c r="W76">
         <v>-1</v>
       </c>
@@ -7025,13 +7025,13 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB76">
         <v>-1</v>
@@ -7042,7 +7042,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6848600</v>
+        <v>6848550</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7051,70 +7051,70 @@
         <v>45276.5</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J77">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="K77">
         <v>3.75</v>
       </c>
       <c r="L77">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="M77">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N77">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O77">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="P77">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q77">
         <v>1.975</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S77">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T77">
         <v>1.925</v>
       </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y77">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA77">
         <v>0.925</v>
@@ -9450,7 +9450,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7615754</v>
+        <v>7572918</v>
       </c>
       <c r="C105" t="s">
         <v>27</v>
@@ -9459,73 +9459,73 @@
         <v>45321.69791666666</v>
       </c>
       <c r="E105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105" t="s">
+        <v>40</v>
+      </c>
+      <c r="J105">
+        <v>1.727</v>
+      </c>
+      <c r="K105">
+        <v>3.75</v>
+      </c>
+      <c r="L105">
+        <v>3.75</v>
+      </c>
+      <c r="M105">
         <v>3</v>
       </c>
-      <c r="I105" t="s">
-        <v>39</v>
-      </c>
-      <c r="J105">
-        <v>2.4</v>
-      </c>
-      <c r="K105">
-        <v>3.6</v>
-      </c>
-      <c r="L105">
-        <v>2.4</v>
-      </c>
-      <c r="M105">
-        <v>2.6</v>
-      </c>
       <c r="N105">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O105">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="P105">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q105">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R105">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T105">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U105">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z105">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB105">
         <v>-1</v>
@@ -9536,7 +9536,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7572918</v>
+        <v>7615754</v>
       </c>
       <c r="C106" t="s">
         <v>27</v>
@@ -9545,73 +9545,73 @@
         <v>45321.69791666666</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J106">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="K106">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L106">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="M106">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="N106">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O106">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="P106">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R106">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S106">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T106">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V106">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y106">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA106">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AB106">
         <v>-1</v>

--- a/Scotland League Two/Scotland League Two.xlsx
+++ b/Scotland League Two/Scotland League Two.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,21 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>7223115</t>
+  </si>
+  <si>
+    <t>7223116</t>
+  </si>
+  <si>
+    <t>7223117</t>
+  </si>
+  <si>
+    <t>7223118</t>
+  </si>
+  <si>
+    <t>7223119</t>
   </si>
   <si>
     <t>Scotland League Two</t>
@@ -498,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB176"/>
+  <dimension ref="A1:AB181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,16 +610,16 @@
         <v>6848596</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -613,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J2">
         <v>2.5</v>
@@ -681,16 +696,16 @@
         <v>6848481</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -699,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -767,16 +782,16 @@
         <v>6848480</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -785,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <v>2.4</v>
@@ -853,16 +868,16 @@
         <v>6848479</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -871,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J5">
         <v>1.8</v>
@@ -939,16 +954,16 @@
         <v>6997303</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -957,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J6">
         <v>2.7</v>
@@ -1025,16 +1040,16 @@
         <v>6848487</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1043,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J7">
         <v>2.7</v>
@@ -1111,16 +1126,16 @@
         <v>6848485</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1129,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J8">
         <v>2.1</v>
@@ -1197,16 +1212,16 @@
         <v>6848484</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1215,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J9">
         <v>1.8</v>
@@ -1283,16 +1298,16 @@
         <v>6848483</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1301,7 +1316,7 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J10">
         <v>1.909</v>
@@ -1369,16 +1384,16 @@
         <v>6848486</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1387,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J11">
         <v>2.25</v>
@@ -1455,16 +1470,16 @@
         <v>6848490</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1473,7 +1488,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J12">
         <v>2.3</v>
@@ -1541,16 +1556,16 @@
         <v>6848488</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1559,7 +1574,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J13">
         <v>1.8</v>
@@ -1627,16 +1642,16 @@
         <v>6848491</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1645,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J14">
         <v>1.7</v>
@@ -1713,16 +1728,16 @@
         <v>6848597</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1731,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J15">
         <v>2.3</v>
@@ -1799,16 +1814,16 @@
         <v>6848489</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1817,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J16">
         <v>2.3</v>
@@ -1882,85 +1897,85 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6848495</v>
+        <v>6848496</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J17">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="K17">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L17">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="M17">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="N17">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O17">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
         <v>2.75</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U17">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -1971,16 +1986,16 @@
         <v>6848492</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1989,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J18">
         <v>2.2</v>
@@ -2054,85 +2069,85 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6848496</v>
+        <v>6848495</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J19">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="K19">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L19">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="M19">
+        <v>2.625</v>
+      </c>
+      <c r="N19">
+        <v>3.2</v>
+      </c>
+      <c r="O19">
+        <v>2.4</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
         <v>1.8</v>
-      </c>
-      <c r="N19">
-        <v>3.6</v>
-      </c>
-      <c r="O19">
-        <v>3.6</v>
-      </c>
-      <c r="P19">
-        <v>-0.5</v>
-      </c>
-      <c r="Q19">
-        <v>1.825</v>
-      </c>
-      <c r="R19">
-        <v>1.975</v>
       </c>
       <c r="S19">
         <v>2.75</v>
       </c>
       <c r="T19">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V19">
+        <v>-1</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>1.4</v>
+      </c>
+      <c r="Y19">
+        <v>-1</v>
+      </c>
+      <c r="Z19">
         <v>0.8</v>
       </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
-      <c r="Y19">
-        <v>0.825</v>
-      </c>
-      <c r="Z19">
-        <v>-1</v>
-      </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2143,16 +2158,16 @@
         <v>6848493</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2161,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J20">
         <v>2.25</v>
@@ -2229,16 +2244,16 @@
         <v>6848494</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
         <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>32</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2247,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J21">
         <v>2.5</v>
@@ -2315,16 +2330,16 @@
         <v>6848497</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -2333,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J22">
         <v>1.8</v>
@@ -2401,16 +2416,16 @@
         <v>6848498</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2419,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J23">
         <v>2.05</v>
@@ -2487,16 +2502,16 @@
         <v>6848500</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2505,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J24">
         <v>2.3</v>
@@ -2573,16 +2588,16 @@
         <v>6848499</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2591,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J25">
         <v>1.8</v>
@@ -2659,16 +2674,16 @@
         <v>6848501</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2677,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J26">
         <v>2.2</v>
@@ -2745,16 +2760,16 @@
         <v>6848506</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -2763,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J27">
         <v>2.15</v>
@@ -2828,67 +2843,67 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6848505</v>
+        <v>6848502</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G28">
         <v>2</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J28">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="K28">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L28">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M28">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="N28">
         <v>3.5</v>
       </c>
       <c r="O28">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P28">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q28">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="R28">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S28">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T28">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="W28">
         <v>-1</v>
@@ -2897,16 +2912,16 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2914,19 +2929,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6848502</v>
+        <v>6848503</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2935,46 +2950,46 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J29">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="K29">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="M29">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N29">
         <v>3.5</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="P29">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q29">
+        <v>1.95</v>
+      </c>
+      <c r="R29">
         <v>1.85</v>
       </c>
-      <c r="R29">
+      <c r="S29">
+        <v>2.5</v>
+      </c>
+      <c r="T29">
+        <v>1.85</v>
+      </c>
+      <c r="U29">
         <v>1.95</v>
       </c>
-      <c r="S29">
-        <v>2.25</v>
-      </c>
-      <c r="T29">
-        <v>1.8</v>
-      </c>
-      <c r="U29">
-        <v>2</v>
-      </c>
       <c r="V29">
-        <v>0.909</v>
+        <v>3</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -2983,16 +2998,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3000,85 +3015,85 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6848503</v>
+        <v>6848504</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J30">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="K30">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L30">
+        <v>2.3</v>
+      </c>
+      <c r="M30">
+        <v>3.1</v>
+      </c>
+      <c r="N30">
+        <v>3.4</v>
+      </c>
+      <c r="O30">
+        <v>2.25</v>
+      </c>
+      <c r="P30">
+        <v>0.25</v>
+      </c>
+      <c r="Q30">
+        <v>1.85</v>
+      </c>
+      <c r="R30">
+        <v>1.95</v>
+      </c>
+      <c r="S30">
+        <v>2.25</v>
+      </c>
+      <c r="T30">
+        <v>1.875</v>
+      </c>
+      <c r="U30">
+        <v>1.925</v>
+      </c>
+      <c r="V30">
+        <v>-1</v>
+      </c>
+      <c r="W30">
         <v>2.4</v>
       </c>
-      <c r="M30">
-        <v>4</v>
-      </c>
-      <c r="N30">
-        <v>3.5</v>
-      </c>
-      <c r="O30">
-        <v>1.85</v>
-      </c>
-      <c r="P30">
-        <v>0.5</v>
-      </c>
-      <c r="Q30">
-        <v>1.95</v>
-      </c>
-      <c r="R30">
-        <v>1.85</v>
-      </c>
-      <c r="S30">
-        <v>2.5</v>
-      </c>
-      <c r="T30">
-        <v>1.85</v>
-      </c>
-      <c r="U30">
-        <v>1.95</v>
-      </c>
-      <c r="V30">
-        <v>3</v>
-      </c>
-      <c r="W30">
-        <v>-1</v>
-      </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB30">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3086,82 +3101,82 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6848504</v>
+        <v>6848505</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31">
         <v>2</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J31">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="K31">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L31">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="M31">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="N31">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O31">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="P31">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q31">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R31">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S31">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T31">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U31">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W31">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB31">
         <v>-1</v>
@@ -3175,16 +3190,16 @@
         <v>6848508</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3193,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J32">
         <v>2.1</v>
@@ -3261,16 +3276,16 @@
         <v>6848509</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3279,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -3347,16 +3362,16 @@
         <v>6848510</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3365,7 +3380,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -3433,16 +3448,16 @@
         <v>6848511</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D35" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3451,7 +3466,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J35">
         <v>1.95</v>
@@ -3519,16 +3534,16 @@
         <v>6848507</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D36" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3537,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J36">
         <v>2.15</v>
@@ -3605,16 +3620,16 @@
         <v>6848598</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D37" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -3623,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -3691,16 +3706,16 @@
         <v>6848515</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3709,7 +3724,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J38">
         <v>2.2</v>
@@ -3774,82 +3789,82 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6848513</v>
+        <v>6848514</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D39" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J39">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="K39">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L39">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M39">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="N39">
         <v>3.8</v>
       </c>
       <c r="O39">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="P39">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q39">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="R39">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S39">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U39">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V39">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA39">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB39">
         <v>-1</v>
@@ -3860,85 +3875,85 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6848512</v>
+        <v>6848513</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G40">
+        <v>6</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40">
+        <v>1.8</v>
+      </c>
+      <c r="K40">
+        <v>3.6</v>
+      </c>
+      <c r="L40">
+        <v>4.333</v>
+      </c>
+      <c r="M40">
+        <v>1.666</v>
+      </c>
+      <c r="N40">
+        <v>3.8</v>
+      </c>
+      <c r="O40">
+        <v>4.75</v>
+      </c>
+      <c r="P40">
+        <v>-0.75</v>
+      </c>
+      <c r="Q40">
+        <v>1.875</v>
+      </c>
+      <c r="R40">
+        <v>1.925</v>
+      </c>
+      <c r="S40">
+        <v>2.75</v>
+      </c>
+      <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40">
+        <v>1.8</v>
+      </c>
+      <c r="V40">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="W40">
+        <v>-1</v>
+      </c>
+      <c r="X40">
+        <v>-1</v>
+      </c>
+      <c r="Y40">
+        <v>0.875</v>
+      </c>
+      <c r="Z40">
+        <v>-1</v>
+      </c>
+      <c r="AA40">
         <v>1</v>
       </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40" t="s">
-        <v>38</v>
-      </c>
-      <c r="J40">
-        <v>2.375</v>
-      </c>
-      <c r="K40">
-        <v>3.2</v>
-      </c>
-      <c r="L40">
-        <v>3</v>
-      </c>
-      <c r="M40">
-        <v>2.375</v>
-      </c>
-      <c r="N40">
-        <v>3.1</v>
-      </c>
-      <c r="O40">
-        <v>3.2</v>
-      </c>
-      <c r="P40">
-        <v>-0.25</v>
-      </c>
-      <c r="Q40">
-        <v>2</v>
-      </c>
-      <c r="R40">
-        <v>1.8</v>
-      </c>
-      <c r="S40">
-        <v>2.25</v>
-      </c>
-      <c r="T40">
-        <v>1.8</v>
-      </c>
-      <c r="U40">
-        <v>2</v>
-      </c>
-      <c r="V40">
-        <v>-1</v>
-      </c>
-      <c r="W40">
-        <v>2.1</v>
-      </c>
-      <c r="X40">
-        <v>-1</v>
-      </c>
-      <c r="Y40">
-        <v>-0.5</v>
-      </c>
-      <c r="Z40">
-        <v>0.4</v>
-      </c>
-      <c r="AA40">
-        <v>-0.5</v>
-      </c>
       <c r="AB40">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -3946,85 +3961,85 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6848514</v>
+        <v>6848512</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J41">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="K41">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M41">
-        <v>1.6</v>
+        <v>2.375</v>
       </c>
       <c r="N41">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="O41">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P41">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q41">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R41">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S41">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T41">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U41">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V41">
         <v>-1</v>
       </c>
       <c r="W41">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z41">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA41">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4035,16 +4050,16 @@
         <v>6848517</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4053,7 +4068,7 @@
         <v>4</v>
       </c>
       <c r="I42" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J42">
         <v>4</v>
@@ -4121,16 +4136,16 @@
         <v>6848519</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4139,7 +4154,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J43">
         <v>2.75</v>
@@ -4207,16 +4222,16 @@
         <v>6848520</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D44" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -4225,7 +4240,7 @@
         <v>4</v>
       </c>
       <c r="I44" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J44">
         <v>2.2</v>
@@ -4293,16 +4308,16 @@
         <v>6848521</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D45" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E45" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -4311,7 +4326,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J45">
         <v>1.8</v>
@@ -4379,16 +4394,16 @@
         <v>6848525</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D46" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4397,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J46">
         <v>2.6</v>
@@ -4465,16 +4480,16 @@
         <v>6848522</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D47" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G47">
         <v>4</v>
@@ -4483,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J47">
         <v>2.1</v>
@@ -4551,16 +4566,16 @@
         <v>7352180</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D48" s="2">
         <v>45223.65625</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4569,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -4637,16 +4652,16 @@
         <v>6848526</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D49" s="2">
         <v>45234.5</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4655,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J49">
         <v>1.85</v>
@@ -4723,16 +4738,16 @@
         <v>6848527</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D50" s="2">
         <v>45234.5</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4741,7 +4756,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J50">
         <v>1.833</v>
@@ -4809,16 +4824,16 @@
         <v>6848528</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D51" s="2">
         <v>45234.5</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4827,7 +4842,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J51">
         <v>2.8</v>
@@ -4895,16 +4910,16 @@
         <v>6848529</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D52" s="2">
         <v>45234.5</v>
       </c>
       <c r="E52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" t="s">
         <v>34</v>
-      </c>
-      <c r="F52" t="s">
-        <v>29</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4913,7 +4928,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J52">
         <v>2.55</v>
@@ -4981,16 +4996,16 @@
         <v>6848599</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D53" s="2">
         <v>45234.5</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G53">
         <v>4</v>
@@ -4999,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J53">
         <v>1.8</v>
@@ -5067,16 +5082,16 @@
         <v>6848533</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D54" s="2">
         <v>45241.5</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G54">
         <v>3</v>
@@ -5085,7 +5100,7 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J54">
         <v>1.727</v>
@@ -5153,16 +5168,16 @@
         <v>6848534</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D55" s="2">
         <v>45241.5</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5171,7 +5186,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J55">
         <v>2.2</v>
@@ -5239,16 +5254,16 @@
         <v>6848532</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D56" s="2">
         <v>45241.5</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5257,7 +5272,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J56">
         <v>1.909</v>
@@ -5325,16 +5340,16 @@
         <v>6848531</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D57" s="2">
         <v>45241.5</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F57" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5343,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J57">
         <v>3.3</v>
@@ -5411,16 +5426,16 @@
         <v>6848530</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D58" s="2">
         <v>45241.5</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5429,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J58">
         <v>3.25</v>
@@ -5497,16 +5512,16 @@
         <v>7394170</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D59" s="2">
         <v>45244.69791666666</v>
       </c>
       <c r="E59" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5515,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J59">
         <v>2.3</v>
@@ -5583,16 +5598,16 @@
         <v>6848536</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D60" s="2">
         <v>45248.5</v>
       </c>
       <c r="E60" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" t="s">
         <v>36</v>
-      </c>
-      <c r="F60" t="s">
-        <v>31</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5601,7 +5616,7 @@
         <v>4</v>
       </c>
       <c r="I60" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J60">
         <v>2.4</v>
@@ -5669,16 +5684,16 @@
         <v>6848535</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D61" s="2">
         <v>45248.5</v>
       </c>
       <c r="E61" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5687,7 +5702,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J61">
         <v>2.05</v>
@@ -5755,16 +5770,16 @@
         <v>6848538</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D62" s="2">
         <v>45248.5</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -5773,7 +5788,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J62">
         <v>2.5</v>
@@ -5841,16 +5856,16 @@
         <v>6848537</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D63" s="2">
         <v>45248.5</v>
       </c>
       <c r="E63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" t="s">
         <v>35</v>
-      </c>
-      <c r="F63" t="s">
-        <v>30</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5859,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J63">
         <v>1.5</v>
@@ -5927,16 +5942,16 @@
         <v>6848539</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D64" s="2">
         <v>45248.5</v>
       </c>
       <c r="E64" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5945,7 +5960,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J64">
         <v>2.3</v>
@@ -6013,16 +6028,16 @@
         <v>7451460</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D65" s="2">
         <v>45251.69791666666</v>
       </c>
       <c r="E65" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G65">
         <v>4</v>
@@ -6031,7 +6046,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J65">
         <v>2.2</v>
@@ -6099,16 +6114,16 @@
         <v>7396254</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D66" s="2">
         <v>45251.69791666666</v>
       </c>
       <c r="E66" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6117,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J66">
         <v>2.4</v>
@@ -6185,16 +6200,16 @@
         <v>6848542</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D67" s="2">
         <v>45262.5</v>
       </c>
       <c r="E67" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6203,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J67">
         <v>2.25</v>
@@ -6271,16 +6286,16 @@
         <v>6848544</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D68" s="2">
         <v>45262.5</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F68" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6289,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J68">
         <v>1.8</v>
@@ -6357,16 +6372,16 @@
         <v>6848548</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D69" s="2">
         <v>45269.5</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G69">
         <v>4</v>
@@ -6375,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J69">
         <v>2.1</v>
@@ -6443,16 +6458,16 @@
         <v>6848547</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D70" s="2">
         <v>45269.5</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6461,7 +6476,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J70">
         <v>2.1</v>
@@ -6529,16 +6544,16 @@
         <v>6848545</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D71" s="2">
         <v>45269.5</v>
       </c>
       <c r="E71" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6547,7 +6562,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J71">
         <v>2.25</v>
@@ -6615,16 +6630,16 @@
         <v>6848546</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D72" s="2">
         <v>45269.5</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6633,7 +6648,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J72">
         <v>2.5</v>
@@ -6701,16 +6716,16 @@
         <v>6848549</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D73" s="2">
         <v>45269.5</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6719,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J73">
         <v>1.8</v>
@@ -6784,85 +6799,85 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6848552</v>
+        <v>6848550</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D74" s="2">
         <v>45276.5</v>
       </c>
       <c r="E74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F74" t="s">
         <v>37</v>
       </c>
-      <c r="F74" t="s">
-        <v>36</v>
-      </c>
       <c r="G74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I74" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J74">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="K74">
+        <v>3.75</v>
+      </c>
+      <c r="L74">
+        <v>2.1</v>
+      </c>
+      <c r="M74">
+        <v>4.2</v>
+      </c>
+      <c r="N74">
         <v>4</v>
       </c>
-      <c r="L74">
-        <v>5</v>
-      </c>
-      <c r="M74">
-        <v>1.45</v>
-      </c>
-      <c r="N74">
-        <v>3.8</v>
-      </c>
       <c r="O74">
-        <v>6</v>
+        <v>1.65</v>
       </c>
       <c r="P74">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Q74">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R74">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S74">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T74">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA74">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -6870,19 +6885,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6848553</v>
+        <v>6848552</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D75" s="2">
         <v>45276.5</v>
       </c>
       <c r="E75" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -6891,7 +6906,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J75">
         <v>1.5</v>
@@ -6903,16 +6918,16 @@
         <v>5</v>
       </c>
       <c r="M75">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="N75">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q75">
         <v>1.775</v>
@@ -6921,7 +6936,7 @@
         <v>2.025</v>
       </c>
       <c r="S75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T75">
         <v>1.85</v>
@@ -6930,7 +6945,7 @@
         <v>1.95</v>
       </c>
       <c r="V75">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -6939,16 +6954,16 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA75">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -6956,67 +6971,67 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6848600</v>
+        <v>6848553</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D76" s="2">
         <v>45276.5</v>
       </c>
       <c r="E76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F76" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J76">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="K76">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L76">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="M76">
+        <v>1.75</v>
+      </c>
+      <c r="N76">
+        <v>3.6</v>
+      </c>
+      <c r="O76">
+        <v>4</v>
+      </c>
+      <c r="P76">
+        <v>-0.5</v>
+      </c>
+      <c r="Q76">
+        <v>1.775</v>
+      </c>
+      <c r="R76">
+        <v>2.025</v>
+      </c>
+      <c r="S76">
         <v>2.5</v>
       </c>
-      <c r="N76">
-        <v>3.4</v>
-      </c>
-      <c r="O76">
-        <v>2.45</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>1.975</v>
-      </c>
-      <c r="R76">
-        <v>1.825</v>
-      </c>
-      <c r="S76">
-        <v>2.25</v>
-      </c>
       <c r="T76">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7025,13 +7040,13 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB76">
         <v>-1</v>
@@ -7042,79 +7057,79 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6848550</v>
+        <v>6848600</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D77" s="2">
         <v>45276.5</v>
       </c>
       <c r="E77" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J77">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="K77">
         <v>3.75</v>
       </c>
       <c r="L77">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="M77">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N77">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O77">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="P77">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q77">
         <v>1.975</v>
       </c>
       <c r="R77">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T77">
         <v>1.925</v>
       </c>
       <c r="U77">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V77">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z77">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
         <v>0.925</v>
@@ -7131,16 +7146,16 @@
         <v>6848551</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D78" s="2">
         <v>45276.5</v>
       </c>
       <c r="E78" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7149,7 +7164,7 @@
         <v>4</v>
       </c>
       <c r="I78" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J78">
         <v>2.8</v>
@@ -7217,16 +7232,16 @@
         <v>6848555</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D79" s="2">
         <v>45282.6875</v>
       </c>
       <c r="E79" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F79" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7235,7 +7250,7 @@
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J79">
         <v>1.909</v>
@@ -7303,16 +7318,16 @@
         <v>6848558</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D80" s="2">
         <v>45283.5</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7321,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J80">
         <v>1.727</v>
@@ -7389,16 +7404,16 @@
         <v>6848556</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D81" s="2">
         <v>45283.5</v>
       </c>
       <c r="E81" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7407,7 +7422,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J81">
         <v>1.571</v>
@@ -7475,16 +7490,16 @@
         <v>6848557</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D82" s="2">
         <v>45283.5</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7493,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J82">
         <v>1.363</v>
@@ -7561,16 +7576,16 @@
         <v>6848554</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D83" s="2">
         <v>45283.5</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G83">
         <v>4</v>
@@ -7579,7 +7594,7 @@
         <v>4</v>
       </c>
       <c r="I83" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J83">
         <v>1.4</v>
@@ -7647,16 +7662,16 @@
         <v>6848560</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D84" s="2">
         <v>45290.5</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7665,7 +7680,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J84">
         <v>4.333</v>
@@ -7733,16 +7748,16 @@
         <v>6848561</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D85" s="2">
         <v>45290.5</v>
       </c>
       <c r="E85" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7751,7 +7766,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J85">
         <v>3.75</v>
@@ -7819,16 +7834,16 @@
         <v>6848562</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D86" s="2">
         <v>45290.5</v>
       </c>
       <c r="E86" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7837,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J86">
         <v>2.35</v>
@@ -7905,16 +7920,16 @@
         <v>6848565</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D87" s="2">
         <v>45297.5</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7923,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J87">
         <v>2.5</v>
@@ -7991,16 +8006,16 @@
         <v>6848566</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D88" s="2">
         <v>45297.5</v>
       </c>
       <c r="E88" t="s">
+        <v>42</v>
+      </c>
+      <c r="F88" t="s">
         <v>37</v>
-      </c>
-      <c r="F88" t="s">
-        <v>32</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8009,7 +8024,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J88">
         <v>2.1</v>
@@ -8077,16 +8092,16 @@
         <v>6848567</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D89" s="2">
         <v>45297.5</v>
       </c>
       <c r="E89" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8095,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J89">
         <v>1.533</v>
@@ -8163,16 +8178,16 @@
         <v>6848564</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D90" s="2">
         <v>45297.5</v>
       </c>
       <c r="E90" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8181,7 +8196,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J90">
         <v>1.666</v>
@@ -8249,16 +8264,16 @@
         <v>6848563</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D91" s="2">
         <v>45297.5</v>
       </c>
       <c r="E91" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F91" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8267,7 +8282,7 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J91">
         <v>2.5</v>
@@ -8335,16 +8350,16 @@
         <v>7564815</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D92" s="2">
         <v>45300.69791666666</v>
       </c>
       <c r="E92" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G92">
         <v>3</v>
@@ -8353,7 +8368,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J92">
         <v>2.3</v>
@@ -8421,16 +8436,16 @@
         <v>6848570</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D93" s="2">
         <v>45304.5</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8439,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J93">
         <v>2.875</v>
@@ -8507,16 +8522,16 @@
         <v>6848569</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D94" s="2">
         <v>45304.5</v>
       </c>
       <c r="E94" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8525,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J94">
         <v>1.909</v>
@@ -8593,16 +8608,16 @@
         <v>6848568</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D95" s="2">
         <v>45304.5</v>
       </c>
       <c r="E95" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8611,7 +8626,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J95">
         <v>1.727</v>
@@ -8679,16 +8694,16 @@
         <v>6848571</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D96" s="2">
         <v>45304.5</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -8697,7 +8712,7 @@
         <v>2</v>
       </c>
       <c r="I96" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J96">
         <v>2.5</v>
@@ -8765,16 +8780,16 @@
         <v>6848602</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D97" s="2">
         <v>45304.5</v>
       </c>
       <c r="E97" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8783,7 +8798,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J97">
         <v>2.75</v>
@@ -8851,16 +8866,16 @@
         <v>6848575</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D98" s="2">
         <v>45311.5</v>
       </c>
       <c r="E98" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8869,7 +8884,7 @@
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J98">
         <v>2.7</v>
@@ -8937,16 +8952,16 @@
         <v>6848576</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D99" s="2">
         <v>45311.5</v>
       </c>
       <c r="E99" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8955,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J99">
         <v>1.285</v>
@@ -9023,16 +9038,16 @@
         <v>6848577</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D100" s="2">
         <v>45318.45833333334</v>
       </c>
       <c r="E100" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9041,7 +9056,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J100">
         <v>3.25</v>
@@ -9109,16 +9124,16 @@
         <v>6848581</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D101" s="2">
         <v>45318.5</v>
       </c>
       <c r="E101" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9127,7 +9142,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J101">
         <v>1.444</v>
@@ -9195,16 +9210,16 @@
         <v>6848580</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D102" s="2">
         <v>45318.5</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9213,7 +9228,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J102">
         <v>2.2</v>
@@ -9281,16 +9296,16 @@
         <v>6848579</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D103" s="2">
         <v>45318.5</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9299,7 +9314,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -9367,16 +9382,16 @@
         <v>6848578</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D104" s="2">
         <v>45318.5</v>
       </c>
       <c r="E104" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F104" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -9385,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J104">
         <v>2.5</v>
@@ -9450,82 +9465,82 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7572918</v>
+        <v>7615754</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D105" s="2">
         <v>45321.69791666666</v>
       </c>
       <c r="E105" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I105" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J105">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="K105">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L105">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="M105">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="N105">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O105">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="P105">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q105">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R105">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S105">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T105">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA105">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AB105">
         <v>-1</v>
@@ -9536,82 +9551,82 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7615754</v>
+        <v>7572918</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D106" s="2">
         <v>45321.69791666666</v>
       </c>
       <c r="E106" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106" t="s">
+        <v>45</v>
+      </c>
+      <c r="J106">
+        <v>1.727</v>
+      </c>
+      <c r="K106">
+        <v>3.75</v>
+      </c>
+      <c r="L106">
+        <v>3.75</v>
+      </c>
+      <c r="M106">
         <v>3</v>
       </c>
-      <c r="I106" t="s">
-        <v>39</v>
-      </c>
-      <c r="J106">
-        <v>2.4</v>
-      </c>
-      <c r="K106">
-        <v>3.6</v>
-      </c>
-      <c r="L106">
-        <v>2.4</v>
-      </c>
-      <c r="M106">
-        <v>2.6</v>
-      </c>
       <c r="N106">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O106">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="P106">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q106">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R106">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T106">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U106">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z106">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB106">
         <v>-1</v>
@@ -9625,16 +9640,16 @@
         <v>6848603</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D107" s="2">
         <v>45325.5</v>
       </c>
       <c r="E107" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9643,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J107">
         <v>2</v>
@@ -9711,16 +9726,16 @@
         <v>6848585</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D108" s="2">
         <v>45325.5</v>
       </c>
       <c r="E108" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9729,7 +9744,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J108">
         <v>1.615</v>
@@ -9797,16 +9812,16 @@
         <v>6848584</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D109" s="2">
         <v>45325.5</v>
       </c>
       <c r="E109" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9815,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J109">
         <v>2.7</v>
@@ -9883,16 +9898,16 @@
         <v>6848583</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D110" s="2">
         <v>45325.5</v>
       </c>
       <c r="E110" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9901,7 +9916,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J110">
         <v>2.25</v>
@@ -9969,16 +9984,16 @@
         <v>6848582</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D111" s="2">
         <v>45325.5</v>
       </c>
       <c r="E111" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -9987,7 +10002,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J111">
         <v>4</v>
@@ -10055,16 +10070,16 @@
         <v>7615753</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D112" s="2">
         <v>45328.69791666666</v>
       </c>
       <c r="E112" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10073,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J112">
         <v>1.4</v>
@@ -10141,16 +10156,16 @@
         <v>6848586</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D113" s="2">
         <v>45332.5</v>
       </c>
       <c r="E113" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10159,7 +10174,7 @@
         <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J113">
         <v>1.615</v>
@@ -10227,16 +10242,16 @@
         <v>6848587</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D114" s="2">
         <v>45332.5</v>
       </c>
       <c r="E114" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10245,7 +10260,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J114">
         <v>3.4</v>
@@ -10313,16 +10328,16 @@
         <v>6848589</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D115" s="2">
         <v>45332.5</v>
       </c>
       <c r="E115" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10331,7 +10346,7 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J115">
         <v>1.3</v>
@@ -10399,16 +10414,16 @@
         <v>6848588</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D116" s="2">
         <v>45332.5</v>
       </c>
       <c r="E116" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10417,7 +10432,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J116">
         <v>1.615</v>
@@ -10485,16 +10500,16 @@
         <v>7565354</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D117" s="2">
         <v>45335.69791666666</v>
       </c>
       <c r="E117" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10503,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J117">
         <v>2.1</v>
@@ -10571,16 +10586,16 @@
         <v>6848590</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D118" s="2">
         <v>45339.5</v>
       </c>
       <c r="E118" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -10589,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J118">
         <v>3.4</v>
@@ -10657,16 +10672,16 @@
         <v>6848591</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D119" s="2">
         <v>45339.5</v>
       </c>
       <c r="E119" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -10675,7 +10690,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J119">
         <v>4.6</v>
@@ -10743,16 +10758,16 @@
         <v>6848592</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D120" s="2">
         <v>45339.5</v>
       </c>
       <c r="E120" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G120">
         <v>3</v>
@@ -10761,7 +10776,7 @@
         <v>3</v>
       </c>
       <c r="I120" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J120">
         <v>2.75</v>
@@ -10829,16 +10844,16 @@
         <v>6848593</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D121" s="2">
         <v>45339.5</v>
       </c>
       <c r="E121" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10847,7 +10862,7 @@
         <v>2</v>
       </c>
       <c r="I121" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J121">
         <v>2.9</v>
@@ -10915,16 +10930,16 @@
         <v>6848605</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D122" s="2">
         <v>45339.5</v>
       </c>
       <c r="E122" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -10933,7 +10948,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J122">
         <v>2.1</v>
@@ -11001,16 +11016,16 @@
         <v>7768375</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D123" s="2">
         <v>45342.69791666666</v>
       </c>
       <c r="E123" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11019,7 +11034,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J123">
         <v>2.75</v>
@@ -11087,16 +11102,16 @@
         <v>7748128</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D124" s="2">
         <v>45342.69791666666</v>
       </c>
       <c r="E124" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F124" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11105,7 +11120,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J124">
         <v>1.8</v>
@@ -11173,16 +11188,16 @@
         <v>6852274</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D125" s="2">
         <v>45346.45833333334</v>
       </c>
       <c r="E125" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -11191,7 +11206,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J125">
         <v>1.615</v>
@@ -11259,16 +11274,16 @@
         <v>6886698</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D126" s="2">
         <v>45346.5</v>
       </c>
       <c r="E126" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11277,7 +11292,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J126">
         <v>2.1</v>
@@ -11345,16 +11360,16 @@
         <v>6852275</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D127" s="2">
         <v>45346.5</v>
       </c>
       <c r="E127" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11363,7 +11378,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J127">
         <v>1.571</v>
@@ -11431,16 +11446,16 @@
         <v>6848595</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D128" s="2">
         <v>45346.5</v>
       </c>
       <c r="E128" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F128" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11449,7 +11464,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -11517,16 +11532,16 @@
         <v>6848594</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D129" s="2">
         <v>45346.5</v>
       </c>
       <c r="E129" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11535,7 +11550,7 @@
         <v>6</v>
       </c>
       <c r="I129" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J129">
         <v>1.363</v>
@@ -11603,16 +11618,16 @@
         <v>6920923</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D130" s="2">
         <v>45353.5</v>
       </c>
       <c r="E130" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11621,7 +11636,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J130">
         <v>2.5</v>
@@ -11689,16 +11704,16 @@
         <v>6920922</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D131" s="2">
         <v>45353.5</v>
       </c>
       <c r="E131" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -11707,7 +11722,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J131">
         <v>2.1</v>
@@ -11775,16 +11790,16 @@
         <v>6920921</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D132" s="2">
         <v>45353.5</v>
       </c>
       <c r="E132" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11793,7 +11808,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J132">
         <v>1.833</v>
@@ -11861,16 +11876,16 @@
         <v>6920920</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D133" s="2">
         <v>45353.5</v>
       </c>
       <c r="E133" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11879,7 +11894,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J133">
         <v>2.75</v>
@@ -11947,16 +11962,16 @@
         <v>6920924</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D134" s="2">
         <v>45353.5</v>
       </c>
       <c r="E134" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11965,7 +11980,7 @@
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J134">
         <v>1.8</v>
@@ -12033,16 +12048,16 @@
         <v>7697801</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D135" s="2">
         <v>45356.69791666666</v>
       </c>
       <c r="E135" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12051,7 +12066,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J135">
         <v>2.7</v>
@@ -12119,16 +12134,16 @@
         <v>7128584</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D136" s="2">
         <v>45356.69791666666</v>
       </c>
       <c r="E136" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G136">
         <v>5</v>
@@ -12137,7 +12152,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -12205,16 +12220,16 @@
         <v>6937674</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D137" s="2">
         <v>45360.5</v>
       </c>
       <c r="E137" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12223,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J137">
         <v>1.833</v>
@@ -12291,16 +12306,16 @@
         <v>6937673</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D138" s="2">
         <v>45360.5</v>
       </c>
       <c r="E138" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12309,7 +12324,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J138">
         <v>2.1</v>
@@ -12377,16 +12392,16 @@
         <v>6937090</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D139" s="2">
         <v>45360.5</v>
       </c>
       <c r="E139" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G139">
         <v>3</v>
@@ -12395,7 +12410,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J139">
         <v>2.8</v>
@@ -12463,16 +12478,16 @@
         <v>6958739</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D140" s="2">
         <v>45360.5</v>
       </c>
       <c r="E140" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F140" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12481,7 +12496,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J140">
         <v>2.1</v>
@@ -12549,16 +12564,16 @@
         <v>6958740</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D141" s="2">
         <v>45360.5</v>
       </c>
       <c r="E141" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -12567,7 +12582,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J141">
         <v>1.571</v>
@@ -12635,16 +12650,16 @@
         <v>6958741</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D142" s="2">
         <v>45367.5</v>
       </c>
       <c r="E142" t="s">
+        <v>39</v>
+      </c>
+      <c r="F142" t="s">
         <v>34</v>
-      </c>
-      <c r="F142" t="s">
-        <v>29</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12653,7 +12668,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J142">
         <v>3.4</v>
@@ -12721,16 +12736,16 @@
         <v>6973851</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D143" s="2">
         <v>45367.5</v>
       </c>
       <c r="E143" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12739,7 +12754,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J143">
         <v>2.4</v>
@@ -12807,16 +12822,16 @@
         <v>6958742</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D144" s="2">
         <v>45367.5</v>
       </c>
       <c r="E144" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12825,7 +12840,7 @@
         <v>6</v>
       </c>
       <c r="I144" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J144">
         <v>2.1</v>
@@ -12893,16 +12908,16 @@
         <v>6973852</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D145" s="2">
         <v>45367.5</v>
       </c>
       <c r="E145" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12911,7 +12926,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J145">
         <v>2.2</v>
@@ -12979,16 +12994,16 @@
         <v>6973853</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D146" s="2">
         <v>45367.5</v>
       </c>
       <c r="E146" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -12997,7 +13012,7 @@
         <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -13065,16 +13080,16 @@
         <v>6994266</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D147" s="2">
         <v>45374.5</v>
       </c>
       <c r="E147" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13083,7 +13098,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J147">
         <v>2.6</v>
@@ -13151,16 +13166,16 @@
         <v>6994264</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D148" s="2">
         <v>45374.5</v>
       </c>
       <c r="E148" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13169,7 +13184,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J148">
         <v>2.5</v>
@@ -13237,16 +13252,16 @@
         <v>6994265</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D149" s="2">
         <v>45374.5</v>
       </c>
       <c r="E149" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13255,7 +13270,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J149">
         <v>1.8</v>
@@ -13323,16 +13338,16 @@
         <v>6973854</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D150" s="2">
         <v>45374.5</v>
       </c>
       <c r="E150" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -13341,7 +13356,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J150">
         <v>2.1</v>
@@ -13409,16 +13424,16 @@
         <v>6979200</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D151" s="2">
         <v>45374.5</v>
       </c>
       <c r="E151" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F151" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -13427,7 +13442,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J151">
         <v>1.666</v>
@@ -13495,16 +13510,16 @@
         <v>7060952</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D152" s="2">
         <v>45381.5</v>
       </c>
       <c r="E152" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13513,7 +13528,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J152">
         <v>1.909</v>
@@ -13581,16 +13596,16 @@
         <v>7060949</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D153" s="2">
         <v>45381.5</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G153">
         <v>4</v>
@@ -13599,7 +13614,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J153">
         <v>1.571</v>
@@ -13667,16 +13682,16 @@
         <v>7060492</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D154" s="2">
         <v>45381.5</v>
       </c>
       <c r="E154" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -13685,7 +13700,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J154">
         <v>2.8</v>
@@ -13753,16 +13768,16 @@
         <v>7024062</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D155" s="2">
         <v>45381.5</v>
       </c>
       <c r="E155" t="s">
+        <v>38</v>
+      </c>
+      <c r="F155" t="s">
         <v>33</v>
-      </c>
-      <c r="F155" t="s">
-        <v>28</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13771,7 +13786,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J155">
         <v>2.3</v>
@@ -13839,16 +13854,16 @@
         <v>7024063</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D156" s="2">
         <v>45381.5</v>
       </c>
       <c r="E156" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13857,7 +13872,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J156">
         <v>1.909</v>
@@ -13925,16 +13940,16 @@
         <v>7075090</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D157" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E157" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13943,7 +13958,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J157">
         <v>2.2</v>
@@ -14011,16 +14026,16 @@
         <v>7075091</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D158" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E158" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -14029,7 +14044,7 @@
         <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J158">
         <v>2.875</v>
@@ -14097,16 +14112,16 @@
         <v>7075092</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D159" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E159" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -14115,7 +14130,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J159">
         <v>1.65</v>
@@ -14183,16 +14198,16 @@
         <v>7060953</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D160" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E160" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -14201,7 +14216,7 @@
         <v>2</v>
       </c>
       <c r="I160" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J160">
         <v>3.5</v>
@@ -14269,16 +14284,16 @@
         <v>7060950</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D161" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E161" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -14287,7 +14302,7 @@
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J161">
         <v>3.6</v>
@@ -14355,16 +14370,16 @@
         <v>7092311</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D162" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -14373,7 +14388,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J162">
         <v>1.833</v>
@@ -14438,85 +14453,85 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7092321</v>
+        <v>7092310</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D163" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F163" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G163">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J163">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="K163">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="L163">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M163">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="N163">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O163">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P163">
         <v>-0.5</v>
       </c>
       <c r="Q163">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R163">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S163">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T163">
+        <v>2</v>
+      </c>
+      <c r="U163">
         <v>1.8</v>
       </c>
-      <c r="U163">
-        <v>2</v>
-      </c>
       <c r="V163">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="W163">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z163">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="164" spans="1:28">
@@ -14524,82 +14539,82 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7092320</v>
+        <v>7092319</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D164" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E164" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I164" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J164">
         <v>1.909</v>
       </c>
       <c r="K164">
+        <v>3.3</v>
+      </c>
+      <c r="L164">
+        <v>3.5</v>
+      </c>
+      <c r="M164">
+        <v>2</v>
+      </c>
+      <c r="N164">
         <v>3.2</v>
       </c>
-      <c r="L164">
-        <v>3.6</v>
-      </c>
-      <c r="M164">
-        <v>1.909</v>
-      </c>
-      <c r="N164">
-        <v>3.1</v>
-      </c>
       <c r="O164">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P164">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q164">
+        <v>1.825</v>
+      </c>
+      <c r="R164">
         <v>2.025</v>
       </c>
-      <c r="R164">
+      <c r="S164">
+        <v>2.5</v>
+      </c>
+      <c r="T164">
+        <v>2.025</v>
+      </c>
+      <c r="U164">
         <v>1.825</v>
       </c>
-      <c r="S164">
-        <v>2.25</v>
-      </c>
-      <c r="T164">
-        <v>1.85</v>
-      </c>
-      <c r="U164">
-        <v>2</v>
-      </c>
       <c r="V164">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W164">
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y164">
+        <v>-1</v>
+      </c>
+      <c r="Z164">
         <v>1.025</v>
       </c>
-      <c r="Z164">
-        <v>-1</v>
-      </c>
       <c r="AA164">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB164">
         <v>-1</v>
@@ -14610,85 +14625,85 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7092319</v>
+        <v>7092321</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D165" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E165" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F165" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G165">
         <v>1</v>
       </c>
       <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165" t="s">
+        <v>43</v>
+      </c>
+      <c r="J165">
+        <v>1.444</v>
+      </c>
+      <c r="K165">
+        <v>4.2</v>
+      </c>
+      <c r="L165">
+        <v>5.5</v>
+      </c>
+      <c r="M165">
+        <v>1.8</v>
+      </c>
+      <c r="N165">
+        <v>3.3</v>
+      </c>
+      <c r="O165">
         <v>4</v>
       </c>
-      <c r="I165" t="s">
-        <v>39</v>
-      </c>
-      <c r="J165">
-        <v>1.909</v>
-      </c>
-      <c r="K165">
-        <v>3.3</v>
-      </c>
-      <c r="L165">
-        <v>3.5</v>
-      </c>
-      <c r="M165">
-        <v>2</v>
-      </c>
-      <c r="N165">
-        <v>3.2</v>
-      </c>
-      <c r="O165">
-        <v>3.3</v>
-      </c>
       <c r="P165">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q165">
         <v>1.825</v>
       </c>
       <c r="R165">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S165">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T165">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U165">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V165">
         <v>-1</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X165">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA165">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="166" spans="1:28">
@@ -14696,67 +14711,67 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7092310</v>
+        <v>7092320</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D166" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E166" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G166">
+        <v>2</v>
+      </c>
+      <c r="H166">
         <v>1</v>
       </c>
-      <c r="H166">
-        <v>0</v>
-      </c>
       <c r="I166" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J166">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="K166">
+        <v>3.2</v>
+      </c>
+      <c r="L166">
         <v>3.6</v>
       </c>
-      <c r="L166">
-        <v>5</v>
-      </c>
       <c r="M166">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="N166">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O166">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P166">
         <v>-0.5</v>
       </c>
       <c r="Q166">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R166">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S166">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T166">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U166">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V166">
-        <v>0.833</v>
+        <v>0.909</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -14765,16 +14780,16 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB166">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:28">
@@ -14785,16 +14800,16 @@
         <v>8093712</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D167" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E167" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -14803,7 +14818,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J167">
         <v>2.25</v>
@@ -14871,16 +14886,16 @@
         <v>7157733</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D168" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E168" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -14889,7 +14904,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J168">
         <v>2.4</v>
@@ -14957,16 +14972,16 @@
         <v>7128588</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D169" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E169" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -14975,7 +14990,7 @@
         <v>1</v>
       </c>
       <c r="I169" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J169">
         <v>2.2</v>
@@ -15043,16 +15058,16 @@
         <v>7128582</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D170" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E170" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -15061,7 +15076,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J170">
         <v>2.75</v>
@@ -15129,16 +15144,16 @@
         <v>7128583</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D171" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E171" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F171" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -15147,7 +15162,7 @@
         <v>2</v>
       </c>
       <c r="I171" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J171">
         <v>2.1</v>
@@ -15215,16 +15230,16 @@
         <v>7157737</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D172" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E172" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -15233,7 +15248,7 @@
         <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J172">
         <v>2.375</v>
@@ -15301,16 +15316,16 @@
         <v>7157736</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D173" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E173" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F173" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15319,7 +15334,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J173">
         <v>2.5</v>
@@ -15387,16 +15402,16 @@
         <v>7157735</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D174" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E174" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F174" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -15405,7 +15420,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J174">
         <v>2.75</v>
@@ -15473,16 +15488,16 @@
         <v>7157734</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D175" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E175" t="s">
+        <v>41</v>
+      </c>
+      <c r="F175" t="s">
         <v>36</v>
-      </c>
-      <c r="F175" t="s">
-        <v>31</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15491,7 +15506,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J175">
         <v>1.8</v>
@@ -15559,17 +15574,17 @@
         <v>7190450</v>
       </c>
       <c r="C176" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D176" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E176" t="s">
+        <v>40</v>
+      </c>
+      <c r="F176" t="s">
         <v>35</v>
       </c>
-      <c r="F176" t="s">
-        <v>30</v>
-      </c>
       <c r="G176">
         <v>2</v>
       </c>
@@ -15577,7 +15592,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J176">
         <v>1.571</v>
@@ -15635,6 +15650,331 @@
       </c>
       <c r="AB176">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>27</v>
+      </c>
+      <c r="C177" t="s">
+        <v>32</v>
+      </c>
+      <c r="D177" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="E177" t="s">
+        <v>33</v>
+      </c>
+      <c r="F177" t="s">
+        <v>39</v>
+      </c>
+      <c r="J177">
+        <v>2.375</v>
+      </c>
+      <c r="K177">
+        <v>3.25</v>
+      </c>
+      <c r="L177">
+        <v>2.75</v>
+      </c>
+      <c r="M177">
+        <v>2.4</v>
+      </c>
+      <c r="N177">
+        <v>3.2</v>
+      </c>
+      <c r="O177">
+        <v>2.8</v>
+      </c>
+      <c r="P177">
+        <v>0</v>
+      </c>
+      <c r="Q177">
+        <v>1.775</v>
+      </c>
+      <c r="R177">
+        <v>2.1</v>
+      </c>
+      <c r="S177">
+        <v>2.5</v>
+      </c>
+      <c r="T177">
+        <v>2.05</v>
+      </c>
+      <c r="U177">
+        <v>1.8</v>
+      </c>
+      <c r="V177">
+        <v>0</v>
+      </c>
+      <c r="W177">
+        <v>0</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>28</v>
+      </c>
+      <c r="C178" t="s">
+        <v>32</v>
+      </c>
+      <c r="D178" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="E178" t="s">
+        <v>36</v>
+      </c>
+      <c r="F178" t="s">
+        <v>37</v>
+      </c>
+      <c r="J178">
+        <v>2.625</v>
+      </c>
+      <c r="K178">
+        <v>3.75</v>
+      </c>
+      <c r="L178">
+        <v>2.25</v>
+      </c>
+      <c r="M178">
+        <v>2.25</v>
+      </c>
+      <c r="N178">
+        <v>3.4</v>
+      </c>
+      <c r="O178">
+        <v>2.75</v>
+      </c>
+      <c r="P178">
+        <v>-0.25</v>
+      </c>
+      <c r="Q178">
+        <v>1.975</v>
+      </c>
+      <c r="R178">
+        <v>1.875</v>
+      </c>
+      <c r="S178">
+        <v>2.5</v>
+      </c>
+      <c r="T178">
+        <v>2.025</v>
+      </c>
+      <c r="U178">
+        <v>1.825</v>
+      </c>
+      <c r="V178">
+        <v>0</v>
+      </c>
+      <c r="W178">
+        <v>0</v>
+      </c>
+      <c r="X178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>29</v>
+      </c>
+      <c r="C179" t="s">
+        <v>32</v>
+      </c>
+      <c r="D179" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="E179" t="s">
+        <v>35</v>
+      </c>
+      <c r="F179" t="s">
+        <v>41</v>
+      </c>
+      <c r="J179">
+        <v>3.4</v>
+      </c>
+      <c r="K179">
+        <v>3.1</v>
+      </c>
+      <c r="L179">
+        <v>2.1</v>
+      </c>
+      <c r="M179">
+        <v>4.2</v>
+      </c>
+      <c r="N179">
+        <v>3.5</v>
+      </c>
+      <c r="O179">
+        <v>1.85</v>
+      </c>
+      <c r="P179">
+        <v>0.5</v>
+      </c>
+      <c r="Q179">
+        <v>1.925</v>
+      </c>
+      <c r="R179">
+        <v>1.925</v>
+      </c>
+      <c r="S179">
+        <v>2.75</v>
+      </c>
+      <c r="T179">
+        <v>2</v>
+      </c>
+      <c r="U179">
+        <v>1.85</v>
+      </c>
+      <c r="V179">
+        <v>0</v>
+      </c>
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>30</v>
+      </c>
+      <c r="C180" t="s">
+        <v>32</v>
+      </c>
+      <c r="D180" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="E180" t="s">
+        <v>42</v>
+      </c>
+      <c r="F180" t="s">
+        <v>40</v>
+      </c>
+      <c r="J180">
+        <v>2.3</v>
+      </c>
+      <c r="K180">
+        <v>3.2</v>
+      </c>
+      <c r="L180">
+        <v>2.9</v>
+      </c>
+      <c r="M180">
+        <v>2.55</v>
+      </c>
+      <c r="N180">
+        <v>3.2</v>
+      </c>
+      <c r="O180">
+        <v>2.55</v>
+      </c>
+      <c r="P180">
+        <v>0</v>
+      </c>
+      <c r="Q180">
+        <v>1.925</v>
+      </c>
+      <c r="R180">
+        <v>1.925</v>
+      </c>
+      <c r="S180">
+        <v>2.75</v>
+      </c>
+      <c r="T180">
+        <v>2</v>
+      </c>
+      <c r="U180">
+        <v>1.85</v>
+      </c>
+      <c r="V180">
+        <v>0</v>
+      </c>
+      <c r="W180">
+        <v>0</v>
+      </c>
+      <c r="X180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>31</v>
+      </c>
+      <c r="C181" t="s">
+        <v>32</v>
+      </c>
+      <c r="D181" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="E181" t="s">
+        <v>38</v>
+      </c>
+      <c r="F181" t="s">
+        <v>34</v>
+      </c>
+      <c r="J181">
+        <v>2.4</v>
+      </c>
+      <c r="K181">
+        <v>3.9</v>
+      </c>
+      <c r="L181">
+        <v>2.375</v>
+      </c>
+      <c r="M181">
+        <v>2.15</v>
+      </c>
+      <c r="N181">
+        <v>4</v>
+      </c>
+      <c r="O181">
+        <v>2.55</v>
+      </c>
+      <c r="P181">
+        <v>-0.25</v>
+      </c>
+      <c r="Q181">
+        <v>2</v>
+      </c>
+      <c r="R181">
+        <v>1.85</v>
+      </c>
+      <c r="S181">
+        <v>2.5</v>
+      </c>
+      <c r="T181">
+        <v>1.975</v>
+      </c>
+      <c r="U181">
+        <v>1.875</v>
+      </c>
+      <c r="V181">
+        <v>0</v>
+      </c>
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Scotland League Two/Scotland League Two.xlsx
+++ b/Scotland League Two/Scotland League Two.xlsx
@@ -1968,7 +1968,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6848494</v>
+        <v>6848493</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -1977,55 +1977,55 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="s">
         <v>39</v>
       </c>
       <c r="J18">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="K18">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L18">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="M18">
+        <v>2.2</v>
+      </c>
+      <c r="N18">
+        <v>3.2</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>-0.25</v>
+      </c>
+      <c r="Q18">
+        <v>1.975</v>
+      </c>
+      <c r="R18">
+        <v>1.825</v>
+      </c>
+      <c r="S18">
         <v>2.25</v>
       </c>
-      <c r="N18">
-        <v>3.4</v>
-      </c>
-      <c r="O18">
-        <v>2.625</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>1.925</v>
-      </c>
-      <c r="R18">
-        <v>1.925</v>
-      </c>
-      <c r="S18">
-        <v>2.5</v>
-      </c>
       <c r="T18">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U18">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V18">
         <v>-1</v>
@@ -2034,19 +2034,19 @@
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>1.625</v>
+        <v>2</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB18">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2054,7 +2054,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6848492</v>
+        <v>6848494</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -2063,76 +2063,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J19">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="K19">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L19">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M19">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N19">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O19">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="P19">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="R19">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S19">
         <v>2.5</v>
       </c>
       <c r="T19">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U19">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
         <v>-1</v>
       </c>
       <c r="W19">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2140,7 +2140,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6848493</v>
+        <v>6848492</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -2149,76 +2149,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J20">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K20">
         <v>3.3</v>
       </c>
       <c r="L20">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M20">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N20">
         <v>3.2</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P20">
         <v>-0.25</v>
       </c>
       <c r="Q20">
+        <v>2.1</v>
+      </c>
+      <c r="R20">
+        <v>1.775</v>
+      </c>
+      <c r="S20">
+        <v>2.5</v>
+      </c>
+      <c r="T20">
         <v>1.975</v>
       </c>
-      <c r="R20">
-        <v>1.825</v>
-      </c>
-      <c r="S20">
-        <v>2.25</v>
-      </c>
-      <c r="T20">
-        <v>1.9</v>
-      </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
         <v>-1</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X20">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z20">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AA20">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2312,7 +2312,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6848501</v>
+        <v>6848497</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -2321,76 +2321,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J22">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="K22">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L22">
-        <v>2.875</v>
+        <v>3.7</v>
       </c>
       <c r="M22">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="N22">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O22">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P22">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q22">
         <v>2</v>
       </c>
       <c r="R22">
+        <v>1.8</v>
+      </c>
+      <c r="S22">
+        <v>2.25</v>
+      </c>
+      <c r="T22">
+        <v>1.95</v>
+      </c>
+      <c r="U22">
         <v>1.85</v>
       </c>
-      <c r="S22">
-        <v>2.5</v>
-      </c>
-      <c r="T22">
-        <v>1.925</v>
-      </c>
-      <c r="U22">
-        <v>1.925</v>
-      </c>
       <c r="V22">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2398,7 +2398,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6848500</v>
+        <v>6848501</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -2407,76 +2407,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J23">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K23">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L23">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="M23">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="N23">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O23">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q23">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
         <v>2.5</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U23">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V23">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2484,7 +2484,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6848499</v>
+        <v>6848500</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -2493,58 +2493,58 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
         <v>1</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
       </c>
       <c r="I24" t="s">
         <v>40</v>
       </c>
       <c r="J24">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="K24">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="M24">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N24">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O24">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="P24">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R24">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
         <v>2.5</v>
       </c>
       <c r="T24">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V24">
-        <v>0.909</v>
+        <v>1.5</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2553,16 +2553,16 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2570,7 +2570,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6848498</v>
+        <v>6848499</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -2579,76 +2579,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J25">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="K25">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L25">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="N25">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O25">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="P25">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q25">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R25">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S25">
         <v>2.5</v>
       </c>
       <c r="T25">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U25">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W25">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2656,7 +2656,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6848497</v>
+        <v>6848498</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -2665,76 +2665,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J26">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="K26">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L26">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="M26">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="N26">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O26">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="P26">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q26">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S26">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T26">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U26">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V26">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA26">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2742,7 +2742,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6848505</v>
+        <v>6848504</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -2751,73 +2751,73 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J27">
+        <v>2.875</v>
+      </c>
+      <c r="K27">
+        <v>3.25</v>
+      </c>
+      <c r="L27">
+        <v>2.3</v>
+      </c>
+      <c r="M27">
+        <v>3.1</v>
+      </c>
+      <c r="N27">
+        <v>3.4</v>
+      </c>
+      <c r="O27">
         <v>2.25</v>
       </c>
-      <c r="K27">
-        <v>3.3</v>
-      </c>
-      <c r="L27">
-        <v>2.9</v>
-      </c>
-      <c r="M27">
-        <v>2.375</v>
-      </c>
-      <c r="N27">
-        <v>3.5</v>
-      </c>
-      <c r="O27">
-        <v>2.8</v>
-      </c>
       <c r="P27">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q27">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="R27">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S27">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T27">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V27">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA27">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB27">
         <v>-1</v>
@@ -2828,7 +2828,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6848506</v>
+        <v>6848505</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -2837,58 +2837,58 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="s">
         <v>40</v>
       </c>
       <c r="J28">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="K28">
         <v>3.3</v>
       </c>
       <c r="L28">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M28">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N28">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O28">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="P28">
         <v>-0.25</v>
       </c>
       <c r="Q28">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S28">
         <v>2.5</v>
       </c>
       <c r="T28">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.15</v>
+        <v>1.375</v>
       </c>
       <c r="W28">
         <v>-1</v>
@@ -2897,13 +2897,13 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB28">
         <v>-1</v>
@@ -2914,7 +2914,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6848504</v>
+        <v>6848506</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -2923,73 +2923,73 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J29">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="K29">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L29">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="M29">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="N29">
         <v>3.4</v>
       </c>
       <c r="O29">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q29">
         <v>1.85</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T29">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U29">
         <v>1.925</v>
       </c>
       <c r="V29">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W29">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB29">
         <v>-1</v>
@@ -3172,7 +3172,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6848510</v>
+        <v>6848508</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
@@ -3181,34 +3181,34 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K32">
         <v>3.5</v>
       </c>
       <c r="L32">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M32">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N32">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O32">
         <v>3.2</v>
@@ -3223,34 +3223,34 @@
         <v>1.875</v>
       </c>
       <c r="S32">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T32">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U32">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V32">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB32">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3258,7 +3258,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6848508</v>
+        <v>6848509</v>
       </c>
       <c r="C33" t="s">
         <v>27</v>
@@ -3267,76 +3267,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J33">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K33">
         <v>3.5</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M33">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N33">
         <v>3.4</v>
       </c>
       <c r="O33">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P33">
         <v>-0.25</v>
       </c>
       <c r="Q33">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R33">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S33">
         <v>2.5</v>
       </c>
       <c r="T33">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U33">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y33">
+        <v>-1</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <v>-1</v>
+      </c>
+      <c r="AB33">
         <v>0.925</v>
-      </c>
-      <c r="Z33">
-        <v>-1</v>
-      </c>
-      <c r="AA33">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB33">
-        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -3344,7 +3344,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6848511</v>
+        <v>6848510</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
@@ -3353,40 +3353,40 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J34">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K34">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L34">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M34">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="N34">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O34">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P34">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q34">
         <v>1.925</v>
@@ -3398,19 +3398,19 @@
         <v>2.25</v>
       </c>
       <c r="T34">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U34">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V34">
         <v>-1</v>
       </c>
       <c r="W34">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y34">
         <v>-1</v>
@@ -3419,10 +3419,10 @@
         <v>0.875</v>
       </c>
       <c r="AA34">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3430,7 +3430,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6848509</v>
+        <v>6848511</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
@@ -3439,76 +3439,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K35">
+        <v>3.6</v>
+      </c>
+      <c r="L35">
+        <v>3.8</v>
+      </c>
+      <c r="M35">
+        <v>1.95</v>
+      </c>
+      <c r="N35">
         <v>3.5</v>
       </c>
-      <c r="L35">
-        <v>3.75</v>
-      </c>
-      <c r="M35">
-        <v>2.15</v>
-      </c>
-      <c r="N35">
-        <v>3.4</v>
-      </c>
       <c r="O35">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P35">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q35">
+        <v>1.925</v>
+      </c>
+      <c r="R35">
+        <v>1.875</v>
+      </c>
+      <c r="S35">
+        <v>2.25</v>
+      </c>
+      <c r="T35">
         <v>1.8</v>
       </c>
-      <c r="R35">
-        <v>2</v>
-      </c>
-      <c r="S35">
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35">
+        <v>-1</v>
+      </c>
+      <c r="W35">
         <v>2.5</v>
       </c>
-      <c r="T35">
-        <v>1.875</v>
-      </c>
-      <c r="U35">
-        <v>1.925</v>
-      </c>
-      <c r="V35">
-        <v>-1</v>
-      </c>
-      <c r="W35">
-        <v>-1</v>
-      </c>
       <c r="X35">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB35">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -6354,7 +6354,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6848547</v>
+        <v>6848548</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
@@ -6363,76 +6363,76 @@
         <v>45269.5</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J69">
         <v>2.1</v>
       </c>
       <c r="K69">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L69">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="M69">
+        <v>1.75</v>
+      </c>
+      <c r="N69">
+        <v>3.2</v>
+      </c>
+      <c r="O69">
+        <v>4.5</v>
+      </c>
+      <c r="P69">
+        <v>-0.75</v>
+      </c>
+      <c r="Q69">
+        <v>2</v>
+      </c>
+      <c r="R69">
+        <v>1.85</v>
+      </c>
+      <c r="S69">
         <v>2.25</v>
       </c>
-      <c r="N69">
-        <v>3.6</v>
-      </c>
-      <c r="O69">
-        <v>2.7</v>
-      </c>
-      <c r="P69">
-        <v>-0.25</v>
-      </c>
-      <c r="Q69">
-        <v>2.1</v>
-      </c>
-      <c r="R69">
-        <v>1.775</v>
-      </c>
-      <c r="S69">
-        <v>2.5</v>
-      </c>
       <c r="T69">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V69">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z69">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB69">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6440,7 +6440,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6848546</v>
+        <v>6848547</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
@@ -6449,76 +6449,76 @@
         <v>45269.5</v>
       </c>
       <c r="E70" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J70">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="K70">
         <v>3.75</v>
       </c>
       <c r="L70">
+        <v>2.7</v>
+      </c>
+      <c r="M70">
         <v>2.25</v>
       </c>
-      <c r="M70">
-        <v>2.5</v>
-      </c>
       <c r="N70">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O70">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q70">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="R70">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S70">
         <v>2.5</v>
       </c>
       <c r="T70">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U70">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
         <v>-1</v>
       </c>
       <c r="W70">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA70">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6526,7 +6526,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6848549</v>
+        <v>6848546</v>
       </c>
       <c r="C71" t="s">
         <v>27</v>
@@ -6535,76 +6535,76 @@
         <v>45269.5</v>
       </c>
       <c r="E71" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J71">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="K71">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L71">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="M71">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N71">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O71">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="P71">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S71">
         <v>2.5</v>
       </c>
       <c r="T71">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U71">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V71">
+        <v>-1</v>
+      </c>
+      <c r="W71">
+        <v>2.5</v>
+      </c>
+      <c r="X71">
+        <v>-1</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
         <v>1</v>
       </c>
-      <c r="W71">
-        <v>-1</v>
-      </c>
-      <c r="X71">
-        <v>-1</v>
-      </c>
-      <c r="Y71">
-        <v>0.8</v>
-      </c>
-      <c r="Z71">
-        <v>-1</v>
-      </c>
-      <c r="AA71">
-        <v>-1</v>
-      </c>
       <c r="AB71">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -6612,7 +6612,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6848548</v>
+        <v>6848549</v>
       </c>
       <c r="C72" t="s">
         <v>27</v>
@@ -6621,13 +6621,13 @@
         <v>45269.5</v>
       </c>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6636,43 +6636,43 @@
         <v>40</v>
       </c>
       <c r="J72">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="K72">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L72">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M72">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="N72">
+        <v>3.4</v>
+      </c>
+      <c r="O72">
         <v>3.2</v>
       </c>
-      <c r="O72">
-        <v>4.5</v>
-      </c>
       <c r="P72">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q72">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S72">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T72">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U72">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V72">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W72">
         <v>-1</v>
@@ -6681,16 +6681,16 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="73" spans="1:28">
@@ -7300,7 +7300,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6848554</v>
+        <v>6848556</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
@@ -7309,73 +7309,73 @@
         <v>45283.5</v>
       </c>
       <c r="E80" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J80">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="K80">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L80">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M80">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N80">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="O80">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P80">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q80">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R80">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S80">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T80">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U80">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V80">
         <v>-1</v>
       </c>
       <c r="W80">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA80">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB80">
         <v>-1</v>
@@ -7386,7 +7386,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6848556</v>
+        <v>6848554</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
@@ -7395,73 +7395,73 @@
         <v>45283.5</v>
       </c>
       <c r="E81" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J81">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="K81">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="L81">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M81">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N81">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="O81">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P81">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q81">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R81">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S81">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T81">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U81">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
         <v>-1</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X81">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA81">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB81">
         <v>-1</v>
@@ -7988,7 +7988,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6848566</v>
+        <v>6848567</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -7997,76 +7997,76 @@
         <v>45297.5</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J88">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="K88">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L88">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="M88">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="N88">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O88">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="P88">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q88">
+        <v>1.925</v>
+      </c>
+      <c r="R88">
+        <v>1.925</v>
+      </c>
+      <c r="S88">
+        <v>2.5</v>
+      </c>
+      <c r="T88">
         <v>1.875</v>
       </c>
-      <c r="R88">
+      <c r="U88">
         <v>1.975</v>
       </c>
-      <c r="S88">
-        <v>2.75</v>
-      </c>
-      <c r="T88">
-        <v>1.925</v>
-      </c>
-      <c r="U88">
-        <v>1.925</v>
-      </c>
       <c r="V88">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="Z88">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB88">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8074,7 +8074,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6848567</v>
+        <v>6848566</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8083,76 +8083,76 @@
         <v>45297.5</v>
       </c>
       <c r="E89" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J89">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="K89">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L89">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="M89">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="N89">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O89">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="P89">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q89">
+        <v>1.875</v>
+      </c>
+      <c r="R89">
+        <v>1.975</v>
+      </c>
+      <c r="S89">
+        <v>2.75</v>
+      </c>
+      <c r="T89">
         <v>1.925</v>
       </c>
-      <c r="R89">
+      <c r="U89">
         <v>1.925</v>
       </c>
-      <c r="S89">
-        <v>2.5</v>
-      </c>
-      <c r="T89">
-        <v>1.875</v>
-      </c>
-      <c r="U89">
-        <v>1.975</v>
-      </c>
       <c r="V89">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y89">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA89">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -11428,7 +11428,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6852275</v>
+        <v>6886698</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
@@ -11437,10 +11437,10 @@
         <v>45346.5</v>
       </c>
       <c r="E128" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11452,61 +11452,61 @@
         <v>38</v>
       </c>
       <c r="J128">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="K128">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L128">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M128">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="N128">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O128">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P128">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q128">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R128">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S128">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T128">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U128">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V128">
         <v>-1</v>
       </c>
       <c r="W128">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z128">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB128">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="129" spans="1:28">
@@ -11514,7 +11514,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6886698</v>
+        <v>6852275</v>
       </c>
       <c r="C129" t="s">
         <v>27</v>
@@ -11523,10 +11523,10 @@
         <v>45346.5</v>
       </c>
       <c r="E129" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11538,61 +11538,61 @@
         <v>38</v>
       </c>
       <c r="J129">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="K129">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L129">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M129">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="N129">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O129">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P129">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q129">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S129">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T129">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U129">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
         <v>-1</v>
       </c>
       <c r="W129">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AA129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:28">
@@ -12374,7 +12374,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6937674</v>
+        <v>6958739</v>
       </c>
       <c r="C139" t="s">
         <v>27</v>
@@ -12383,76 +12383,76 @@
         <v>45360.5</v>
       </c>
       <c r="E139" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F139" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J139">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="K139">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L139">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M139">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N139">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O139">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P139">
         <v>-0.25</v>
       </c>
       <c r="Q139">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R139">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S139">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T139">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U139">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V139">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W139">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z139">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12460,7 +12460,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6958739</v>
+        <v>6958740</v>
       </c>
       <c r="C140" t="s">
         <v>27</v>
@@ -12469,13 +12469,13 @@
         <v>45360.5</v>
       </c>
       <c r="E140" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -12484,43 +12484,43 @@
         <v>40</v>
       </c>
       <c r="J140">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="K140">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="L140">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="M140">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="N140">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O140">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P140">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q140">
         <v>1.975</v>
       </c>
       <c r="R140">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T140">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U140">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V140">
-        <v>1.25</v>
+        <v>0.95</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12535,10 +12535,10 @@
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB140">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="141" spans="1:28">
@@ -12546,7 +12546,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6958740</v>
+        <v>6937674</v>
       </c>
       <c r="C141" t="s">
         <v>27</v>
@@ -12555,76 +12555,76 @@
         <v>45360.5</v>
       </c>
       <c r="E141" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H141">
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J141">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="K141">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="L141">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M141">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="N141">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O141">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P141">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q141">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S141">
         <v>2.25</v>
       </c>
       <c r="T141">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V141">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:28">
@@ -12632,7 +12632,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6973853</v>
+        <v>6973851</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
@@ -12641,10 +12641,10 @@
         <v>45367.5</v>
       </c>
       <c r="E142" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12656,40 +12656,40 @@
         <v>39</v>
       </c>
       <c r="J142">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="K142">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L142">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="M142">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="N142">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O142">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="P142">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q142">
+        <v>1.825</v>
+      </c>
+      <c r="R142">
         <v>2.025</v>
-      </c>
-      <c r="R142">
-        <v>1.775</v>
       </c>
       <c r="S142">
         <v>2.5</v>
       </c>
       <c r="T142">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U142">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V142">
         <v>-1</v>
@@ -12698,16 +12698,16 @@
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA142">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB142">
         <v>-1</v>
@@ -12718,7 +12718,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6973851</v>
+        <v>6973852</v>
       </c>
       <c r="C143" t="s">
         <v>27</v>
@@ -12727,52 +12727,52 @@
         <v>45367.5</v>
       </c>
       <c r="E143" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G143">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J143">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="K143">
         <v>3.25</v>
       </c>
       <c r="L143">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="M143">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="N143">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O143">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P143">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q143">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="R143">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="S143">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T143">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U143">
         <v>1.925</v>
@@ -12781,22 +12781,22 @@
         <v>-1</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X143">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z143">
-        <v>1.025</v>
+        <v>0.3875</v>
       </c>
       <c r="AA143">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12804,7 +12804,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6973852</v>
+        <v>6973853</v>
       </c>
       <c r="C144" t="s">
         <v>27</v>
@@ -12813,40 +12813,40 @@
         <v>45367.5</v>
       </c>
       <c r="E144" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G144">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J144">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K144">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L144">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M144">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N144">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O144">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P144">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q144">
         <v>2.025</v>
@@ -12855,34 +12855,34 @@
         <v>1.775</v>
       </c>
       <c r="S144">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T144">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U144">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V144">
         <v>-1</v>
       </c>
       <c r="W144">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.3875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA144">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB144">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -13492,7 +13492,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7060492</v>
+        <v>7024063</v>
       </c>
       <c r="C152" t="s">
         <v>27</v>
@@ -13501,37 +13501,37 @@
         <v>45381.5</v>
       </c>
       <c r="E152" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F152" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J152">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="K152">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L152">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="M152">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N152">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O152">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P152">
         <v>-0.25</v>
@@ -13543,7 +13543,7 @@
         <v>1.85</v>
       </c>
       <c r="S152">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T152">
         <v>1.8</v>
@@ -13552,19 +13552,19 @@
         <v>2</v>
       </c>
       <c r="V152">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W152">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z152">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
         <v>-1</v>
@@ -13578,7 +13578,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7060949</v>
+        <v>7024062</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
@@ -13587,76 +13587,76 @@
         <v>45381.5</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G153">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H153">
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J153">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="K153">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L153">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="M153">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N153">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O153">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P153">
+        <v>-0.25</v>
+      </c>
+      <c r="Q153">
+        <v>1.9</v>
+      </c>
+      <c r="R153">
+        <v>1.9</v>
+      </c>
+      <c r="S153">
+        <v>2.25</v>
+      </c>
+      <c r="T153">
+        <v>1.775</v>
+      </c>
+      <c r="U153">
+        <v>2.025</v>
+      </c>
+      <c r="V153">
+        <v>-1</v>
+      </c>
+      <c r="W153">
+        <v>2.6</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
         <v>-0.5</v>
       </c>
-      <c r="Q153">
-        <v>1.975</v>
-      </c>
-      <c r="R153">
-        <v>1.825</v>
-      </c>
-      <c r="S153">
-        <v>2.5</v>
-      </c>
-      <c r="T153">
-        <v>2</v>
-      </c>
-      <c r="U153">
-        <v>1.8</v>
-      </c>
-      <c r="V153">
-        <v>1</v>
-      </c>
-      <c r="W153">
-        <v>-1</v>
-      </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA153">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -13664,7 +13664,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7060952</v>
+        <v>7060492</v>
       </c>
       <c r="C154" t="s">
         <v>27</v>
@@ -13673,76 +13673,76 @@
         <v>45381.5</v>
       </c>
       <c r="E154" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H154">
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J154">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="K154">
         <v>3.5</v>
       </c>
       <c r="L154">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="M154">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="N154">
         <v>3.3</v>
       </c>
       <c r="O154">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P154">
         <v>-0.25</v>
       </c>
       <c r="Q154">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R154">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S154">
         <v>2.25</v>
       </c>
       <c r="T154">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U154">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V154">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA154">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:28">
@@ -13750,7 +13750,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7024062</v>
+        <v>7060949</v>
       </c>
       <c r="C155" t="s">
         <v>27</v>
@@ -13759,76 +13759,76 @@
         <v>45381.5</v>
       </c>
       <c r="E155" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F155" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G155">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H155">
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J155">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="K155">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L155">
+        <v>4.75</v>
+      </c>
+      <c r="M155">
+        <v>2</v>
+      </c>
+      <c r="N155">
+        <v>3.4</v>
+      </c>
+      <c r="O155">
+        <v>3.4</v>
+      </c>
+      <c r="P155">
+        <v>-0.5</v>
+      </c>
+      <c r="Q155">
+        <v>1.975</v>
+      </c>
+      <c r="R155">
+        <v>1.825</v>
+      </c>
+      <c r="S155">
         <v>2.5</v>
       </c>
-      <c r="M155">
-        <v>2.1</v>
-      </c>
-      <c r="N155">
-        <v>3.6</v>
-      </c>
-      <c r="O155">
-        <v>2.9</v>
-      </c>
-      <c r="P155">
-        <v>-0.25</v>
-      </c>
-      <c r="Q155">
-        <v>1.9</v>
-      </c>
-      <c r="R155">
-        <v>1.9</v>
-      </c>
-      <c r="S155">
-        <v>2.25</v>
-      </c>
       <c r="T155">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="U155">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V155">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W155">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z155">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB155">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:28">
@@ -13836,7 +13836,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7024063</v>
+        <v>7060952</v>
       </c>
       <c r="C156" t="s">
         <v>27</v>
@@ -13845,13 +13845,13 @@
         <v>45381.5</v>
       </c>
       <c r="E156" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -13863,40 +13863,40 @@
         <v>1.909</v>
       </c>
       <c r="K156">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L156">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M156">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="N156">
+        <v>3.3</v>
+      </c>
+      <c r="O156">
         <v>3.25</v>
-      </c>
-      <c r="O156">
-        <v>3</v>
       </c>
       <c r="P156">
         <v>-0.25</v>
       </c>
       <c r="Q156">
+        <v>1.8</v>
+      </c>
+      <c r="R156">
+        <v>2</v>
+      </c>
+      <c r="S156">
+        <v>2.25</v>
+      </c>
+      <c r="T156">
+        <v>1.85</v>
+      </c>
+      <c r="U156">
         <v>1.95</v>
       </c>
-      <c r="R156">
-        <v>1.85</v>
-      </c>
-      <c r="S156">
-        <v>2</v>
-      </c>
-      <c r="T156">
-        <v>1.8</v>
-      </c>
-      <c r="U156">
-        <v>2</v>
-      </c>
       <c r="V156">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="W156">
         <v>-1</v>
@@ -13905,16 +13905,16 @@
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB156">
-        <v>1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="157" spans="1:28">
@@ -14180,7 +14180,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7075090</v>
+        <v>7060953</v>
       </c>
       <c r="C160" t="s">
         <v>27</v>
@@ -14189,76 +14189,76 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E160" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J160">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="K160">
         <v>3.4</v>
       </c>
       <c r="L160">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="M160">
+        <v>2.9</v>
+      </c>
+      <c r="N160">
+        <v>3.25</v>
+      </c>
+      <c r="O160">
+        <v>2.2</v>
+      </c>
+      <c r="P160">
+        <v>0.25</v>
+      </c>
+      <c r="Q160">
+        <v>1.825</v>
+      </c>
+      <c r="R160">
+        <v>2.025</v>
+      </c>
+      <c r="S160">
+        <v>2.25</v>
+      </c>
+      <c r="T160">
         <v>1.85</v>
       </c>
-      <c r="N160">
-        <v>3.4</v>
-      </c>
-      <c r="O160">
-        <v>4</v>
-      </c>
-      <c r="P160">
+      <c r="U160">
+        <v>2</v>
+      </c>
+      <c r="V160">
+        <v>-1</v>
+      </c>
+      <c r="W160">
+        <v>2.25</v>
+      </c>
+      <c r="X160">
+        <v>-1</v>
+      </c>
+      <c r="Y160">
+        <v>0.4125</v>
+      </c>
+      <c r="Z160">
         <v>-0.5</v>
       </c>
-      <c r="Q160">
-        <v>1.85</v>
-      </c>
-      <c r="R160">
-        <v>2</v>
-      </c>
-      <c r="S160">
-        <v>2.5</v>
-      </c>
-      <c r="T160">
-        <v>1.975</v>
-      </c>
-      <c r="U160">
-        <v>1.875</v>
-      </c>
-      <c r="V160">
+      <c r="AA160">
         <v>0.8500000000000001</v>
       </c>
-      <c r="W160">
-        <v>-1</v>
-      </c>
-      <c r="X160">
-        <v>-1</v>
-      </c>
-      <c r="Y160">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Z160">
-        <v>-1</v>
-      </c>
-      <c r="AA160">
-        <v>-1</v>
-      </c>
       <c r="AB160">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:28">
@@ -14266,7 +14266,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7060953</v>
+        <v>7075090</v>
       </c>
       <c r="C161" t="s">
         <v>27</v>
@@ -14275,76 +14275,76 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E161" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J161">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="K161">
         <v>3.4</v>
       </c>
       <c r="L161">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="M161">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="N161">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O161">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="P161">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q161">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R161">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S161">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T161">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U161">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V161">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W161">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="162" spans="1:28">
@@ -14438,7 +14438,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7092320</v>
+        <v>7092319</v>
       </c>
       <c r="C163" t="s">
         <v>27</v>
@@ -14447,73 +14447,73 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I163" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J163">
         <v>1.909</v>
       </c>
       <c r="K163">
+        <v>3.3</v>
+      </c>
+      <c r="L163">
+        <v>3.5</v>
+      </c>
+      <c r="M163">
+        <v>2</v>
+      </c>
+      <c r="N163">
         <v>3.2</v>
       </c>
-      <c r="L163">
-        <v>3.6</v>
-      </c>
-      <c r="M163">
-        <v>1.909</v>
-      </c>
-      <c r="N163">
-        <v>3.1</v>
-      </c>
       <c r="O163">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P163">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q163">
+        <v>1.825</v>
+      </c>
+      <c r="R163">
         <v>2.025</v>
       </c>
-      <c r="R163">
+      <c r="S163">
+        <v>2.5</v>
+      </c>
+      <c r="T163">
+        <v>2.025</v>
+      </c>
+      <c r="U163">
         <v>1.825</v>
       </c>
-      <c r="S163">
-        <v>2.25</v>
-      </c>
-      <c r="T163">
-        <v>1.85</v>
-      </c>
-      <c r="U163">
-        <v>2</v>
-      </c>
       <c r="V163">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W163">
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y163">
+        <v>-1</v>
+      </c>
+      <c r="Z163">
         <v>1.025</v>
       </c>
-      <c r="Z163">
-        <v>-1</v>
-      </c>
       <c r="AA163">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB163">
         <v>-1</v>
@@ -14524,7 +14524,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7092319</v>
+        <v>7092320</v>
       </c>
       <c r="C164" t="s">
         <v>27</v>
@@ -14533,73 +14533,73 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E164" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G164">
+        <v>2</v>
+      </c>
+      <c r="H164">
         <v>1</v>
       </c>
-      <c r="H164">
-        <v>4</v>
-      </c>
       <c r="I164" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J164">
         <v>1.909</v>
       </c>
       <c r="K164">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L164">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M164">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N164">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O164">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P164">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q164">
+        <v>2.025</v>
+      </c>
+      <c r="R164">
         <v>1.825</v>
       </c>
-      <c r="R164">
-        <v>2.025</v>
-      </c>
       <c r="S164">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T164">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U164">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V164">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W164">
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z164">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB164">
         <v>-1</v>
@@ -15470,7 +15470,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7157734</v>
+        <v>7157735</v>
       </c>
       <c r="C175" t="s">
         <v>27</v>
@@ -15479,13 +15479,13 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E175" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F175" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -15494,61 +15494,61 @@
         <v>40</v>
       </c>
       <c r="J175">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="K175">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L175">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="M175">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="N175">
         <v>3.4</v>
       </c>
       <c r="O175">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="P175">
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <v>1.775</v>
+      </c>
+      <c r="R175">
+        <v>2.025</v>
+      </c>
+      <c r="S175">
+        <v>2.25</v>
+      </c>
+      <c r="T175">
+        <v>1.975</v>
+      </c>
+      <c r="U175">
+        <v>1.825</v>
+      </c>
+      <c r="V175">
+        <v>1.375</v>
+      </c>
+      <c r="W175">
+        <v>-1</v>
+      </c>
+      <c r="X175">
+        <v>-1</v>
+      </c>
+      <c r="Y175">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="Z175">
+        <v>-1</v>
+      </c>
+      <c r="AA175">
         <v>-0.5</v>
       </c>
-      <c r="Q175">
-        <v>1.95</v>
-      </c>
-      <c r="R175">
-        <v>1.85</v>
-      </c>
-      <c r="S175">
-        <v>2.5</v>
-      </c>
-      <c r="T175">
-        <v>1.875</v>
-      </c>
-      <c r="U175">
-        <v>1.925</v>
-      </c>
-      <c r="V175">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="W175">
-        <v>-1</v>
-      </c>
-      <c r="X175">
-        <v>-1</v>
-      </c>
-      <c r="Y175">
-        <v>0.95</v>
-      </c>
-      <c r="Z175">
-        <v>-1</v>
-      </c>
-      <c r="AA175">
-        <v>-1</v>
-      </c>
       <c r="AB175">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="176" spans="1:28">
@@ -15556,7 +15556,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7157735</v>
+        <v>7157734</v>
       </c>
       <c r="C176" t="s">
         <v>27</v>
@@ -15565,13 +15565,13 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -15580,43 +15580,43 @@
         <v>40</v>
       </c>
       <c r="J176">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="K176">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L176">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="M176">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="N176">
         <v>3.4</v>
       </c>
       <c r="O176">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="P176">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q176">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="R176">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S176">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T176">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U176">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V176">
-        <v>1.375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W176">
         <v>-1</v>
@@ -15625,16 +15625,16 @@
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="177" spans="1:28">

--- a/Scotland League Two/Scotland League Two.xlsx
+++ b/Scotland League Two/Scotland League Two.xlsx
@@ -106,13 +106,13 @@
     <t>Spartans</t>
   </si>
   <si>
-    <t>Stenhousemuir</t>
+    <t>Bonnyrigg Rose</t>
   </si>
   <si>
     <t>Elgin</t>
   </si>
   <si>
-    <t>Bonnyrigg Rose</t>
+    <t>Stenhousemuir</t>
   </si>
   <si>
     <t>Clyde</t>
@@ -121,10 +121,10 @@
     <t>Dumbarton</t>
   </si>
   <si>
-    <t>Peterhead</t>
+    <t>Forfar</t>
   </si>
   <si>
-    <t>Forfar</t>
+    <t>Peterhead</t>
   </si>
   <si>
     <t>Stranraer</t>
@@ -604,7 +604,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6848481</v>
+        <v>6848596</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -776,37 +776,37 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
         <v>39</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K4">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="M4">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="N4">
         <v>3.3</v>
       </c>
       <c r="O4">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="P4">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>1.95</v>
@@ -815,7 +815,7 @@
         <v>1.85</v>
       </c>
       <c r="S4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T4">
         <v>2</v>
@@ -833,10 +833,10 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>-1</v>
@@ -936,7 +936,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6848596</v>
+        <v>6848481</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -948,37 +948,37 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s">
         <v>39</v>
       </c>
       <c r="J6">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L6">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="M6">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="N6">
         <v>3.3</v>
       </c>
       <c r="O6">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q6">
         <v>1.95</v>
@@ -987,7 +987,7 @@
         <v>1.85</v>
       </c>
       <c r="S6">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T6">
         <v>2</v>
@@ -1005,10 +1005,10 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA6">
         <v>-1</v>
@@ -1034,7 +1034,7 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6848486</v>
+        <v>6848485</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -1206,7 +1206,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1218,61 +1218,61 @@
         <v>39</v>
       </c>
       <c r="J9">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K9">
         <v>3.4</v>
       </c>
       <c r="L9">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M9">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="N9">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O9">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="P9">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S9">
         <v>2.5</v>
       </c>
       <c r="T9">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U9">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
         <v>-1</v>
       </c>
       <c r="W9">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1280,7 +1280,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6848485</v>
+        <v>6848486</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1292,7 +1292,7 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1304,61 +1304,61 @@
         <v>39</v>
       </c>
       <c r="J10">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K10">
         <v>3.4</v>
       </c>
       <c r="L10">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M10">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="N10">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O10">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="P10">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q10">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R10">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
         <v>2.5</v>
       </c>
       <c r="T10">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V10">
         <v>-1</v>
       </c>
       <c r="W10">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z10">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1464,7 +1464,7 @@
         <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1722,7 +1722,7 @@
         <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -1805,7 +1805,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
         <v>37</v>
@@ -1977,10 +1977,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2063,7 +2063,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
         <v>29</v>
@@ -2149,7 +2149,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
@@ -2324,7 +2324,7 @@
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2496,7 +2496,7 @@
         <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
         <v>31</v>
@@ -2668,7 +2668,7 @@
         <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2923,7 +2923,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
         <v>37</v>
@@ -3009,10 +3009,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3095,7 +3095,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
         <v>29</v>
@@ -3181,10 +3181,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
         <v>32</v>
-      </c>
-      <c r="F32" t="s">
-        <v>30</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3270,7 +3270,7 @@
         <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3700,7 +3700,7 @@
         <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3786,7 +3786,7 @@
         <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3869,7 +3869,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F40" t="s">
         <v>31</v>
@@ -3955,7 +3955,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F41" t="s">
         <v>33</v>
@@ -4041,10 +4041,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" t="s">
         <v>36</v>
-      </c>
-      <c r="F42" t="s">
-        <v>35</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4385,7 +4385,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F46" t="s">
         <v>33</v>
@@ -4560,7 +4560,7 @@
         <v>31</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4643,7 +4643,7 @@
         <v>45234.5</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
         <v>28</v>
@@ -4720,7 +4720,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6848528</v>
+        <v>6848527</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -4729,43 +4729,43 @@
         <v>45234.5</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
         <v>1</v>
       </c>
-      <c r="H50">
-        <v>2</v>
-      </c>
       <c r="I50" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J50">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="K50">
+        <v>3.4</v>
+      </c>
+      <c r="L50">
         <v>3.6</v>
       </c>
-      <c r="L50">
-        <v>2.1</v>
-      </c>
       <c r="M50">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="N50">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O50">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="P50">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q50">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R50">
         <v>1.875</v>
@@ -4774,31 +4774,31 @@
         <v>2.75</v>
       </c>
       <c r="T50">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V50">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z50">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -4806,7 +4806,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6848527</v>
+        <v>6848529</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
@@ -4815,73 +4815,73 @@
         <v>45234.5</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
         <v>3</v>
       </c>
-      <c r="H51">
+      <c r="I51" t="s">
+        <v>38</v>
+      </c>
+      <c r="J51">
+        <v>2.55</v>
+      </c>
+      <c r="K51">
+        <v>3.3</v>
+      </c>
+      <c r="L51">
+        <v>2.4</v>
+      </c>
+      <c r="M51">
+        <v>2.7</v>
+      </c>
+      <c r="N51">
+        <v>3.3</v>
+      </c>
+      <c r="O51">
+        <v>2.3</v>
+      </c>
+      <c r="P51">
+        <v>0.25</v>
+      </c>
+      <c r="Q51">
+        <v>1.75</v>
+      </c>
+      <c r="R51">
+        <v>2.05</v>
+      </c>
+      <c r="S51">
+        <v>2.5</v>
+      </c>
+      <c r="T51">
+        <v>2</v>
+      </c>
+      <c r="U51">
+        <v>1.8</v>
+      </c>
+      <c r="V51">
+        <v>-1</v>
+      </c>
+      <c r="W51">
+        <v>-1</v>
+      </c>
+      <c r="X51">
+        <v>1.3</v>
+      </c>
+      <c r="Y51">
+        <v>-1</v>
+      </c>
+      <c r="Z51">
+        <v>1.05</v>
+      </c>
+      <c r="AA51">
         <v>1</v>
-      </c>
-      <c r="I51" t="s">
-        <v>40</v>
-      </c>
-      <c r="J51">
-        <v>1.833</v>
-      </c>
-      <c r="K51">
-        <v>3.4</v>
-      </c>
-      <c r="L51">
-        <v>3.6</v>
-      </c>
-      <c r="M51">
-        <v>1.666</v>
-      </c>
-      <c r="N51">
-        <v>3.5</v>
-      </c>
-      <c r="O51">
-        <v>4.75</v>
-      </c>
-      <c r="P51">
-        <v>-0.75</v>
-      </c>
-      <c r="Q51">
-        <v>1.925</v>
-      </c>
-      <c r="R51">
-        <v>1.875</v>
-      </c>
-      <c r="S51">
-        <v>2.75</v>
-      </c>
-      <c r="T51">
-        <v>1.95</v>
-      </c>
-      <c r="U51">
-        <v>1.85</v>
-      </c>
-      <c r="V51">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="W51">
-        <v>-1</v>
-      </c>
-      <c r="X51">
-        <v>-1</v>
-      </c>
-      <c r="Y51">
-        <v>0.925</v>
-      </c>
-      <c r="Z51">
-        <v>-1</v>
-      </c>
-      <c r="AA51">
-        <v>0.95</v>
       </c>
       <c r="AB51">
         <v>-1</v>
@@ -4892,7 +4892,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6848529</v>
+        <v>6848528</v>
       </c>
       <c r="C52" t="s">
         <v>27</v>
@@ -4901,55 +4901,55 @@
         <v>45234.5</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" t="s">
         <v>38</v>
       </c>
       <c r="J52">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="K52">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L52">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="M52">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="N52">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O52">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="P52">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q52">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="R52">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S52">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T52">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U52">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V52">
         <v>-1</v>
@@ -4958,19 +4958,19 @@
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA52">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -4990,7 +4990,7 @@
         <v>34</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G53">
         <v>4</v>
@@ -5073,7 +5073,7 @@
         <v>45241.5</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
         <v>33</v>
@@ -5159,7 +5159,7 @@
         <v>45241.5</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
         <v>37</v>
@@ -5245,7 +5245,7 @@
         <v>45241.5</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F56" t="s">
         <v>29</v>
@@ -5334,7 +5334,7 @@
         <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5503,10 +5503,10 @@
         <v>45244.69791666666</v>
       </c>
       <c r="E59" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5592,7 +5592,7 @@
         <v>37</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5678,7 +5678,7 @@
         <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5761,10 +5761,10 @@
         <v>45248.5</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -6022,7 +6022,7 @@
         <v>31</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6105,7 +6105,7 @@
         <v>45251.69791666666</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F66" t="s">
         <v>28</v>
@@ -6191,10 +6191,10 @@
         <v>45262.5</v>
       </c>
       <c r="E67" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" t="s">
         <v>30</v>
-      </c>
-      <c r="F67" t="s">
-        <v>32</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6277,7 +6277,7 @@
         <v>45262.5</v>
       </c>
       <c r="E68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F68" t="s">
         <v>37</v>
@@ -6366,7 +6366,7 @@
         <v>29</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6526,7 +6526,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6848547</v>
+        <v>6848546</v>
       </c>
       <c r="C71" t="s">
         <v>27</v>
@@ -6535,76 +6535,76 @@
         <v>45269.5</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J71">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="K71">
         <v>3.75</v>
       </c>
       <c r="L71">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="M71">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N71">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O71">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="P71">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="R71">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S71">
         <v>2.5</v>
       </c>
       <c r="T71">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U71">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V71">
         <v>-1</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X71">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z71">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB71">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -6621,10 +6621,10 @@
         <v>45269.5</v>
       </c>
       <c r="E72" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6698,7 +6698,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6848546</v>
+        <v>6848547</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
@@ -6707,76 +6707,76 @@
         <v>45269.5</v>
       </c>
       <c r="E73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J73">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="K73">
         <v>3.75</v>
       </c>
       <c r="L73">
+        <v>2.7</v>
+      </c>
+      <c r="M73">
         <v>2.25</v>
       </c>
-      <c r="M73">
-        <v>2.5</v>
-      </c>
       <c r="N73">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O73">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q73">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="R73">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S73">
         <v>2.5</v>
       </c>
       <c r="T73">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U73">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
         <v>-1</v>
       </c>
       <c r="W73">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -6784,7 +6784,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6848550</v>
+        <v>6848551</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
@@ -6793,13 +6793,13 @@
         <v>45276.5</v>
       </c>
       <c r="E74" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74">
         <v>4</v>
@@ -6808,41 +6808,41 @@
         <v>38</v>
       </c>
       <c r="J74">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="K74">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L74">
         <v>2.1</v>
       </c>
       <c r="M74">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="N74">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O74">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="P74">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q74">
+        <v>2</v>
+      </c>
+      <c r="R74">
+        <v>1.8</v>
+      </c>
+      <c r="S74">
+        <v>2.25</v>
+      </c>
+      <c r="T74">
+        <v>1.825</v>
+      </c>
+      <c r="U74">
         <v>1.975</v>
       </c>
-      <c r="R74">
-        <v>1.875</v>
-      </c>
-      <c r="S74">
-        <v>2.5</v>
-      </c>
-      <c r="T74">
-        <v>1.925</v>
-      </c>
-      <c r="U74">
-        <v>1.925</v>
-      </c>
       <c r="V74">
         <v>-1</v>
       </c>
@@ -6850,16 +6850,16 @@
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>0.6499999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB74">
         <v>-1</v>
@@ -6882,7 +6882,7 @@
         <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -6965,7 +6965,7 @@
         <v>45276.5</v>
       </c>
       <c r="E76" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F76" t="s">
         <v>28</v>
@@ -7042,7 +7042,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6848552</v>
+        <v>6848550</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7051,76 +7051,76 @@
         <v>45276.5</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I77" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J77">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="K77">
+        <v>3.75</v>
+      </c>
+      <c r="L77">
+        <v>2.1</v>
+      </c>
+      <c r="M77">
+        <v>4.2</v>
+      </c>
+      <c r="N77">
         <v>4</v>
       </c>
-      <c r="L77">
-        <v>5</v>
-      </c>
-      <c r="M77">
-        <v>1.45</v>
-      </c>
-      <c r="N77">
-        <v>3.8</v>
-      </c>
       <c r="O77">
-        <v>6</v>
+        <v>1.65</v>
       </c>
       <c r="P77">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Q77">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R77">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S77">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T77">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y77">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA77">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7128,7 +7128,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6848551</v>
+        <v>6848552</v>
       </c>
       <c r="C78" t="s">
         <v>27</v>
@@ -7140,73 +7140,73 @@
         <v>36</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G78">
         <v>2</v>
       </c>
       <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
+        <v>40</v>
+      </c>
+      <c r="J78">
+        <v>1.5</v>
+      </c>
+      <c r="K78">
         <v>4</v>
       </c>
-      <c r="I78" t="s">
-        <v>38</v>
-      </c>
-      <c r="J78">
-        <v>2.8</v>
-      </c>
-      <c r="K78">
-        <v>3.5</v>
-      </c>
       <c r="L78">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="M78">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="N78">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O78">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="P78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q78">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R78">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S78">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T78">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U78">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V78">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z78">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA78">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7226,7 +7226,7 @@
         <v>28</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7395,7 +7395,7 @@
         <v>45283.5</v>
       </c>
       <c r="E81" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
         <v>31</v>
@@ -7567,10 +7567,10 @@
         <v>45283.5</v>
       </c>
       <c r="E83" t="s">
+        <v>36</v>
+      </c>
+      <c r="F83" t="s">
         <v>35</v>
-      </c>
-      <c r="F83" t="s">
-        <v>36</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7653,7 +7653,7 @@
         <v>45290.5</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
         <v>28</v>
@@ -7742,7 +7742,7 @@
         <v>31</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7828,7 +7828,7 @@
         <v>33</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7914,7 +7914,7 @@
         <v>33</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G87">
         <v>3</v>
@@ -8169,7 +8169,7 @@
         <v>45297.5</v>
       </c>
       <c r="E90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F90" t="s">
         <v>29</v>
@@ -8255,10 +8255,10 @@
         <v>45297.5</v>
       </c>
       <c r="E91" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8341,7 +8341,7 @@
         <v>45300.69791666666</v>
       </c>
       <c r="E92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F92" t="s">
         <v>34</v>
@@ -8427,7 +8427,7 @@
         <v>45304.5</v>
       </c>
       <c r="E93" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F93" t="s">
         <v>34</v>
@@ -8516,7 +8516,7 @@
         <v>29</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8602,7 +8602,7 @@
         <v>37</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8685,7 +8685,7 @@
         <v>45304.5</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F96" t="s">
         <v>31</v>
@@ -8848,7 +8848,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6848575</v>
+        <v>6848576</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -8857,76 +8857,76 @@
         <v>45311.5</v>
       </c>
       <c r="E98" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J98">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="K98">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="L98">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="M98">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="N98">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="O98">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="P98">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q98">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R98">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S98">
         <v>2.5</v>
       </c>
       <c r="T98">
+        <v>1.825</v>
+      </c>
+      <c r="U98">
         <v>1.975</v>
       </c>
-      <c r="U98">
-        <v>1.825</v>
-      </c>
       <c r="V98">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W98">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA98">
+        <v>-1</v>
+      </c>
+      <c r="AB98">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB98">
-        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -8934,7 +8934,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6848576</v>
+        <v>6848575</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
@@ -8943,76 +8943,76 @@
         <v>45311.5</v>
       </c>
       <c r="E99" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J99">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="K99">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="L99">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="M99">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="N99">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="O99">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="P99">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R99">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S99">
         <v>2.5</v>
       </c>
       <c r="T99">
+        <v>1.975</v>
+      </c>
+      <c r="U99">
         <v>1.825</v>
       </c>
-      <c r="U99">
-        <v>1.975</v>
-      </c>
       <c r="V99">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z99">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB99">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9201,10 +9201,10 @@
         <v>45318.5</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9287,10 +9287,10 @@
         <v>45318.5</v>
       </c>
       <c r="E103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9631,7 +9631,7 @@
         <v>45325.5</v>
       </c>
       <c r="E107" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F107" t="s">
         <v>37</v>
@@ -9717,7 +9717,7 @@
         <v>45325.5</v>
       </c>
       <c r="E108" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F108" t="s">
         <v>34</v>
@@ -9803,7 +9803,7 @@
         <v>45325.5</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F109" t="s">
         <v>29</v>
@@ -9978,7 +9978,7 @@
         <v>33</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10061,7 +10061,7 @@
         <v>45328.69791666666</v>
       </c>
       <c r="E112" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F112" t="s">
         <v>31</v>
@@ -10322,7 +10322,7 @@
         <v>28</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10408,7 +10408,7 @@
         <v>34</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10577,10 +10577,10 @@
         <v>45339.5</v>
       </c>
       <c r="E118" t="s">
+        <v>35</v>
+      </c>
+      <c r="F118" t="s">
         <v>36</v>
-      </c>
-      <c r="F118" t="s">
-        <v>35</v>
       </c>
       <c r="G118">
         <v>3</v>
@@ -10749,7 +10749,7 @@
         <v>45339.5</v>
       </c>
       <c r="E120" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F120" t="s">
         <v>28</v>
@@ -10924,7 +10924,7 @@
         <v>31</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -11010,7 +11010,7 @@
         <v>33</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11093,10 +11093,10 @@
         <v>45342.69791666666</v>
       </c>
       <c r="E124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11256,7 +11256,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6848595</v>
+        <v>6852275</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
@@ -11265,76 +11265,76 @@
         <v>45346.5</v>
       </c>
       <c r="E126" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H126">
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J126">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="K126">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L126">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M126">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="N126">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O126">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P126">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q126">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R126">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S126">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T126">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U126">
         <v>1.9</v>
       </c>
       <c r="V126">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA126">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="127" spans="1:28">
@@ -11342,7 +11342,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6852275</v>
+        <v>6848595</v>
       </c>
       <c r="C127" t="s">
         <v>27</v>
@@ -11351,76 +11351,76 @@
         <v>45346.5</v>
       </c>
       <c r="E127" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H127">
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J127">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="K127">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L127">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M127">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="N127">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="O127">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P127">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q127">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R127">
+        <v>2.05</v>
+      </c>
+      <c r="S127">
+        <v>2.25</v>
+      </c>
+      <c r="T127">
         <v>1.95</v>
-      </c>
-      <c r="S127">
-        <v>2.5</v>
-      </c>
-      <c r="T127">
-        <v>1.9</v>
       </c>
       <c r="U127">
         <v>1.9</v>
       </c>
       <c r="V127">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W127">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z127">
+        <v>-1</v>
+      </c>
+      <c r="AA127">
         <v>0.95</v>
       </c>
-      <c r="AA127">
-        <v>-1</v>
-      </c>
       <c r="AB127">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:28">
@@ -11440,7 +11440,7 @@
         <v>28</v>
       </c>
       <c r="F128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11523,7 +11523,7 @@
         <v>45346.5</v>
       </c>
       <c r="E129" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F129" t="s">
         <v>33</v>
@@ -11612,7 +11612,7 @@
         <v>34</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -11695,10 +11695,10 @@
         <v>45353.5</v>
       </c>
       <c r="E131" t="s">
+        <v>30</v>
+      </c>
+      <c r="F131" t="s">
         <v>32</v>
-      </c>
-      <c r="F131" t="s">
-        <v>30</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11784,7 +11784,7 @@
         <v>37</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -12030,7 +12030,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7128584</v>
+        <v>7697801</v>
       </c>
       <c r="C135" t="s">
         <v>27</v>
@@ -12039,43 +12039,43 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G135">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J135">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="K135">
         <v>3.5</v>
       </c>
       <c r="L135">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="M135">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="N135">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O135">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="P135">
         <v>0.25</v>
       </c>
       <c r="Q135">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R135">
         <v>2.025</v>
@@ -12087,22 +12087,22 @@
         <v>1.825</v>
       </c>
       <c r="U135">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V135">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
         <v>0.825</v>
@@ -12116,7 +12116,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7697801</v>
+        <v>7128584</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
@@ -12125,43 +12125,43 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E136" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F136" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G136">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J136">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="K136">
         <v>3.5</v>
       </c>
       <c r="L136">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="M136">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="N136">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O136">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="P136">
         <v>0.25</v>
       </c>
       <c r="Q136">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="R136">
         <v>2.025</v>
@@ -12173,22 +12173,22 @@
         <v>1.825</v>
       </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V136">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
         <v>0.825</v>
@@ -12211,7 +12211,7 @@
         <v>45360.5</v>
       </c>
       <c r="E137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F137" t="s">
         <v>37</v>
@@ -12300,7 +12300,7 @@
         <v>31</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12383,7 +12383,7 @@
         <v>45360.5</v>
       </c>
       <c r="E139" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F139" t="s">
         <v>29</v>
@@ -12469,7 +12469,7 @@
         <v>45360.5</v>
       </c>
       <c r="E140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F140" t="s">
         <v>33</v>
@@ -12641,7 +12641,7 @@
         <v>45367.5</v>
       </c>
       <c r="E142" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F142" t="s">
         <v>28</v>
@@ -12813,7 +12813,7 @@
         <v>45367.5</v>
       </c>
       <c r="E144" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F144" t="s">
         <v>33</v>
@@ -12985,10 +12985,10 @@
         <v>45367.5</v>
       </c>
       <c r="E146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13074,7 +13074,7 @@
         <v>34</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -13160,7 +13160,7 @@
         <v>31</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13415,10 +13415,10 @@
         <v>45374.5</v>
       </c>
       <c r="E151" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13504,7 +13504,7 @@
         <v>29</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13587,7 +13587,7 @@
         <v>45381.5</v>
       </c>
       <c r="E153" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F153" t="s">
         <v>33</v>
@@ -13762,7 +13762,7 @@
         <v>34</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13848,7 +13848,7 @@
         <v>37</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -14017,10 +14017,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E158" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -14180,7 +14180,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7075092</v>
+        <v>7075091</v>
       </c>
       <c r="C160" t="s">
         <v>27</v>
@@ -14189,76 +14189,76 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E160" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F160" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G160">
         <v>0</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J160">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="K160">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L160">
-        <v>4.8</v>
+        <v>2.25</v>
       </c>
       <c r="M160">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N160">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O160">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="P160">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q160">
+        <v>1.875</v>
+      </c>
+      <c r="R160">
         <v>1.975</v>
-      </c>
-      <c r="R160">
-        <v>1.875</v>
       </c>
       <c r="S160">
         <v>2.5</v>
       </c>
       <c r="T160">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U160">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V160">
         <v>-1</v>
       </c>
       <c r="W160">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA160">
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="161" spans="1:28">
@@ -14266,7 +14266,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7075091</v>
+        <v>7075092</v>
       </c>
       <c r="C161" t="s">
         <v>27</v>
@@ -14275,76 +14275,76 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E161" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G161">
         <v>0</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J161">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="K161">
+        <v>3.6</v>
+      </c>
+      <c r="L161">
+        <v>4.8</v>
+      </c>
+      <c r="M161">
+        <v>1.909</v>
+      </c>
+      <c r="N161">
         <v>3.3</v>
       </c>
-      <c r="L161">
-        <v>2.25</v>
-      </c>
-      <c r="M161">
-        <v>3</v>
-      </c>
-      <c r="N161">
-        <v>3.25</v>
-      </c>
       <c r="O161">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="P161">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q161">
+        <v>1.975</v>
+      </c>
+      <c r="R161">
         <v>1.875</v>
-      </c>
-      <c r="R161">
-        <v>1.975</v>
       </c>
       <c r="S161">
         <v>2.5</v>
       </c>
       <c r="T161">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U161">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V161">
         <v>-1</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X161">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA161">
         <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="162" spans="1:28">
@@ -14364,7 +14364,7 @@
         <v>28</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14524,7 +14524,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7092310</v>
+        <v>7092320</v>
       </c>
       <c r="C164" t="s">
         <v>27</v>
@@ -14533,58 +14533,58 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E164" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G164">
+        <v>2</v>
+      </c>
+      <c r="H164">
         <v>1</v>
-      </c>
-      <c r="H164">
-        <v>0</v>
       </c>
       <c r="I164" t="s">
         <v>40</v>
       </c>
       <c r="J164">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="K164">
+        <v>3.2</v>
+      </c>
+      <c r="L164">
         <v>3.6</v>
       </c>
-      <c r="L164">
-        <v>5</v>
-      </c>
       <c r="M164">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="N164">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O164">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P164">
         <v>-0.5</v>
       </c>
       <c r="Q164">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R164">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S164">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T164">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U164">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V164">
-        <v>0.833</v>
+        <v>0.909</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -14593,16 +14593,16 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB164">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:28">
@@ -14610,7 +14610,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7092320</v>
+        <v>7092310</v>
       </c>
       <c r="C165" t="s">
         <v>27</v>
@@ -14619,58 +14619,58 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E165" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="s">
         <v>40</v>
       </c>
       <c r="J165">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="K165">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L165">
+        <v>5</v>
+      </c>
+      <c r="M165">
+        <v>1.833</v>
+      </c>
+      <c r="N165">
         <v>3.6</v>
       </c>
-      <c r="M165">
-        <v>1.909</v>
-      </c>
-      <c r="N165">
-        <v>3.1</v>
-      </c>
       <c r="O165">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P165">
         <v>-0.5</v>
       </c>
       <c r="Q165">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="R165">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S165">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T165">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U165">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V165">
-        <v>0.909</v>
+        <v>0.833</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -14679,16 +14679,16 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="166" spans="1:28">
@@ -14705,7 +14705,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E166" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F166" t="s">
         <v>31</v>
@@ -14791,7 +14791,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E167" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F167" t="s">
         <v>29</v>
@@ -14880,7 +14880,7 @@
         <v>33</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -14966,7 +14966,7 @@
         <v>31</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -15049,7 +15049,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F170" t="s">
         <v>28</v>
@@ -15393,7 +15393,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F174" t="s">
         <v>37</v>
@@ -15479,10 +15479,10 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E175" t="s">
+        <v>32</v>
+      </c>
+      <c r="F175" t="s">
         <v>30</v>
-      </c>
-      <c r="F175" t="s">
-        <v>32</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15568,7 +15568,7 @@
         <v>29</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G176">
         <v>2</v>
@@ -15823,10 +15823,10 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E179" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G179">
         <v>4</v>
@@ -15909,7 +15909,7 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E180" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F180" t="s">
         <v>34</v>
@@ -15998,7 +15998,7 @@
         <v>37</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G181">
         <v>2</v>

--- a/Scotland League Two/Scotland League Two.xlsx
+++ b/Scotland League Two/Scotland League Two.xlsx
@@ -3430,7 +3430,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6848507</v>
+        <v>6848508</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
@@ -3439,43 +3439,43 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J35">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="K35">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L35">
         <v>3.4</v>
       </c>
       <c r="M35">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N35">
+        <v>3.4</v>
+      </c>
+      <c r="O35">
         <v>3.2</v>
       </c>
-      <c r="O35">
-        <v>2.625</v>
-      </c>
       <c r="P35">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q35">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R35">
         <v>1.875</v>
@@ -3484,31 +3484,31 @@
         <v>2.5</v>
       </c>
       <c r="T35">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U35">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V35">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z35">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB35">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3516,7 +3516,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6848508</v>
+        <v>6848507</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
@@ -3525,43 +3525,43 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J36">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="K36">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L36">
         <v>3.4</v>
       </c>
       <c r="M36">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N36">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O36">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="P36">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R36">
         <v>1.875</v>
@@ -3570,31 +3570,31 @@
         <v>2.5</v>
       </c>
       <c r="T36">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="U36">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V36">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y36">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA36">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -5666,7 +5666,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6848537</v>
+        <v>6848538</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
@@ -5675,76 +5675,76 @@
         <v>45248.5</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J61">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="K61">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="L61">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="M61">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="N61">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="O61">
-        <v>7</v>
+        <v>1.95</v>
       </c>
       <c r="P61">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q61">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T61">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V61">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB61">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:28">
@@ -5752,7 +5752,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6848538</v>
+        <v>6848536</v>
       </c>
       <c r="C62" t="s">
         <v>27</v>
@@ -5761,55 +5761,55 @@
         <v>45248.5</v>
       </c>
       <c r="E62" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F62" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I62" t="s">
         <v>39</v>
       </c>
       <c r="J62">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K62">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L62">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="M62">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="N62">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O62">
+        <v>2.4</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
         <v>1.95</v>
       </c>
-      <c r="P62">
-        <v>0.5</v>
-      </c>
-      <c r="Q62">
-        <v>1.875</v>
-      </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S62">
         <v>2.5</v>
       </c>
       <c r="T62">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U62">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
         <v>-1</v>
@@ -5818,16 +5818,16 @@
         <v>-1</v>
       </c>
       <c r="X62">
+        <v>1.4</v>
+      </c>
+      <c r="Y62">
+        <v>-1</v>
+      </c>
+      <c r="Z62">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA62">
         <v>0.95</v>
-      </c>
-      <c r="Y62">
-        <v>-1</v>
-      </c>
-      <c r="Z62">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA62">
-        <v>0.875</v>
       </c>
       <c r="AB62">
         <v>-1</v>
@@ -5838,7 +5838,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6848535</v>
+        <v>6848537</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
@@ -5847,76 +5847,76 @@
         <v>45248.5</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J63">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="K63">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="L63">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M63">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="N63">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="O63">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q63">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="R63">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T63">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V63">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z63">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -5924,7 +5924,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6848536</v>
+        <v>6848535</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
@@ -5933,46 +5933,46 @@
         <v>45248.5</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I64" t="s">
         <v>39</v>
       </c>
       <c r="J64">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="K64">
         <v>3.6</v>
       </c>
       <c r="L64">
+        <v>3.3</v>
+      </c>
+      <c r="M64">
+        <v>2.45</v>
+      </c>
+      <c r="N64">
+        <v>3.4</v>
+      </c>
+      <c r="O64">
         <v>2.7</v>
       </c>
-      <c r="M64">
-        <v>2.7</v>
-      </c>
-      <c r="N64">
-        <v>3.5</v>
-      </c>
-      <c r="O64">
-        <v>2.4</v>
-      </c>
       <c r="P64">
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="R64">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S64">
         <v>2.5</v>
@@ -5990,19 +5990,19 @@
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
+        <v>1.025</v>
+      </c>
+      <c r="AA64">
+        <v>-1</v>
+      </c>
+      <c r="AB64">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA64">
-        <v>0.95</v>
-      </c>
-      <c r="AB64">
-        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6010,7 +6010,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7396254</v>
+        <v>7451460</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
@@ -6019,58 +6019,58 @@
         <v>45251.69791666666</v>
       </c>
       <c r="E65" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="s">
         <v>40</v>
       </c>
       <c r="J65">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="K65">
+        <v>3.5</v>
+      </c>
+      <c r="L65">
+        <v>3.1</v>
+      </c>
+      <c r="M65">
+        <v>2.6</v>
+      </c>
+      <c r="N65">
         <v>3.4</v>
       </c>
-      <c r="L65">
-        <v>2.8</v>
-      </c>
-      <c r="M65">
-        <v>2.9</v>
-      </c>
-      <c r="N65">
-        <v>3.1</v>
-      </c>
       <c r="O65">
+        <v>2.55</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>1.925</v>
+      </c>
+      <c r="R65">
+        <v>1.875</v>
+      </c>
+      <c r="S65">
         <v>2.5</v>
       </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>2.05</v>
-      </c>
-      <c r="R65">
-        <v>1.75</v>
-      </c>
-      <c r="S65">
-        <v>2.25</v>
-      </c>
       <c r="T65">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U65">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V65">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6079,16 +6079,16 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB65">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6096,7 +6096,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7451460</v>
+        <v>7396254</v>
       </c>
       <c r="C66" t="s">
         <v>27</v>
@@ -6105,58 +6105,58 @@
         <v>45251.69791666666</v>
       </c>
       <c r="E66" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="s">
         <v>40</v>
       </c>
       <c r="J66">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="K66">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L66">
+        <v>2.8</v>
+      </c>
+      <c r="M66">
+        <v>2.9</v>
+      </c>
+      <c r="N66">
         <v>3.1</v>
       </c>
-      <c r="M66">
-        <v>2.6</v>
-      </c>
-      <c r="N66">
-        <v>3.4</v>
-      </c>
       <c r="O66">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="P66">
         <v>0</v>
       </c>
       <c r="Q66">
+        <v>2.05</v>
+      </c>
+      <c r="R66">
+        <v>1.75</v>
+      </c>
+      <c r="S66">
+        <v>2.25</v>
+      </c>
+      <c r="T66">
         <v>1.925</v>
       </c>
-      <c r="R66">
+      <c r="U66">
         <v>1.875</v>
       </c>
-      <c r="S66">
-        <v>2.5</v>
-      </c>
-      <c r="T66">
-        <v>2</v>
-      </c>
-      <c r="U66">
-        <v>1.8</v>
-      </c>
       <c r="V66">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6165,16 +6165,16 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -7042,7 +7042,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6848550</v>
+        <v>6848551</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7051,13 +7051,13 @@
         <v>45276.5</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H77">
         <v>4</v>
@@ -7066,41 +7066,41 @@
         <v>39</v>
       </c>
       <c r="J77">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="K77">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L77">
         <v>2.1</v>
       </c>
       <c r="M77">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="N77">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O77">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="P77">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q77">
+        <v>2</v>
+      </c>
+      <c r="R77">
+        <v>1.8</v>
+      </c>
+      <c r="S77">
+        <v>2.25</v>
+      </c>
+      <c r="T77">
+        <v>1.825</v>
+      </c>
+      <c r="U77">
         <v>1.975</v>
       </c>
-      <c r="R77">
-        <v>1.875</v>
-      </c>
-      <c r="S77">
-        <v>2.5</v>
-      </c>
-      <c r="T77">
-        <v>1.925</v>
-      </c>
-      <c r="U77">
-        <v>1.925</v>
-      </c>
       <c r="V77">
         <v>-1</v>
       </c>
@@ -7108,16 +7108,16 @@
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>0.6499999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA77">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB77">
         <v>-1</v>
@@ -7128,7 +7128,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6848551</v>
+        <v>6848550</v>
       </c>
       <c r="C78" t="s">
         <v>27</v>
@@ -7137,13 +7137,13 @@
         <v>45276.5</v>
       </c>
       <c r="E78" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H78">
         <v>4</v>
@@ -7152,40 +7152,40 @@
         <v>39</v>
       </c>
       <c r="J78">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="K78">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L78">
         <v>2.1</v>
       </c>
       <c r="M78">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="N78">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="O78">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="P78">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q78">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R78">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S78">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T78">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U78">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V78">
         <v>-1</v>
@@ -7194,16 +7194,16 @@
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>1.4</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA78">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB78">
         <v>-1</v>
@@ -7300,7 +7300,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6848558</v>
+        <v>6848556</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
@@ -7309,73 +7309,73 @@
         <v>45283.5</v>
       </c>
       <c r="E80" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J80">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="K80">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L80">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M80">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="N80">
         <v>3.5</v>
       </c>
       <c r="O80">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P80">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q80">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R80">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S80">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T80">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U80">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V80">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y80">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA80">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB80">
         <v>-1</v>
@@ -7472,7 +7472,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6848556</v>
+        <v>6848558</v>
       </c>
       <c r="C82" t="s">
         <v>27</v>
@@ -7481,73 +7481,73 @@
         <v>45283.5</v>
       </c>
       <c r="E82" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J82">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="K82">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L82">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M82">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="N82">
         <v>3.5</v>
       </c>
       <c r="O82">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P82">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q82">
+        <v>1.9</v>
+      </c>
+      <c r="R82">
+        <v>1.9</v>
+      </c>
+      <c r="S82">
+        <v>2.5</v>
+      </c>
+      <c r="T82">
+        <v>1.85</v>
+      </c>
+      <c r="U82">
         <v>1.95</v>
       </c>
-      <c r="R82">
-        <v>1.85</v>
-      </c>
-      <c r="S82">
-        <v>2.25</v>
-      </c>
-      <c r="T82">
-        <v>1.8</v>
-      </c>
-      <c r="U82">
-        <v>2</v>
-      </c>
       <c r="V82">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z82">
+        <v>-1</v>
+      </c>
+      <c r="AA82">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA82">
-        <v>0.8</v>
       </c>
       <c r="AB82">
         <v>-1</v>
@@ -7644,7 +7644,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6848561</v>
+        <v>6848560</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7653,46 +7653,46 @@
         <v>45290.5</v>
       </c>
       <c r="E84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J84">
+        <v>4.333</v>
+      </c>
+      <c r="K84">
         <v>3.75</v>
       </c>
-      <c r="K84">
-        <v>3.6</v>
-      </c>
       <c r="L84">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="M84">
         <v>4</v>
       </c>
       <c r="N84">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O84">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="P84">
         <v>0.75</v>
       </c>
       <c r="Q84">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R84">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S84">
         <v>2.5</v>
@@ -7704,19 +7704,19 @@
         <v>2</v>
       </c>
       <c r="V84">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y84">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA84">
         <v>0.8</v>
@@ -7730,7 +7730,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6848560</v>
+        <v>6848561</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
@@ -7739,46 +7739,46 @@
         <v>45290.5</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F85" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G85">
+        <v>2</v>
+      </c>
+      <c r="H85">
         <v>1</v>
       </c>
-      <c r="H85">
-        <v>2</v>
-      </c>
       <c r="I85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J85">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="K85">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L85">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="M85">
         <v>4</v>
       </c>
       <c r="N85">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O85">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="P85">
         <v>0.75</v>
       </c>
       <c r="Q85">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R85">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S85">
         <v>2.5</v>
@@ -7790,19 +7790,19 @@
         <v>2</v>
       </c>
       <c r="V85">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="Z85">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
         <v>0.8</v>
@@ -7902,7 +7902,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6848564</v>
+        <v>6848565</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
@@ -7911,76 +7911,76 @@
         <v>45297.5</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
         <v>1</v>
       </c>
-      <c r="H87">
-        <v>2</v>
-      </c>
       <c r="I87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J87">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="K87">
         <v>3.75</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="M87">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="N87">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="O87">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="P87">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q87">
         <v>2.05</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S87">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T87">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U87">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V87">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
       <c r="AB87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8074,7 +8074,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6848565</v>
+        <v>6848564</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8083,76 +8083,76 @@
         <v>45297.5</v>
       </c>
       <c r="E89" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J89">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="K89">
         <v>3.75</v>
       </c>
       <c r="L89">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="M89">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="N89">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="O89">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
       </c>
       <c r="R89">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T89">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U89">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y89">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8848,7 +8848,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6848576</v>
+        <v>6848575</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -8857,76 +8857,76 @@
         <v>45311.5</v>
       </c>
       <c r="E98" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J98">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="K98">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="L98">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="M98">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="N98">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="O98">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="P98">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q98">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R98">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S98">
         <v>2.5</v>
       </c>
       <c r="T98">
+        <v>1.975</v>
+      </c>
+      <c r="U98">
         <v>1.825</v>
       </c>
-      <c r="U98">
-        <v>1.975</v>
-      </c>
       <c r="V98">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z98">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB98">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -8934,7 +8934,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6848575</v>
+        <v>6848576</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
@@ -8943,76 +8943,76 @@
         <v>45311.5</v>
       </c>
       <c r="E99" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J99">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="K99">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="L99">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="M99">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="N99">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="O99">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="P99">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q99">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R99">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S99">
         <v>2.5</v>
       </c>
       <c r="T99">
+        <v>1.825</v>
+      </c>
+      <c r="U99">
         <v>1.975</v>
       </c>
-      <c r="U99">
-        <v>1.825</v>
-      </c>
       <c r="V99">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W99">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA99">
+        <v>-1</v>
+      </c>
+      <c r="AB99">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB99">
-        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9192,7 +9192,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6848581</v>
+        <v>6848580</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
@@ -9201,40 +9201,40 @@
         <v>45318.5</v>
       </c>
       <c r="E102" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J102">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="K102">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L102">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="M102">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="N102">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P102">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -9246,19 +9246,19 @@
         <v>2.5</v>
       </c>
       <c r="T102">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V102">
         <v>-1</v>
       </c>
       <c r="W102">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y102">
         <v>-1</v>
@@ -9270,7 +9270,7 @@
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9278,7 +9278,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6848579</v>
+        <v>6848581</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
@@ -9287,76 +9287,76 @@
         <v>45318.5</v>
       </c>
       <c r="E103" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F103" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J103">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="K103">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L103">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="M103">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="N103">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O103">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P103">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q103">
         <v>2</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S103">
         <v>2.5</v>
       </c>
       <c r="T103">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9364,7 +9364,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6848580</v>
+        <v>6848579</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -9373,76 +9373,76 @@
         <v>45318.5</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J104">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="K104">
+        <v>3.5</v>
+      </c>
+      <c r="L104">
+        <v>2.1</v>
+      </c>
+      <c r="M104">
+        <v>3.1</v>
+      </c>
+      <c r="N104">
         <v>3.4</v>
       </c>
-      <c r="L104">
-        <v>2.875</v>
-      </c>
-      <c r="M104">
-        <v>2.25</v>
-      </c>
-      <c r="N104">
-        <v>3.1</v>
-      </c>
       <c r="O104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P104">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q104">
         <v>2</v>
       </c>
       <c r="R104">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
         <v>2.5</v>
       </c>
       <c r="T104">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U104">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V104">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB104">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -10138,7 +10138,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6848587</v>
+        <v>6848586</v>
       </c>
       <c r="C113" t="s">
         <v>27</v>
@@ -10147,76 +10147,76 @@
         <v>45332.5</v>
       </c>
       <c r="E113" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F113" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="s">
         <v>38</v>
       </c>
       <c r="J113">
-        <v>3.4</v>
+        <v>1.615</v>
       </c>
       <c r="K113">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L113">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="M113">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="N113">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O113">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="P113">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q113">
+        <v>1.975</v>
+      </c>
+      <c r="R113">
         <v>1.825</v>
       </c>
-      <c r="R113">
-        <v>1.975</v>
-      </c>
       <c r="S113">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T113">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V113">
         <v>-1</v>
       </c>
       <c r="W113">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
+        <v>-1</v>
+      </c>
+      <c r="Z113">
         <v>0.825</v>
       </c>
-      <c r="Z113">
-        <v>-1</v>
-      </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -10224,7 +10224,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6848586</v>
+        <v>6848587</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
@@ -10233,76 +10233,76 @@
         <v>45332.5</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="s">
         <v>38</v>
       </c>
       <c r="J114">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="K114">
+        <v>3.4</v>
+      </c>
+      <c r="L114">
+        <v>1.909</v>
+      </c>
+      <c r="M114">
         <v>3.75</v>
       </c>
-      <c r="L114">
-        <v>4.333</v>
-      </c>
-      <c r="M114">
-        <v>1.7</v>
-      </c>
       <c r="N114">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O114">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="P114">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q114">
+        <v>1.825</v>
+      </c>
+      <c r="R114">
         <v>1.975</v>
       </c>
-      <c r="R114">
-        <v>1.825</v>
-      </c>
       <c r="S114">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T114">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U114">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
         <v>-1</v>
       </c>
       <c r="W114">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z114">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -12718,7 +12718,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6973851</v>
+        <v>6958742</v>
       </c>
       <c r="C143" t="s">
         <v>27</v>
@@ -12727,55 +12727,55 @@
         <v>45367.5</v>
       </c>
       <c r="E143" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I143" t="s">
         <v>39</v>
       </c>
       <c r="J143">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="K143">
+        <v>3.4</v>
+      </c>
+      <c r="L143">
+        <v>3.1</v>
+      </c>
+      <c r="M143">
+        <v>2.1</v>
+      </c>
+      <c r="N143">
+        <v>3.3</v>
+      </c>
+      <c r="O143">
         <v>3.25</v>
       </c>
-      <c r="L143">
-        <v>2.7</v>
-      </c>
-      <c r="M143">
-        <v>2.45</v>
-      </c>
-      <c r="N143">
-        <v>3.25</v>
-      </c>
-      <c r="O143">
-        <v>2.7</v>
-      </c>
       <c r="P143">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q143">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R143">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S143">
         <v>2.5</v>
       </c>
       <c r="T143">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U143">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V143">
         <v>-1</v>
@@ -12784,16 +12784,16 @@
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA143">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB143">
         <v>-1</v>
@@ -12804,7 +12804,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6958742</v>
+        <v>6973852</v>
       </c>
       <c r="C144" t="s">
         <v>27</v>
@@ -12813,76 +12813,76 @@
         <v>45367.5</v>
       </c>
       <c r="E144" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H144">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J144">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K144">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L144">
+        <v>3</v>
+      </c>
+      <c r="M144">
+        <v>2.3</v>
+      </c>
+      <c r="N144">
         <v>3.1</v>
       </c>
-      <c r="M144">
-        <v>2.1</v>
-      </c>
-      <c r="N144">
-        <v>3.3</v>
-      </c>
       <c r="O144">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P144">
         <v>-0.25</v>
       </c>
       <c r="Q144">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="R144">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S144">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T144">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U144">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
         <v>-1</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X144">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z144">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA144">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -12890,7 +12890,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6973852</v>
+        <v>6973851</v>
       </c>
       <c r="C145" t="s">
         <v>27</v>
@@ -12899,52 +12899,52 @@
         <v>45367.5</v>
       </c>
       <c r="E145" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G145">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J145">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="K145">
         <v>3.25</v>
       </c>
       <c r="L145">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="M145">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="N145">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O145">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P145">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q145">
+        <v>1.825</v>
+      </c>
+      <c r="R145">
         <v>2.025</v>
       </c>
-      <c r="R145">
-        <v>1.775</v>
-      </c>
       <c r="S145">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T145">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U145">
         <v>1.925</v>
@@ -12953,22 +12953,22 @@
         <v>-1</v>
       </c>
       <c r="W145">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.3875</v>
+        <v>1.025</v>
       </c>
       <c r="AA145">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB145">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -14352,7 +14352,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7092321</v>
+        <v>7092320</v>
       </c>
       <c r="C162" t="s">
         <v>27</v>
@@ -14361,76 +14361,76 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H162">
         <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J162">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="K162">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="L162">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M162">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N162">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O162">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P162">
         <v>-0.5</v>
       </c>
       <c r="Q162">
+        <v>2.025</v>
+      </c>
+      <c r="R162">
         <v>1.825</v>
-      </c>
-      <c r="R162">
-        <v>1.975</v>
       </c>
       <c r="S162">
         <v>2.25</v>
       </c>
       <c r="T162">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U162">
         <v>2</v>
       </c>
       <c r="V162">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W162">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z162">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB162">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:28">
@@ -14438,7 +14438,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7092320</v>
+        <v>7092321</v>
       </c>
       <c r="C163" t="s">
         <v>27</v>
@@ -14447,76 +14447,76 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H163">
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J163">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="K163">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L163">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M163">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="N163">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O163">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P163">
         <v>-0.5</v>
       </c>
       <c r="Q163">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="R163">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S163">
         <v>2.25</v>
       </c>
       <c r="T163">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U163">
         <v>2</v>
       </c>
       <c r="V163">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA163">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="164" spans="1:28">
@@ -14524,7 +14524,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7092319</v>
+        <v>7092311</v>
       </c>
       <c r="C164" t="s">
         <v>27</v>
@@ -14533,76 +14533,76 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E164" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J164">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="K164">
         <v>3.3</v>
       </c>
       <c r="L164">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M164">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N164">
         <v>3.2</v>
       </c>
       <c r="O164">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P164">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q164">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R164">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S164">
         <v>2.5</v>
       </c>
       <c r="T164">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U164">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V164">
         <v>-1</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X164">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA164">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="165" spans="1:28">
@@ -14696,7 +14696,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7092311</v>
+        <v>7092319</v>
       </c>
       <c r="C166" t="s">
         <v>27</v>
@@ -14705,76 +14705,76 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I166" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J166">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="K166">
         <v>3.3</v>
       </c>
       <c r="L166">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M166">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N166">
         <v>3.2</v>
       </c>
       <c r="O166">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P166">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R166">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S166">
         <v>2.5</v>
       </c>
       <c r="T166">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U166">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V166">
         <v>-1</v>
       </c>
       <c r="W166">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB166">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:28">
@@ -15642,7 +15642,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7223115</v>
+        <v>7223116</v>
       </c>
       <c r="C177" t="s">
         <v>27</v>
@@ -15651,73 +15651,73 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E177" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F177" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>2</v>
+      </c>
+      <c r="I177" t="s">
+        <v>39</v>
+      </c>
+      <c r="J177">
+        <v>2.625</v>
+      </c>
+      <c r="K177">
+        <v>3.75</v>
+      </c>
+      <c r="L177">
+        <v>2.25</v>
+      </c>
+      <c r="M177">
+        <v>1.8</v>
+      </c>
+      <c r="N177">
+        <v>3.3</v>
+      </c>
+      <c r="O177">
         <v>4</v>
       </c>
-      <c r="H177">
-        <v>0</v>
-      </c>
-      <c r="I177" t="s">
-        <v>40</v>
-      </c>
-      <c r="J177">
-        <v>2.375</v>
-      </c>
-      <c r="K177">
-        <v>3.25</v>
-      </c>
-      <c r="L177">
-        <v>2.75</v>
-      </c>
-      <c r="M177">
-        <v>2.6</v>
-      </c>
-      <c r="N177">
-        <v>3.2</v>
-      </c>
-      <c r="O177">
-        <v>2.6</v>
-      </c>
       <c r="P177">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q177">
+        <v>1.825</v>
+      </c>
+      <c r="R177">
+        <v>1.975</v>
+      </c>
+      <c r="S177">
+        <v>2.5</v>
+      </c>
+      <c r="T177">
         <v>1.9</v>
       </c>
-      <c r="R177">
+      <c r="U177">
         <v>1.9</v>
       </c>
-      <c r="S177">
-        <v>2.25</v>
-      </c>
-      <c r="T177">
-        <v>1.775</v>
-      </c>
-      <c r="U177">
-        <v>2.025</v>
-      </c>
       <c r="V177">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y177">
+        <v>-1</v>
+      </c>
+      <c r="Z177">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA177">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z177">
-        <v>-1</v>
-      </c>
-      <c r="AA177">
-        <v>0.7749999999999999</v>
       </c>
       <c r="AB177">
         <v>-1</v>
@@ -15728,7 +15728,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7223119</v>
+        <v>7223115</v>
       </c>
       <c r="C178" t="s">
         <v>27</v>
@@ -15737,13 +15737,13 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E178" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F178" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G178">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -15752,25 +15752,25 @@
         <v>40</v>
       </c>
       <c r="J178">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="K178">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="L178">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="M178">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="N178">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O178">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="P178">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q178">
         <v>1.9</v>
@@ -15782,13 +15782,13 @@
         <v>2.25</v>
       </c>
       <c r="T178">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U178">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V178">
-        <v>1.05</v>
+        <v>1.6</v>
       </c>
       <c r="W178">
         <v>-1</v>
@@ -15803,10 +15803,10 @@
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB178">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:28">
@@ -15814,7 +15814,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7223118</v>
+        <v>7223119</v>
       </c>
       <c r="C179" t="s">
         <v>27</v>
@@ -15823,58 +15823,58 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E179" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G179">
         <v>2</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="s">
         <v>40</v>
       </c>
       <c r="J179">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K179">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="L179">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="M179">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="N179">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O179">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="P179">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q179">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R179">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S179">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T179">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U179">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V179">
-        <v>1.55</v>
+        <v>1.05</v>
       </c>
       <c r="W179">
         <v>-1</v>
@@ -15883,16 +15883,16 @@
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z179">
         <v>-1</v>
       </c>
       <c r="AA179">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AB179">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="180" spans="1:28">
@@ -15900,7 +15900,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7223117</v>
+        <v>7223118</v>
       </c>
       <c r="C180" t="s">
         <v>27</v>
@@ -15909,73 +15909,73 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E180" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J180">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="K180">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L180">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="M180">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="N180">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O180">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="P180">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q180">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R180">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S180">
         <v>2.75</v>
       </c>
       <c r="T180">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U180">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V180">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z180">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.4875</v>
+        <v>0.45</v>
       </c>
       <c r="AB180">
         <v>-0.5</v>
@@ -15986,7 +15986,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7223116</v>
+        <v>7223117</v>
       </c>
       <c r="C181" t="s">
         <v>27</v>
@@ -15995,76 +15995,76 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E181" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I181" t="s">
         <v>39</v>
       </c>
       <c r="J181">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="K181">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L181">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="M181">
+        <v>4.5</v>
+      </c>
+      <c r="N181">
+        <v>3.6</v>
+      </c>
+      <c r="O181">
         <v>1.8</v>
       </c>
-      <c r="N181">
-        <v>3.3</v>
-      </c>
-      <c r="O181">
-        <v>4</v>
-      </c>
       <c r="P181">
+        <v>0.75</v>
+      </c>
+      <c r="Q181">
+        <v>1.8</v>
+      </c>
+      <c r="R181">
+        <v>2</v>
+      </c>
+      <c r="S181">
+        <v>2.75</v>
+      </c>
+      <c r="T181">
+        <v>1.975</v>
+      </c>
+      <c r="U181">
+        <v>1.825</v>
+      </c>
+      <c r="V181">
+        <v>-1</v>
+      </c>
+      <c r="W181">
+        <v>-1</v>
+      </c>
+      <c r="X181">
+        <v>0.8</v>
+      </c>
+      <c r="Y181">
+        <v>-1</v>
+      </c>
+      <c r="Z181">
+        <v>1</v>
+      </c>
+      <c r="AA181">
+        <v>0.4875</v>
+      </c>
+      <c r="AB181">
         <v>-0.5</v>
-      </c>
-      <c r="Q181">
-        <v>1.825</v>
-      </c>
-      <c r="R181">
-        <v>1.975</v>
-      </c>
-      <c r="S181">
-        <v>2.5</v>
-      </c>
-      <c r="T181">
-        <v>1.9</v>
-      </c>
-      <c r="U181">
-        <v>1.9</v>
-      </c>
-      <c r="V181">
-        <v>-1</v>
-      </c>
-      <c r="W181">
-        <v>-1</v>
-      </c>
-      <c r="X181">
-        <v>3</v>
-      </c>
-      <c r="Y181">
-        <v>-1</v>
-      </c>
-      <c r="Z181">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA181">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB181">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Scotland League Two/Scotland League Two.xlsx
+++ b/Scotland League Two/Scotland League Two.xlsx
@@ -121,7 +121,7 @@
     <t>Spartans</t>
   </si>
   <si>
-    <t>Clyde</t>
+    <t>Dumbarton</t>
   </si>
   <si>
     <t>Forfar</t>
@@ -133,7 +133,7 @@
     <t>Stranraer</t>
   </si>
   <si>
-    <t>Dumbarton</t>
+    <t>Clyde</t>
   </si>
   <si>
     <t>D</t>
@@ -616,7 +616,7 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -984,7 +984,7 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6848483</v>
+        <v>6848484</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1076,31 +1076,31 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L7">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="M7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N7">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O7">
         <v>2.375</v>
@@ -1109,7 +1109,7 @@
         <v>3.3</v>
       </c>
       <c r="Q7">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>1.775</v>
       </c>
       <c r="T7">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="U7">
         <v>2.5</v>
       </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W7">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z7">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC7">
         <v>-1</v>
       </c>
       <c r="AD7">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1432,7 +1432,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6848484</v>
+        <v>6848483</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1444,31 +1444,31 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L11">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="M11">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N11">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O11">
         <v>2.375</v>
@@ -1477,7 +1477,7 @@
         <v>3.3</v>
       </c>
       <c r="Q11">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1486,37 +1486,37 @@
         <v>1.775</v>
       </c>
       <c r="T11">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="U11">
         <v>2.5</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W11">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC11">
         <v>-1</v>
       </c>
       <c r="AD11">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -1524,7 +1524,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6848490</v>
+        <v>6848491</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -1533,82 +1533,82 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L12">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="M12">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N12">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O12">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="P12">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q12">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="R12">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S12">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T12">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U12">
         <v>2.75</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AD12">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -1616,7 +1616,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6848491</v>
+        <v>6848597</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -1625,55 +1625,55 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L13">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="M13">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N13">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="O13">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="P13">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q13">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="R13">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S13">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T13">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U13">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V13">
         <v>1.95</v>
@@ -1682,25 +1682,25 @@
         <v>1.85</v>
       </c>
       <c r="X13">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AB13">
-        <v>-0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="AC13">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AD13">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6848597</v>
+        <v>6848490</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1717,25 +1717,25 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L14">
         <v>2.3</v>
@@ -1747,52 +1747,52 @@
         <v>2.6</v>
       </c>
       <c r="O14">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P14">
         <v>3.5</v>
       </c>
       <c r="Q14">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="R14">
         <v>-0.25</v>
       </c>
       <c r="S14">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T14">
+        <v>1.825</v>
+      </c>
+      <c r="U14">
+        <v>2.75</v>
+      </c>
+      <c r="V14">
+        <v>1.975</v>
+      </c>
+      <c r="W14">
         <v>1.875</v>
       </c>
-      <c r="U14">
-        <v>2.5</v>
-      </c>
-      <c r="V14">
-        <v>1.95</v>
-      </c>
-      <c r="W14">
-        <v>1.85</v>
-      </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AC14">
         <v>-1</v>
       </c>
       <c r="AD14">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -1809,7 +1809,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
         <v>36</v>
@@ -1901,7 +1901,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
         <v>37</v>
@@ -1996,7 +1996,7 @@
         <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2088,7 +2088,7 @@
         <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2444,7 +2444,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6848498</v>
+        <v>6848497</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2453,82 +2453,82 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L22">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="M22">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N22">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="P22">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q22">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="R22">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <v>1.8</v>
+      </c>
+      <c r="U22">
+        <v>2.25</v>
+      </c>
+      <c r="V22">
+        <v>1.95</v>
+      </c>
+      <c r="W22">
         <v>1.85</v>
       </c>
-      <c r="T22">
-        <v>1.95</v>
-      </c>
-      <c r="U22">
-        <v>2.5</v>
-      </c>
-      <c r="V22">
-        <v>1.975</v>
-      </c>
-      <c r="W22">
-        <v>1.825</v>
-      </c>
       <c r="X22">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y22">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD22">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -2536,7 +2536,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6848499</v>
+        <v>6848498</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2548,10 +2548,10 @@
         <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2563,64 +2563,64 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L23">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="M23">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N23">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O23">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="P23">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q23">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="R23">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S23">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U23">
         <v>2.5</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W23">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X23">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC23">
         <v>-1</v>
       </c>
       <c r="AD23">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -2628,7 +2628,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6848500</v>
+        <v>6848499</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -2637,19 +2637,19 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2658,43 +2658,43 @@
         <v>42</v>
       </c>
       <c r="L24">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="M24">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N24">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="O24">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="P24">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q24">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S24">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T24">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U24">
         <v>2.5</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X24">
-        <v>1.5</v>
+        <v>0.909</v>
       </c>
       <c r="Y24">
         <v>-1</v>
@@ -2703,16 +2703,16 @@
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -2720,7 +2720,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6848501</v>
+        <v>6848500</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -2729,82 +2729,82 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L25">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="M25">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N25">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="O25">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="P25">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q25">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="R25">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T25">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U25">
         <v>2.5</v>
       </c>
       <c r="V25">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB25">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD25">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -2812,7 +2812,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6848497</v>
+        <v>6848501</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
@@ -2821,82 +2821,82 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L26">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="M26">
+        <v>3.3</v>
+      </c>
+      <c r="N26">
+        <v>2.875</v>
+      </c>
+      <c r="O26">
+        <v>1.909</v>
+      </c>
+      <c r="P26">
+        <v>3.3</v>
+      </c>
+      <c r="Q26">
         <v>3.5</v>
       </c>
-      <c r="N26">
-        <v>3.7</v>
-      </c>
-      <c r="O26">
-        <v>1.75</v>
-      </c>
-      <c r="P26">
-        <v>3.25</v>
-      </c>
-      <c r="Q26">
-        <v>4.75</v>
-      </c>
       <c r="R26">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S26">
         <v>2</v>
       </c>
       <c r="T26">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U26">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W26">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X26">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="AA26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC26">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD26">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="27" spans="1:30">
@@ -2916,7 +2916,7 @@
         <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -3008,7 +3008,7 @@
         <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -3373,7 +3373,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
         <v>37</v>
@@ -3465,7 +3465,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F33" t="s">
         <v>32</v>
@@ -3833,7 +3833,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
         <v>38</v>
@@ -4020,7 +4020,7 @@
         <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -4385,10 +4385,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" t="s">
         <v>35</v>
-      </c>
-      <c r="F43" t="s">
-        <v>39</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4572,7 +4572,7 @@
         <v>34</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4756,7 +4756,7 @@
         <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4928,7 +4928,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6848529</v>
+        <v>6848526</v>
       </c>
       <c r="C49" t="s">
         <v>29</v>
@@ -4937,82 +4937,82 @@
         <v>45234.5</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L49">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="M49">
+        <v>3.6</v>
+      </c>
+      <c r="N49">
+        <v>3.4</v>
+      </c>
+      <c r="O49">
+        <v>1.85</v>
+      </c>
+      <c r="P49">
+        <v>3.6</v>
+      </c>
+      <c r="Q49">
         <v>3.3</v>
       </c>
-      <c r="N49">
-        <v>2.4</v>
-      </c>
-      <c r="O49">
-        <v>2.7</v>
-      </c>
-      <c r="P49">
-        <v>3.3</v>
-      </c>
-      <c r="Q49">
-        <v>2.3</v>
-      </c>
       <c r="R49">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S49">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T49">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U49">
         <v>2.5</v>
       </c>
       <c r="V49">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W49">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB49">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD49">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:30">
@@ -5020,7 +5020,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6848526</v>
+        <v>6848527</v>
       </c>
       <c r="C50" t="s">
         <v>29</v>
@@ -5029,19 +5029,19 @@
         <v>45234.5</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -5050,43 +5050,43 @@
         <v>42</v>
       </c>
       <c r="L50">
+        <v>1.833</v>
+      </c>
+      <c r="M50">
+        <v>3.4</v>
+      </c>
+      <c r="N50">
+        <v>3.6</v>
+      </c>
+      <c r="O50">
+        <v>1.666</v>
+      </c>
+      <c r="P50">
+        <v>3.5</v>
+      </c>
+      <c r="Q50">
+        <v>4.75</v>
+      </c>
+      <c r="R50">
+        <v>-0.75</v>
+      </c>
+      <c r="S50">
+        <v>1.925</v>
+      </c>
+      <c r="T50">
+        <v>1.875</v>
+      </c>
+      <c r="U50">
+        <v>2.75</v>
+      </c>
+      <c r="V50">
+        <v>1.95</v>
+      </c>
+      <c r="W50">
         <v>1.85</v>
       </c>
-      <c r="M50">
-        <v>3.6</v>
-      </c>
-      <c r="N50">
-        <v>3.4</v>
-      </c>
-      <c r="O50">
-        <v>1.85</v>
-      </c>
-      <c r="P50">
-        <v>3.6</v>
-      </c>
-      <c r="Q50">
-        <v>3.3</v>
-      </c>
-      <c r="R50">
-        <v>-0.5</v>
-      </c>
-      <c r="S50">
-        <v>1.9</v>
-      </c>
-      <c r="T50">
-        <v>1.9</v>
-      </c>
-      <c r="U50">
-        <v>2.5</v>
-      </c>
-      <c r="V50">
-        <v>1.9</v>
-      </c>
-      <c r="W50">
-        <v>1.9</v>
-      </c>
       <c r="X50">
-        <v>0.8500000000000001</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y50">
         <v>-1</v>
@@ -5095,16 +5095,16 @@
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD50">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:30">
@@ -5112,7 +5112,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6848527</v>
+        <v>6848529</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -5121,79 +5121,79 @@
         <v>45234.5</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
         <v>3</v>
       </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
       <c r="I51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L51">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="M51">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N51">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="O51">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="P51">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q51">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="R51">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S51">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T51">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="U51">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V51">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X51">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="AA51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC51">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AD51">
         <v>-1</v>
@@ -5213,7 +5213,7 @@
         <v>45234.5</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F52" t="s">
         <v>30</v>
@@ -5305,7 +5305,7 @@
         <v>45234.5</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F53" t="s">
         <v>34</v>
@@ -5388,7 +5388,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6848530</v>
+        <v>6848532</v>
       </c>
       <c r="C54" t="s">
         <v>29</v>
@@ -5397,13 +5397,13 @@
         <v>45241.5</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5412,67 +5412,67 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L54">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="M54">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N54">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O54">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="P54">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q54">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="R54">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S54">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T54">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U54">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W54">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z54">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC54">
         <v>-1</v>
       </c>
       <c r="AD54">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:30">
@@ -5480,7 +5480,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6848532</v>
+        <v>6848530</v>
       </c>
       <c r="C55" t="s">
         <v>29</v>
@@ -5489,13 +5489,13 @@
         <v>45241.5</v>
       </c>
       <c r="E55" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F55" t="s">
         <v>35</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5504,67 +5504,67 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L55">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="M55">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N55">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O55">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="P55">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q55">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="R55">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S55">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T55">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U55">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V55">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W55">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC55">
         <v>-1</v>
       </c>
       <c r="AD55">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="56" spans="1:30">
@@ -6032,7 +6032,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6848536</v>
+        <v>6848537</v>
       </c>
       <c r="C61" t="s">
         <v>29</v>
@@ -6044,79 +6044,79 @@
         <v>35</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L61">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="M61">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N61">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="O61">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="P61">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q61">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="R61">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S61">
+        <v>1.85</v>
+      </c>
+      <c r="T61">
         <v>1.95</v>
       </c>
-      <c r="T61">
-        <v>1.85</v>
-      </c>
       <c r="U61">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V61">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W61">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB61">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC61">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD61">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:30">
@@ -6124,7 +6124,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6848537</v>
+        <v>6848536</v>
       </c>
       <c r="C62" t="s">
         <v>29</v>
@@ -6136,79 +6136,79 @@
         <v>39</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L62">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="M62">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N62">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="O62">
+        <v>2.7</v>
+      </c>
+      <c r="P62">
+        <v>3.5</v>
+      </c>
+      <c r="Q62">
+        <v>2.4</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>1.95</v>
+      </c>
+      <c r="T62">
+        <v>1.85</v>
+      </c>
+      <c r="U62">
+        <v>2.5</v>
+      </c>
+      <c r="V62">
+        <v>1.95</v>
+      </c>
+      <c r="W62">
+        <v>1.85</v>
+      </c>
+      <c r="X62">
+        <v>-1</v>
+      </c>
+      <c r="Y62">
+        <v>-1</v>
+      </c>
+      <c r="Z62">
         <v>1.4</v>
       </c>
-      <c r="P62">
-        <v>4.75</v>
-      </c>
-      <c r="Q62">
-        <v>7</v>
-      </c>
-      <c r="R62">
-        <v>-1.25</v>
-      </c>
-      <c r="S62">
-        <v>1.85</v>
-      </c>
-      <c r="T62">
-        <v>1.95</v>
-      </c>
-      <c r="U62">
-        <v>2.75</v>
-      </c>
-      <c r="V62">
-        <v>1.8</v>
-      </c>
-      <c r="W62">
-        <v>2</v>
-      </c>
-      <c r="X62">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="Y62">
-        <v>-1</v>
-      </c>
-      <c r="Z62">
-        <v>-1</v>
-      </c>
       <c r="AA62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD62">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:30">
@@ -6216,7 +6216,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6848539</v>
+        <v>6848538</v>
       </c>
       <c r="C63" t="s">
         <v>29</v>
@@ -6225,61 +6225,61 @@
         <v>45248.5</v>
       </c>
       <c r="E63" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K63" t="s">
         <v>41</v>
       </c>
       <c r="L63">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="M63">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N63">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="O63">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="P63">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q63">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="R63">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S63">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T63">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U63">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W63">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6288,19 +6288,19 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC63">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AD63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:30">
@@ -6308,7 +6308,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6848538</v>
+        <v>6848539</v>
       </c>
       <c r="C64" t="s">
         <v>29</v>
@@ -6317,61 +6317,61 @@
         <v>45248.5</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K64" t="s">
         <v>41</v>
       </c>
       <c r="L64">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="M64">
+        <v>3.6</v>
+      </c>
+      <c r="N64">
+        <v>2.875</v>
+      </c>
+      <c r="O64">
+        <v>2.15</v>
+      </c>
+      <c r="P64">
         <v>3.75</v>
       </c>
-      <c r="N64">
-        <v>2.5</v>
-      </c>
-      <c r="O64">
-        <v>3.4</v>
-      </c>
-      <c r="P64">
-        <v>3.8</v>
-      </c>
       <c r="Q64">
+        <v>3</v>
+      </c>
+      <c r="R64">
+        <v>-0.25</v>
+      </c>
+      <c r="S64">
         <v>1.95</v>
       </c>
-      <c r="R64">
-        <v>0.5</v>
-      </c>
-      <c r="S64">
-        <v>1.875</v>
-      </c>
       <c r="T64">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U64">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V64">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W64">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6380,19 +6380,19 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC64">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AD64">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="65" spans="1:30">
@@ -6400,7 +6400,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7451460</v>
+        <v>7396254</v>
       </c>
       <c r="C65" t="s">
         <v>29</v>
@@ -6409,64 +6409,64 @@
         <v>45251.69791666666</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" t="s">
         <v>42</v>
       </c>
       <c r="L65">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="M65">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N65">
+        <v>2.8</v>
+      </c>
+      <c r="O65">
+        <v>2.9</v>
+      </c>
+      <c r="P65">
         <v>3.1</v>
       </c>
-      <c r="O65">
-        <v>2.6</v>
-      </c>
-      <c r="P65">
-        <v>3.4</v>
-      </c>
       <c r="Q65">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="R65">
         <v>0</v>
       </c>
       <c r="S65">
+        <v>2.05</v>
+      </c>
+      <c r="T65">
+        <v>1.75</v>
+      </c>
+      <c r="U65">
+        <v>2.25</v>
+      </c>
+      <c r="V65">
         <v>1.925</v>
       </c>
-      <c r="T65">
+      <c r="W65">
         <v>1.875</v>
       </c>
-      <c r="U65">
-        <v>2.5</v>
-      </c>
-      <c r="V65">
-        <v>2</v>
-      </c>
-      <c r="W65">
-        <v>1.8</v>
-      </c>
       <c r="X65">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="Y65">
         <v>-1</v>
@@ -6475,16 +6475,16 @@
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD65">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="66" spans="1:30">
@@ -6492,7 +6492,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7396254</v>
+        <v>7451460</v>
       </c>
       <c r="C66" t="s">
         <v>29</v>
@@ -6501,64 +6501,64 @@
         <v>45251.69791666666</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="s">
         <v>42</v>
       </c>
       <c r="L66">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="M66">
+        <v>3.5</v>
+      </c>
+      <c r="N66">
+        <v>3.1</v>
+      </c>
+      <c r="O66">
+        <v>2.6</v>
+      </c>
+      <c r="P66">
         <v>3.4</v>
       </c>
-      <c r="N66">
-        <v>2.8</v>
-      </c>
-      <c r="O66">
-        <v>2.9</v>
-      </c>
-      <c r="P66">
-        <v>3.1</v>
-      </c>
       <c r="Q66">
+        <v>2.55</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>1.925</v>
+      </c>
+      <c r="T66">
+        <v>1.875</v>
+      </c>
+      <c r="U66">
         <v>2.5</v>
       </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>2.05</v>
-      </c>
-      <c r="T66">
-        <v>1.75</v>
-      </c>
-      <c r="U66">
-        <v>2.25</v>
-      </c>
       <c r="V66">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W66">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X66">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6567,16 +6567,16 @@
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB66">
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD66">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:30">
@@ -6768,7 +6768,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6848549</v>
+        <v>6848548</v>
       </c>
       <c r="C69" t="s">
         <v>29</v>
@@ -6777,19 +6777,19 @@
         <v>45269.5</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -6798,43 +6798,43 @@
         <v>42</v>
       </c>
       <c r="L69">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="M69">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N69">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O69">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="P69">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q69">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="R69">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S69">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U69">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V69">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="X69">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y69">
         <v>-1</v>
@@ -6843,16 +6843,16 @@
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD69">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:30">
@@ -6860,7 +6860,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6848546</v>
+        <v>6848549</v>
       </c>
       <c r="C70" t="s">
         <v>29</v>
@@ -6869,82 +6869,82 @@
         <v>45269.5</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L70">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="M70">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N70">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="O70">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="P70">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q70">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="R70">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S70">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T70">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U70">
         <v>2.5</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W70">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y70">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD70">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="71" spans="1:30">
@@ -6952,7 +6952,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6848547</v>
+        <v>6848546</v>
       </c>
       <c r="C71" t="s">
         <v>29</v>
@@ -6964,79 +6964,79 @@
         <v>39</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L71">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="M71">
         <v>3.75</v>
       </c>
       <c r="N71">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="O71">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="P71">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q71">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="R71">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S71">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T71">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U71">
         <v>2.5</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W71">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z71">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB71">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD71">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:30">
@@ -7044,7 +7044,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6848545</v>
+        <v>6848547</v>
       </c>
       <c r="C72" t="s">
         <v>29</v>
@@ -7053,52 +7053,52 @@
         <v>45269.5</v>
       </c>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L72">
+        <v>2.1</v>
+      </c>
+      <c r="M72">
+        <v>3.75</v>
+      </c>
+      <c r="N72">
+        <v>2.7</v>
+      </c>
+      <c r="O72">
         <v>2.25</v>
       </c>
-      <c r="M72">
-        <v>3.5</v>
-      </c>
-      <c r="N72">
-        <v>2.6</v>
-      </c>
-      <c r="O72">
-        <v>2.8</v>
-      </c>
       <c r="P72">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q72">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="R72">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S72">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T72">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="U72">
         <v>2.5</v>
@@ -7113,16 +7113,16 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA72">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -7136,7 +7136,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6848548</v>
+        <v>6848545</v>
       </c>
       <c r="C73" t="s">
         <v>29</v>
@@ -7145,82 +7145,82 @@
         <v>45269.5</v>
       </c>
       <c r="E73" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L73">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M73">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N73">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="O73">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="P73">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q73">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="R73">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S73">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T73">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U73">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V73">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="X73">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC73">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD73">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:30">
@@ -7332,7 +7332,7 @@
         <v>36</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -7424,7 +7424,7 @@
         <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7872,7 +7872,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6848557</v>
+        <v>6848556</v>
       </c>
       <c r="C81" t="s">
         <v>29</v>
@@ -7881,82 +7881,82 @@
         <v>45283.5</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L81">
-        <v>1.363</v>
+        <v>1.571</v>
       </c>
       <c r="M81">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="N81">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="O81">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="P81">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q81">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="R81">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S81">
+        <v>1.95</v>
+      </c>
+      <c r="T81">
+        <v>1.85</v>
+      </c>
+      <c r="U81">
+        <v>2.25</v>
+      </c>
+      <c r="V81">
         <v>1.8</v>
       </c>
-      <c r="T81">
-        <v>2.05</v>
-      </c>
-      <c r="U81">
-        <v>2.5</v>
-      </c>
-      <c r="V81">
-        <v>1.85</v>
-      </c>
       <c r="W81">
         <v>2</v>
       </c>
       <c r="X81">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA81">
+        <v>-1</v>
+      </c>
+      <c r="AB81">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC81">
         <v>0.8</v>
       </c>
-      <c r="AB81">
-        <v>-1</v>
-      </c>
-      <c r="AC81">
-        <v>-1</v>
-      </c>
       <c r="AD81">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:30">
@@ -7964,7 +7964,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6848556</v>
+        <v>6848557</v>
       </c>
       <c r="C82" t="s">
         <v>29</v>
@@ -7973,82 +7973,82 @@
         <v>45283.5</v>
       </c>
       <c r="E82" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L82">
-        <v>1.571</v>
+        <v>1.363</v>
       </c>
       <c r="M82">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="N82">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="O82">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="P82">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q82">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="R82">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S82">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T82">
+        <v>2.05</v>
+      </c>
+      <c r="U82">
+        <v>2.5</v>
+      </c>
+      <c r="V82">
         <v>1.85</v>
       </c>
-      <c r="U82">
-        <v>2.25</v>
-      </c>
-      <c r="V82">
-        <v>1.8</v>
-      </c>
       <c r="W82">
         <v>2</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD82">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:30">
@@ -8065,10 +8065,10 @@
         <v>45283.5</v>
       </c>
       <c r="E83" t="s">
+        <v>35</v>
+      </c>
+      <c r="F83" t="s">
         <v>39</v>
-      </c>
-      <c r="F83" t="s">
-        <v>35</v>
       </c>
       <c r="G83">
         <v>4</v>
@@ -8157,7 +8157,7 @@
         <v>45290.5</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F84" t="s">
         <v>31</v>
@@ -8525,7 +8525,7 @@
         <v>45297.5</v>
       </c>
       <c r="E88" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
         <v>33</v>
@@ -8617,7 +8617,7 @@
         <v>45297.5</v>
       </c>
       <c r="E89" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F89" t="s">
         <v>30</v>
@@ -8896,7 +8896,7 @@
         <v>37</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G92">
         <v>3</v>
@@ -9172,7 +9172,7 @@
         <v>33</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -9356,7 +9356,7 @@
         <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -9632,7 +9632,7 @@
         <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -10000,7 +10000,7 @@
         <v>34</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -10184,7 +10184,7 @@
         <v>32</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -10273,7 +10273,7 @@
         <v>45325.5</v>
       </c>
       <c r="E107" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F107" t="s">
         <v>37</v>
@@ -10552,7 +10552,7 @@
         <v>31</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -10920,7 +10920,7 @@
         <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -11009,7 +11009,7 @@
         <v>45332.5</v>
       </c>
       <c r="E115" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F115" t="s">
         <v>36</v>
@@ -11193,7 +11193,7 @@
         <v>45335.69791666666</v>
       </c>
       <c r="E117" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F117" t="s">
         <v>34</v>
@@ -11653,10 +11653,10 @@
         <v>45339.5</v>
       </c>
       <c r="E122" t="s">
+        <v>39</v>
+      </c>
+      <c r="F122" t="s">
         <v>35</v>
-      </c>
-      <c r="F122" t="s">
-        <v>39</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -11837,7 +11837,7 @@
         <v>45342.69791666666</v>
       </c>
       <c r="E124" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F124" t="s">
         <v>36</v>
@@ -11929,7 +11929,7 @@
         <v>45346.45833333334</v>
       </c>
       <c r="E125" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
         <v>38</v>
@@ -12104,7 +12104,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6848594</v>
+        <v>6852275</v>
       </c>
       <c r="C127" t="s">
         <v>29</v>
@@ -12113,82 +12113,82 @@
         <v>45346.5</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G127">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L127">
-        <v>1.363</v>
+        <v>1.571</v>
       </c>
       <c r="M127">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N127">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="O127">
-        <v>1.571</v>
+        <v>1.65</v>
       </c>
       <c r="P127">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q127">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="R127">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S127">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T127">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U127">
         <v>2.5</v>
       </c>
       <c r="V127">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W127">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z127">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC127">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD127">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="128" spans="1:30">
@@ -12196,7 +12196,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6852275</v>
+        <v>6848595</v>
       </c>
       <c r="C128" t="s">
         <v>29</v>
@@ -12205,82 +12205,82 @@
         <v>45346.5</v>
       </c>
       <c r="E128" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H128">
         <v>1</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K128" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L128">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="M128">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N128">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="O128">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="P128">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q128">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="R128">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S128">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T128">
+        <v>2.05</v>
+      </c>
+      <c r="U128">
+        <v>2.25</v>
+      </c>
+      <c r="V128">
         <v>1.95</v>
-      </c>
-      <c r="U128">
-        <v>2.5</v>
-      </c>
-      <c r="V128">
-        <v>1.9</v>
       </c>
       <c r="W128">
         <v>1.9</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y128">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB128">
+        <v>-1</v>
+      </c>
+      <c r="AC128">
         <v>0.95</v>
       </c>
-      <c r="AC128">
-        <v>-1</v>
-      </c>
       <c r="AD128">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:30">
@@ -12288,7 +12288,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6848595</v>
+        <v>6848594</v>
       </c>
       <c r="C129" t="s">
         <v>29</v>
@@ -12297,79 +12297,79 @@
         <v>45346.5</v>
       </c>
       <c r="E129" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L129">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="M129">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="N129">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="O129">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="P129">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q129">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="R129">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S129">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T129">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="U129">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W129">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X129">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="AA129">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC129">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AD129">
         <v>-1</v>
@@ -12573,7 +12573,7 @@
         <v>45353.5</v>
       </c>
       <c r="E132" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F132" t="s">
         <v>37</v>
@@ -12665,7 +12665,7 @@
         <v>45353.5</v>
       </c>
       <c r="E133" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F133" t="s">
         <v>32</v>
@@ -12840,7 +12840,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7697801</v>
+        <v>7128584</v>
       </c>
       <c r="C135" t="s">
         <v>29</v>
@@ -12849,49 +12849,49 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E135" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G135">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L135">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="M135">
         <v>3.5</v>
       </c>
       <c r="N135">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O135">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P135">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q135">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="R135">
         <v>0.25</v>
       </c>
       <c r="S135">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T135">
         <v>2.025</v>
@@ -12903,22 +12903,22 @@
         <v>1.825</v>
       </c>
       <c r="W135">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y135">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
         <v>0.825</v>
@@ -12932,7 +12932,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7128584</v>
+        <v>7697801</v>
       </c>
       <c r="C136" t="s">
         <v>29</v>
@@ -12941,49 +12941,49 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E136" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G136">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K136" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L136">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="M136">
         <v>3.5</v>
       </c>
       <c r="N136">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O136">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P136">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q136">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="R136">
         <v>0.25</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T136">
         <v>2.025</v>
@@ -12995,22 +12995,22 @@
         <v>1.825</v>
       </c>
       <c r="W136">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="X136">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
         <v>0.825</v>
@@ -13312,7 +13312,7 @@
         <v>33</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -13404,7 +13404,7 @@
         <v>36</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -13496,7 +13496,7 @@
         <v>30</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -13772,7 +13772,7 @@
         <v>34</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -13944,7 +13944,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6979200</v>
+        <v>6973854</v>
       </c>
       <c r="C147" t="s">
         <v>29</v>
@@ -13953,82 +13953,82 @@
         <v>45374.5</v>
       </c>
       <c r="E147" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H147">
         <v>0</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147">
         <v>0</v>
       </c>
       <c r="K147" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L147">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="M147">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N147">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O147">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="P147">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q147">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="R147">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S147">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T147">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U147">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W147">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="X147">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC147">
         <v>-1</v>
       </c>
       <c r="AD147">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:30">
@@ -14036,7 +14036,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6973854</v>
+        <v>6979200</v>
       </c>
       <c r="C148" t="s">
         <v>29</v>
@@ -14045,82 +14045,82 @@
         <v>45374.5</v>
       </c>
       <c r="E148" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H148">
         <v>0</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148">
         <v>0</v>
       </c>
       <c r="K148" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L148">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="M148">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N148">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O148">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="P148">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q148">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="R148">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S148">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T148">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U148">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V148">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W148">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y148">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB148">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
         <v>-1</v>
       </c>
       <c r="AD148">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="149" spans="1:30">
@@ -14137,7 +14137,7 @@
         <v>45374.5</v>
       </c>
       <c r="E149" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F149" t="s">
         <v>34</v>
@@ -14508,7 +14508,7 @@
         <v>37</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G153">
         <v>4</v>
@@ -14781,7 +14781,7 @@
         <v>45381.5</v>
       </c>
       <c r="E156" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F156" t="s">
         <v>31</v>
@@ -14873,7 +14873,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E157" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F157" t="s">
         <v>38</v>
@@ -14968,7 +14968,7 @@
         <v>36</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -15324,7 +15324,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7092321</v>
+        <v>7092311</v>
       </c>
       <c r="C162" t="s">
         <v>29</v>
@@ -15333,19 +15333,19 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -15354,46 +15354,46 @@
         <v>40</v>
       </c>
       <c r="L162">
-        <v>1.444</v>
+        <v>1.833</v>
       </c>
       <c r="M162">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="N162">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="O162">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="P162">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q162">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="R162">
         <v>-0.5</v>
       </c>
       <c r="S162">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T162">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U162">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V162">
+        <v>2</v>
+      </c>
+      <c r="W162">
         <v>1.8</v>
       </c>
-      <c r="W162">
-        <v>2</v>
-      </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Z162">
         <v>-1</v>
@@ -15402,13 +15402,13 @@
         <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC162">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD162">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="163" spans="1:30">
@@ -15416,7 +15416,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7092320</v>
+        <v>7092321</v>
       </c>
       <c r="C163" t="s">
         <v>29</v>
@@ -15425,82 +15425,82 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H163">
         <v>1</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163">
         <v>0</v>
       </c>
       <c r="K163" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L163">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="M163">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N163">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="O163">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="P163">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q163">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="R163">
         <v>-0.5</v>
       </c>
       <c r="S163">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T163">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U163">
         <v>2.25</v>
       </c>
       <c r="V163">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W163">
         <v>2</v>
       </c>
       <c r="X163">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z163">
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC163">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AD163">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="164" spans="1:30">
@@ -15508,7 +15508,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7092319</v>
+        <v>7092320</v>
       </c>
       <c r="C164" t="s">
         <v>29</v>
@@ -15517,79 +15517,79 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E164" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H164">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K164" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L164">
         <v>1.909</v>
       </c>
       <c r="M164">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N164">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O164">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="P164">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q164">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="R164">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S164">
+        <v>2.025</v>
+      </c>
+      <c r="T164">
         <v>1.825</v>
       </c>
-      <c r="T164">
-        <v>2.025</v>
-      </c>
       <c r="U164">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V164">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W164">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB164">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD164">
         <v>-1</v>
@@ -15609,10 +15609,10 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E165" t="s">
+        <v>35</v>
+      </c>
+      <c r="F165" t="s">
         <v>39</v>
-      </c>
-      <c r="F165" t="s">
-        <v>35</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -15692,7 +15692,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7092311</v>
+        <v>7092319</v>
       </c>
       <c r="C166" t="s">
         <v>29</v>
@@ -15701,82 +15701,82 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E166" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K166" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L166">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="M166">
         <v>3.3</v>
       </c>
       <c r="N166">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O166">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="P166">
         <v>3.2</v>
       </c>
       <c r="Q166">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="R166">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T166">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U166">
         <v>2.5</v>
       </c>
       <c r="V166">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W166">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD166">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:30">
@@ -15784,7 +15784,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7128582</v>
+        <v>8093712</v>
       </c>
       <c r="C167" t="s">
         <v>29</v>
@@ -15793,16 +15793,16 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E167" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G167">
         <v>0</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -15811,64 +15811,64 @@
         <v>0</v>
       </c>
       <c r="K167" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L167">
+        <v>2.25</v>
+      </c>
+      <c r="M167">
+        <v>3.5</v>
+      </c>
+      <c r="N167">
         <v>2.75</v>
       </c>
-      <c r="M167">
-        <v>3.4</v>
-      </c>
-      <c r="N167">
-        <v>2.3</v>
-      </c>
       <c r="O167">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="P167">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q167">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="R167">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S167">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T167">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U167">
         <v>2.5</v>
       </c>
       <c r="V167">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z167">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB167">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC167">
         <v>-1</v>
       </c>
       <c r="AD167">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="168" spans="1:30">
@@ -15876,7 +15876,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>8093712</v>
+        <v>7157733</v>
       </c>
       <c r="C168" t="s">
         <v>29</v>
@@ -15885,19 +15885,19 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E168" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -15906,13 +15906,13 @@
         <v>40</v>
       </c>
       <c r="L168">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="M168">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N168">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="O168">
         <v>2.8</v>
@@ -15927,19 +15927,19 @@
         <v>0.25</v>
       </c>
       <c r="S168">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T168">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U168">
         <v>2.5</v>
       </c>
       <c r="V168">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W168">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15951,7 +15951,7 @@
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
       <c r="AB168">
         <v>-0.5</v>
@@ -15960,7 +15960,7 @@
         <v>-1</v>
       </c>
       <c r="AD168">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="169" spans="1:30">
@@ -15968,7 +15968,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7157733</v>
+        <v>7128588</v>
       </c>
       <c r="C169" t="s">
         <v>29</v>
@@ -15977,82 +15977,82 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E169" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F169" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H169">
         <v>1</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K169" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L169">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="M169">
         <v>3.4</v>
       </c>
       <c r="N169">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="O169">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="P169">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q169">
+        <v>2.75</v>
+      </c>
+      <c r="R169">
+        <v>0</v>
+      </c>
+      <c r="S169">
+        <v>1.75</v>
+      </c>
+      <c r="T169">
+        <v>2.05</v>
+      </c>
+      <c r="U169">
         <v>2.25</v>
       </c>
-      <c r="R169">
-        <v>0.25</v>
-      </c>
-      <c r="S169">
-        <v>1.8</v>
-      </c>
-      <c r="T169">
-        <v>2</v>
-      </c>
-      <c r="U169">
-        <v>2.5</v>
-      </c>
       <c r="V169">
+        <v>1.875</v>
+      </c>
+      <c r="W169">
         <v>1.925</v>
       </c>
-      <c r="W169">
-        <v>1.875</v>
-      </c>
       <c r="X169">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y169">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AB169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD169">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:30">
@@ -16060,7 +16060,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7128588</v>
+        <v>7128583</v>
       </c>
       <c r="C170" t="s">
         <v>29</v>
@@ -16069,79 +16069,79 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E170" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G170">
         <v>2</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170">
         <v>1</v>
       </c>
       <c r="K170" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L170">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M170">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N170">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O170">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="P170">
+        <v>3.6</v>
+      </c>
+      <c r="Q170">
         <v>3.3</v>
       </c>
-      <c r="Q170">
-        <v>2.75</v>
-      </c>
       <c r="R170">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S170">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T170">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U170">
         <v>2.25</v>
       </c>
       <c r="V170">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W170">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="X170">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC170">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD170">
         <v>-1</v>
@@ -16152,7 +16152,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7128583</v>
+        <v>7128582</v>
       </c>
       <c r="C171" t="s">
         <v>29</v>
@@ -16161,82 +16161,82 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E171" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K171" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L171">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="M171">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N171">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="O171">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="P171">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q171">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="R171">
         <v>-0.25</v>
       </c>
       <c r="S171">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T171">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U171">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V171">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W171">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="AA171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
       <c r="AC171">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD171">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="172" spans="1:30">
@@ -16253,7 +16253,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E172" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F172" t="s">
         <v>32</v>
@@ -16621,7 +16621,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F176" t="s">
         <v>33</v>
@@ -16992,7 +16992,7 @@
         <v>32</v>
       </c>
       <c r="F180" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -17084,7 +17084,7 @@
         <v>37</v>
       </c>
       <c r="F181" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G181">
         <v>2</v>

--- a/Scotland League Two/Scotland League Two.xlsx
+++ b/Scotland League Two/Scotland League Two.xlsx
@@ -121,16 +121,16 @@
     <t>East Fife</t>
   </si>
   <si>
-    <t>Clyde</t>
+    <t>Dumbarton</t>
+  </si>
+  <si>
+    <t>Peterhead</t>
   </si>
   <si>
     <t>Forfar</t>
   </si>
   <si>
-    <t>Dumbarton</t>
-  </si>
-  <si>
-    <t>Peterhead</t>
+    <t>Clyde</t>
   </si>
   <si>
     <t>Stranraer</t>
@@ -616,7 +616,7 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -708,7 +708,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -800,7 +800,7 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6848483</v>
+        <v>6848484</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1076,31 +1076,31 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L7">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="M7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N7">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O7">
         <v>2.375</v>
@@ -1109,7 +1109,7 @@
         <v>3.3</v>
       </c>
       <c r="Q7">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>1.775</v>
       </c>
       <c r="T7">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="U7">
         <v>2.5</v>
       </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W7">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z7">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC7">
         <v>-1</v>
       </c>
       <c r="AD7">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6848485</v>
+        <v>6848486</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1168,7 +1168,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1186,61 +1186,61 @@
         <v>40</v>
       </c>
       <c r="L8">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M8">
         <v>3.4</v>
       </c>
       <c r="N8">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O8">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="P8">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q8">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="R8">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U8">
         <v>2.5</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB8">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC8">
         <v>-1</v>
       </c>
       <c r="AD8">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1248,7 +1248,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6848484</v>
+        <v>6848485</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1260,13 +1260,13 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1278,61 +1278,61 @@
         <v>40</v>
       </c>
       <c r="L9">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="M9">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N9">
+        <v>3.1</v>
+      </c>
+      <c r="O9">
+        <v>1.533</v>
+      </c>
+      <c r="P9">
         <v>4</v>
       </c>
-      <c r="O9">
-        <v>2.375</v>
-      </c>
-      <c r="P9">
-        <v>3.3</v>
-      </c>
       <c r="Q9">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S9">
+        <v>2.025</v>
+      </c>
+      <c r="T9">
         <v>1.775</v>
-      </c>
-      <c r="T9">
-        <v>2.1</v>
       </c>
       <c r="U9">
         <v>2.5</v>
       </c>
       <c r="V9">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC9">
         <v>-1</v>
       </c>
       <c r="AD9">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6848486</v>
+        <v>6848483</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1352,49 +1352,49 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L10">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="M10">
         <v>3.4</v>
       </c>
       <c r="N10">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O10">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="P10">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q10">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="R10">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T10">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U10">
         <v>2.5</v>
@@ -1409,16 +1409,16 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1800,7 +1800,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6848488</v>
+        <v>6848489</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1812,43 +1812,43 @@
         <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L15">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="M15">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N15">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="O15">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="P15">
         <v>3.4</v>
       </c>
       <c r="Q15">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="R15">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S15">
         <v>1.9</v>
@@ -1857,31 +1857,31 @@
         <v>1.9</v>
       </c>
       <c r="U15">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB15">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AD15">
         <v>-1</v>
@@ -1892,7 +1892,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6848489</v>
+        <v>6848488</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1901,46 +1901,46 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
         <v>36</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L16">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="M16">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N16">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="O16">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="P16">
         <v>3.4</v>
       </c>
       <c r="Q16">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="R16">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S16">
         <v>1.9</v>
@@ -1949,31 +1949,31 @@
         <v>1.9</v>
       </c>
       <c r="U16">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W16">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X16">
+        <v>-1</v>
+      </c>
+      <c r="Y16">
+        <v>-1</v>
+      </c>
+      <c r="Z16">
         <v>1.1</v>
       </c>
-      <c r="Y16">
-        <v>-1</v>
-      </c>
-      <c r="Z16">
-        <v>-1</v>
-      </c>
       <c r="AA16">
+        <v>-1</v>
+      </c>
+      <c r="AB16">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB16">
-        <v>-1</v>
-      </c>
       <c r="AC16">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD16">
         <v>-1</v>
@@ -1993,7 +1993,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
         <v>31</v>
@@ -2088,7 +2088,7 @@
         <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2180,7 +2180,7 @@
         <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2269,7 +2269,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
         <v>30</v>
@@ -2545,7 +2545,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
         <v>34</v>
@@ -2729,10 +2729,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2824,7 +2824,7 @@
         <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2916,7 +2916,7 @@
         <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -3097,7 +3097,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
         <v>30</v>
@@ -3189,7 +3189,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
         <v>31</v>
@@ -3284,7 +3284,7 @@
         <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3373,7 +3373,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F32" t="s">
         <v>33</v>
@@ -3465,10 +3465,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3925,7 +3925,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F38" t="s">
         <v>33</v>
@@ -4020,7 +4020,7 @@
         <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -4201,7 +4201,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -4385,10 +4385,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" t="s">
         <v>36</v>
-      </c>
-      <c r="F43" t="s">
-        <v>38</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4477,10 +4477,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" t="s">
         <v>35</v>
-      </c>
-      <c r="F44" t="s">
-        <v>37</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4664,7 +4664,7 @@
         <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4756,7 +4756,7 @@
         <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4937,7 +4937,7 @@
         <v>45234.5</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
         <v>34</v>
@@ -5029,7 +5029,7 @@
         <v>45234.5</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F50" t="s">
         <v>30</v>
@@ -5121,7 +5121,7 @@
         <v>45234.5</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
         <v>32</v>
@@ -5213,7 +5213,7 @@
         <v>45234.5</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F52" t="s">
         <v>31</v>
@@ -5400,7 +5400,7 @@
         <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5581,10 +5581,10 @@
         <v>45241.5</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5673,7 +5673,7 @@
         <v>45241.5</v>
       </c>
       <c r="E57" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F57" t="s">
         <v>39</v>
@@ -5860,7 +5860,7 @@
         <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5952,7 +5952,7 @@
         <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -6133,7 +6133,7 @@
         <v>45248.5</v>
       </c>
       <c r="E62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
         <v>33</v>
@@ -6228,7 +6228,7 @@
         <v>31</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -6317,7 +6317,7 @@
         <v>45248.5</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F64" t="s">
         <v>34</v>
@@ -6504,7 +6504,7 @@
         <v>33</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6593,7 +6593,7 @@
         <v>45262.5</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F67" t="s">
         <v>39</v>
@@ -6777,7 +6777,7 @@
         <v>45269.5</v>
       </c>
       <c r="E69" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F69" t="s">
         <v>39</v>
@@ -6872,7 +6872,7 @@
         <v>31</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6964,7 +6964,7 @@
         <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -7053,7 +7053,7 @@
         <v>45269.5</v>
       </c>
       <c r="E72" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F72" t="s">
         <v>32</v>
@@ -7237,10 +7237,10 @@
         <v>45276.5</v>
       </c>
       <c r="E74" t="s">
+        <v>36</v>
+      </c>
+      <c r="F74" t="s">
         <v>38</v>
-      </c>
-      <c r="F74" t="s">
-        <v>35</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -7329,10 +7329,10 @@
         <v>45276.5</v>
       </c>
       <c r="E75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -7973,10 +7973,10 @@
         <v>45283.5</v>
       </c>
       <c r="E82" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -8065,10 +8065,10 @@
         <v>45283.5</v>
       </c>
       <c r="E83" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G83">
         <v>4</v>
@@ -8157,7 +8157,7 @@
         <v>45290.5</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F84" t="s">
         <v>32</v>
@@ -8252,7 +8252,7 @@
         <v>33</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -8341,7 +8341,7 @@
         <v>45290.5</v>
       </c>
       <c r="E86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F86" t="s">
         <v>34</v>
@@ -8525,7 +8525,7 @@
         <v>45297.5</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
         <v>34</v>
@@ -8617,7 +8617,7 @@
         <v>45297.5</v>
       </c>
       <c r="E89" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F89" t="s">
         <v>31</v>
@@ -8712,7 +8712,7 @@
         <v>32</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8801,7 +8801,7 @@
         <v>45297.5</v>
       </c>
       <c r="E91" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F91" t="s">
         <v>30</v>
@@ -8893,10 +8893,10 @@
         <v>45300.69791666666</v>
       </c>
       <c r="E92" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G92">
         <v>3</v>
@@ -9080,7 +9080,7 @@
         <v>39</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -9169,7 +9169,7 @@
         <v>45304.5</v>
       </c>
       <c r="E95" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F95" t="s">
         <v>33</v>
@@ -9264,7 +9264,7 @@
         <v>34</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -9356,7 +9356,7 @@
         <v>31</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -9448,7 +9448,7 @@
         <v>34</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -9632,7 +9632,7 @@
         <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9724,7 +9724,7 @@
         <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9813,7 +9813,7 @@
         <v>45318.5</v>
       </c>
       <c r="E102" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F102" t="s">
         <v>32</v>
@@ -9896,7 +9896,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6848580</v>
+        <v>6848578</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
@@ -9905,82 +9905,82 @@
         <v>45318.5</v>
       </c>
       <c r="E103" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L103">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="M103">
         <v>3.4</v>
       </c>
       <c r="N103">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="O103">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="P103">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q103">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="R103">
         <v>-0.25</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T103">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U103">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V103">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z103">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC103">
         <v>-1</v>
       </c>
       <c r="AD103">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:30">
@@ -9988,7 +9988,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6848578</v>
+        <v>6848580</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
@@ -9997,82 +9997,82 @@
         <v>45318.5</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L104">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="M104">
         <v>3.4</v>
       </c>
       <c r="N104">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="O104">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="P104">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q104">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="R104">
         <v>-0.25</v>
       </c>
       <c r="S104">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T104">
+        <v>1.85</v>
+      </c>
+      <c r="U104">
+        <v>2.5</v>
+      </c>
+      <c r="V104">
         <v>2.025</v>
       </c>
-      <c r="U104">
-        <v>2.25</v>
-      </c>
-      <c r="V104">
+      <c r="W104">
         <v>1.825</v>
       </c>
-      <c r="W104">
-        <v>1.975</v>
-      </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC104">
         <v>-1</v>
       </c>
       <c r="AD104">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="105" spans="1:30">
@@ -10092,7 +10092,7 @@
         <v>33</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G105">
         <v>2</v>
@@ -10276,7 +10276,7 @@
         <v>32</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -10365,7 +10365,7 @@
         <v>45325.5</v>
       </c>
       <c r="E108" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F108" t="s">
         <v>30</v>
@@ -10549,10 +10549,10 @@
         <v>45325.5</v>
       </c>
       <c r="E110" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -10816,7 +10816,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6848588</v>
+        <v>6848589</v>
       </c>
       <c r="C113" t="s">
         <v>29</v>
@@ -10825,16 +10825,16 @@
         <v>45332.5</v>
       </c>
       <c r="E113" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -10843,64 +10843,64 @@
         <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L113">
-        <v>1.615</v>
+        <v>1.3</v>
       </c>
       <c r="M113">
+        <v>5</v>
+      </c>
+      <c r="N113">
+        <v>7</v>
+      </c>
+      <c r="O113">
+        <v>1.55</v>
+      </c>
+      <c r="P113">
+        <v>3.8</v>
+      </c>
+      <c r="Q113">
+        <v>4.75</v>
+      </c>
+      <c r="R113">
+        <v>-1</v>
+      </c>
+      <c r="S113">
+        <v>2.025</v>
+      </c>
+      <c r="T113">
+        <v>1.825</v>
+      </c>
+      <c r="U113">
+        <v>2.5</v>
+      </c>
+      <c r="V113">
+        <v>1.975</v>
+      </c>
+      <c r="W113">
+        <v>1.875</v>
+      </c>
+      <c r="X113">
+        <v>-1</v>
+      </c>
+      <c r="Y113">
+        <v>-1</v>
+      </c>
+      <c r="Z113">
         <v>3.75</v>
       </c>
-      <c r="N113">
-        <v>4.333</v>
-      </c>
-      <c r="O113">
-        <v>2.375</v>
-      </c>
-      <c r="P113">
-        <v>3.25</v>
-      </c>
-      <c r="Q113">
-        <v>2.7</v>
-      </c>
-      <c r="R113">
-        <v>0</v>
-      </c>
-      <c r="S113">
-        <v>1.775</v>
-      </c>
-      <c r="T113">
-        <v>2.025</v>
-      </c>
-      <c r="U113">
-        <v>2.25</v>
-      </c>
-      <c r="V113">
-        <v>1.8</v>
-      </c>
-      <c r="W113">
-        <v>2</v>
-      </c>
-      <c r="X113">
-        <v>1.375</v>
-      </c>
-      <c r="Y113">
-        <v>-1</v>
-      </c>
-      <c r="Z113">
-        <v>-1</v>
-      </c>
       <c r="AA113">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC113">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD113">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:30">
@@ -10908,7 +10908,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6848589</v>
+        <v>6848588</v>
       </c>
       <c r="C114" t="s">
         <v>29</v>
@@ -10917,16 +10917,16 @@
         <v>45332.5</v>
       </c>
       <c r="E114" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -10935,64 +10935,64 @@
         <v>0</v>
       </c>
       <c r="K114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L114">
-        <v>1.3</v>
+        <v>1.615</v>
       </c>
       <c r="M114">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N114">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="O114">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="P114">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q114">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="R114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S114">
+        <v>1.775</v>
+      </c>
+      <c r="T114">
         <v>2.025</v>
       </c>
-      <c r="T114">
-        <v>1.825</v>
-      </c>
       <c r="U114">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V114">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W114">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB114">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AD114">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="115" spans="1:30">
@@ -11009,10 +11009,10 @@
         <v>45332.5</v>
       </c>
       <c r="E115" t="s">
+        <v>35</v>
+      </c>
+      <c r="F115" t="s">
         <v>37</v>
-      </c>
-      <c r="F115" t="s">
-        <v>36</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -11193,7 +11193,7 @@
         <v>45335.69791666666</v>
       </c>
       <c r="E117" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F117" t="s">
         <v>30</v>
@@ -11469,10 +11469,10 @@
         <v>45339.5</v>
       </c>
       <c r="E120" t="s">
+        <v>37</v>
+      </c>
+      <c r="F120" t="s">
         <v>36</v>
-      </c>
-      <c r="F120" t="s">
-        <v>38</v>
       </c>
       <c r="G120">
         <v>3</v>
@@ -11561,10 +11561,10 @@
         <v>45339.5</v>
       </c>
       <c r="E121" t="s">
+        <v>38</v>
+      </c>
+      <c r="F121" t="s">
         <v>35</v>
-      </c>
-      <c r="F121" t="s">
-        <v>37</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -11745,7 +11745,7 @@
         <v>45342.69791666666</v>
       </c>
       <c r="E123" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F123" t="s">
         <v>31</v>
@@ -11837,10 +11837,10 @@
         <v>45342.69791666666</v>
       </c>
       <c r="E124" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11929,7 +11929,7 @@
         <v>45346.45833333334</v>
       </c>
       <c r="E125" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
         <v>39</v>
@@ -12024,7 +12024,7 @@
         <v>34</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -12208,7 +12208,7 @@
         <v>32</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -12297,7 +12297,7 @@
         <v>45346.5</v>
       </c>
       <c r="E129" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F129" t="s">
         <v>33</v>
@@ -12481,7 +12481,7 @@
         <v>45353.5</v>
       </c>
       <c r="E131" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F131" t="s">
         <v>33</v>
@@ -12573,10 +12573,10 @@
         <v>45353.5</v>
       </c>
       <c r="E132" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -12668,7 +12668,7 @@
         <v>39</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -12944,7 +12944,7 @@
         <v>39</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G136">
         <v>5</v>
@@ -13217,10 +13217,10 @@
         <v>45360.5</v>
       </c>
       <c r="E139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -13312,7 +13312,7 @@
         <v>34</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -13401,7 +13401,7 @@
         <v>45360.5</v>
       </c>
       <c r="E141" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F141" t="s">
         <v>39</v>
@@ -13585,7 +13585,7 @@
         <v>45367.5</v>
       </c>
       <c r="E143" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F143" t="s">
         <v>34</v>
@@ -13680,7 +13680,7 @@
         <v>31</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -13772,7 +13772,7 @@
         <v>30</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -13861,7 +13861,7 @@
         <v>45367.5</v>
       </c>
       <c r="E146" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F146" t="s">
         <v>32</v>
@@ -13956,7 +13956,7 @@
         <v>33</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -14137,7 +14137,7 @@
         <v>45374.5</v>
       </c>
       <c r="E149" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F149" t="s">
         <v>31</v>
@@ -14229,7 +14229,7 @@
         <v>45374.5</v>
       </c>
       <c r="E150" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F150" t="s">
         <v>30</v>
@@ -14324,7 +14324,7 @@
         <v>32</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -14416,7 +14416,7 @@
         <v>30</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -14597,7 +14597,7 @@
         <v>45381.5</v>
       </c>
       <c r="E154" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F154" t="s">
         <v>32</v>
@@ -14680,7 +14680,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7060952</v>
+        <v>7060949</v>
       </c>
       <c r="C155" t="s">
         <v>29</v>
@@ -14689,19 +14689,19 @@
         <v>45381.5</v>
       </c>
       <c r="E155" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F155" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G155">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J155">
         <v>0</v>
@@ -14710,43 +14710,43 @@
         <v>42</v>
       </c>
       <c r="L155">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="M155">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N155">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="O155">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P155">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q155">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R155">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S155">
+        <v>1.975</v>
+      </c>
+      <c r="T155">
+        <v>1.825</v>
+      </c>
+      <c r="U155">
+        <v>2.5</v>
+      </c>
+      <c r="V155">
+        <v>2</v>
+      </c>
+      <c r="W155">
         <v>1.8</v>
       </c>
-      <c r="T155">
-        <v>2</v>
-      </c>
-      <c r="U155">
-        <v>2.25</v>
-      </c>
-      <c r="V155">
-        <v>1.85</v>
-      </c>
-      <c r="W155">
-        <v>1.95</v>
-      </c>
       <c r="X155">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="Y155">
         <v>-1</v>
@@ -14755,16 +14755,16 @@
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB155">
         <v>-1</v>
       </c>
       <c r="AC155">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AD155">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:30">
@@ -14772,7 +14772,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7060949</v>
+        <v>7060952</v>
       </c>
       <c r="C156" t="s">
         <v>29</v>
@@ -14781,19 +14781,19 @@
         <v>45381.5</v>
       </c>
       <c r="E156" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G156">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -14802,61 +14802,61 @@
         <v>42</v>
       </c>
       <c r="L156">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="M156">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N156">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="O156">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P156">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q156">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R156">
+        <v>-0.25</v>
+      </c>
+      <c r="S156">
+        <v>1.8</v>
+      </c>
+      <c r="T156">
+        <v>2</v>
+      </c>
+      <c r="U156">
+        <v>2.25</v>
+      </c>
+      <c r="V156">
+        <v>1.85</v>
+      </c>
+      <c r="W156">
+        <v>1.95</v>
+      </c>
+      <c r="X156">
+        <v>1.05</v>
+      </c>
+      <c r="Y156">
+        <v>-1</v>
+      </c>
+      <c r="Z156">
+        <v>-1</v>
+      </c>
+      <c r="AA156">
+        <v>0.8</v>
+      </c>
+      <c r="AB156">
+        <v>-1</v>
+      </c>
+      <c r="AC156">
         <v>-0.5</v>
       </c>
-      <c r="S156">
-        <v>1.975</v>
-      </c>
-      <c r="T156">
-        <v>1.825</v>
-      </c>
-      <c r="U156">
-        <v>2.5</v>
-      </c>
-      <c r="V156">
-        <v>2</v>
-      </c>
-      <c r="W156">
-        <v>1.8</v>
-      </c>
-      <c r="X156">
-        <v>1</v>
-      </c>
-      <c r="Y156">
-        <v>-1</v>
-      </c>
-      <c r="Z156">
-        <v>-1</v>
-      </c>
-      <c r="AA156">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB156">
-        <v>-1</v>
-      </c>
-      <c r="AC156">
-        <v>1</v>
-      </c>
       <c r="AD156">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="157" spans="1:30">
@@ -14968,7 +14968,7 @@
         <v>31</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -15057,7 +15057,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E159" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F159" t="s">
         <v>39</v>
@@ -15149,10 +15149,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E160" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -15517,10 +15517,10 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E164" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -15609,10 +15609,10 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E165" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -15796,7 +15796,7 @@
         <v>39</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -15888,7 +15888,7 @@
         <v>33</v>
       </c>
       <c r="F168" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -15977,7 +15977,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E169" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F169" t="s">
         <v>34</v>
@@ -16161,7 +16161,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E171" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F171" t="s">
         <v>32</v>
@@ -16253,7 +16253,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E172" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F172" t="s">
         <v>33</v>
@@ -16348,7 +16348,7 @@
         <v>30</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -16529,7 +16529,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E175" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F175" t="s">
         <v>39</v>
@@ -16621,7 +16621,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F176" t="s">
         <v>34</v>
@@ -16716,7 +16716,7 @@
         <v>31</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G177">
         <v>4</v>
@@ -16897,10 +16897,10 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E179" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F179" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G179">
         <v>2</v>
@@ -17084,7 +17084,7 @@
         <v>33</v>
       </c>
       <c r="F181" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G181">
         <v>0</v>

--- a/Scotland League Two/Scotland League Two.xlsx
+++ b/Scotland League Two/Scotland League Two.xlsx
@@ -121,9 +121,6 @@
     <t>Bonnyrigg Rose</t>
   </si>
   <si>
-    <t>Clyde</t>
-  </si>
-  <si>
     <t>Dumbarton</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
   </si>
   <si>
     <t>Stranraer</t>
+  </si>
+  <si>
+    <t>Clyde</t>
   </si>
   <si>
     <t>A</t>
@@ -616,7 +616,7 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -800,7 +800,7 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6848483</v>
+        <v>6848484</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1076,31 +1076,31 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L7">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="M7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N7">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O7">
         <v>2.375</v>
@@ -1109,7 +1109,7 @@
         <v>3.3</v>
       </c>
       <c r="Q7">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>1.775</v>
       </c>
       <c r="T7">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="U7">
         <v>2.5</v>
       </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W7">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z7">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC7">
         <v>-1</v>
       </c>
       <c r="AD7">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6848484</v>
+        <v>6848485</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1168,13 +1168,13 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1186,61 +1186,61 @@
         <v>41</v>
       </c>
       <c r="L8">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="M8">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N8">
+        <v>3.1</v>
+      </c>
+      <c r="O8">
+        <v>1.533</v>
+      </c>
+      <c r="P8">
         <v>4</v>
       </c>
-      <c r="O8">
-        <v>2.375</v>
-      </c>
-      <c r="P8">
-        <v>3.3</v>
-      </c>
       <c r="Q8">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S8">
+        <v>2.025</v>
+      </c>
+      <c r="T8">
         <v>1.775</v>
-      </c>
-      <c r="T8">
-        <v>2.1</v>
       </c>
       <c r="U8">
         <v>2.5</v>
       </c>
       <c r="V8">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W8">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC8">
         <v>-1</v>
       </c>
       <c r="AD8">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1248,7 +1248,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6848485</v>
+        <v>6848486</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1260,7 +1260,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1278,61 +1278,61 @@
         <v>41</v>
       </c>
       <c r="L9">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M9">
         <v>3.4</v>
       </c>
       <c r="N9">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O9">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="P9">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q9">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="R9">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U9">
         <v>2.5</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W9">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB9">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC9">
         <v>-1</v>
       </c>
       <c r="AD9">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6848486</v>
+        <v>6848487</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1352,13 +1352,13 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1370,46 +1370,46 @@
         <v>41</v>
       </c>
       <c r="L10">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="M10">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N10">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="O10">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P10">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q10">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>-0.25</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T10">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U10">
         <v>2.5</v>
       </c>
       <c r="V10">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Z10">
         <v>-1</v>
@@ -1418,13 +1418,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB10">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
       <c r="AC10">
         <v>-1</v>
       </c>
       <c r="AD10">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -1432,7 +1432,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6848487</v>
+        <v>6848483</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1444,79 +1444,79 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L11">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="M11">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N11">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="O11">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="P11">
         <v>3.3</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="R11">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T11">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U11">
         <v>2.5</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W11">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
       <c r="AC11">
         <v>-1</v>
       </c>
       <c r="AD11">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -1536,7 +1536,7 @@
         <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1717,10 +1717,10 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1901,10 +1901,10 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
         <v>36</v>
-      </c>
-      <c r="F16" t="s">
-        <v>37</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1993,10 +1993,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
         <v>39</v>
-      </c>
-      <c r="F17" t="s">
-        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2088,7 +2088,7 @@
         <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2177,7 +2177,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
         <v>31</v>
@@ -2260,7 +2260,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6848493</v>
+        <v>6848492</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -2269,82 +2269,82 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L20">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M20">
         <v>3.3</v>
       </c>
       <c r="N20">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="O20">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P20">
         <v>3.2</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="R20">
         <v>-0.25</v>
       </c>
       <c r="S20">
+        <v>2.1</v>
+      </c>
+      <c r="T20">
+        <v>1.775</v>
+      </c>
+      <c r="U20">
+        <v>2.5</v>
+      </c>
+      <c r="V20">
         <v>1.975</v>
       </c>
-      <c r="T20">
-        <v>1.825</v>
-      </c>
-      <c r="U20">
-        <v>2.25</v>
-      </c>
-      <c r="V20">
-        <v>1.9</v>
-      </c>
       <c r="W20">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z20">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB20">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AC20">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD20">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -2352,7 +2352,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6848492</v>
+        <v>6848493</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -2361,82 +2361,82 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L21">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M21">
         <v>3.3</v>
       </c>
       <c r="N21">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O21">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P21">
         <v>3.2</v>
       </c>
       <c r="Q21">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="R21">
         <v>-0.25</v>
       </c>
       <c r="S21">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T21">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V21">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD21">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -2453,7 +2453,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
         <v>30</v>
@@ -2637,10 +2637,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2729,10 +2729,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2916,7 +2916,7 @@
         <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -3008,7 +3008,7 @@
         <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -3097,7 +3097,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
         <v>34</v>
@@ -3192,7 +3192,7 @@
         <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30">
         <v>5</v>
@@ -3281,7 +3281,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
@@ -3465,10 +3465,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6848508</v>
+        <v>6848507</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
@@ -3557,49 +3557,49 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L34">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="M34">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N34">
         <v>3.4</v>
       </c>
       <c r="O34">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="P34">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q34">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="R34">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T34">
         <v>1.875</v>
@@ -3608,31 +3608,31 @@
         <v>2.5</v>
       </c>
       <c r="V34">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W34">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X34">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="AA34">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC34">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD34">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -3640,7 +3640,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6848507</v>
+        <v>6848510</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
@@ -3649,61 +3649,61 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K35" t="s">
         <v>40</v>
       </c>
       <c r="L35">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="M35">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N35">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O35">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="P35">
+        <v>3.25</v>
+      </c>
+      <c r="Q35">
         <v>3.2</v>
       </c>
-      <c r="Q35">
-        <v>2.625</v>
-      </c>
       <c r="R35">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S35">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T35">
         <v>1.875</v>
       </c>
       <c r="U35">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V35">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W35">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3712,7 +3712,7 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>1.625</v>
+        <v>2.2</v>
       </c>
       <c r="AA35">
         <v>-1</v>
@@ -3721,10 +3721,10 @@
         <v>0.875</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD35">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -3732,7 +3732,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6848510</v>
+        <v>6848508</v>
       </c>
       <c r="C36" t="s">
         <v>29</v>
@@ -3744,37 +3744,37 @@
         <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M36">
         <v>3.5</v>
       </c>
       <c r="N36">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O36">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P36">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q36">
         <v>3.2</v>
@@ -3789,34 +3789,34 @@
         <v>1.875</v>
       </c>
       <c r="U36">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V36">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W36">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB36">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD36">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -3836,7 +3836,7 @@
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3925,7 +3925,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
         <v>33</v>
@@ -4020,7 +4020,7 @@
         <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -4109,10 +4109,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -4293,10 +4293,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" t="s">
         <v>35</v>
-      </c>
-      <c r="F42" t="s">
-        <v>36</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F43" t="s">
         <v>31</v>
@@ -4477,10 +4477,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" t="s">
         <v>37</v>
-      </c>
-      <c r="F44" t="s">
-        <v>38</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4572,7 +4572,7 @@
         <v>31</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4664,7 +4664,7 @@
         <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -4756,7 +4756,7 @@
         <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4937,7 +4937,7 @@
         <v>45234.5</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
         <v>32</v>
@@ -5029,7 +5029,7 @@
         <v>45234.5</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s">
         <v>34</v>
@@ -5121,7 +5121,7 @@
         <v>45234.5</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
         <v>30</v>
@@ -5213,7 +5213,7 @@
         <v>45234.5</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F52" t="s">
         <v>33</v>
@@ -5305,7 +5305,7 @@
         <v>45234.5</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F53" t="s">
         <v>31</v>
@@ -5400,7 +5400,7 @@
         <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5489,10 +5489,10 @@
         <v>45241.5</v>
       </c>
       <c r="E55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" t="s">
         <v>38</v>
-      </c>
-      <c r="F55" t="s">
-        <v>39</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -5581,10 +5581,10 @@
         <v>45241.5</v>
       </c>
       <c r="E56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5860,7 +5860,7 @@
         <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5952,7 +5952,7 @@
         <v>34</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -6041,7 +6041,7 @@
         <v>45248.5</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F61" t="s">
         <v>30</v>
@@ -6136,7 +6136,7 @@
         <v>31</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -6225,7 +6225,7 @@
         <v>45248.5</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F63" t="s">
         <v>32</v>
@@ -6317,7 +6317,7 @@
         <v>45248.5</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
         <v>33</v>
@@ -6412,7 +6412,7 @@
         <v>33</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6584,7 +6584,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6848544</v>
+        <v>6848542</v>
       </c>
       <c r="C67" t="s">
         <v>29</v>
@@ -6593,16 +6593,16 @@
         <v>45262.5</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -6611,64 +6611,64 @@
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L67">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="M67">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N67">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O67">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="P67">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q67">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="R67">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S67">
+        <v>1.825</v>
+      </c>
+      <c r="T67">
+        <v>1.975</v>
+      </c>
+      <c r="U67">
+        <v>2.25</v>
+      </c>
+      <c r="V67">
+        <v>1.875</v>
+      </c>
+      <c r="W67">
         <v>1.925</v>
       </c>
-      <c r="T67">
-        <v>1.925</v>
-      </c>
-      <c r="U67">
-        <v>2.75</v>
-      </c>
-      <c r="V67">
-        <v>2.025</v>
-      </c>
-      <c r="W67">
-        <v>1.825</v>
-      </c>
       <c r="X67">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
+        <v>-0.5</v>
+      </c>
+      <c r="AB67">
+        <v>0.4875</v>
+      </c>
+      <c r="AC67">
+        <v>-0.5</v>
+      </c>
+      <c r="AD67">
         <v>0.4625</v>
-      </c>
-      <c r="AB67">
-        <v>-0.5</v>
-      </c>
-      <c r="AC67">
-        <v>-1</v>
-      </c>
-      <c r="AD67">
-        <v>0.825</v>
       </c>
     </row>
     <row r="68" spans="1:30">
@@ -6676,7 +6676,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6848542</v>
+        <v>6848544</v>
       </c>
       <c r="C68" t="s">
         <v>29</v>
@@ -6685,16 +6685,16 @@
         <v>45262.5</v>
       </c>
       <c r="E68" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G68">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -6703,64 +6703,64 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L68">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="M68">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N68">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="O68">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="P68">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q68">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="R68">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S68">
+        <v>1.925</v>
+      </c>
+      <c r="T68">
+        <v>1.925</v>
+      </c>
+      <c r="U68">
+        <v>2.75</v>
+      </c>
+      <c r="V68">
+        <v>2.025</v>
+      </c>
+      <c r="W68">
         <v>1.825</v>
       </c>
-      <c r="T68">
-        <v>1.975</v>
-      </c>
-      <c r="U68">
-        <v>2.25</v>
-      </c>
-      <c r="V68">
-        <v>1.875</v>
-      </c>
-      <c r="W68">
-        <v>1.925</v>
-      </c>
       <c r="X68">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y68">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
+        <v>0.4625</v>
+      </c>
+      <c r="AB68">
         <v>-0.5</v>
       </c>
-      <c r="AB68">
-        <v>0.4875</v>
-      </c>
       <c r="AC68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD68">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="69" spans="1:30">
@@ -6768,7 +6768,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6848549</v>
+        <v>6848545</v>
       </c>
       <c r="C69" t="s">
         <v>29</v>
@@ -6777,7 +6777,7 @@
         <v>45269.5</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F69" t="s">
         <v>37</v>
@@ -6786,73 +6786,73 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L69">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="M69">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N69">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="O69">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="P69">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q69">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="R69">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S69">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U69">
         <v>2.5</v>
       </c>
       <c r="V69">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X69">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC69">
         <v>-1</v>
       </c>
       <c r="AD69">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:30">
@@ -6860,7 +6860,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6848547</v>
+        <v>6848548</v>
       </c>
       <c r="C70" t="s">
         <v>29</v>
@@ -6869,82 +6869,82 @@
         <v>45269.5</v>
       </c>
       <c r="E70" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L70">
         <v>2.1</v>
       </c>
       <c r="M70">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N70">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="O70">
+        <v>1.75</v>
+      </c>
+      <c r="P70">
+        <v>3.2</v>
+      </c>
+      <c r="Q70">
+        <v>4.5</v>
+      </c>
+      <c r="R70">
+        <v>-0.75</v>
+      </c>
+      <c r="S70">
+        <v>2</v>
+      </c>
+      <c r="T70">
+        <v>1.85</v>
+      </c>
+      <c r="U70">
         <v>2.25</v>
       </c>
-      <c r="P70">
-        <v>3.6</v>
-      </c>
-      <c r="Q70">
-        <v>2.7</v>
-      </c>
-      <c r="R70">
-        <v>-0.25</v>
-      </c>
-      <c r="S70">
-        <v>2.1</v>
-      </c>
-      <c r="T70">
-        <v>1.775</v>
-      </c>
-      <c r="U70">
-        <v>2.5</v>
-      </c>
       <c r="V70">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W70">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB70">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD70">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:30">
@@ -6952,7 +6952,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6848548</v>
+        <v>6848549</v>
       </c>
       <c r="C71" t="s">
         <v>29</v>
@@ -6961,19 +6961,19 @@
         <v>45269.5</v>
       </c>
       <c r="E71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -6982,43 +6982,43 @@
         <v>42</v>
       </c>
       <c r="L71">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="M71">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N71">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O71">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="P71">
+        <v>3.4</v>
+      </c>
+      <c r="Q71">
         <v>3.2</v>
       </c>
-      <c r="Q71">
-        <v>4.5</v>
-      </c>
       <c r="R71">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T71">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U71">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V71">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W71">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="X71">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
@@ -7027,16 +7027,16 @@
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD71">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="72" spans="1:30">
@@ -7044,7 +7044,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6848545</v>
+        <v>6848546</v>
       </c>
       <c r="C72" t="s">
         <v>29</v>
@@ -7053,82 +7053,82 @@
         <v>45269.5</v>
       </c>
       <c r="E72" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F72" t="s">
         <v>38</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" t="s">
         <v>41</v>
       </c>
       <c r="L72">
+        <v>2.5</v>
+      </c>
+      <c r="M72">
+        <v>3.75</v>
+      </c>
+      <c r="N72">
         <v>2.25</v>
       </c>
-      <c r="M72">
+      <c r="O72">
+        <v>2.5</v>
+      </c>
+      <c r="P72">
         <v>3.5</v>
       </c>
-      <c r="N72">
-        <v>2.6</v>
-      </c>
-      <c r="O72">
-        <v>2.8</v>
-      </c>
-      <c r="P72">
-        <v>3.3</v>
-      </c>
       <c r="Q72">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="R72">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S72">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T72">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U72">
         <v>2.5</v>
       </c>
       <c r="V72">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W72">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AB72">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD72">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:30">
@@ -7136,7 +7136,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6848546</v>
+        <v>6848547</v>
       </c>
       <c r="C73" t="s">
         <v>29</v>
@@ -7148,79 +7148,79 @@
         <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L73">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="M73">
         <v>3.75</v>
       </c>
       <c r="N73">
+        <v>2.7</v>
+      </c>
+      <c r="O73">
         <v>2.25</v>
       </c>
-      <c r="O73">
-        <v>2.5</v>
-      </c>
       <c r="P73">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q73">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="R73">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S73">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T73">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U73">
         <v>2.5</v>
       </c>
       <c r="V73">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD73">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:30">
@@ -7228,7 +7228,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6848600</v>
+        <v>6848550</v>
       </c>
       <c r="C74" t="s">
         <v>29</v>
@@ -7237,76 +7237,76 @@
         <v>45276.5</v>
       </c>
       <c r="E74" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>4</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
         <v>3</v>
       </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
       <c r="K74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L74">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="M74">
         <v>3.75</v>
       </c>
       <c r="N74">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O74">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="P74">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q74">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="R74">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="S74">
         <v>1.975</v>
       </c>
       <c r="T74">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U74">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V74">
         <v>1.925</v>
       </c>
       <c r="W74">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="X74">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="AA74">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC74">
         <v>0.925</v>
@@ -7320,7 +7320,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6848551</v>
+        <v>6848552</v>
       </c>
       <c r="C75" t="s">
         <v>29</v>
@@ -7332,79 +7332,79 @@
         <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G75">
         <v>2</v>
       </c>
       <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>42</v>
+      </c>
+      <c r="L75">
+        <v>1.5</v>
+      </c>
+      <c r="M75">
         <v>4</v>
       </c>
-      <c r="I75">
-        <v>2</v>
-      </c>
-      <c r="J75">
-        <v>3</v>
-      </c>
-      <c r="K75" t="s">
-        <v>40</v>
-      </c>
-      <c r="L75">
-        <v>2.8</v>
-      </c>
-      <c r="M75">
-        <v>3.5</v>
-      </c>
       <c r="N75">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O75">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="P75">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q75">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="R75">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S75">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T75">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U75">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W75">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB75">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AD75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="76" spans="1:30">
@@ -7412,7 +7412,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6848550</v>
+        <v>6848551</v>
       </c>
       <c r="C76" t="s">
         <v>29</v>
@@ -7421,19 +7421,19 @@
         <v>45276.5</v>
       </c>
       <c r="E76" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H76">
         <v>4</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -7442,41 +7442,41 @@
         <v>40</v>
       </c>
       <c r="L76">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="M76">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N76">
         <v>2.1</v>
       </c>
       <c r="O76">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="P76">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q76">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="R76">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S76">
+        <v>2</v>
+      </c>
+      <c r="T76">
+        <v>1.8</v>
+      </c>
+      <c r="U76">
+        <v>2.25</v>
+      </c>
+      <c r="V76">
+        <v>1.825</v>
+      </c>
+      <c r="W76">
         <v>1.975</v>
       </c>
-      <c r="T76">
-        <v>1.875</v>
-      </c>
-      <c r="U76">
-        <v>2.5</v>
-      </c>
-      <c r="V76">
-        <v>1.925</v>
-      </c>
-      <c r="W76">
-        <v>1.925</v>
-      </c>
       <c r="X76">
         <v>-1</v>
       </c>
@@ -7484,16 +7484,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.6499999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC76">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AD76">
         <v>-1</v>
@@ -7596,7 +7596,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6848552</v>
+        <v>6848600</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
@@ -7608,16 +7608,16 @@
         <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -7626,44 +7626,44 @@
         <v>42</v>
       </c>
       <c r="L78">
+        <v>2.1</v>
+      </c>
+      <c r="M78">
+        <v>3.75</v>
+      </c>
+      <c r="N78">
+        <v>2.7</v>
+      </c>
+      <c r="O78">
+        <v>2.5</v>
+      </c>
+      <c r="P78">
+        <v>3.4</v>
+      </c>
+      <c r="Q78">
+        <v>2.45</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>1.975</v>
+      </c>
+      <c r="T78">
+        <v>1.825</v>
+      </c>
+      <c r="U78">
+        <v>2.25</v>
+      </c>
+      <c r="V78">
+        <v>1.925</v>
+      </c>
+      <c r="W78">
+        <v>1.875</v>
+      </c>
+      <c r="X78">
         <v>1.5</v>
       </c>
-      <c r="M78">
-        <v>4</v>
-      </c>
-      <c r="N78">
-        <v>5</v>
-      </c>
-      <c r="O78">
-        <v>1.45</v>
-      </c>
-      <c r="P78">
-        <v>3.8</v>
-      </c>
-      <c r="Q78">
-        <v>6</v>
-      </c>
-      <c r="R78">
-        <v>-1</v>
-      </c>
-      <c r="S78">
-        <v>1.775</v>
-      </c>
-      <c r="T78">
-        <v>2.025</v>
-      </c>
-      <c r="U78">
-        <v>2.75</v>
-      </c>
-      <c r="V78">
-        <v>1.85</v>
-      </c>
-      <c r="W78">
-        <v>1.95</v>
-      </c>
-      <c r="X78">
-        <v>0.45</v>
-      </c>
       <c r="Y78">
         <v>-1</v>
       </c>
@@ -7671,16 +7671,16 @@
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
       <c r="AD78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:30">
@@ -7792,7 +7792,7 @@
         <v>31</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7973,10 +7973,10 @@
         <v>45283.5</v>
       </c>
       <c r="E82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -8065,10 +8065,10 @@
         <v>45283.5</v>
       </c>
       <c r="E83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G83">
         <v>4</v>
@@ -8157,7 +8157,7 @@
         <v>45290.5</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F84" t="s">
         <v>32</v>
@@ -8249,7 +8249,7 @@
         <v>45290.5</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
         <v>30</v>
@@ -8344,7 +8344,7 @@
         <v>33</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -8424,7 +8424,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6848567</v>
+        <v>6848566</v>
       </c>
       <c r="C87" t="s">
         <v>29</v>
@@ -8433,82 +8433,82 @@
         <v>45297.5</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L87">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="M87">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N87">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="O87">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="P87">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q87">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="R87">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S87">
+        <v>1.875</v>
+      </c>
+      <c r="T87">
+        <v>1.975</v>
+      </c>
+      <c r="U87">
+        <v>2.75</v>
+      </c>
+      <c r="V87">
         <v>1.925</v>
       </c>
-      <c r="T87">
+      <c r="W87">
         <v>1.925</v>
       </c>
-      <c r="U87">
-        <v>2.5</v>
-      </c>
-      <c r="V87">
-        <v>1.875</v>
-      </c>
-      <c r="W87">
-        <v>1.975</v>
-      </c>
       <c r="X87">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA87">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD87">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="88" spans="1:30">
@@ -8516,7 +8516,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6848565</v>
+        <v>6848563</v>
       </c>
       <c r="C88" t="s">
         <v>29</v>
@@ -8525,22 +8525,22 @@
         <v>45297.5</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" t="s">
         <v>42</v>
@@ -8555,34 +8555,34 @@
         <v>2.25</v>
       </c>
       <c r="O88">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="P88">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q88">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="R88">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S88">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T88">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="U88">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V88">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W88">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="X88">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="Y88">
         <v>-1</v>
@@ -8591,13 +8591,13 @@
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD88">
         <v>-1</v>
@@ -8608,7 +8608,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6848563</v>
+        <v>6848567</v>
       </c>
       <c r="C89" t="s">
         <v>29</v>
@@ -8617,19 +8617,19 @@
         <v>45297.5</v>
       </c>
       <c r="E89" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -8638,43 +8638,43 @@
         <v>42</v>
       </c>
       <c r="L89">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="M89">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N89">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="O89">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="P89">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q89">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="R89">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S89">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T89">
         <v>1.925</v>
       </c>
       <c r="U89">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V89">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W89">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X89">
-        <v>1.7</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y89">
         <v>-1</v>
@@ -8683,13 +8683,13 @@
         <v>-1</v>
       </c>
       <c r="AA89">
+        <v>0.4625</v>
+      </c>
+      <c r="AB89">
+        <v>-0.5</v>
+      </c>
+      <c r="AC89">
         <v>0.875</v>
-      </c>
-      <c r="AB89">
-        <v>-1</v>
-      </c>
-      <c r="AC89">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AD89">
         <v>-1</v>
@@ -8700,7 +8700,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6848566</v>
+        <v>6848564</v>
       </c>
       <c r="C90" t="s">
         <v>29</v>
@@ -8709,61 +8709,61 @@
         <v>45297.5</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" t="s">
         <v>40</v>
       </c>
       <c r="L90">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="M90">
         <v>3.75</v>
       </c>
       <c r="N90">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O90">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="P90">
+        <v>3.8</v>
+      </c>
+      <c r="Q90">
         <v>3.75</v>
       </c>
-      <c r="Q90">
-        <v>2.15</v>
-      </c>
       <c r="R90">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S90">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T90">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U90">
         <v>2.75</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8772,19 +8772,19 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>1.15</v>
+        <v>2.75</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AD90">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="91" spans="1:30">
@@ -8792,7 +8792,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6848564</v>
+        <v>6848565</v>
       </c>
       <c r="C91" t="s">
         <v>29</v>
@@ -8801,16 +8801,16 @@
         <v>45297.5</v>
       </c>
       <c r="E91" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -8819,64 +8819,64 @@
         <v>1</v>
       </c>
       <c r="K91" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L91">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="M91">
         <v>3.75</v>
       </c>
       <c r="N91">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="O91">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="P91">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q91">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="R91">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S91">
         <v>2.05</v>
       </c>
       <c r="T91">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U91">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V91">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W91">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB91">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
       <c r="AD91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:30">
@@ -8893,10 +8893,10 @@
         <v>45300.69791666666</v>
       </c>
       <c r="E92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92">
         <v>3</v>
@@ -8976,7 +8976,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6848602</v>
+        <v>6848568</v>
       </c>
       <c r="C93" t="s">
         <v>29</v>
@@ -8985,10 +8985,10 @@
         <v>45304.5</v>
       </c>
       <c r="E93" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -9000,46 +9000,46 @@
         <v>1</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" t="s">
         <v>41</v>
       </c>
       <c r="L93">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="M93">
         <v>3.5</v>
       </c>
       <c r="N93">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="O93">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="P93">
         <v>3.5</v>
       </c>
       <c r="Q93">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="R93">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S93">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U93">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -9051,16 +9051,16 @@
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC93">
         <v>-1</v>
       </c>
       <c r="AD93">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="94" spans="1:30">
@@ -9068,7 +9068,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6848570</v>
+        <v>6848602</v>
       </c>
       <c r="C94" t="s">
         <v>29</v>
@@ -9077,16 +9077,16 @@
         <v>45304.5</v>
       </c>
       <c r="E94" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -9095,64 +9095,64 @@
         <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L94">
+        <v>2.75</v>
+      </c>
+      <c r="M94">
+        <v>3.5</v>
+      </c>
+      <c r="N94">
+        <v>2.25</v>
+      </c>
+      <c r="O94">
         <v>2.875</v>
       </c>
-      <c r="M94">
-        <v>3.4</v>
-      </c>
-      <c r="N94">
+      <c r="P94">
+        <v>3.5</v>
+      </c>
+      <c r="Q94">
         <v>2.2</v>
-      </c>
-      <c r="O94">
-        <v>3</v>
-      </c>
-      <c r="P94">
-        <v>3.4</v>
-      </c>
-      <c r="Q94">
-        <v>2.1</v>
       </c>
       <c r="R94">
         <v>0.25</v>
       </c>
       <c r="S94">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T94">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U94">
         <v>2.5</v>
       </c>
       <c r="V94">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W94">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X94">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z94">
         <v>-1</v>
       </c>
       <c r="AA94">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC94">
         <v>-1</v>
       </c>
       <c r="AD94">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:30">
@@ -9160,7 +9160,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6848569</v>
+        <v>6848571</v>
       </c>
       <c r="C95" t="s">
         <v>29</v>
@@ -9169,16 +9169,16 @@
         <v>45304.5</v>
       </c>
       <c r="E95" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -9187,64 +9187,64 @@
         <v>1</v>
       </c>
       <c r="K95" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L95">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="M95">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N95">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="O95">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="P95">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q95">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="R95">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S95">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T95">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U95">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V95">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W95">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="X95">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="AA95">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC95">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AD95">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:30">
@@ -9252,7 +9252,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6848568</v>
+        <v>6848570</v>
       </c>
       <c r="C96" t="s">
         <v>29</v>
@@ -9261,82 +9261,82 @@
         <v>45304.5</v>
       </c>
       <c r="E96" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L96">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="M96">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N96">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="O96">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="P96">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q96">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="R96">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S96">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T96">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U96">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W96">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y96">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB96">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
         <v>-1</v>
       </c>
       <c r="AD96">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="97" spans="1:30">
@@ -9344,7 +9344,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6848571</v>
+        <v>6848569</v>
       </c>
       <c r="C97" t="s">
         <v>29</v>
@@ -9353,16 +9353,16 @@
         <v>45304.5</v>
       </c>
       <c r="E97" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -9371,64 +9371,64 @@
         <v>1</v>
       </c>
       <c r="K97" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L97">
+        <v>1.909</v>
+      </c>
+      <c r="M97">
+        <v>3.3</v>
+      </c>
+      <c r="N97">
+        <v>3.75</v>
+      </c>
+      <c r="O97">
+        <v>1.727</v>
+      </c>
+      <c r="P97">
+        <v>3.4</v>
+      </c>
+      <c r="Q97">
+        <v>4.5</v>
+      </c>
+      <c r="R97">
+        <v>-0.75</v>
+      </c>
+      <c r="S97">
+        <v>1.95</v>
+      </c>
+      <c r="T97">
+        <v>1.85</v>
+      </c>
+      <c r="U97">
         <v>2.5</v>
       </c>
-      <c r="M97">
-        <v>3.4</v>
-      </c>
-      <c r="N97">
-        <v>2.5</v>
-      </c>
-      <c r="O97">
-        <v>2.75</v>
-      </c>
-      <c r="P97">
-        <v>3.1</v>
-      </c>
-      <c r="Q97">
-        <v>2.45</v>
-      </c>
-      <c r="R97">
-        <v>0</v>
-      </c>
-      <c r="S97">
-        <v>2.05</v>
-      </c>
-      <c r="T97">
-        <v>1.8</v>
-      </c>
-      <c r="U97">
-        <v>2</v>
-      </c>
       <c r="V97">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB97">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC97">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AD97">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:30">
@@ -9436,7 +9436,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6848575</v>
+        <v>6848576</v>
       </c>
       <c r="C98" t="s">
         <v>29</v>
@@ -9445,82 +9445,82 @@
         <v>45311.5</v>
       </c>
       <c r="E98" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F98" t="s">
         <v>38</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L98">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="M98">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N98">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="O98">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="P98">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q98">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="R98">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S98">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T98">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U98">
         <v>2.5</v>
       </c>
       <c r="V98">
+        <v>1.825</v>
+      </c>
+      <c r="W98">
         <v>1.975</v>
       </c>
-      <c r="W98">
-        <v>1.825</v>
-      </c>
       <c r="X98">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y98">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC98">
+        <v>-1</v>
+      </c>
+      <c r="AD98">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AD98">
-        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:30">
@@ -9528,7 +9528,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6848576</v>
+        <v>6848575</v>
       </c>
       <c r="C99" t="s">
         <v>29</v>
@@ -9537,82 +9537,82 @@
         <v>45311.5</v>
       </c>
       <c r="E99" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L99">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="M99">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N99">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="O99">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="P99">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q99">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="R99">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T99">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U99">
         <v>2.5</v>
       </c>
       <c r="V99">
+        <v>1.975</v>
+      </c>
+      <c r="W99">
         <v>1.825</v>
       </c>
-      <c r="W99">
-        <v>1.975</v>
-      </c>
       <c r="X99">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB99">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD99">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:30">
@@ -9632,7 +9632,7 @@
         <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9721,7 +9721,7 @@
         <v>45318.5</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F101" t="s">
         <v>30</v>
@@ -9816,7 +9816,7 @@
         <v>31</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9905,7 +9905,7 @@
         <v>45318.5</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F103" t="s">
         <v>34</v>
@@ -9997,7 +9997,7 @@
         <v>45318.5</v>
       </c>
       <c r="E104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F104" t="s">
         <v>32</v>
@@ -10092,7 +10092,7 @@
         <v>33</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G105">
         <v>2</v>
@@ -10365,7 +10365,7 @@
         <v>45325.5</v>
       </c>
       <c r="E108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F108" t="s">
         <v>31</v>
@@ -10457,10 +10457,10 @@
         <v>45325.5</v>
       </c>
       <c r="E109" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -10552,7 +10552,7 @@
         <v>32</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -10644,7 +10644,7 @@
         <v>34</v>
       </c>
       <c r="F111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>45332.5</v>
       </c>
       <c r="E114" t="s">
+        <v>38</v>
+      </c>
+      <c r="F114" t="s">
         <v>39</v>
-      </c>
-      <c r="F114" t="s">
-        <v>35</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -11000,7 +11000,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6848587</v>
+        <v>6848586</v>
       </c>
       <c r="C115" t="s">
         <v>29</v>
@@ -11009,19 +11009,19 @@
         <v>45332.5</v>
       </c>
       <c r="E115" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -11030,61 +11030,61 @@
         <v>41</v>
       </c>
       <c r="L115">
-        <v>3.4</v>
+        <v>1.615</v>
       </c>
       <c r="M115">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N115">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="O115">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="P115">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q115">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="R115">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S115">
+        <v>1.975</v>
+      </c>
+      <c r="T115">
         <v>1.825</v>
       </c>
-      <c r="T115">
-        <v>1.975</v>
-      </c>
       <c r="U115">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
+        <v>-1</v>
+      </c>
+      <c r="AB115">
         <v>0.825</v>
       </c>
-      <c r="AB115">
-        <v>-1</v>
-      </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:30">
@@ -11092,7 +11092,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6848586</v>
+        <v>6848587</v>
       </c>
       <c r="C116" t="s">
         <v>29</v>
@@ -11101,19 +11101,19 @@
         <v>45332.5</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116">
         <v>1</v>
@@ -11122,61 +11122,61 @@
         <v>41</v>
       </c>
       <c r="L116">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
+        <v>3.4</v>
+      </c>
+      <c r="N116">
+        <v>1.909</v>
+      </c>
+      <c r="O116">
         <v>3.75</v>
       </c>
-      <c r="N116">
-        <v>4.333</v>
-      </c>
-      <c r="O116">
-        <v>1.7</v>
-      </c>
       <c r="P116">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q116">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="R116">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S116">
+        <v>1.825</v>
+      </c>
+      <c r="T116">
         <v>1.975</v>
       </c>
-      <c r="T116">
-        <v>1.825</v>
-      </c>
       <c r="U116">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V116">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB116">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="117" spans="1:30">
@@ -11193,7 +11193,7 @@
         <v>45335.69791666666</v>
       </c>
       <c r="E117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F117" t="s">
         <v>31</v>
@@ -11285,7 +11285,7 @@
         <v>45339.5</v>
       </c>
       <c r="E118" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F118" t="s">
         <v>31</v>
@@ -11460,7 +11460,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6848591</v>
+        <v>6848590</v>
       </c>
       <c r="C120" t="s">
         <v>29</v>
@@ -11469,82 +11469,82 @@
         <v>45339.5</v>
       </c>
       <c r="E120" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G120">
         <v>2</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L120">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="M120">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N120">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P120">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q120">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="R120">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S120">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T120">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U120">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V120">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W120">
         <v>1.975</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y120">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB120">
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD120">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:30">
@@ -11552,7 +11552,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6848590</v>
+        <v>6848592</v>
       </c>
       <c r="C121" t="s">
         <v>29</v>
@@ -11561,82 +11561,82 @@
         <v>45339.5</v>
       </c>
       <c r="E121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J121">
         <v>0</v>
       </c>
       <c r="K121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L121">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="M121">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N121">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O121">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="P121">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q121">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="R121">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S121">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T121">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U121">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X121">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD121">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:30">
@@ -11644,7 +11644,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6848592</v>
+        <v>6848591</v>
       </c>
       <c r="C122" t="s">
         <v>29</v>
@@ -11653,79 +11653,79 @@
         <v>45339.5</v>
       </c>
       <c r="E122" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122" t="s">
         <v>41</v>
       </c>
       <c r="L122">
-        <v>2.75</v>
+        <v>4.6</v>
       </c>
       <c r="M122">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N122">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="O122">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="P122">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q122">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="R122">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S122">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U122">
         <v>2.25</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W122">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB122">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AD122">
         <v>-1</v>
@@ -11745,7 +11745,7 @@
         <v>45342.69791666666</v>
       </c>
       <c r="E123" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F123" t="s">
         <v>34</v>
@@ -11837,10 +11837,10 @@
         <v>45342.69791666666</v>
       </c>
       <c r="E124" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11929,10 +11929,10 @@
         <v>45346.45833333334</v>
       </c>
       <c r="E125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -12012,7 +12012,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6848594</v>
+        <v>6886698</v>
       </c>
       <c r="C126" t="s">
         <v>29</v>
@@ -12021,82 +12021,82 @@
         <v>45346.5</v>
       </c>
       <c r="E126" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G126">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K126" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L126">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="M126">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="N126">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="O126">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="P126">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q126">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="R126">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S126">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T126">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U126">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V126">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W126">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z126">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB126">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC126">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AD126">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="127" spans="1:30">
@@ -12104,7 +12104,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6848595</v>
+        <v>6848594</v>
       </c>
       <c r="C127" t="s">
         <v>29</v>
@@ -12113,79 +12113,79 @@
         <v>45346.5</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K127" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L127">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="M127">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="N127">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="O127">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="P127">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q127">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="R127">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S127">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T127">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="U127">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V127">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W127">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X127">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="AA127">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC127">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AD127">
         <v>-1</v>
@@ -12196,7 +12196,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6852275</v>
+        <v>6848595</v>
       </c>
       <c r="C128" t="s">
         <v>29</v>
@@ -12205,82 +12205,82 @@
         <v>45346.5</v>
       </c>
       <c r="E128" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H128">
         <v>1</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K128" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L128">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="M128">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N128">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="O128">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="P128">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q128">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="R128">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S128">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T128">
+        <v>2.05</v>
+      </c>
+      <c r="U128">
+        <v>2.25</v>
+      </c>
+      <c r="V128">
         <v>1.95</v>
-      </c>
-      <c r="U128">
-        <v>2.5</v>
-      </c>
-      <c r="V128">
-        <v>1.9</v>
       </c>
       <c r="W128">
         <v>1.9</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y128">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB128">
+        <v>-1</v>
+      </c>
+      <c r="AC128">
         <v>0.95</v>
       </c>
-      <c r="AC128">
-        <v>-1</v>
-      </c>
       <c r="AD128">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:30">
@@ -12288,7 +12288,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6886698</v>
+        <v>6852275</v>
       </c>
       <c r="C129" t="s">
         <v>29</v>
@@ -12297,10 +12297,10 @@
         <v>45346.5</v>
       </c>
       <c r="E129" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -12309,7 +12309,7 @@
         <v>1</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129">
         <v>1</v>
@@ -12318,61 +12318,61 @@
         <v>41</v>
       </c>
       <c r="L129">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="M129">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N129">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="O129">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="P129">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q129">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R129">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S129">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T129">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U129">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W129">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AC129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD129">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:30">
@@ -12481,7 +12481,7 @@
         <v>45353.5</v>
       </c>
       <c r="E131" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F131" t="s">
         <v>33</v>
@@ -12573,10 +12573,10 @@
         <v>45353.5</v>
       </c>
       <c r="E132" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -12665,10 +12665,10 @@
         <v>45353.5</v>
       </c>
       <c r="E133" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -12840,7 +12840,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7697801</v>
+        <v>7128584</v>
       </c>
       <c r="C135" t="s">
         <v>29</v>
@@ -12849,49 +12849,49 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E135" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G135">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L135">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="M135">
         <v>3.5</v>
       </c>
       <c r="N135">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O135">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P135">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q135">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="R135">
         <v>0.25</v>
       </c>
       <c r="S135">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T135">
         <v>2.025</v>
@@ -12903,22 +12903,22 @@
         <v>1.825</v>
       </c>
       <c r="W135">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y135">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
         <v>0.825</v>
@@ -12932,7 +12932,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7128584</v>
+        <v>7697801</v>
       </c>
       <c r="C136" t="s">
         <v>29</v>
@@ -12941,49 +12941,49 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E136" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G136">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K136" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L136">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="M136">
         <v>3.5</v>
       </c>
       <c r="N136">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O136">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P136">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q136">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="R136">
         <v>0.25</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T136">
         <v>2.025</v>
@@ -12995,22 +12995,22 @@
         <v>1.825</v>
       </c>
       <c r="W136">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="X136">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
         <v>0.825</v>
@@ -13125,10 +13125,10 @@
         <v>45360.5</v>
       </c>
       <c r="E138" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -13220,7 +13220,7 @@
         <v>30</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G139">
         <v>3</v>
@@ -13401,10 +13401,10 @@
         <v>45360.5</v>
       </c>
       <c r="E141" t="s">
+        <v>37</v>
+      </c>
+      <c r="F141" t="s">
         <v>38</v>
-      </c>
-      <c r="F141" t="s">
-        <v>39</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -13493,7 +13493,7 @@
         <v>45367.5</v>
       </c>
       <c r="E142" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F142" t="s">
         <v>30</v>
@@ -13585,7 +13585,7 @@
         <v>45367.5</v>
       </c>
       <c r="E143" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F143" t="s">
         <v>33</v>
@@ -13677,7 +13677,7 @@
         <v>45367.5</v>
       </c>
       <c r="E144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F144" t="s">
         <v>32</v>
@@ -13772,7 +13772,7 @@
         <v>31</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -13864,7 +13864,7 @@
         <v>34</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13956,7 +13956,7 @@
         <v>30</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -14036,7 +14036,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6973854</v>
+        <v>6994264</v>
       </c>
       <c r="C148" t="s">
         <v>29</v>
@@ -14045,10 +14045,10 @@
         <v>45374.5</v>
       </c>
       <c r="E148" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -14066,46 +14066,46 @@
         <v>41</v>
       </c>
       <c r="L148">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="M148">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N148">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="O148">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="P148">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q148">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="R148">
         <v>-0.25</v>
       </c>
       <c r="S148">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T148">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U148">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V148">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W148">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Z148">
         <v>-1</v>
@@ -14114,13 +14114,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB148">
-        <v>0.5125</v>
+        <v>0.425</v>
       </c>
       <c r="AC148">
         <v>-1</v>
       </c>
       <c r="AD148">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="149" spans="1:30">
@@ -14128,7 +14128,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6979200</v>
+        <v>6973854</v>
       </c>
       <c r="C149" t="s">
         <v>29</v>
@@ -14137,82 +14137,82 @@
         <v>45374.5</v>
       </c>
       <c r="E149" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H149">
         <v>0</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149">
         <v>0</v>
       </c>
       <c r="K149" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L149">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="M149">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="N149">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O149">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="P149">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q149">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="R149">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S149">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T149">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U149">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V149">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W149">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="X149">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC149">
         <v>-1</v>
       </c>
       <c r="AD149">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:30">
@@ -14220,7 +14220,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6994264</v>
+        <v>6979200</v>
       </c>
       <c r="C150" t="s">
         <v>29</v>
@@ -14232,79 +14232,79 @@
         <v>35</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H150">
         <v>0</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150">
         <v>0</v>
       </c>
       <c r="K150" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L150">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="M150">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N150">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="O150">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="P150">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q150">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="R150">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S150">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T150">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U150">
         <v>2.5</v>
       </c>
       <c r="V150">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W150">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y150">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
         <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB150">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
         <v>-1</v>
       </c>
       <c r="AD150">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="151" spans="1:30">
@@ -14324,7 +14324,7 @@
         <v>33</v>
       </c>
       <c r="F151" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -14404,7 +14404,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7024063</v>
+        <v>7024062</v>
       </c>
       <c r="C152" t="s">
         <v>29</v>
@@ -14413,16 +14413,16 @@
         <v>45381.5</v>
       </c>
       <c r="E152" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G152">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -14431,64 +14431,64 @@
         <v>0</v>
       </c>
       <c r="K152" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L152">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="M152">
         <v>3.6</v>
       </c>
       <c r="N152">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="O152">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P152">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q152">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="R152">
         <v>-0.25</v>
       </c>
       <c r="S152">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T152">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U152">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V152">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W152">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="X152">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD152">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="153" spans="1:30">
@@ -14496,7 +14496,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7024062</v>
+        <v>7024063</v>
       </c>
       <c r="C153" t="s">
         <v>29</v>
@@ -14505,16 +14505,16 @@
         <v>45381.5</v>
       </c>
       <c r="E153" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G153">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -14523,64 +14523,64 @@
         <v>0</v>
       </c>
       <c r="K153" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L153">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="M153">
         <v>3.6</v>
       </c>
       <c r="N153">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="O153">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P153">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q153">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="R153">
         <v>-0.25</v>
       </c>
       <c r="S153">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T153">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U153">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V153">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W153">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y153">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB153">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD153">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:30">
@@ -14689,7 +14689,7 @@
         <v>45381.5</v>
       </c>
       <c r="E155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F155" t="s">
         <v>32</v>
@@ -14781,10 +14781,10 @@
         <v>45381.5</v>
       </c>
       <c r="E156" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G156">
         <v>4</v>
@@ -14968,7 +14968,7 @@
         <v>34</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -15057,10 +15057,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E159" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -15149,10 +15149,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E160" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -15517,10 +15517,10 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E164" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -15612,7 +15612,7 @@
         <v>31</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -15701,10 +15701,10 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -15793,7 +15793,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E167" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F167" t="s">
         <v>30</v>
@@ -15977,7 +15977,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E169" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F169" t="s">
         <v>32</v>
@@ -16072,7 +16072,7 @@
         <v>33</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -16161,10 +16161,10 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E171" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -16348,7 +16348,7 @@
         <v>31</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -16437,7 +16437,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F174" t="s">
         <v>33</v>
@@ -16529,7 +16529,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E175" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F175" t="s">
         <v>30</v>
@@ -16621,10 +16621,10 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G176">
         <v>2</v>
@@ -16713,7 +16713,7 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E177" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F177" t="s">
         <v>32</v>
@@ -16805,10 +16805,10 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E178" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -16900,7 +16900,7 @@
         <v>33</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -17084,7 +17084,7 @@
         <v>34</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G181">
         <v>4</v>

--- a/Scotland League Two/Scotland League Two.xlsx
+++ b/Scotland League Two/Scotland League Two.xlsx
@@ -121,13 +121,13 @@
     <t>East Fife</t>
   </si>
   <si>
-    <t>Peterhead</t>
-  </si>
-  <si>
     <t>Stranraer</t>
   </si>
   <si>
     <t>Forfar</t>
+  </si>
+  <si>
+    <t>Peterhead</t>
   </si>
   <si>
     <t>Dumbarton</t>
@@ -708,7 +708,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6848486</v>
+        <v>6848487</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1076,13 +1076,13 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1094,46 +1094,46 @@
         <v>40</v>
       </c>
       <c r="L7">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="M7">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N7">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="O7">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P7">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q7">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="R7">
         <v>-0.25</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T7">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U7">
         <v>2.5</v>
       </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W7">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Z7">
         <v>-1</v>
@@ -1142,13 +1142,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB7">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
       <c r="AC7">
         <v>-1</v>
       </c>
       <c r="AD7">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6848487</v>
+        <v>6848485</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1168,13 +1168,13 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1186,31 +1186,31 @@
         <v>40</v>
       </c>
       <c r="L8">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="M8">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N8">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O8">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="P8">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="R8">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S8">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T8">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U8">
         <v>2.5</v>
@@ -1225,16 +1225,16 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.425</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1248,7 +1248,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6848485</v>
+        <v>6848486</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1260,7 +1260,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1278,61 +1278,61 @@
         <v>40</v>
       </c>
       <c r="L9">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M9">
         <v>3.4</v>
       </c>
       <c r="N9">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O9">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="P9">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q9">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="R9">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U9">
         <v>2.5</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W9">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB9">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC9">
         <v>-1</v>
       </c>
       <c r="AD9">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -1628,7 +1628,7 @@
         <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6848490</v>
+        <v>6848488</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1717,61 +1717,61 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>2</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" t="s">
         <v>41</v>
       </c>
       <c r="L14">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="M14">
+        <v>3.6</v>
+      </c>
+      <c r="N14">
+        <v>3.6</v>
+      </c>
+      <c r="O14">
+        <v>2.875</v>
+      </c>
+      <c r="P14">
         <v>3.4</v>
       </c>
-      <c r="N14">
-        <v>2.6</v>
-      </c>
-      <c r="O14">
+      <c r="Q14">
         <v>2.1</v>
       </c>
-      <c r="P14">
-        <v>3.5</v>
-      </c>
-      <c r="Q14">
-        <v>2.8</v>
-      </c>
       <c r="R14">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S14">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U14">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W14">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1780,19 +1780,19 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD14">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -1800,7 +1800,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6848488</v>
+        <v>6848597</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1809,7 +1809,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
         <v>35</v>
@@ -1818,73 +1818,73 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L15">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="M15">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N15">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="O15">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="P15">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q15">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="R15">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U15">
         <v>2.5</v>
       </c>
       <c r="V15">
+        <v>1.95</v>
+      </c>
+      <c r="W15">
         <v>1.85</v>
       </c>
-      <c r="W15">
-        <v>1.95</v>
-      </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z15">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AC15">
+        <v>-1</v>
+      </c>
+      <c r="AD15">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AD15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -1892,7 +1892,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6848597</v>
+        <v>6848490</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1901,25 +1901,25 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L16">
         <v>2.3</v>
@@ -1931,52 +1931,52 @@
         <v>2.6</v>
       </c>
       <c r="O16">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P16">
         <v>3.5</v>
       </c>
       <c r="Q16">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="R16">
         <v>-0.25</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T16">
+        <v>1.825</v>
+      </c>
+      <c r="U16">
+        <v>2.75</v>
+      </c>
+      <c r="V16">
+        <v>1.975</v>
+      </c>
+      <c r="W16">
         <v>1.875</v>
       </c>
-      <c r="U16">
-        <v>2.5</v>
-      </c>
-      <c r="V16">
-        <v>1.95</v>
-      </c>
-      <c r="W16">
-        <v>1.85</v>
-      </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="AA16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AC16">
         <v>-1</v>
       </c>
       <c r="AD16">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -1993,7 +1993,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
         <v>32</v>
@@ -2177,7 +2177,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
         <v>30</v>
@@ -2361,7 +2361,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
         <v>39</v>
@@ -2637,10 +2637,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2720,7 +2720,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6848498</v>
+        <v>6848499</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -2729,13 +2729,13 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2747,64 +2747,64 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L25">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="M25">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N25">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O25">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="P25">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q25">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="R25">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S25">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T25">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U25">
         <v>2.5</v>
       </c>
       <c r="V25">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y25">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.425</v>
+        <v>0.875</v>
       </c>
       <c r="AB25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
         <v>-1</v>
       </c>
       <c r="AD25">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -2812,7 +2812,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6848499</v>
+        <v>6848498</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
@@ -2821,13 +2821,13 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2839,64 +2839,64 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L26">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="M26">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N26">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O26">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="P26">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q26">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="R26">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S26">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T26">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U26">
         <v>2.5</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W26">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X26">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC26">
         <v>-1</v>
       </c>
       <c r="AD26">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="27" spans="1:30">
@@ -2913,7 +2913,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
         <v>32</v>
@@ -3189,7 +3189,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
         <v>30</v>
@@ -3284,7 +3284,7 @@
         <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -3465,10 +3465,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" t="s">
         <v>36</v>
-      </c>
-      <c r="F33" t="s">
-        <v>37</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>34</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3925,7 +3925,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
         <v>31</v>
@@ -4204,7 +4204,7 @@
         <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -4293,7 +4293,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F42" t="s">
         <v>30</v>
@@ -4385,10 +4385,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" t="s">
         <v>37</v>
-      </c>
-      <c r="F43" t="s">
-        <v>35</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4664,7 +4664,7 @@
         <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -4928,7 +4928,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6848529</v>
+        <v>6848599</v>
       </c>
       <c r="C49" t="s">
         <v>29</v>
@@ -4937,79 +4937,79 @@
         <v>45234.5</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L49">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="M49">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N49">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="O49">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="P49">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q49">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="R49">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S49">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T49">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U49">
         <v>2.5</v>
       </c>
       <c r="V49">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB49">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AD49">
         <v>-1</v>
@@ -5020,7 +5020,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6848599</v>
+        <v>6848529</v>
       </c>
       <c r="C50" t="s">
         <v>29</v>
@@ -5029,79 +5029,79 @@
         <v>45234.5</v>
       </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L50">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="M50">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N50">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O50">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="P50">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q50">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="R50">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S50">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T50">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U50">
         <v>2.5</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X50">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="AA50">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC50">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AD50">
         <v>-1</v>
@@ -5213,7 +5213,7 @@
         <v>45234.5</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F52" t="s">
         <v>31</v>
@@ -5305,7 +5305,7 @@
         <v>45234.5</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
         <v>34</v>
@@ -5480,7 +5480,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6848532</v>
+        <v>6848533</v>
       </c>
       <c r="C55" t="s">
         <v>29</v>
@@ -5492,79 +5492,79 @@
         <v>37</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L55">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="M55">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N55">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O55">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="P55">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q55">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="R55">
+        <v>-0.75</v>
+      </c>
+      <c r="S55">
+        <v>1.9</v>
+      </c>
+      <c r="T55">
+        <v>1.9</v>
+      </c>
+      <c r="U55">
+        <v>2.75</v>
+      </c>
+      <c r="V55">
+        <v>1.975</v>
+      </c>
+      <c r="W55">
+        <v>1.825</v>
+      </c>
+      <c r="X55">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Y55">
+        <v>-1</v>
+      </c>
+      <c r="Z55">
+        <v>-1</v>
+      </c>
+      <c r="AA55">
+        <v>0.45</v>
+      </c>
+      <c r="AB55">
         <v>-0.5</v>
       </c>
-      <c r="S55">
-        <v>1.85</v>
-      </c>
-      <c r="T55">
-        <v>1.95</v>
-      </c>
-      <c r="U55">
-        <v>2.5</v>
-      </c>
-      <c r="V55">
-        <v>1.8</v>
-      </c>
-      <c r="W55">
-        <v>2</v>
-      </c>
-      <c r="X55">
-        <v>-1</v>
-      </c>
-      <c r="Y55">
-        <v>2.4</v>
-      </c>
-      <c r="Z55">
-        <v>-1</v>
-      </c>
-      <c r="AA55">
-        <v>-1</v>
-      </c>
-      <c r="AB55">
-        <v>0.95</v>
-      </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD55">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:30">
@@ -5572,7 +5572,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6848533</v>
+        <v>6848532</v>
       </c>
       <c r="C56" t="s">
         <v>29</v>
@@ -5581,82 +5581,82 @@
         <v>45241.5</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L56">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="M56">
+        <v>3.4</v>
+      </c>
+      <c r="N56">
         <v>3.6</v>
       </c>
-      <c r="N56">
-        <v>4.2</v>
-      </c>
       <c r="O56">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="P56">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q56">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="R56">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S56">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T56">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U56">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V56">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W56">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X56">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC56">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD56">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:30">
@@ -5860,7 +5860,7 @@
         <v>33</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5949,7 +5949,7 @@
         <v>45248.5</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F60" t="s">
         <v>33</v>
@@ -6044,7 +6044,7 @@
         <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -6136,7 +6136,7 @@
         <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -6412,7 +6412,7 @@
         <v>31</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6593,10 +6593,10 @@
         <v>45262.5</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6780,7 +6780,7 @@
         <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6872,7 +6872,7 @@
         <v>39</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -7148,7 +7148,7 @@
         <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -7237,7 +7237,7 @@
         <v>45276.5</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F74" t="s">
         <v>32</v>
@@ -7421,7 +7421,7 @@
         <v>45276.5</v>
       </c>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
@@ -7513,7 +7513,7 @@
         <v>45276.5</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
         <v>38</v>
@@ -7792,7 +7792,7 @@
         <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7973,10 +7973,10 @@
         <v>45283.5</v>
       </c>
       <c r="E82" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -8157,7 +8157,7 @@
         <v>45290.5</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
         <v>34</v>
@@ -8240,7 +8240,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6848561</v>
+        <v>6848560</v>
       </c>
       <c r="C85" t="s">
         <v>29</v>
@@ -8249,52 +8249,52 @@
         <v>45290.5</v>
       </c>
       <c r="E85" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L85">
+        <v>4.333</v>
+      </c>
+      <c r="M85">
         <v>3.75</v>
       </c>
-      <c r="M85">
-        <v>3.6</v>
-      </c>
       <c r="N85">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="O85">
         <v>4</v>
       </c>
       <c r="P85">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q85">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="R85">
         <v>0.75</v>
       </c>
       <c r="S85">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T85">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U85">
         <v>2.5</v>
@@ -8306,19 +8306,19 @@
         <v>2</v>
       </c>
       <c r="X85">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="AA85">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC85">
         <v>0.8</v>
@@ -8332,7 +8332,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6848560</v>
+        <v>6848561</v>
       </c>
       <c r="C86" t="s">
         <v>29</v>
@@ -8341,52 +8341,52 @@
         <v>45290.5</v>
       </c>
       <c r="E86" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L86">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M86">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N86">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="O86">
         <v>4</v>
       </c>
       <c r="P86">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q86">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="R86">
         <v>0.75</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T86">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U86">
         <v>2.5</v>
@@ -8398,19 +8398,19 @@
         <v>2</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB86">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
         <v>0.8</v>
@@ -8436,7 +8436,7 @@
         <v>31</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -8525,7 +8525,7 @@
         <v>45297.5</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
         <v>30</v>
@@ -8620,7 +8620,7 @@
         <v>33</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8893,7 +8893,7 @@
         <v>45300.69791666666</v>
       </c>
       <c r="E92" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F92" t="s">
         <v>38</v>
@@ -9169,10 +9169,10 @@
         <v>45304.5</v>
       </c>
       <c r="E95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -9261,7 +9261,7 @@
         <v>45304.5</v>
       </c>
       <c r="E96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F96" t="s">
         <v>31</v>
@@ -9436,7 +9436,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6848575</v>
+        <v>6848576</v>
       </c>
       <c r="C98" t="s">
         <v>29</v>
@@ -9445,82 +9445,82 @@
         <v>45311.5</v>
       </c>
       <c r="E98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F98" t="s">
         <v>35</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L98">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="M98">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N98">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="O98">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="P98">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q98">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="R98">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S98">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T98">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U98">
         <v>2.5</v>
       </c>
       <c r="V98">
+        <v>1.825</v>
+      </c>
+      <c r="W98">
         <v>1.975</v>
       </c>
-      <c r="W98">
-        <v>1.825</v>
-      </c>
       <c r="X98">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y98">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC98">
+        <v>-1</v>
+      </c>
+      <c r="AD98">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AD98">
-        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:30">
@@ -9528,7 +9528,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6848576</v>
+        <v>6848575</v>
       </c>
       <c r="C99" t="s">
         <v>29</v>
@@ -9537,82 +9537,82 @@
         <v>45311.5</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L99">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="M99">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N99">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="O99">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="P99">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q99">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="R99">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T99">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U99">
         <v>2.5</v>
       </c>
       <c r="V99">
+        <v>1.975</v>
+      </c>
+      <c r="W99">
         <v>1.825</v>
       </c>
-      <c r="W99">
-        <v>1.975</v>
-      </c>
       <c r="X99">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB99">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD99">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:30">
@@ -9721,7 +9721,7 @@
         <v>45318.5</v>
       </c>
       <c r="E101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F101" t="s">
         <v>34</v>
@@ -9813,7 +9813,7 @@
         <v>45318.5</v>
       </c>
       <c r="E102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F102" t="s">
         <v>32</v>
@@ -9997,7 +9997,7 @@
         <v>45318.5</v>
       </c>
       <c r="E104" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F104" t="s">
         <v>33</v>
@@ -10080,7 +10080,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7572918</v>
+        <v>7615754</v>
       </c>
       <c r="C105" t="s">
         <v>29</v>
@@ -10089,79 +10089,79 @@
         <v>45321.69791666666</v>
       </c>
       <c r="E105" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L105">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="M105">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N105">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="O105">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="P105">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q105">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R105">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S105">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T105">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U105">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W105">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="X105">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="AA105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC105">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AD105">
         <v>-1</v>
@@ -10172,7 +10172,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7615754</v>
+        <v>7572918</v>
       </c>
       <c r="C106" t="s">
         <v>29</v>
@@ -10181,79 +10181,79 @@
         <v>45321.69791666666</v>
       </c>
       <c r="E106" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106" t="s">
+        <v>42</v>
+      </c>
+      <c r="L106">
+        <v>1.727</v>
+      </c>
+      <c r="M106">
+        <v>3.75</v>
+      </c>
+      <c r="N106">
+        <v>3.75</v>
+      </c>
+      <c r="O106">
         <v>3</v>
       </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106">
-        <v>0</v>
-      </c>
-      <c r="K106" t="s">
-        <v>41</v>
-      </c>
-      <c r="L106">
-        <v>2.4</v>
-      </c>
-      <c r="M106">
-        <v>3.6</v>
-      </c>
-      <c r="N106">
-        <v>2.4</v>
-      </c>
-      <c r="O106">
-        <v>2.6</v>
-      </c>
       <c r="P106">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q106">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="R106">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S106">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T106">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U106">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V106">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB106">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD106">
         <v>-1</v>
@@ -10276,7 +10276,7 @@
         <v>32</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -10365,7 +10365,7 @@
         <v>45325.5</v>
       </c>
       <c r="E108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F108" t="s">
         <v>30</v>
@@ -10460,7 +10460,7 @@
         <v>39</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -10828,7 +10828,7 @@
         <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10917,7 +10917,7 @@
         <v>45332.5</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F114" t="s">
         <v>39</v>
@@ -11377,10 +11377,10 @@
         <v>45339.5</v>
       </c>
       <c r="E119" t="s">
+        <v>36</v>
+      </c>
+      <c r="F119" t="s">
         <v>37</v>
-      </c>
-      <c r="F119" t="s">
-        <v>35</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -11561,7 +11561,7 @@
         <v>45339.5</v>
       </c>
       <c r="E121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F121" t="s">
         <v>30</v>
@@ -11736,7 +11736,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7748128</v>
+        <v>7768375</v>
       </c>
       <c r="C123" t="s">
         <v>29</v>
@@ -11745,16 +11745,16 @@
         <v>45342.69791666666</v>
       </c>
       <c r="E123" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -11763,64 +11763,64 @@
         <v>0</v>
       </c>
       <c r="K123" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L123">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="M123">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N123">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="O123">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="P123">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q123">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="R123">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S123">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T123">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U123">
         <v>2.5</v>
       </c>
       <c r="V123">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W123">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC123">
         <v>-1</v>
       </c>
       <c r="AD123">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="124" spans="1:30">
@@ -11828,7 +11828,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7768375</v>
+        <v>7748128</v>
       </c>
       <c r="C124" t="s">
         <v>29</v>
@@ -11837,16 +11837,16 @@
         <v>45342.69791666666</v>
       </c>
       <c r="E124" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -11855,64 +11855,64 @@
         <v>0</v>
       </c>
       <c r="K124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L124">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="M124">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N124">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="O124">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="P124">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q124">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="R124">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S124">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T124">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U124">
         <v>2.5</v>
       </c>
       <c r="V124">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z124">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC124">
         <v>-1</v>
       </c>
       <c r="AD124">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="125" spans="1:30">
@@ -11932,7 +11932,7 @@
         <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -12021,7 +12021,7 @@
         <v>45346.5</v>
       </c>
       <c r="E126" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F126" t="s">
         <v>31</v>
@@ -12104,7 +12104,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6848594</v>
+        <v>6886698</v>
       </c>
       <c r="C127" t="s">
         <v>29</v>
@@ -12113,82 +12113,82 @@
         <v>45346.5</v>
       </c>
       <c r="E127" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G127">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L127">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="M127">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="N127">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="O127">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="P127">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q127">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="R127">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S127">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T127">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U127">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V127">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W127">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z127">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB127">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC127">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AD127">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="128" spans="1:30">
@@ -12196,7 +12196,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6848595</v>
+        <v>6848594</v>
       </c>
       <c r="C128" t="s">
         <v>29</v>
@@ -12205,79 +12205,79 @@
         <v>45346.5</v>
       </c>
       <c r="E128" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L128">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="M128">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="N128">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="O128">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="P128">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q128">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="R128">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S128">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T128">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="U128">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V128">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W128">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X128">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="AA128">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC128">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AD128">
         <v>-1</v>
@@ -12288,7 +12288,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6886698</v>
+        <v>6848595</v>
       </c>
       <c r="C129" t="s">
         <v>29</v>
@@ -12297,82 +12297,82 @@
         <v>45346.5</v>
       </c>
       <c r="E129" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L129">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M129">
+        <v>3.3</v>
+      </c>
+      <c r="N129">
+        <v>3.4</v>
+      </c>
+      <c r="O129">
+        <v>2</v>
+      </c>
+      <c r="P129">
         <v>3.25</v>
       </c>
-      <c r="N129">
-        <v>3.25</v>
-      </c>
-      <c r="O129">
-        <v>2.3</v>
-      </c>
-      <c r="P129">
-        <v>3.1</v>
-      </c>
       <c r="Q129">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="R129">
         <v>-0.25</v>
       </c>
       <c r="S129">
+        <v>1.8</v>
+      </c>
+      <c r="T129">
         <v>2.05</v>
-      </c>
-      <c r="T129">
-        <v>1.8</v>
       </c>
       <c r="U129">
         <v>2.25</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y129">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB129">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AD129">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:30">
@@ -12389,10 +12389,10 @@
         <v>45353.5</v>
       </c>
       <c r="E130" t="s">
+        <v>35</v>
+      </c>
+      <c r="F130" t="s">
         <v>36</v>
-      </c>
-      <c r="F130" t="s">
-        <v>37</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -12668,7 +12668,7 @@
         <v>38</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -12849,7 +12849,7 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F135" t="s">
         <v>38</v>
@@ -13033,10 +13033,10 @@
         <v>45360.5</v>
       </c>
       <c r="E137" t="s">
+        <v>37</v>
+      </c>
+      <c r="F137" t="s">
         <v>35</v>
-      </c>
-      <c r="F137" t="s">
-        <v>36</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -13208,7 +13208,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6958739</v>
+        <v>6937673</v>
       </c>
       <c r="C139" t="s">
         <v>29</v>
@@ -13217,22 +13217,22 @@
         <v>45360.5</v>
       </c>
       <c r="E139" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K139" t="s">
         <v>42</v>
@@ -13250,28 +13250,28 @@
         <v>2.25</v>
       </c>
       <c r="P139">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q139">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="R139">
         <v>-0.25</v>
       </c>
       <c r="S139">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T139">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="U139">
         <v>2.5</v>
       </c>
       <c r="V139">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W139">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X139">
         <v>1.25</v>
@@ -13283,16 +13283,16 @@
         <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD139">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:30">
@@ -13300,7 +13300,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6937673</v>
+        <v>6958739</v>
       </c>
       <c r="C140" t="s">
         <v>29</v>
@@ -13309,22 +13309,22 @@
         <v>45360.5</v>
       </c>
       <c r="E140" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K140" t="s">
         <v>42</v>
@@ -13342,28 +13342,28 @@
         <v>2.25</v>
       </c>
       <c r="P140">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q140">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="R140">
         <v>-0.25</v>
       </c>
       <c r="S140">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="U140">
         <v>2.5</v>
       </c>
       <c r="V140">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W140">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X140">
         <v>1.25</v>
@@ -13375,16 +13375,16 @@
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD140">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="141" spans="1:30">
@@ -13576,7 +13576,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6973853</v>
+        <v>6958741</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
@@ -13588,79 +13588,79 @@
         <v>36</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G143">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
       <c r="J143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L143">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="M143">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N143">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="O143">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="P143">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="Q143">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="R143">
+        <v>0.25</v>
+      </c>
+      <c r="S143">
+        <v>1.775</v>
+      </c>
+      <c r="T143">
+        <v>2.025</v>
+      </c>
+      <c r="U143">
+        <v>2.25</v>
+      </c>
+      <c r="V143">
+        <v>1.95</v>
+      </c>
+      <c r="W143">
+        <v>1.85</v>
+      </c>
+      <c r="X143">
+        <v>-1</v>
+      </c>
+      <c r="Y143">
+        <v>1.875</v>
+      </c>
+      <c r="Z143">
+        <v>-1</v>
+      </c>
+      <c r="AA143">
+        <v>0.3875</v>
+      </c>
+      <c r="AB143">
         <v>-0.5</v>
       </c>
-      <c r="S143">
-        <v>2.025</v>
-      </c>
-      <c r="T143">
-        <v>1.775</v>
-      </c>
-      <c r="U143">
-        <v>2.5</v>
-      </c>
-      <c r="V143">
-        <v>2</v>
-      </c>
-      <c r="W143">
-        <v>1.8</v>
-      </c>
-      <c r="X143">
-        <v>-1</v>
-      </c>
-      <c r="Y143">
-        <v>-1</v>
-      </c>
-      <c r="Z143">
-        <v>2.5</v>
-      </c>
-      <c r="AA143">
-        <v>-1</v>
-      </c>
-      <c r="AB143">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AC143">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD143">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="144" spans="1:30">
@@ -13668,7 +13668,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6973852</v>
+        <v>6973853</v>
       </c>
       <c r="C144" t="s">
         <v>29</v>
@@ -13680,43 +13680,43 @@
         <v>35</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G144">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144">
         <v>0</v>
       </c>
       <c r="K144" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L144">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="M144">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N144">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O144">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="P144">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q144">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="R144">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S144">
         <v>2.025</v>
@@ -13725,34 +13725,34 @@
         <v>1.775</v>
       </c>
       <c r="U144">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V144">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W144">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="AA144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.3875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC144">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AD144">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:30">
@@ -13760,7 +13760,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6958741</v>
+        <v>6973852</v>
       </c>
       <c r="C145" t="s">
         <v>29</v>
@@ -13772,7 +13772,7 @@
         <v>37</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -13781,70 +13781,70 @@
         <v>1</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K145" t="s">
         <v>40</v>
       </c>
       <c r="L145">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="M145">
+        <v>3.25</v>
+      </c>
+      <c r="N145">
+        <v>3</v>
+      </c>
+      <c r="O145">
+        <v>2.3</v>
+      </c>
+      <c r="P145">
         <v>3.1</v>
       </c>
-      <c r="N145">
-        <v>2.1</v>
-      </c>
-      <c r="O145">
-        <v>3.2</v>
-      </c>
-      <c r="P145">
-        <v>2.875</v>
-      </c>
       <c r="Q145">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="R145">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S145">
+        <v>2.025</v>
+      </c>
+      <c r="T145">
         <v>1.775</v>
-      </c>
-      <c r="T145">
-        <v>2.025</v>
       </c>
       <c r="U145">
         <v>2.25</v>
       </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W145">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
+        <v>-0.5</v>
+      </c>
+      <c r="AB145">
         <v>0.3875</v>
-      </c>
-      <c r="AB145">
-        <v>-0.5</v>
       </c>
       <c r="AC145">
         <v>-0.5</v>
       </c>
       <c r="AD145">
-        <v>0.425</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="146" spans="1:30">
@@ -13944,7 +13944,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6979200</v>
+        <v>6994264</v>
       </c>
       <c r="C147" t="s">
         <v>29</v>
@@ -13953,82 +13953,82 @@
         <v>45374.5</v>
       </c>
       <c r="E147" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H147">
         <v>0</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147">
         <v>0</v>
       </c>
       <c r="K147" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L147">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="M147">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N147">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="O147">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="P147">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q147">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="R147">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S147">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U147">
         <v>2.5</v>
       </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W147">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X147">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC147">
         <v>-1</v>
       </c>
       <c r="AD147">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="148" spans="1:30">
@@ -14036,7 +14036,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6994264</v>
+        <v>6994265</v>
       </c>
       <c r="C148" t="s">
         <v>29</v>
@@ -14045,82 +14045,82 @@
         <v>45374.5</v>
       </c>
       <c r="E148" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148">
         <v>0</v>
       </c>
       <c r="J148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K148" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L148">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="M148">
         <v>3.4</v>
       </c>
       <c r="N148">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="O148">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="P148">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q148">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="R148">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S148">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T148">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U148">
         <v>2.5</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W148">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y148">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB148">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD148">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:30">
@@ -14128,7 +14128,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6994265</v>
+        <v>6994266</v>
       </c>
       <c r="C149" t="s">
         <v>29</v>
@@ -14137,82 +14137,82 @@
         <v>45374.5</v>
       </c>
       <c r="E149" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F149" t="s">
         <v>36</v>
       </c>
       <c r="G149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149">
         <v>1</v>
       </c>
       <c r="K149" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L149">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="M149">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N149">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="O149">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="P149">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q149">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="R149">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S149">
+        <v>1.825</v>
+      </c>
+      <c r="T149">
+        <v>2.025</v>
+      </c>
+      <c r="U149">
+        <v>2</v>
+      </c>
+      <c r="V149">
+        <v>1.825</v>
+      </c>
+      <c r="W149">
+        <v>1.975</v>
+      </c>
+      <c r="X149">
+        <v>-1</v>
+      </c>
+      <c r="Y149">
         <v>1.875</v>
       </c>
-      <c r="T149">
-        <v>1.925</v>
-      </c>
-      <c r="U149">
-        <v>2.5</v>
-      </c>
-      <c r="V149">
-        <v>1.95</v>
-      </c>
-      <c r="W149">
-        <v>1.85</v>
-      </c>
-      <c r="X149">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Y149">
-        <v>-1</v>
-      </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC149">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AD149">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:30">
@@ -14220,7 +14220,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6994266</v>
+        <v>6973854</v>
       </c>
       <c r="C150" t="s">
         <v>29</v>
@@ -14229,82 +14229,82 @@
         <v>45374.5</v>
       </c>
       <c r="E150" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F150" t="s">
         <v>37</v>
       </c>
       <c r="G150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K150" t="s">
         <v>40</v>
       </c>
       <c r="L150">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="M150">
         <v>3.1</v>
       </c>
       <c r="N150">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="O150">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="P150">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q150">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="R150">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S150">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T150">
         <v>2.025</v>
       </c>
       <c r="U150">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V150">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W150">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="Z150">
         <v>-1</v>
       </c>
       <c r="AA150">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB150">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AC150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD150">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:30">
@@ -14312,7 +14312,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6973854</v>
+        <v>6979200</v>
       </c>
       <c r="C151" t="s">
         <v>29</v>
@@ -14321,82 +14321,82 @@
         <v>45374.5</v>
       </c>
       <c r="E151" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H151">
         <v>0</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151">
         <v>0</v>
       </c>
       <c r="K151" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L151">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="M151">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N151">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O151">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="P151">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q151">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="R151">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S151">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T151">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U151">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V151">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W151">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y151">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
         <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB151">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
         <v>-1</v>
       </c>
       <c r="AD151">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="152" spans="1:30">
@@ -14413,7 +14413,7 @@
         <v>45381.5</v>
       </c>
       <c r="E152" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F152" t="s">
         <v>39</v>
@@ -14680,7 +14680,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7024062</v>
+        <v>7024063</v>
       </c>
       <c r="C155" t="s">
         <v>29</v>
@@ -14689,16 +14689,16 @@
         <v>45381.5</v>
       </c>
       <c r="E155" t="s">
+        <v>30</v>
+      </c>
+      <c r="F155" t="s">
         <v>36</v>
       </c>
-      <c r="F155" t="s">
-        <v>32</v>
-      </c>
       <c r="G155">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -14707,64 +14707,64 @@
         <v>0</v>
       </c>
       <c r="K155" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L155">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="M155">
         <v>3.6</v>
       </c>
       <c r="N155">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="O155">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P155">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q155">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="R155">
         <v>-0.25</v>
       </c>
       <c r="S155">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T155">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U155">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V155">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W155">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y155">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB155">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD155">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:30">
@@ -14772,7 +14772,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7024063</v>
+        <v>7024062</v>
       </c>
       <c r="C156" t="s">
         <v>29</v>
@@ -14781,16 +14781,16 @@
         <v>45381.5</v>
       </c>
       <c r="E156" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G156">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -14799,64 +14799,64 @@
         <v>0</v>
       </c>
       <c r="K156" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L156">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="M156">
         <v>3.6</v>
       </c>
       <c r="N156">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="O156">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P156">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q156">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="R156">
         <v>-0.25</v>
       </c>
       <c r="S156">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T156">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U156">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V156">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W156">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="X156">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD156">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="157" spans="1:30">
@@ -14968,7 +14968,7 @@
         <v>39</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -15057,7 +15057,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E159" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F159" t="s">
         <v>38</v>
@@ -15244,7 +15244,7 @@
         <v>32</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -15333,10 +15333,10 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -15600,7 +15600,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7092319</v>
+        <v>7092311</v>
       </c>
       <c r="C165" t="s">
         <v>29</v>
@@ -15609,82 +15609,82 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E165" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K165" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L165">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="M165">
         <v>3.3</v>
       </c>
       <c r="N165">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O165">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="P165">
         <v>3.2</v>
       </c>
       <c r="Q165">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="R165">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S165">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T165">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U165">
         <v>2.5</v>
       </c>
       <c r="V165">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W165">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z165">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
         <v>-1</v>
       </c>
       <c r="AB165">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC165">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD165">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="166" spans="1:30">
@@ -15692,7 +15692,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7092311</v>
+        <v>7092319</v>
       </c>
       <c r="C166" t="s">
         <v>29</v>
@@ -15701,82 +15701,82 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E166" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K166" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L166">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="M166">
         <v>3.3</v>
       </c>
       <c r="N166">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O166">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="P166">
         <v>3.2</v>
       </c>
       <c r="Q166">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="R166">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T166">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U166">
         <v>2.5</v>
       </c>
       <c r="V166">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W166">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD166">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:30">
@@ -15793,7 +15793,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E167" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F167" t="s">
         <v>34</v>
@@ -15876,7 +15876,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7157733</v>
+        <v>8093712</v>
       </c>
       <c r="C168" t="s">
         <v>29</v>
@@ -15885,19 +15885,19 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E168" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -15906,13 +15906,13 @@
         <v>40</v>
       </c>
       <c r="L168">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="M168">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N168">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="O168">
         <v>2.8</v>
@@ -15927,19 +15927,19 @@
         <v>0.25</v>
       </c>
       <c r="S168">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T168">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U168">
         <v>2.5</v>
       </c>
       <c r="V168">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W168">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15951,7 +15951,7 @@
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
       <c r="AB168">
         <v>-0.5</v>
@@ -15960,7 +15960,7 @@
         <v>-1</v>
       </c>
       <c r="AD168">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="169" spans="1:30">
@@ -15968,7 +15968,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>8093712</v>
+        <v>7157733</v>
       </c>
       <c r="C169" t="s">
         <v>29</v>
@@ -15977,19 +15977,19 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E169" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F169" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169">
         <v>0</v>
@@ -15998,13 +15998,13 @@
         <v>40</v>
       </c>
       <c r="L169">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="M169">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N169">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="O169">
         <v>2.8</v>
@@ -16019,19 +16019,19 @@
         <v>0.25</v>
       </c>
       <c r="S169">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T169">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U169">
         <v>2.5</v>
       </c>
       <c r="V169">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W169">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X169">
         <v>-1</v>
@@ -16043,7 +16043,7 @@
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
       <c r="AB169">
         <v>-0.5</v>
@@ -16052,7 +16052,7 @@
         <v>-1</v>
       </c>
       <c r="AD169">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="170" spans="1:30">
@@ -16348,7 +16348,7 @@
         <v>30</v>
       </c>
       <c r="F173" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -16428,7 +16428,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7157734</v>
+        <v>7157736</v>
       </c>
       <c r="C174" t="s">
         <v>29</v>
@@ -16437,16 +16437,16 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E174" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G174">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174">
         <v>1</v>
@@ -16455,64 +16455,64 @@
         <v>0</v>
       </c>
       <c r="K174" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L174">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="M174">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N174">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="O174">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="P174">
         <v>3.4</v>
       </c>
       <c r="Q174">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="R174">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S174">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T174">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U174">
         <v>2.5</v>
       </c>
       <c r="V174">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W174">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X174">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z174">
         <v>-1</v>
       </c>
       <c r="AA174">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC174">
         <v>-1</v>
       </c>
       <c r="AD174">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="175" spans="1:30">
@@ -16529,10 +16529,10 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E175" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -16612,7 +16612,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7157736</v>
+        <v>7157734</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
@@ -16621,16 +16621,16 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G176">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -16639,64 +16639,64 @@
         <v>0</v>
       </c>
       <c r="K176" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L176">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="M176">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N176">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="O176">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="P176">
         <v>3.4</v>
       </c>
       <c r="Q176">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="R176">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S176">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T176">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U176">
         <v>2.5</v>
       </c>
       <c r="V176">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W176">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y176">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB176">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
         <v>-1</v>
       </c>
       <c r="AD176">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -16716,7 +16716,7 @@
         <v>32</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G177">
         <v>4</v>
@@ -16897,7 +16897,7 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E179" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F179" t="s">
         <v>33</v>
@@ -16989,7 +16989,7 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E180" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F180" t="s">
         <v>38</v>

--- a/Scotland League Two/Scotland League Two.xlsx
+++ b/Scotland League Two/Scotland League Two.xlsx
@@ -121,9 +121,6 @@
     <t>Spartans</t>
   </si>
   <si>
-    <t>Clyde</t>
-  </si>
-  <si>
     <t>Stranraer</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
   </si>
   <si>
     <t>Dumbarton</t>
+  </si>
+  <si>
+    <t>Clyde</t>
   </si>
   <si>
     <t>A</t>
@@ -616,7 +616,7 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -892,7 +892,7 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6848483</v>
+        <v>6848487</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1076,79 +1076,79 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L7">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="M7">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N7">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="O7">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="P7">
         <v>3.3</v>
       </c>
       <c r="Q7">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S7">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T7">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U7">
         <v>2.5</v>
       </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W7">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z7">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
       <c r="AC7">
         <v>-1</v>
       </c>
       <c r="AD7">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6848487</v>
+        <v>6848486</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1168,13 +1168,13 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1186,46 +1186,46 @@
         <v>41</v>
       </c>
       <c r="L8">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="M8">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N8">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="O8">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P8">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="R8">
         <v>-0.25</v>
       </c>
       <c r="S8">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U8">
         <v>2.5</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Z8">
         <v>-1</v>
@@ -1234,13 +1234,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB8">
-        <v>0.425</v>
+        <v>0.4</v>
       </c>
       <c r="AC8">
         <v>-1</v>
       </c>
       <c r="AD8">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1248,7 +1248,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6848486</v>
+        <v>6848485</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1260,7 +1260,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1278,61 +1278,61 @@
         <v>41</v>
       </c>
       <c r="L9">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="M9">
         <v>3.4</v>
       </c>
       <c r="N9">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O9">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="P9">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q9">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="R9">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U9">
         <v>2.5</v>
       </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC9">
         <v>-1</v>
       </c>
       <c r="AD9">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6848485</v>
+        <v>6848484</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1352,13 +1352,13 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1370,61 +1370,61 @@
         <v>41</v>
       </c>
       <c r="L10">
+        <v>1.8</v>
+      </c>
+      <c r="M10">
+        <v>3.5</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>2.375</v>
+      </c>
+      <c r="P10">
+        <v>3.3</v>
+      </c>
+      <c r="Q10">
+        <v>2.75</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.775</v>
+      </c>
+      <c r="T10">
         <v>2.1</v>
-      </c>
-      <c r="M10">
-        <v>3.4</v>
-      </c>
-      <c r="N10">
-        <v>3.1</v>
-      </c>
-      <c r="O10">
-        <v>1.533</v>
-      </c>
-      <c r="P10">
-        <v>4</v>
-      </c>
-      <c r="Q10">
-        <v>4.75</v>
-      </c>
-      <c r="R10">
-        <v>-1</v>
-      </c>
-      <c r="S10">
-        <v>2.025</v>
-      </c>
-      <c r="T10">
-        <v>1.775</v>
       </c>
       <c r="U10">
         <v>2.5</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W10">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC10">
         <v>-1</v>
       </c>
       <c r="AD10">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -1432,7 +1432,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6848484</v>
+        <v>6848483</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1444,31 +1444,31 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L11">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="M11">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N11">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O11">
         <v>2.375</v>
@@ -1477,7 +1477,7 @@
         <v>3.3</v>
       </c>
       <c r="Q11">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1486,37 +1486,37 @@
         <v>1.775</v>
       </c>
       <c r="T11">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="U11">
         <v>2.5</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W11">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC11">
         <v>-1</v>
       </c>
       <c r="AD11">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -1616,7 +1616,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6848491</v>
+        <v>6848597</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -1625,55 +1625,55 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L13">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="M13">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N13">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="O13">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="P13">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q13">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="R13">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S13">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T13">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U13">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V13">
         <v>1.95</v>
@@ -1682,25 +1682,25 @@
         <v>1.85</v>
       </c>
       <c r="X13">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AB13">
-        <v>-0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="AC13">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AD13">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6848489</v>
+        <v>6848491</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1717,13 +1717,13 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1732,49 +1732,49 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="s">
         <v>42</v>
       </c>
       <c r="L14">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="M14">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N14">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O14">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="P14">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q14">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="R14">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U14">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V14">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W14">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X14">
-        <v>1.1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y14">
         <v>-1</v>
@@ -1783,16 +1783,16 @@
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC14">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AD14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -1800,7 +1800,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6848488</v>
+        <v>6848489</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1809,46 +1809,46 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
         <v>37</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L15">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="M15">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N15">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="O15">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="P15">
         <v>3.4</v>
       </c>
       <c r="Q15">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="R15">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S15">
         <v>1.9</v>
@@ -1857,31 +1857,31 @@
         <v>1.9</v>
       </c>
       <c r="U15">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB15">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AD15">
         <v>-1</v>
@@ -1892,7 +1892,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6848597</v>
+        <v>6848488</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1901,7 +1901,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
         <v>36</v>
@@ -1910,73 +1910,73 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L16">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="M16">
+        <v>3.6</v>
+      </c>
+      <c r="N16">
+        <v>3.6</v>
+      </c>
+      <c r="O16">
+        <v>2.875</v>
+      </c>
+      <c r="P16">
         <v>3.4</v>
       </c>
-      <c r="N16">
-        <v>2.6</v>
-      </c>
-      <c r="O16">
-        <v>2.05</v>
-      </c>
-      <c r="P16">
-        <v>3.5</v>
-      </c>
       <c r="Q16">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="R16">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T16">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U16">
         <v>2.5</v>
       </c>
       <c r="V16">
+        <v>1.85</v>
+      </c>
+      <c r="W16">
         <v>1.95</v>
       </c>
-      <c r="W16">
-        <v>1.85</v>
-      </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD16">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -1993,10 +1993,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2088,7 +2088,7 @@
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2177,7 +2177,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
@@ -2269,7 +2269,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
         <v>32</v>
@@ -2545,10 +2545,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2637,7 +2637,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
         <v>30</v>
@@ -2821,10 +2821,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
         <v>36</v>
-      </c>
-      <c r="F26" t="s">
-        <v>37</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2913,7 +2913,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
         <v>34</v>
@@ -3005,7 +3005,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
         <v>32</v>
@@ -3100,7 +3100,7 @@
         <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -3192,7 +3192,7 @@
         <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3284,7 +3284,7 @@
         <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -3465,10 +3465,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3649,7 +3649,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
         <v>31</v>
@@ -3741,10 +3741,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3833,10 +3833,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -4020,7 +4020,7 @@
         <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -4109,7 +4109,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F40" t="s">
         <v>31</v>
@@ -4204,7 +4204,7 @@
         <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4284,7 +4284,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6848519</v>
+        <v>6848520</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
@@ -4293,19 +4293,19 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>2</v>
@@ -4314,22 +4314,22 @@
         <v>40</v>
       </c>
       <c r="L42">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="M42">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N42">
+        <v>2.8</v>
+      </c>
+      <c r="O42">
         <v>2.5</v>
       </c>
-      <c r="O42">
-        <v>2.7</v>
-      </c>
       <c r="P42">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q42">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R42">
         <v>0</v>
@@ -4344,10 +4344,10 @@
         <v>2.5</v>
       </c>
       <c r="V42">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W42">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4356,7 +4356,7 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AA42">
         <v>-1</v>
@@ -4365,7 +4365,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AC42">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AD42">
         <v>-1</v>
@@ -4385,10 +4385,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4468,7 +4468,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6848520</v>
+        <v>6848519</v>
       </c>
       <c r="C44" t="s">
         <v>29</v>
@@ -4477,19 +4477,19 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" t="s">
         <v>36</v>
       </c>
-      <c r="F44" t="s">
-        <v>34</v>
-      </c>
       <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
         <v>3</v>
       </c>
-      <c r="H44">
-        <v>4</v>
-      </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>2</v>
@@ -4498,22 +4498,22 @@
         <v>40</v>
       </c>
       <c r="L44">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="M44">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N44">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O44">
+        <v>2.7</v>
+      </c>
+      <c r="P44">
+        <v>3.25</v>
+      </c>
+      <c r="Q44">
         <v>2.5</v>
-      </c>
-      <c r="P44">
-        <v>3.5</v>
-      </c>
-      <c r="Q44">
-        <v>2.4</v>
       </c>
       <c r="R44">
         <v>0</v>
@@ -4528,10 +4528,10 @@
         <v>2.5</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W44">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4540,7 +4540,7 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AA44">
         <v>-1</v>
@@ -4549,7 +4549,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AC44">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AD44">
         <v>-1</v>
@@ -4572,7 +4572,7 @@
         <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G45">
         <v>4</v>
@@ -4664,7 +4664,7 @@
         <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4756,7 +4756,7 @@
         <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4928,7 +4928,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6848528</v>
+        <v>6848599</v>
       </c>
       <c r="C49" t="s">
         <v>29</v>
@@ -4937,82 +4937,82 @@
         <v>45234.5</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L49">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="M49">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N49">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="O49">
+        <v>1.833</v>
+      </c>
+      <c r="P49">
+        <v>3.75</v>
+      </c>
+      <c r="Q49">
         <v>3.4</v>
       </c>
-      <c r="P49">
-        <v>3.8</v>
-      </c>
-      <c r="Q49">
-        <v>1.8</v>
-      </c>
       <c r="R49">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S49">
+        <v>1.875</v>
+      </c>
+      <c r="T49">
+        <v>1.925</v>
+      </c>
+      <c r="U49">
+        <v>2.5</v>
+      </c>
+      <c r="V49">
+        <v>1.825</v>
+      </c>
+      <c r="W49">
         <v>1.975</v>
       </c>
-      <c r="T49">
-        <v>1.875</v>
-      </c>
-      <c r="U49">
-        <v>2.75</v>
-      </c>
-      <c r="V49">
-        <v>1.975</v>
-      </c>
-      <c r="W49">
-        <v>1.875</v>
-      </c>
       <c r="X49">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB49">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AD49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:30">
@@ -5020,7 +5020,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6848599</v>
+        <v>6848528</v>
       </c>
       <c r="C50" t="s">
         <v>29</v>
@@ -5032,79 +5032,79 @@
         <v>39</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L50">
+        <v>2.8</v>
+      </c>
+      <c r="M50">
+        <v>3.6</v>
+      </c>
+      <c r="N50">
+        <v>2.1</v>
+      </c>
+      <c r="O50">
+        <v>3.4</v>
+      </c>
+      <c r="P50">
+        <v>3.8</v>
+      </c>
+      <c r="Q50">
         <v>1.8</v>
       </c>
-      <c r="M50">
-        <v>3.75</v>
-      </c>
-      <c r="N50">
-        <v>3.4</v>
-      </c>
-      <c r="O50">
-        <v>1.833</v>
-      </c>
-      <c r="P50">
-        <v>3.75</v>
-      </c>
-      <c r="Q50">
-        <v>3.4</v>
-      </c>
       <c r="R50">
+        <v>0.5</v>
+      </c>
+      <c r="S50">
+        <v>1.975</v>
+      </c>
+      <c r="T50">
+        <v>1.875</v>
+      </c>
+      <c r="U50">
+        <v>2.75</v>
+      </c>
+      <c r="V50">
+        <v>1.975</v>
+      </c>
+      <c r="W50">
+        <v>1.875</v>
+      </c>
+      <c r="X50">
+        <v>-1</v>
+      </c>
+      <c r="Y50">
+        <v>-1</v>
+      </c>
+      <c r="Z50">
+        <v>0.8</v>
+      </c>
+      <c r="AA50">
+        <v>-1</v>
+      </c>
+      <c r="AB50">
+        <v>0.875</v>
+      </c>
+      <c r="AC50">
+        <v>0.4875</v>
+      </c>
+      <c r="AD50">
         <v>-0.5</v>
-      </c>
-      <c r="S50">
-        <v>1.875</v>
-      </c>
-      <c r="T50">
-        <v>1.925</v>
-      </c>
-      <c r="U50">
-        <v>2.5</v>
-      </c>
-      <c r="V50">
-        <v>1.825</v>
-      </c>
-      <c r="W50">
-        <v>1.975</v>
-      </c>
-      <c r="X50">
-        <v>0.833</v>
-      </c>
-      <c r="Y50">
-        <v>-1</v>
-      </c>
-      <c r="Z50">
-        <v>-1</v>
-      </c>
-      <c r="AA50">
-        <v>0.875</v>
-      </c>
-      <c r="AB50">
-        <v>-1</v>
-      </c>
-      <c r="AC50">
-        <v>0.825</v>
-      </c>
-      <c r="AD50">
-        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:30">
@@ -5121,7 +5121,7 @@
         <v>45234.5</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
         <v>33</v>
@@ -5213,7 +5213,7 @@
         <v>45234.5</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
         <v>30</v>
@@ -5305,7 +5305,7 @@
         <v>45234.5</v>
       </c>
       <c r="E53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F53" t="s">
         <v>31</v>
@@ -5400,7 +5400,7 @@
         <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5581,10 +5581,10 @@
         <v>45241.5</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5673,10 +5673,10 @@
         <v>45241.5</v>
       </c>
       <c r="E57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5860,7 +5860,7 @@
         <v>33</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5949,7 +5949,7 @@
         <v>45248.5</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F60" t="s">
         <v>31</v>
@@ -6041,7 +6041,7 @@
         <v>45248.5</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F61" t="s">
         <v>30</v>
@@ -6124,7 +6124,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6848539</v>
+        <v>6848535</v>
       </c>
       <c r="C62" t="s">
         <v>29</v>
@@ -6133,13 +6133,13 @@
         <v>45248.5</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
         <v>37</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6154,34 +6154,34 @@
         <v>40</v>
       </c>
       <c r="L62">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="M62">
         <v>3.6</v>
       </c>
       <c r="N62">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="O62">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="P62">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q62">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="R62">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S62">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T62">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U62">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V62">
         <v>1.95</v>
@@ -6196,19 +6196,19 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
+        <v>1.025</v>
+      </c>
+      <c r="AC62">
+        <v>-1</v>
+      </c>
+      <c r="AD62">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC62">
-        <v>0.475</v>
-      </c>
-      <c r="AD62">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="63" spans="1:30">
@@ -6216,7 +6216,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6848535</v>
+        <v>6848539</v>
       </c>
       <c r="C63" t="s">
         <v>29</v>
@@ -6225,13 +6225,13 @@
         <v>45248.5</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6246,34 +6246,34 @@
         <v>40</v>
       </c>
       <c r="L63">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="M63">
         <v>3.6</v>
       </c>
       <c r="N63">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="O63">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="P63">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q63">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="R63">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S63">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T63">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U63">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V63">
         <v>1.95</v>
@@ -6288,19 +6288,19 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AD63">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="64" spans="1:30">
@@ -6317,7 +6317,7 @@
         <v>45248.5</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
         <v>33</v>
@@ -6504,7 +6504,7 @@
         <v>31</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6685,10 +6685,10 @@
         <v>45262.5</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6777,10 +6777,10 @@
         <v>45269.5</v>
       </c>
       <c r="E69" t="s">
+        <v>39</v>
+      </c>
+      <c r="F69" t="s">
         <v>35</v>
-      </c>
-      <c r="F69" t="s">
-        <v>36</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6869,7 +6869,7 @@
         <v>45269.5</v>
       </c>
       <c r="E70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F70" t="s">
         <v>33</v>
@@ -7056,7 +7056,7 @@
         <v>34</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -7148,7 +7148,7 @@
         <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -7320,7 +7320,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6848551</v>
+        <v>6848552</v>
       </c>
       <c r="C75" t="s">
         <v>29</v>
@@ -7329,7 +7329,7 @@
         <v>45276.5</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F75" t="s">
         <v>39</v>
@@ -7338,73 +7338,73 @@
         <v>2</v>
       </c>
       <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>42</v>
+      </c>
+      <c r="L75">
+        <v>1.5</v>
+      </c>
+      <c r="M75">
         <v>4</v>
       </c>
-      <c r="I75">
-        <v>2</v>
-      </c>
-      <c r="J75">
-        <v>3</v>
-      </c>
-      <c r="K75" t="s">
-        <v>40</v>
-      </c>
-      <c r="L75">
-        <v>2.8</v>
-      </c>
-      <c r="M75">
-        <v>3.5</v>
-      </c>
       <c r="N75">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O75">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="P75">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q75">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="R75">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S75">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T75">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U75">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W75">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB75">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AD75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="76" spans="1:30">
@@ -7412,7 +7412,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6848552</v>
+        <v>6848600</v>
       </c>
       <c r="C76" t="s">
         <v>29</v>
@@ -7421,19 +7421,19 @@
         <v>45276.5</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -7442,44 +7442,44 @@
         <v>42</v>
       </c>
       <c r="L76">
+        <v>2.1</v>
+      </c>
+      <c r="M76">
+        <v>3.75</v>
+      </c>
+      <c r="N76">
+        <v>2.7</v>
+      </c>
+      <c r="O76">
+        <v>2.5</v>
+      </c>
+      <c r="P76">
+        <v>3.4</v>
+      </c>
+      <c r="Q76">
+        <v>2.45</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>1.975</v>
+      </c>
+      <c r="T76">
+        <v>1.825</v>
+      </c>
+      <c r="U76">
+        <v>2.25</v>
+      </c>
+      <c r="V76">
+        <v>1.925</v>
+      </c>
+      <c r="W76">
+        <v>1.875</v>
+      </c>
+      <c r="X76">
         <v>1.5</v>
       </c>
-      <c r="M76">
-        <v>4</v>
-      </c>
-      <c r="N76">
-        <v>5</v>
-      </c>
-      <c r="O76">
-        <v>1.45</v>
-      </c>
-      <c r="P76">
-        <v>3.8</v>
-      </c>
-      <c r="Q76">
-        <v>6</v>
-      </c>
-      <c r="R76">
-        <v>-1</v>
-      </c>
-      <c r="S76">
-        <v>1.775</v>
-      </c>
-      <c r="T76">
-        <v>2.025</v>
-      </c>
-      <c r="U76">
-        <v>2.75</v>
-      </c>
-      <c r="V76">
-        <v>1.85</v>
-      </c>
-      <c r="W76">
-        <v>1.95</v>
-      </c>
-      <c r="X76">
-        <v>0.45</v>
-      </c>
       <c r="Y76">
         <v>-1</v>
       </c>
@@ -7487,16 +7487,16 @@
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
       <c r="AD76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:30">
@@ -7504,7 +7504,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6848600</v>
+        <v>6848551</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
@@ -7513,79 +7513,79 @@
         <v>45276.5</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77">
+        <v>4</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77">
         <v>3</v>
       </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
       <c r="K77" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L77">
+        <v>2.8</v>
+      </c>
+      <c r="M77">
+        <v>3.5</v>
+      </c>
+      <c r="N77">
         <v>2.1</v>
       </c>
-      <c r="M77">
-        <v>3.75</v>
-      </c>
-      <c r="N77">
-        <v>2.7</v>
-      </c>
       <c r="O77">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="P77">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q77">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="R77">
         <v>0</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U77">
         <v>2.25</v>
       </c>
       <c r="V77">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W77">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X77">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="AA77">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC77">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AD77">
         <v>-1</v>
@@ -7789,10 +7789,10 @@
         <v>45283.5</v>
       </c>
       <c r="E80" t="s">
+        <v>38</v>
+      </c>
+      <c r="F80" t="s">
         <v>39</v>
-      </c>
-      <c r="F80" t="s">
-        <v>35</v>
       </c>
       <c r="G80">
         <v>4</v>
@@ -7881,10 +7881,10 @@
         <v>45283.5</v>
       </c>
       <c r="E81" t="s">
+        <v>36</v>
+      </c>
+      <c r="F81" t="s">
         <v>37</v>
-      </c>
-      <c r="F81" t="s">
-        <v>38</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7964,7 +7964,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6848557</v>
+        <v>6848558</v>
       </c>
       <c r="C82" t="s">
         <v>29</v>
@@ -7973,13 +7973,13 @@
         <v>45283.5</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7994,31 +7994,31 @@
         <v>42</v>
       </c>
       <c r="L82">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="M82">
+        <v>3.5</v>
+      </c>
+      <c r="N82">
+        <v>4.333</v>
+      </c>
+      <c r="O82">
+        <v>1.7</v>
+      </c>
+      <c r="P82">
+        <v>3.5</v>
+      </c>
+      <c r="Q82">
         <v>4.75</v>
       </c>
-      <c r="N82">
-        <v>6.5</v>
-      </c>
-      <c r="O82">
-        <v>1.333</v>
-      </c>
-      <c r="P82">
-        <v>4.75</v>
-      </c>
-      <c r="Q82">
-        <v>8</v>
-      </c>
       <c r="R82">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S82">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T82">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U82">
         <v>2.5</v>
@@ -8027,10 +8027,10 @@
         <v>1.85</v>
       </c>
       <c r="W82">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X82">
-        <v>0.333</v>
+        <v>0.7</v>
       </c>
       <c r="Y82">
         <v>-1</v>
@@ -8039,16 +8039,16 @@
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD82">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:30">
@@ -8056,7 +8056,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6848558</v>
+        <v>6848557</v>
       </c>
       <c r="C83" t="s">
         <v>29</v>
@@ -8065,13 +8065,13 @@
         <v>45283.5</v>
       </c>
       <c r="E83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -8086,31 +8086,31 @@
         <v>42</v>
       </c>
       <c r="L83">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="M83">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="N83">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="O83">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="P83">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q83">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="R83">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T83">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U83">
         <v>2.5</v>
@@ -8119,10 +8119,10 @@
         <v>1.85</v>
       </c>
       <c r="W83">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X83">
-        <v>0.7</v>
+        <v>0.333</v>
       </c>
       <c r="Y83">
         <v>-1</v>
@@ -8131,16 +8131,16 @@
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD83">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:30">
@@ -8157,7 +8157,7 @@
         <v>45290.5</v>
       </c>
       <c r="E84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
         <v>30</v>
@@ -8252,7 +8252,7 @@
         <v>31</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -8341,7 +8341,7 @@
         <v>45290.5</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F86" t="s">
         <v>33</v>
@@ -8436,7 +8436,7 @@
         <v>33</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -8525,7 +8525,7 @@
         <v>45297.5</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
         <v>34</v>
@@ -8620,7 +8620,7 @@
         <v>31</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8709,7 +8709,7 @@
         <v>45297.5</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F90" t="s">
         <v>30</v>
@@ -8801,7 +8801,7 @@
         <v>45297.5</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
         <v>32</v>
@@ -8893,10 +8893,10 @@
         <v>45300.69791666666</v>
       </c>
       <c r="E92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G92">
         <v>3</v>
@@ -8988,7 +8988,7 @@
         <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -9080,7 +9080,7 @@
         <v>32</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         <v>45304.5</v>
       </c>
       <c r="E96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F96" t="s">
         <v>31</v>
@@ -9353,10 +9353,10 @@
         <v>45304.5</v>
       </c>
       <c r="E97" t="s">
+        <v>35</v>
+      </c>
+      <c r="F97" t="s">
         <v>36</v>
-      </c>
-      <c r="F97" t="s">
-        <v>37</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -9436,7 +9436,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6848576</v>
+        <v>6848575</v>
       </c>
       <c r="C98" t="s">
         <v>29</v>
@@ -9445,82 +9445,82 @@
         <v>45311.5</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F98" t="s">
         <v>36</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L98">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="M98">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N98">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="O98">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="P98">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q98">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="R98">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S98">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T98">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U98">
         <v>2.5</v>
       </c>
       <c r="V98">
+        <v>1.975</v>
+      </c>
+      <c r="W98">
         <v>1.825</v>
       </c>
-      <c r="W98">
-        <v>1.975</v>
-      </c>
       <c r="X98">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB98">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD98">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:30">
@@ -9528,7 +9528,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6848575</v>
+        <v>6848576</v>
       </c>
       <c r="C99" t="s">
         <v>29</v>
@@ -9537,82 +9537,82 @@
         <v>45311.5</v>
       </c>
       <c r="E99" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L99">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="M99">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N99">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="O99">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="P99">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q99">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="R99">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S99">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U99">
         <v>2.5</v>
       </c>
       <c r="V99">
+        <v>1.825</v>
+      </c>
+      <c r="W99">
         <v>1.975</v>
       </c>
-      <c r="W99">
-        <v>1.825</v>
-      </c>
       <c r="X99">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y99">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC99">
+        <v>-1</v>
+      </c>
+      <c r="AD99">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AD99">
-        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:30">
@@ -9632,7 +9632,7 @@
         <v>31</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6848580</v>
+        <v>6848579</v>
       </c>
       <c r="C101" t="s">
         <v>29</v>
@@ -9724,79 +9724,79 @@
         <v>36</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101">
         <v>1</v>
       </c>
       <c r="K101" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L101">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="M101">
+        <v>3.5</v>
+      </c>
+      <c r="N101">
+        <v>2.1</v>
+      </c>
+      <c r="O101">
+        <v>3.1</v>
+      </c>
+      <c r="P101">
         <v>3.4</v>
       </c>
-      <c r="N101">
-        <v>2.875</v>
-      </c>
-      <c r="O101">
-        <v>2.25</v>
-      </c>
-      <c r="P101">
-        <v>3.1</v>
-      </c>
       <c r="Q101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R101">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S101">
         <v>2</v>
       </c>
       <c r="T101">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U101">
         <v>2.5</v>
       </c>
       <c r="V101">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W101">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB101">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD101">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:30">
@@ -9813,7 +9813,7 @@
         <v>45318.5</v>
       </c>
       <c r="E102" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F102" t="s">
         <v>32</v>
@@ -9896,7 +9896,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6848579</v>
+        <v>6848580</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
@@ -9905,82 +9905,82 @@
         <v>45318.5</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103">
         <v>1</v>
       </c>
       <c r="K103" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L103">
+        <v>2.2</v>
+      </c>
+      <c r="M103">
+        <v>3.4</v>
+      </c>
+      <c r="N103">
+        <v>2.875</v>
+      </c>
+      <c r="O103">
+        <v>2.25</v>
+      </c>
+      <c r="P103">
+        <v>3.1</v>
+      </c>
+      <c r="Q103">
         <v>3</v>
       </c>
-      <c r="M103">
-        <v>3.5</v>
-      </c>
-      <c r="N103">
-        <v>2.1</v>
-      </c>
-      <c r="O103">
-        <v>3.1</v>
-      </c>
-      <c r="P103">
-        <v>3.4</v>
-      </c>
-      <c r="Q103">
-        <v>2</v>
-      </c>
       <c r="R103">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S103">
         <v>2</v>
       </c>
       <c r="T103">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U103">
         <v>2.5</v>
       </c>
       <c r="V103">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W103">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X103">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD103">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="104" spans="1:30">
@@ -10000,7 +10000,7 @@
         <v>34</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -10092,7 +10092,7 @@
         <v>31</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G105">
         <v>2</v>
@@ -10273,7 +10273,7 @@
         <v>45325.5</v>
       </c>
       <c r="E107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F107" t="s">
         <v>34</v>
@@ -10457,10 +10457,10 @@
         <v>45325.5</v>
       </c>
       <c r="E109" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -10552,7 +10552,7 @@
         <v>33</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -10644,7 +10644,7 @@
         <v>32</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -10825,10 +10825,10 @@
         <v>45332.5</v>
       </c>
       <c r="E113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -11009,10 +11009,10 @@
         <v>45332.5</v>
       </c>
       <c r="E115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -11193,7 +11193,7 @@
         <v>45335.69791666666</v>
       </c>
       <c r="E117" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F117" t="s">
         <v>34</v>
@@ -11377,7 +11377,7 @@
         <v>45339.5</v>
       </c>
       <c r="E119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
         <v>34</v>
@@ -11561,10 +11561,10 @@
         <v>45339.5</v>
       </c>
       <c r="E121" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -11653,10 +11653,10 @@
         <v>45339.5</v>
       </c>
       <c r="E122" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G122">
         <v>3</v>
@@ -11745,10 +11745,10 @@
         <v>45342.69791666666</v>
       </c>
       <c r="E123" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11837,7 +11837,7 @@
         <v>45342.69791666666</v>
       </c>
       <c r="E124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F124" t="s">
         <v>32</v>
@@ -11929,10 +11929,10 @@
         <v>45346.45833333334</v>
       </c>
       <c r="E125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -12021,7 +12021,7 @@
         <v>45346.5</v>
       </c>
       <c r="E126" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F126" t="s">
         <v>31</v>
@@ -12208,7 +12208,7 @@
         <v>33</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -12300,7 +12300,7 @@
         <v>30</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -12389,10 +12389,10 @@
         <v>45353.5</v>
       </c>
       <c r="E130" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         <v>45353.5</v>
       </c>
       <c r="E132" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F132" t="s">
         <v>31</v>
@@ -12757,10 +12757,10 @@
         <v>45353.5</v>
       </c>
       <c r="E134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -12840,7 +12840,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7697801</v>
+        <v>7128584</v>
       </c>
       <c r="C135" t="s">
         <v>29</v>
@@ -12849,49 +12849,49 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E135" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G135">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L135">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="M135">
         <v>3.5</v>
       </c>
       <c r="N135">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O135">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P135">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q135">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="R135">
         <v>0.25</v>
       </c>
       <c r="S135">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T135">
         <v>2.025</v>
@@ -12903,22 +12903,22 @@
         <v>1.825</v>
       </c>
       <c r="W135">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y135">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
         <v>0.825</v>
@@ -12932,7 +12932,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7128584</v>
+        <v>7697801</v>
       </c>
       <c r="C136" t="s">
         <v>29</v>
@@ -12941,49 +12941,49 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E136" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G136">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K136" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L136">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="M136">
         <v>3.5</v>
       </c>
       <c r="N136">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O136">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P136">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q136">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="R136">
         <v>0.25</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T136">
         <v>2.025</v>
@@ -12995,22 +12995,22 @@
         <v>1.825</v>
       </c>
       <c r="W136">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="X136">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
         <v>0.825</v>
@@ -13125,10 +13125,10 @@
         <v>45360.5</v>
       </c>
       <c r="E138" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -13220,7 +13220,7 @@
         <v>30</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G139">
         <v>3</v>
@@ -13309,10 +13309,10 @@
         <v>45360.5</v>
       </c>
       <c r="E140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -13496,7 +13496,7 @@
         <v>32</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -13576,7 +13576,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6958741</v>
+        <v>6973852</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
@@ -13585,10 +13585,10 @@
         <v>45367.5</v>
       </c>
       <c r="E143" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -13597,70 +13597,70 @@
         <v>1</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K143" t="s">
         <v>41</v>
       </c>
       <c r="L143">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="M143">
+        <v>3.25</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143">
+        <v>2.3</v>
+      </c>
+      <c r="P143">
         <v>3.1</v>
       </c>
-      <c r="N143">
-        <v>2.1</v>
-      </c>
-      <c r="O143">
-        <v>3.2</v>
-      </c>
-      <c r="P143">
-        <v>2.875</v>
-      </c>
       <c r="Q143">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="R143">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S143">
+        <v>2.025</v>
+      </c>
+      <c r="T143">
         <v>1.775</v>
-      </c>
-      <c r="T143">
-        <v>2.025</v>
       </c>
       <c r="U143">
         <v>2.25</v>
       </c>
       <c r="V143">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W143">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
+        <v>-0.5</v>
+      </c>
+      <c r="AB143">
         <v>0.3875</v>
-      </c>
-      <c r="AB143">
-        <v>-0.5</v>
       </c>
       <c r="AC143">
         <v>-0.5</v>
       </c>
       <c r="AD143">
-        <v>0.425</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="144" spans="1:30">
@@ -13668,7 +13668,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6958742</v>
+        <v>6958741</v>
       </c>
       <c r="C144" t="s">
         <v>29</v>
@@ -13677,82 +13677,82 @@
         <v>45367.5</v>
       </c>
       <c r="E144" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H144">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K144" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L144">
+        <v>3.4</v>
+      </c>
+      <c r="M144">
+        <v>3.1</v>
+      </c>
+      <c r="N144">
         <v>2.1</v>
       </c>
-      <c r="M144">
-        <v>3.4</v>
-      </c>
-      <c r="N144">
-        <v>3.1</v>
-      </c>
       <c r="O144">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="P144">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="Q144">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="R144">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S144">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T144">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U144">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V144">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W144">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z144">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB144">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC144">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD144">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="145" spans="1:30">
@@ -13760,7 +13760,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6973852</v>
+        <v>6958742</v>
       </c>
       <c r="C145" t="s">
         <v>29</v>
@@ -13769,82 +13769,82 @@
         <v>45367.5</v>
       </c>
       <c r="E145" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K145" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L145">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M145">
+        <v>3.4</v>
+      </c>
+      <c r="N145">
+        <v>3.1</v>
+      </c>
+      <c r="O145">
+        <v>2.1</v>
+      </c>
+      <c r="P145">
+        <v>3.3</v>
+      </c>
+      <c r="Q145">
         <v>3.25</v>
-      </c>
-      <c r="N145">
-        <v>3</v>
-      </c>
-      <c r="O145">
-        <v>2.3</v>
-      </c>
-      <c r="P145">
-        <v>3.1</v>
-      </c>
-      <c r="Q145">
-        <v>3</v>
       </c>
       <c r="R145">
         <v>-0.25</v>
       </c>
       <c r="S145">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T145">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="U145">
+        <v>2.5</v>
+      </c>
+      <c r="V145">
+        <v>2</v>
+      </c>
+      <c r="W145">
+        <v>1.8</v>
+      </c>
+      <c r="X145">
+        <v>-1</v>
+      </c>
+      <c r="Y145">
+        <v>-1</v>
+      </c>
+      <c r="Z145">
         <v>2.25</v>
       </c>
-      <c r="V145">
-        <v>1.875</v>
-      </c>
-      <c r="W145">
-        <v>1.925</v>
-      </c>
-      <c r="X145">
-        <v>-1</v>
-      </c>
-      <c r="Y145">
-        <v>2.1</v>
-      </c>
-      <c r="Z145">
-        <v>-1</v>
-      </c>
       <c r="AA145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
       <c r="AC145">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AD145">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:30">
@@ -13861,7 +13861,7 @@
         <v>45367.5</v>
       </c>
       <c r="E146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F146" t="s">
         <v>31</v>
@@ -13956,7 +13956,7 @@
         <v>31</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -14048,7 +14048,7 @@
         <v>33</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -14137,7 +14137,7 @@
         <v>45374.5</v>
       </c>
       <c r="E149" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F149" t="s">
         <v>32</v>
@@ -14220,7 +14220,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6994264</v>
+        <v>6994265</v>
       </c>
       <c r="C150" t="s">
         <v>29</v>
@@ -14229,82 +14229,82 @@
         <v>45374.5</v>
       </c>
       <c r="E150" t="s">
+        <v>30</v>
+      </c>
+      <c r="F150" t="s">
         <v>35</v>
       </c>
-      <c r="F150" t="s">
-        <v>34</v>
-      </c>
       <c r="G150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150">
         <v>0</v>
       </c>
       <c r="J150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L150">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="M150">
         <v>3.4</v>
       </c>
       <c r="N150">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="O150">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="P150">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q150">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="R150">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S150">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T150">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U150">
         <v>2.5</v>
       </c>
       <c r="V150">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W150">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y150">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
         <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB150">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD150">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:30">
@@ -14312,7 +14312,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6994265</v>
+        <v>6994264</v>
       </c>
       <c r="C151" t="s">
         <v>29</v>
@@ -14321,82 +14321,82 @@
         <v>45374.5</v>
       </c>
       <c r="E151" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G151">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
         <v>0</v>
       </c>
       <c r="J151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L151">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="M151">
         <v>3.4</v>
       </c>
       <c r="N151">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="O151">
+        <v>2.25</v>
+      </c>
+      <c r="P151">
+        <v>3.3</v>
+      </c>
+      <c r="Q151">
+        <v>2.875</v>
+      </c>
+      <c r="R151">
+        <v>-0.25</v>
+      </c>
+      <c r="S151">
+        <v>1.95</v>
+      </c>
+      <c r="T151">
         <v>1.85</v>
-      </c>
-      <c r="P151">
-        <v>3.1</v>
-      </c>
-      <c r="Q151">
-        <v>4.2</v>
-      </c>
-      <c r="R151">
-        <v>-0.5</v>
-      </c>
-      <c r="S151">
-        <v>1.875</v>
-      </c>
-      <c r="T151">
-        <v>1.925</v>
       </c>
       <c r="U151">
         <v>2.5</v>
       </c>
       <c r="V151">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W151">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X151">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z151">
         <v>-1</v>
       </c>
       <c r="AA151">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC151">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD151">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="152" spans="1:30">
@@ -14413,7 +14413,7 @@
         <v>45381.5</v>
       </c>
       <c r="E152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F152" t="s">
         <v>32</v>
@@ -14508,7 +14508,7 @@
         <v>34</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -14597,7 +14597,7 @@
         <v>45381.5</v>
       </c>
       <c r="E154" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F154" t="s">
         <v>33</v>
@@ -14689,10 +14689,10 @@
         <v>45381.5</v>
       </c>
       <c r="E155" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G155">
         <v>4</v>
@@ -15060,7 +15060,7 @@
         <v>32</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -15149,10 +15149,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E160" t="s">
+        <v>39</v>
+      </c>
+      <c r="F160" t="s">
         <v>35</v>
-      </c>
-      <c r="F160" t="s">
-        <v>36</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -15241,10 +15241,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E161" t="s">
+        <v>37</v>
+      </c>
+      <c r="F161" t="s">
         <v>38</v>
-      </c>
-      <c r="F161" t="s">
-        <v>39</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -15425,10 +15425,10 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E163" t="s">
+        <v>36</v>
+      </c>
+      <c r="F163" t="s">
         <v>37</v>
-      </c>
-      <c r="F163" t="s">
-        <v>38</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -15517,10 +15517,10 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E164" t="s">
+        <v>38</v>
+      </c>
+      <c r="F164" t="s">
         <v>39</v>
-      </c>
-      <c r="F164" t="s">
-        <v>35</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -15612,7 +15612,7 @@
         <v>34</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -15793,10 +15793,10 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -15885,7 +15885,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E168" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F168" t="s">
         <v>33</v>
@@ -15977,7 +15977,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E169" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F169" t="s">
         <v>30</v>
@@ -16072,7 +16072,7 @@
         <v>31</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -16244,7 +16244,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7190450</v>
+        <v>7157737</v>
       </c>
       <c r="C172" t="s">
         <v>29</v>
@@ -16253,10 +16253,10 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E172" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F172" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -16268,64 +16268,64 @@
         <v>1</v>
       </c>
       <c r="J172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K172" t="s">
         <v>41</v>
       </c>
       <c r="L172">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="M172">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N172">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="O172">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="P172">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q172">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="R172">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S172">
+        <v>1.95</v>
+      </c>
+      <c r="T172">
+        <v>1.85</v>
+      </c>
+      <c r="U172">
+        <v>2.25</v>
+      </c>
+      <c r="V172">
         <v>2.025</v>
       </c>
-      <c r="T172">
+      <c r="W172">
         <v>1.775</v>
       </c>
-      <c r="U172">
-        <v>2.75</v>
-      </c>
-      <c r="V172">
-        <v>1.975</v>
-      </c>
-      <c r="W172">
-        <v>1.825</v>
-      </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>3.333</v>
+        <v>2.1</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB172">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AC172">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AD172">
         <v>-1</v>
@@ -16336,7 +16336,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7157737</v>
+        <v>7190450</v>
       </c>
       <c r="C173" t="s">
         <v>29</v>
@@ -16345,10 +16345,10 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E173" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F173" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -16360,64 +16360,64 @@
         <v>1</v>
       </c>
       <c r="J173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K173" t="s">
         <v>41</v>
       </c>
       <c r="L173">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="M173">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N173">
+        <v>4.75</v>
+      </c>
+      <c r="O173">
+        <v>1.444</v>
+      </c>
+      <c r="P173">
+        <v>4.333</v>
+      </c>
+      <c r="Q173">
+        <v>5.75</v>
+      </c>
+      <c r="R173">
+        <v>-1.25</v>
+      </c>
+      <c r="S173">
+        <v>2.025</v>
+      </c>
+      <c r="T173">
+        <v>1.775</v>
+      </c>
+      <c r="U173">
         <v>2.75</v>
       </c>
-      <c r="O173">
-        <v>2.25</v>
-      </c>
-      <c r="P173">
-        <v>3.1</v>
-      </c>
-      <c r="Q173">
-        <v>3.1</v>
-      </c>
-      <c r="R173">
-        <v>-0.25</v>
-      </c>
-      <c r="S173">
-        <v>1.95</v>
-      </c>
-      <c r="T173">
-        <v>1.85</v>
-      </c>
-      <c r="U173">
-        <v>2.25</v>
-      </c>
       <c r="V173">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W173">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>2.1</v>
+        <v>3.333</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.425</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC173">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD173">
         <v>-1</v>
@@ -16529,10 +16529,10 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E175" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -16621,7 +16621,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F176" t="s">
         <v>30</v>
@@ -16716,7 +16716,7 @@
         <v>31</v>
       </c>
       <c r="F177" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -16805,7 +16805,7 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F178" t="s">
         <v>33</v>
@@ -16900,7 +16900,7 @@
         <v>32</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G179">
         <v>4</v>
@@ -17081,10 +17081,10 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E181" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F181" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G181">
         <v>2</v>

--- a/Scotland League Two/Scotland League Two.xlsx
+++ b/Scotland League Two/Scotland League Two.xlsx
@@ -4284,7 +4284,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6848520</v>
+        <v>6848519</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
@@ -4293,19 +4293,19 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
         <v>3</v>
       </c>
-      <c r="H42">
-        <v>4</v>
-      </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>2</v>
@@ -4314,22 +4314,22 @@
         <v>40</v>
       </c>
       <c r="L42">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="M42">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N42">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O42">
+        <v>2.7</v>
+      </c>
+      <c r="P42">
+        <v>3.25</v>
+      </c>
+      <c r="Q42">
         <v>2.5</v>
-      </c>
-      <c r="P42">
-        <v>3.5</v>
-      </c>
-      <c r="Q42">
-        <v>2.4</v>
       </c>
       <c r="R42">
         <v>0</v>
@@ -4344,10 +4344,10 @@
         <v>2.5</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W42">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4356,7 +4356,7 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AA42">
         <v>-1</v>
@@ -4365,7 +4365,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AC42">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AD42">
         <v>-1</v>
@@ -4468,7 +4468,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6848519</v>
+        <v>6848520</v>
       </c>
       <c r="C44" t="s">
         <v>29</v>
@@ -4477,19 +4477,19 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
         <v>2</v>
@@ -4498,22 +4498,22 @@
         <v>40</v>
       </c>
       <c r="L44">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="M44">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N44">
+        <v>2.8</v>
+      </c>
+      <c r="O44">
         <v>2.5</v>
       </c>
-      <c r="O44">
-        <v>2.7</v>
-      </c>
       <c r="P44">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q44">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R44">
         <v>0</v>
@@ -4528,10 +4528,10 @@
         <v>2.5</v>
       </c>
       <c r="V44">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4540,7 +4540,7 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AA44">
         <v>-1</v>
@@ -4549,7 +4549,7 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AC44">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AD44">
         <v>-1</v>
@@ -7320,7 +7320,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6848552</v>
+        <v>6848551</v>
       </c>
       <c r="C75" t="s">
         <v>29</v>
@@ -7329,82 +7329,82 @@
         <v>45276.5</v>
       </c>
       <c r="E75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G75">
         <v>2</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I75">
         <v>2</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K75" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L75">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="M75">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N75">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="O75">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="P75">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q75">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="R75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S75">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T75">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U75">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V75">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X75">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="AA75">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC75">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AD75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:30">
@@ -7412,7 +7412,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6848600</v>
+        <v>6848552</v>
       </c>
       <c r="C76" t="s">
         <v>29</v>
@@ -7421,19 +7421,19 @@
         <v>45276.5</v>
       </c>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -7442,43 +7442,43 @@
         <v>42</v>
       </c>
       <c r="L76">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="M76">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N76">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="O76">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="P76">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q76">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="R76">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T76">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U76">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X76">
-        <v>1.5</v>
+        <v>0.45</v>
       </c>
       <c r="Y76">
         <v>-1</v>
@@ -7487,16 +7487,16 @@
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC76">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
       <c r="AD76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="77" spans="1:30">
@@ -7504,7 +7504,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6848551</v>
+        <v>6848600</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
@@ -7513,79 +7513,79 @@
         <v>45276.5</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L77">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="M77">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N77">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O77">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="P77">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q77">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="R77">
         <v>0</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U77">
         <v>2.25</v>
       </c>
       <c r="V77">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W77">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB77">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AD77">
         <v>-1</v>
@@ -7964,7 +7964,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6848558</v>
+        <v>6848557</v>
       </c>
       <c r="C82" t="s">
         <v>29</v>
@@ -7973,13 +7973,13 @@
         <v>45283.5</v>
       </c>
       <c r="E82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7994,31 +7994,31 @@
         <v>42</v>
       </c>
       <c r="L82">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="M82">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="N82">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="O82">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="P82">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q82">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="R82">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="S82">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T82">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U82">
         <v>2.5</v>
@@ -8027,10 +8027,10 @@
         <v>1.85</v>
       </c>
       <c r="W82">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X82">
-        <v>0.7</v>
+        <v>0.333</v>
       </c>
       <c r="Y82">
         <v>-1</v>
@@ -8039,16 +8039,16 @@
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD82">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:30">
@@ -8056,7 +8056,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6848557</v>
+        <v>6848558</v>
       </c>
       <c r="C83" t="s">
         <v>29</v>
@@ -8065,13 +8065,13 @@
         <v>45283.5</v>
       </c>
       <c r="E83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -8086,31 +8086,31 @@
         <v>42</v>
       </c>
       <c r="L83">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="M83">
+        <v>3.5</v>
+      </c>
+      <c r="N83">
+        <v>4.333</v>
+      </c>
+      <c r="O83">
+        <v>1.7</v>
+      </c>
+      <c r="P83">
+        <v>3.5</v>
+      </c>
+      <c r="Q83">
         <v>4.75</v>
       </c>
-      <c r="N83">
-        <v>6.5</v>
-      </c>
-      <c r="O83">
-        <v>1.333</v>
-      </c>
-      <c r="P83">
-        <v>4.75</v>
-      </c>
-      <c r="Q83">
-        <v>8</v>
-      </c>
       <c r="R83">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S83">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T83">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U83">
         <v>2.5</v>
@@ -8119,10 +8119,10 @@
         <v>1.85</v>
       </c>
       <c r="W83">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X83">
-        <v>0.333</v>
+        <v>0.7</v>
       </c>
       <c r="Y83">
         <v>-1</v>
@@ -8131,16 +8131,16 @@
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD83">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:30">
@@ -9436,7 +9436,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6848575</v>
+        <v>6848576</v>
       </c>
       <c r="C98" t="s">
         <v>29</v>
@@ -9445,82 +9445,82 @@
         <v>45311.5</v>
       </c>
       <c r="E98" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L98">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="M98">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N98">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="O98">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="P98">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q98">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="R98">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S98">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T98">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U98">
         <v>2.5</v>
       </c>
       <c r="V98">
+        <v>1.825</v>
+      </c>
+      <c r="W98">
         <v>1.975</v>
       </c>
-      <c r="W98">
-        <v>1.825</v>
-      </c>
       <c r="X98">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y98">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC98">
+        <v>-1</v>
+      </c>
+      <c r="AD98">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AD98">
-        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:30">
@@ -9528,7 +9528,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6848576</v>
+        <v>6848575</v>
       </c>
       <c r="C99" t="s">
         <v>29</v>
@@ -9537,82 +9537,82 @@
         <v>45311.5</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L99">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="M99">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N99">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="O99">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="P99">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q99">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="R99">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T99">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U99">
         <v>2.5</v>
       </c>
       <c r="V99">
+        <v>1.975</v>
+      </c>
+      <c r="W99">
         <v>1.825</v>
       </c>
-      <c r="W99">
-        <v>1.975</v>
-      </c>
       <c r="X99">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB99">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD99">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:30">
@@ -9712,7 +9712,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6848579</v>
+        <v>6848580</v>
       </c>
       <c r="C101" t="s">
         <v>29</v>
@@ -9721,82 +9721,82 @@
         <v>45318.5</v>
       </c>
       <c r="E101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101">
         <v>1</v>
       </c>
       <c r="K101" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L101">
+        <v>2.2</v>
+      </c>
+      <c r="M101">
+        <v>3.4</v>
+      </c>
+      <c r="N101">
+        <v>2.875</v>
+      </c>
+      <c r="O101">
+        <v>2.25</v>
+      </c>
+      <c r="P101">
+        <v>3.1</v>
+      </c>
+      <c r="Q101">
         <v>3</v>
       </c>
-      <c r="M101">
-        <v>3.5</v>
-      </c>
-      <c r="N101">
-        <v>2.1</v>
-      </c>
-      <c r="O101">
-        <v>3.1</v>
-      </c>
-      <c r="P101">
-        <v>3.4</v>
-      </c>
-      <c r="Q101">
-        <v>2</v>
-      </c>
       <c r="R101">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S101">
         <v>2</v>
       </c>
       <c r="T101">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U101">
         <v>2.5</v>
       </c>
       <c r="V101">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W101">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X101">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC101">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD101">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="102" spans="1:30">
@@ -9896,7 +9896,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6848580</v>
+        <v>6848579</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
@@ -9905,82 +9905,82 @@
         <v>45318.5</v>
       </c>
       <c r="E103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103">
         <v>1</v>
       </c>
       <c r="K103" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L103">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="M103">
+        <v>3.5</v>
+      </c>
+      <c r="N103">
+        <v>2.1</v>
+      </c>
+      <c r="O103">
+        <v>3.1</v>
+      </c>
+      <c r="P103">
         <v>3.4</v>
       </c>
-      <c r="N103">
-        <v>2.875</v>
-      </c>
-      <c r="O103">
-        <v>2.25</v>
-      </c>
-      <c r="P103">
-        <v>3.1</v>
-      </c>
       <c r="Q103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R103">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S103">
         <v>2</v>
       </c>
       <c r="T103">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U103">
         <v>2.5</v>
       </c>
       <c r="V103">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W103">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB103">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD103">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:30">
@@ -10080,7 +10080,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7572918</v>
+        <v>7615754</v>
       </c>
       <c r="C105" t="s">
         <v>29</v>
@@ -10089,79 +10089,79 @@
         <v>45321.69791666666</v>
       </c>
       <c r="E105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L105">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="M105">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N105">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="O105">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="P105">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q105">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R105">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S105">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T105">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U105">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W105">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="X105">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="AA105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC105">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AD105">
         <v>-1</v>
@@ -10172,7 +10172,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7615754</v>
+        <v>7572918</v>
       </c>
       <c r="C106" t="s">
         <v>29</v>
@@ -10181,79 +10181,79 @@
         <v>45321.69791666666</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106" t="s">
+        <v>42</v>
+      </c>
+      <c r="L106">
+        <v>1.727</v>
+      </c>
+      <c r="M106">
+        <v>3.75</v>
+      </c>
+      <c r="N106">
+        <v>3.75</v>
+      </c>
+      <c r="O106">
         <v>3</v>
       </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106">
-        <v>0</v>
-      </c>
-      <c r="K106" t="s">
-        <v>40</v>
-      </c>
-      <c r="L106">
-        <v>2.4</v>
-      </c>
-      <c r="M106">
-        <v>3.6</v>
-      </c>
-      <c r="N106">
-        <v>2.4</v>
-      </c>
-      <c r="O106">
-        <v>2.6</v>
-      </c>
       <c r="P106">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q106">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="R106">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S106">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T106">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U106">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V106">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB106">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD106">
         <v>-1</v>
@@ -12012,7 +12012,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6852275</v>
+        <v>6886698</v>
       </c>
       <c r="C126" t="s">
         <v>29</v>
@@ -12021,10 +12021,10 @@
         <v>45346.5</v>
       </c>
       <c r="E126" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -12033,7 +12033,7 @@
         <v>1</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126">
         <v>1</v>
@@ -12042,61 +12042,61 @@
         <v>41</v>
       </c>
       <c r="L126">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="M126">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N126">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="O126">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="P126">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q126">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R126">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S126">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T126">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U126">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V126">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W126">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB126">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD126">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="127" spans="1:30">
@@ -12104,7 +12104,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6848595</v>
+        <v>6852275</v>
       </c>
       <c r="C127" t="s">
         <v>29</v>
@@ -12113,82 +12113,82 @@
         <v>45346.5</v>
       </c>
       <c r="E127" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H127">
         <v>1</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L127">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="M127">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N127">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="O127">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="P127">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q127">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="R127">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S127">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T127">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U127">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V127">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W127">
         <v>1.9</v>
       </c>
       <c r="X127">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC127">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD127">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="128" spans="1:30">
@@ -12196,7 +12196,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6848594</v>
+        <v>6848595</v>
       </c>
       <c r="C128" t="s">
         <v>29</v>
@@ -12205,79 +12205,79 @@
         <v>45346.5</v>
       </c>
       <c r="E128" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H128">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K128" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L128">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="M128">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="N128">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="O128">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="P128">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q128">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="R128">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S128">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T128">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="U128">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V128">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB128">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AD128">
         <v>-1</v>
@@ -12288,7 +12288,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6886698</v>
+        <v>6848594</v>
       </c>
       <c r="C129" t="s">
         <v>29</v>
@@ -12297,82 +12297,82 @@
         <v>45346.5</v>
       </c>
       <c r="E129" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G129">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K129" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L129">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="M129">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N129">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="O129">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="P129">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q129">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="R129">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S129">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T129">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U129">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V129">
+        <v>1.925</v>
+      </c>
+      <c r="W129">
         <v>1.875</v>
       </c>
-      <c r="W129">
-        <v>1.975</v>
-      </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="AA129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC129">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AD129">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:30">
@@ -14220,7 +14220,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6994265</v>
+        <v>6994264</v>
       </c>
       <c r="C150" t="s">
         <v>29</v>
@@ -14229,82 +14229,82 @@
         <v>45374.5</v>
       </c>
       <c r="E150" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150">
         <v>0</v>
       </c>
       <c r="J150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K150" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L150">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="M150">
         <v>3.4</v>
       </c>
       <c r="N150">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="O150">
+        <v>2.25</v>
+      </c>
+      <c r="P150">
+        <v>3.3</v>
+      </c>
+      <c r="Q150">
+        <v>2.875</v>
+      </c>
+      <c r="R150">
+        <v>-0.25</v>
+      </c>
+      <c r="S150">
+        <v>1.95</v>
+      </c>
+      <c r="T150">
         <v>1.85</v>
-      </c>
-      <c r="P150">
-        <v>3.1</v>
-      </c>
-      <c r="Q150">
-        <v>4.2</v>
-      </c>
-      <c r="R150">
-        <v>-0.5</v>
-      </c>
-      <c r="S150">
-        <v>1.875</v>
-      </c>
-      <c r="T150">
-        <v>1.925</v>
       </c>
       <c r="U150">
         <v>2.5</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W150">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X150">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z150">
         <v>-1</v>
       </c>
       <c r="AA150">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC150">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD150">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="151" spans="1:30">
@@ -14312,7 +14312,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6994264</v>
+        <v>6994265</v>
       </c>
       <c r="C151" t="s">
         <v>29</v>
@@ -14321,82 +14321,82 @@
         <v>45374.5</v>
       </c>
       <c r="E151" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
         <v>0</v>
       </c>
       <c r="J151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L151">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="M151">
         <v>3.4</v>
       </c>
       <c r="N151">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="O151">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="P151">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q151">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="R151">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S151">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T151">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U151">
         <v>2.5</v>
       </c>
       <c r="V151">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W151">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y151">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
         <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB151">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD151">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:30">

--- a/Scotland League Two/Scotland League Two.xlsx
+++ b/Scotland League Two/Scotland League Two.xlsx
@@ -121,6 +121,12 @@
     <t>Spartans</t>
   </si>
   <si>
+    <t>Clyde</t>
+  </si>
+  <si>
+    <t>Dumbarton</t>
+  </si>
+  <si>
     <t>Stranraer</t>
   </si>
   <si>
@@ -128,12 +134,6 @@
   </si>
   <si>
     <t>Forfar</t>
-  </si>
-  <si>
-    <t>Dumbarton</t>
-  </si>
-  <si>
-    <t>Clyde</t>
   </si>
   <si>
     <t>A</t>
@@ -616,7 +616,7 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -892,7 +892,7 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>34</v>
     